--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -3923,7 +3923,7 @@
     <t>(ยืนยัน)สั่งปิดสำนักงาน เหตุภรรยาป่าไม้ ติดเชื้อโควิด รายที่ 3 ของจังหวัด</t>
   </si>
   <si>
-    <t>(ผู้ป่วยรายที่2) พบผู้ป่วยโควิด-19 อาชีพพริตตี้ เดินทางกลับจากภูเก็ตโดยรถส่วนตัว</t>
+    <t>(รายที่2ของจังหวัด) พบผู้ป่วยโควิด-19 อาชีพพริตตี้ เดินทางกลับจากภูเก็ตโดยรถส่วนตัว</t>
   </si>
   <si>
     <t>https://www.bbc.com/thai/thailand-51701394</t>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -3641,7 +3641,7 @@
     <t>(ยืนยัน) นิติบุคลรับแจ้งว่ามีสมาชิกในหมู่บ้านติดเชื้อ และเข้ารับการรักษาที่ รพ. แล้ว ครอบครัวผู้ติดเชื้อเป็นผู้แจ้งได้ทำการกักตัวในที่พักอาศัย 14 วัน</t>
   </si>
   <si>
-    <t>(ยืนยัน) ทางโครงการได้ทราบส่ามีผู้ติดเชื้อ  จึงให้พนักงานที่เกี่ยวข้องทำงานเฝ้าระวังและกักตัว 14 วัน และทำความสะอาด ฆ่าเชื้อสถานที่</t>
+    <t>(ยืนยัน) ทางโครงการได้ทราบว่ามีผู้ติดเชื้อ  จึงให้พนักงานที่เกี่ยวข้องทำงานเฝ้าระวังและกักตัว 14 วัน และทำความสะอาด ฆ่าเชื้อสถานที่</t>
   </si>
   <si>
     <t>(ยืนยัน) สถานการณ์ยอดผู้ป่วยติดเชื้อโควิด-19 วันที่ 30 มีนาคม 2563 สะสมทั้งหมด 7 ราย</t>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -3857,7 +3857,7 @@
     <t>(ยืนยัน) คณะสัตว์แพทยศาสตร์จุฬา พบว่ามีนิสิต ติดโควิด-19 จากการไปทำงานพิเศษ ได้ตรวจพบเมื่อวันที่ 4 เมษายน 2563</t>
   </si>
   <si>
-    <t xml:space="preserve">(ยืนยัน) ผู้ป่วยที่จังหวัดพะงันรักษาหาย และกลับบ้านแล้ว </t>
+    <t xml:space="preserve">(ยืนยัน) ผู้ป่วยที่เกาะพะงันรักษาหาย และกลับบ้านแล้ว </t>
   </si>
   <si>
     <t>(ยืนยัน) คณะรัฐศาสตร์ มหาวิทยาลัยรามคำแหง เมื่อวันที่ 4 เมษายน 2563 มีพนักงานทำความสะอาดป่วยติดเชื้อไวรัสโควิด-19</t>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -3959,7 +3959,7 @@
     <t>(1 ราย) ทางจังหวัดได้ส่ง(ดาวะห์)อินโดนีเซีย รอบแรกกลับบ้านแล้ว ยังไม่ได้เป็นโรค แต่ต้องกักตัวต่อ 14 วัน</t>
   </si>
   <si>
-    <t>พบผู้ติดเชื้ออายุน้อยที่สุด เป็นทารก วัย 1 เดือน ใน จ.ระยอง ติดเชื้อมาจากพ่อแม่ที่ให้เพื่อนๆ เข้ามาสังสรรค์ภายในบ้าน ล่าสุดส่งตัวไปที่ รพ.บำราศนราดูร</t>
+    <t>พบผู้ติดเชื้ออายุน้อยที่สุด เป็นทารก วัย 1 เดือน ใน จ.ระยอง ติดเชื้อมาจากพ่อแม่ที่ให้เพื่อนๆ เข้ามาสังสรรค์ภายในบ้าน ล่าสุดส่งตัวไปที่ รพ.บำราศนราดูร (อัพเดท: ผลตรวจปัจจุบันไม่พบเชื้อแล้ว)</t>
   </si>
   <si>
     <t>(ยืนยัน)สั่งปิดสำนักงาน เหตุภรรยาป่าไม้ ติดเชื้อโควิด รายที่ 3 ของจังหวัด</t>
@@ -5087,7 +5087,7 @@
     <t>https://dailynews.co.th/regional/768342</t>
   </si>
   <si>
-    <t>https://www.thairath.co.th/news/local/bangkok/1817293</t>
+    <t>https://www.facebook.com/1683658098593742/posts/2416959875263557/?d=n</t>
   </si>
   <si>
     <t>https://www.matichon.co.th/region/news_2135292</t>
@@ -27575,7 +27575,7 @@
         <v>0</v>
       </c>
       <c r="J539" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="K539" t="s">
         <v>1313</v>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -4028,7 +4028,7 @@
     <t>(ยืนยัน) แรงงานต่างด้าวจากตม. สะเดา ซึ่งติดเชื้อโควิด-19 เข้ารักษาตัวที่นี่ มีการคุมเข้มทุกขั้นตอน</t>
   </si>
   <si>
-    <t>(ชี้แจง) มีเจ้าหน้าที่กกต.จำนวน 2 รายติดเชื้อโควิด 19</t>
+    <t>(ชี้แจง) มีเจ้าหน้าที่กกต.จำนวน 3 รายติดเชื้อโควิด 19</t>
   </si>
   <si>
     <t>https://www.bbc.com/thai/thailand-51701394</t>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -28379,7 +28379,7 @@
     </row>
     <row r="557" spans="1:13">
       <c r="A557" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B557" t="s">
         <v>324</v>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -8387,7 +8387,7 @@
         <v>822</v>
       </c>
       <c r="J65" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K65" t="s">
         <v>899</v>
@@ -9207,7 +9207,7 @@
         <v>822</v>
       </c>
       <c r="J85" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K85" t="s">
         <v>918</v>
@@ -9248,7 +9248,7 @@
         <v>822</v>
       </c>
       <c r="J86" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K86" t="s">
         <v>918</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="K107" t="s">
         <v>938</v>
@@ -10642,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="K120" t="s">
         <v>950</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="K121" t="s">
         <v>951</v>
@@ -10724,7 +10724,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="K122" t="s">
         <v>951</v>
@@ -10765,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="K123" t="s">
         <v>951</v>
@@ -10806,7 +10806,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="K124" t="s">
         <v>952</v>
@@ -11134,7 +11134,7 @@
         <v>822</v>
       </c>
       <c r="J132" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K132" t="s">
         <v>960</v>
@@ -11298,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K136" t="s">
         <v>964</v>
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K137" t="s">
         <v>965</v>
@@ -11872,7 +11872,7 @@
         <v>822</v>
       </c>
       <c r="J150" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="K150" t="s">
         <v>978</v>
@@ -12774,7 +12774,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K172" t="s">
         <v>996</v>
@@ -13717,7 +13717,7 @@
         <v>822</v>
       </c>
       <c r="J195" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K195" t="s">
         <v>1018</v>
@@ -13963,7 +13963,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K201" t="s">
         <v>1024</v>
@@ -14004,7 +14004,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K202" t="s">
         <v>1025</v>
@@ -14127,7 +14127,7 @@
         <v>822</v>
       </c>
       <c r="J205" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K205" t="s">
         <v>1028</v>
@@ -14537,7 +14537,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K215" t="s">
         <v>1037</v>
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="K219" t="s">
         <v>1041</v>
@@ -14742,7 +14742,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K220" t="s">
         <v>1042</v>
@@ -14865,7 +14865,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K223" t="s">
         <v>1045</v>
@@ -14906,7 +14906,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K224" t="s">
         <v>1046</v>
@@ -14947,7 +14947,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K225" t="s">
         <v>1047</v>
@@ -14988,7 +14988,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K226" t="s">
         <v>1048</v>
@@ -15029,7 +15029,7 @@
         <v>822</v>
       </c>
       <c r="J227" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K227" t="s">
         <v>1049</v>
@@ -15070,7 +15070,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K228" t="s">
         <v>1050</v>
@@ -15111,7 +15111,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K229" t="s">
         <v>1051</v>
@@ -15152,7 +15152,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K230" t="s">
         <v>1052</v>
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K231" t="s">
         <v>1053</v>
@@ -15234,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K232" t="s">
         <v>1054</v>
@@ -15316,7 +15316,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K234" t="s">
         <v>1056</v>
@@ -15357,7 +15357,7 @@
         <v>830</v>
       </c>
       <c r="J235" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K235" t="s">
         <v>1057</v>
@@ -15685,7 +15685,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K243" t="s">
         <v>1063</v>
@@ -15808,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K246" t="s">
         <v>1066</v>
@@ -15849,7 +15849,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K247" t="s">
         <v>1067</v>
@@ -15931,7 +15931,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K249" t="s">
         <v>1069</v>
@@ -15972,7 +15972,7 @@
         <v>822</v>
       </c>
       <c r="J250" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K250" t="s">
         <v>1070</v>
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K251" t="s">
         <v>1071</v>
@@ -16054,7 +16054,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K252" t="s">
         <v>1072</v>
@@ -16095,7 +16095,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K253" t="s">
         <v>1073</v>
@@ -16136,7 +16136,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K254" t="s">
         <v>1074</v>
@@ -16218,7 +16218,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K256" t="s">
         <v>1076</v>
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K258" t="s">
         <v>1078</v>
@@ -16341,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K259" t="s">
         <v>1079</v>
@@ -16546,7 +16546,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K264" t="s">
         <v>1084</v>
@@ -16587,7 +16587,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K265" t="s">
         <v>1085</v>
@@ -16669,7 +16669,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K267" t="s">
         <v>1087</v>
@@ -16874,7 +16874,7 @@
         <v>822</v>
       </c>
       <c r="J272" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K272" t="s">
         <v>1091</v>
@@ -16915,7 +16915,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K273" t="s">
         <v>1092</v>
@@ -16956,7 +16956,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K274" t="s">
         <v>1093</v>
@@ -16997,7 +16997,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="K275" t="s">
         <v>1094</v>
@@ -17038,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K276" t="s">
         <v>1095</v>
@@ -17284,7 +17284,7 @@
         <v>822</v>
       </c>
       <c r="J282" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K282" t="s">
         <v>1099</v>
@@ -17325,7 +17325,7 @@
         <v>822</v>
       </c>
       <c r="J283" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K283" t="s">
         <v>1100</v>
@@ -17366,7 +17366,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K284" t="s">
         <v>1101</v>
@@ -17489,7 +17489,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K287" t="s">
         <v>1104</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K288" t="s">
         <v>1105</v>
@@ -17612,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K290" t="s">
         <v>1107</v>
@@ -17735,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K293" t="s">
         <v>1110</v>
@@ -17817,7 +17817,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K295" t="s">
         <v>1112</v>
@@ -17981,7 +17981,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K299" t="s">
         <v>1116</v>
@@ -18063,7 +18063,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
       <c r="K301" t="s">
         <v>1118</v>
@@ -18145,7 +18145,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K303" t="s">
         <v>1120</v>
@@ -18391,7 +18391,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K309" t="s">
         <v>1126</v>
@@ -18473,7 +18473,7 @@
         <v>822</v>
       </c>
       <c r="J311" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K311" t="s">
         <v>1128</v>
@@ -18637,7 +18637,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K315" t="s">
         <v>1132</v>
@@ -18719,7 +18719,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K317" t="s">
         <v>1134</v>
@@ -18760,7 +18760,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K318" t="s">
         <v>1135</v>
@@ -18801,7 +18801,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K319" t="s">
         <v>1136</v>
@@ -18965,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K323" t="s">
         <v>1140</v>
@@ -19047,7 +19047,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K325" t="s">
         <v>1142</v>
@@ -19129,7 +19129,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K327" t="s">
         <v>1144</v>
@@ -19211,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K329" t="s">
         <v>1146</v>
@@ -19293,7 +19293,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K331" t="s">
         <v>1148</v>
@@ -19375,7 +19375,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K333" t="s">
         <v>1150</v>
@@ -19416,7 +19416,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K334" t="s">
         <v>1151</v>
@@ -19457,7 +19457,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K335" t="s">
         <v>1152</v>
@@ -19498,7 +19498,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K336" t="s">
         <v>1153</v>
@@ -19703,7 +19703,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K341" t="s">
         <v>1158</v>
@@ -19744,7 +19744,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K342" t="s">
         <v>1159</v>
@@ -19908,7 +19908,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K346" t="s">
         <v>1163</v>
@@ -20113,7 +20113,7 @@
         <v>0</v>
       </c>
       <c r="J351" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K351" t="s">
         <v>1168</v>
@@ -20359,7 +20359,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K357" t="s">
         <v>1174</v>
@@ -20400,7 +20400,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K358" t="s">
         <v>1175</v>
@@ -20482,7 +20482,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K360" t="s">
         <v>1177</v>
@@ -20523,7 +20523,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K361" t="s">
         <v>1177</v>
@@ -20564,7 +20564,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K362" t="s">
         <v>1178</v>
@@ -20974,7 +20974,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K372" t="s">
         <v>1188</v>
@@ -21220,7 +21220,7 @@
         <v>0</v>
       </c>
       <c r="J378" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K378" t="s">
         <v>1194</v>
@@ -21302,7 +21302,7 @@
         <v>0</v>
       </c>
       <c r="J380" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K380" t="s">
         <v>1196</v>
@@ -21384,7 +21384,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K382" t="s">
         <v>1198</v>
@@ -21425,7 +21425,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K383" t="s">
         <v>1199</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="J504" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="K504" t="s">
         <v>1316</v>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -4211,7 +4211,7 @@
     <t>(เคสเด็กหญิง 9 ขวบ ในคณะทูตจากซูดาน) มีประกาศ อ้างว่าเป็นของคอนโดวัน เอ็กซ์ สุขุมวิท 26 ชี้แจงว่า ตามที่ตรวจพบผู้ติดเชื้อโควิด-19 เข้าพักอาศัยในโครงการชั้น 19 นั้น ผู้อาศัยไม่ได้มีการใช้พื้นที่ส่วนกลาง มีเพียงใช้ลิฟต์โดยสาร ผ่านล็อบบี้ และสำนักงานนิติบุคคลเท่านั้น</t>
   </si>
   <si>
-    <t>มีข่าวว่า ผู้ป่วยเคสทหารอียิปต์เดินทางมาที่นี่ ทั้งนี้กรมควบคุมโรคจะลงพื้นที่ไปยังห้างแหลมทองเพื่อตรวจเชิงรุก ในวันที่ 14 ก.ค.</t>
+    <t>ผู้ป่วยเคสทหารอียิปต์เดินทางมาที่นี่ เวลาประมาณ 11-15น.</t>
   </si>
   <si>
     <t xml:space="preserve">ทางศูนย์การค้ายืนยันว่าไม่มีผู้ป่วยมาใช้บริการที่ห้างแต่อย่างใด </t>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -4214,10 +4214,10 @@
     <t>ผู้ป่วยเคสทหารอียิปต์เดินทางมาที่นี่ เวลาประมาณ 11-15น.</t>
   </si>
   <si>
-    <t xml:space="preserve">ทางศูนย์การค้ายืนยันว่าไม่มีผู้ป่วยมาใช้บริการที่ห้างแต่อย่างใด </t>
-  </si>
-  <si>
-    <t>มีรายงานว่าลูกเรือทหารอียิปต์พักที่โรงแรมแห่งนี้</t>
+    <t>ทางศูนย์การค้ายืนยันว่าไม่มีผู้ป่วยมาใช้บริการที่ห้างแต่อย่างใด  แต่ ศบค.แจ้งว่า คณะที่มาพร้อมกับผู้ป่วยได้เดินทางมาที่นี่</t>
+  </si>
+  <si>
+    <t>ลูกเรือทหารอียิปต์พักที่โรงแรมแห่งนี้</t>
   </si>
   <si>
     <t>https://www.bbc.com/thai/thailand-51701394</t>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>status</t>
   </si>
@@ -58,12 +58,18 @@
     <t>confirmed</t>
   </si>
   <si>
+    <t>patient_has_been_here</t>
+  </si>
+  <si>
     <t>2020-07-08</t>
   </si>
   <si>
     <t>2020-07-10</t>
   </si>
   <si>
+    <t>2020-09-03</t>
+  </si>
+  <si>
     <t>สนามบินอู่ตะเภา</t>
   </si>
   <si>
@@ -79,6 +85,24 @@
     <t>โรงแรม  D Varee Diva จ.ระยอง</t>
   </si>
   <si>
+    <t>คอนโดบ้านสวนธน พุทธบูชา บางมด</t>
+  </si>
+  <si>
+    <t>สามวันสองคืน พระราม 3</t>
+  </si>
+  <si>
+    <t>สามวันสองคืน พระราม 5</t>
+  </si>
+  <si>
+    <t>Cafe แห่งหนึ่งที่ถนนข้าวสาร</t>
+  </si>
+  <si>
+    <t>ทัณฑสถานบำบัดพิเศษกลาง</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -97,6 +121,21 @@
     <t>ลูกเรือทหารอียิปต์พักที่โรงแรมแห่งนี้</t>
   </si>
   <si>
+    <t>ราชทัณฑ์แจง นักโทษใหม่ ติดโควิดผู้ป่วยมีอาชีพดีเจ ที่สถานบันเทิง ไม่มีประวัติเดินทางต่างประเทศ พักอาศักที่คอนโดมิเนียมบ้านสวนธนย่านพุทธบูชาบางมด</t>
+  </si>
+  <si>
+    <t>ราชทัณฑ์แจง นักโทษใหม่ ติดโควิดผู้ป่วยทำงานที่ร้านสามวันสองคืน สาขาพระราม 3 วันจันทร์ พฤหัสบดีและเสาร์</t>
+  </si>
+  <si>
+    <t>ราชทัณฑ์แจง นักโทษใหม่ ติดโควิดผู้ป่วยทำงานที่ร้านสามวันสองคืน สาขาพระราม 5 วันศุกร์และอาทิตย์</t>
+  </si>
+  <si>
+    <t>ราชทัณฑ์แจง นักโทษใหม่ ติดโควิดผู้ป่วยมีอาชีพดีเจ ทำงาน cafe แห่งหนึ่งในถนนข้าวสาร. (วันที่ 18 สิงหาคม)</t>
+  </si>
+  <si>
+    <t>ราชทัณฑ์แจง นักโทษใหม่ ติดโควิดผู้ป่วยมีอาชีพดีเจ ที่สถานบันเทิง ไม่มีประวัติเดินทางต่างประเทศ อยู่บริเวณกักกันก่อนเข้าแดนปกติในเรือนจำ</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -110,6 +149,9 @@
   </si>
   <si>
     <t>https://www.khaosod.co.th/covid-19/news_4498005</t>
+  </si>
+  <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/132594</t>
   </si>
 </sst>
 </file>
@@ -480,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +574,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -556,13 +598,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -573,10 +615,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -597,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -614,10 +656,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -638,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -655,10 +697,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -679,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -696,10 +738,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -720,16 +762,221 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>13.653942</v>
+      </c>
+      <c r="E7">
+        <v>100.489527</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>13.700916</v>
+      </c>
+      <c r="E8">
+        <v>100.515067</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>13.829441</v>
+      </c>
+      <c r="E9">
+        <v>100.490071</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>13.759791</v>
+      </c>
+      <c r="E10">
+        <v>100.49578</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>13.845817</v>
+      </c>
+      <c r="E11">
+        <v>100.552914</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -739,6 +986,11 @@
     <hyperlink ref="L4" r:id="rId3" location="cxrecs_s"/>
     <hyperlink ref="L5" r:id="rId4"/>
     <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>status</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Thailand</t>
   </si>
   <si>
     <t>unknown</t>
@@ -598,13 +604,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -639,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -680,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -721,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -762,13 +768,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -791,25 +797,25 @@
         <v>100.489527</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -832,25 +838,25 @@
         <v>100.515067</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -873,25 +879,25 @@
         <v>100.490071</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
         <v>28</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
       </c>
       <c r="J9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -914,25 +920,25 @@
         <v>100.49578</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -955,25 +961,25 @@
         <v>100.552914</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>28</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M11">
         <v>9</v>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
   <si>
     <t>status</t>
   </si>
@@ -61,6 +61,9 @@
     <t>patient_has_been_here</t>
   </si>
   <si>
+    <t>sanitized</t>
+  </si>
+  <si>
     <t>2020-07-08</t>
   </si>
   <si>
@@ -70,6 +73,12 @@
     <t>2020-09-03</t>
   </si>
   <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
     <t>สนามบินอู่ตะเภา</t>
   </si>
   <si>
@@ -100,9 +109,42 @@
     <t>ทัณฑสถานบำบัดพิเศษกลาง</t>
   </si>
   <si>
+    <t>ดีคอนโดพิงค์</t>
+  </si>
+  <si>
+    <t>ร้านคิงส์เวย์ โฮสต์แอนด์คาราโอเกะ</t>
+  </si>
+  <si>
+    <t>วีดีคอนโดมิเนียม</t>
+  </si>
+  <si>
+    <t>เซนทรัลเฟสติวัล (เข้าประตู KFC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ร้าน H&amp;M เซนทรัลเฟสติวัล </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM ที่ตู้ธนาคาร SCB ชั้น 3 (หน้าธนาคารกรุงเทพ) เซนทรัลเฟสติวัล </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ร้านชาบูชิ เซนทรัลเฟสติวัล </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major Cineplex โรงที่ 6 เซนทรัลเฟสติวัล </t>
+  </si>
+  <si>
+    <t xml:space="preserve">วัตสันชั้น 4 เซนทรัลเฟสติวัล </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Hall เซนทรัลเฟสติวัล </t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
+    <t>female</t>
+  </si>
+  <si>
     <t>Thai</t>
   </si>
   <si>
@@ -142,6 +184,36 @@
     <t>ราชทัณฑ์แจง นักโทษใหม่ ติดโควิดผู้ป่วยมีอาชีพดีเจ ที่สถานบันเทิง ไม่มีประวัติเดินทางต่างประเทศ อยู่บริเวณกักกันก่อนเข้าแดนปกติในเรือนจำ</t>
   </si>
   <si>
+    <t>เป็นหญิงไทย อายุ 29 ปี ไปทำงานที่ประเทศเมียนมา ก่อนหลบหนีเข้าประเทศมายังจังหวัดเชียงใหม่ ไม่มีการกักตัว</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เคสหญิงไทยจากเมียนมา ในเบื้องต้น ทางร้านยังปิดบริการเพื่อปรับปรุงแก้ไข ภายในร้าน โดยทีมแพทย์ และสาธารณสุขจังหวัดเชียงใหม่ และจะปิดให้ครบ 14 วัน  แม้ผลตรวจพนักงานทั้งหมดจะออกมาเป็นลบและไม่ติดเชื้อ </t>
+  </si>
+  <si>
+    <t>เคสหญิงไทยจากเมียนมา มาที่คอนโดเพื่อนเพื่อสังสรรค์ต่อ</t>
+  </si>
+  <si>
+    <t>เคสหญิงไทยจากเมียนมาเดินทางมายังห้างเซนทรัลเฟสติวัล โดยเข้าทางประตูด้านร้าน KFC</t>
+  </si>
+  <si>
+    <t>เคสหญิงไทยจากเมียนมาเดินดูสินค้าที่ H&amp;M 15.26 – 15.29 น.</t>
+  </si>
+  <si>
+    <t>เคสหญิงไทยจากเมียนมากด ATM ที่ตู้ธนาคาร SCB ชั้น 3 (หน้าธนาคารกรุงเทพ)</t>
+  </si>
+  <si>
+    <t>เคสหญิงไทยจากเมียนมารับประทานอาหารที่ร้านชาบูชิ</t>
+  </si>
+  <si>
+    <t>เคสหญิงไทยจากเมียนมาชมภาพยนตร์ที่เมเจอร์ซีนีเพล็กซ์ โรงที่ 6</t>
+  </si>
+  <si>
+    <t>เคสหญิงไทยจากเมียนมาไปวัตสัน</t>
+  </si>
+  <si>
+    <t>เคสหญิงไทยจากเมียนมาไป Food Hall</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -158,6 +230,12 @@
   </si>
   <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/132594</t>
+  </si>
+  <si>
+    <t>https://mthai.com/news/94609.html</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/kingswayclub</t>
   </si>
 </sst>
 </file>
@@ -528,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,10 +658,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -604,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -621,10 +699,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -645,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -662,10 +740,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -686,13 +764,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -703,10 +781,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -727,13 +805,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -744,10 +822,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -768,13 +846,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -785,10 +863,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -800,22 +878,22 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -826,10 +904,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -841,22 +919,22 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -867,10 +945,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -882,22 +960,22 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -908,10 +986,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -923,22 +1001,22 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -949,10 +1027,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -964,25 +1042,435 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="M11">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>18.81089258</v>
+      </c>
+      <c r="E12">
+        <v>99.01628599</v>
+      </c>
+      <c r="F12">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>18.80951974</v>
+      </c>
+      <c r="E13">
+        <v>98.98020563999999</v>
+      </c>
+      <c r="F13">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>18.80401814</v>
+      </c>
+      <c r="E14">
+        <v>98.9727482</v>
+      </c>
+      <c r="F14">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>18.80732484</v>
+      </c>
+      <c r="E15">
+        <v>99.01812167</v>
+      </c>
+      <c r="F15">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>18.80709567</v>
+      </c>
+      <c r="E16">
+        <v>99.01903569</v>
+      </c>
+      <c r="F16">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>18.80650918</v>
+      </c>
+      <c r="E17">
+        <v>99.0178741</v>
+      </c>
+      <c r="F17">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>18.80657601</v>
+      </c>
+      <c r="E18">
+        <v>99.01785162</v>
+      </c>
+      <c r="F18">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>18.80658294</v>
+      </c>
+      <c r="E19">
+        <v>99.01805908999999</v>
+      </c>
+      <c r="F19">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>18.80675924</v>
+      </c>
+      <c r="E20">
+        <v>99.01763</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>18.80629446</v>
+      </c>
+      <c r="E21">
+        <v>99.01807715</v>
+      </c>
+      <c r="F21">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -997,6 +1485,16 @@
     <hyperlink ref="L9" r:id="rId8"/>
     <hyperlink ref="L10" r:id="rId9"/>
     <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
+    <hyperlink ref="L21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="83">
   <si>
     <t>status</t>
   </si>
@@ -79,6 +79,12 @@
     <t>2020-11-25</t>
   </si>
   <si>
+    <t>2020-11-29</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
     <t>สนามบินอู่ตะเภา</t>
   </si>
   <si>
@@ -139,6 +145,15 @@
     <t xml:space="preserve">Food Hall เซนทรัลเฟสติวัล </t>
   </si>
   <si>
+    <t>สิงห์ปาร์คเชียงราย</t>
+  </si>
+  <si>
+    <t>โรงแรม Hop Inn เชียงราย</t>
+  </si>
+  <si>
+    <t>7-Eleven ปั๊มปตท. อำเภอแม่สรวย</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -214,6 +229,15 @@
     <t>เคสหญิงไทยจากเมียนมาไป Food Hall</t>
   </si>
   <si>
+    <t>เคสหญิงไทยอายุ 28 ปี ชาวพะเยากลับจากเมียนมา แฟนขับรถส่วนตัวมารับไปเที่ยวงานสิงห์ปาร์ค</t>
+  </si>
+  <si>
+    <t>เคสหญิงไทยอายุ 28 ปี ชาวพะเยากลับจากเมียนมา พักที่โรงแรม 1 คืน</t>
+  </si>
+  <si>
+    <t>เคสหญิงไทยอายุ 28 ปี ชาวพะเยากลับจากเมียนมา แวะ 7-Eleven ปั๊มปตท. อำเภอแม่สรวย</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -236,6 +260,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/kingswayclub</t>
+  </si>
+  <si>
+    <t>https://thestandard.co/timeline-6-covid-19-addicts-phayao-phichit-bangkok-ratchaburi/</t>
   </si>
 </sst>
 </file>
@@ -606,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,7 +688,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -682,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -702,7 +729,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -723,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -743,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -764,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -784,7 +811,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -805,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -825,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -846,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -866,7 +893,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -878,22 +905,22 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -907,7 +934,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -919,22 +946,22 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -948,7 +975,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -960,22 +987,22 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -989,7 +1016,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -1001,22 +1028,22 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1030,7 +1057,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -1042,22 +1069,22 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1071,7 +1098,7 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>18.81089258</v>
@@ -1083,22 +1110,22 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1112,7 +1139,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>18.80951974</v>
@@ -1124,22 +1151,22 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1153,7 +1180,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14">
         <v>18.80401814</v>
@@ -1165,22 +1192,22 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1194,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>18.80732484</v>
@@ -1206,22 +1233,22 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1235,7 +1262,7 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>18.80709567</v>
@@ -1247,22 +1274,22 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1276,7 +1303,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17">
         <v>18.80650918</v>
@@ -1288,22 +1315,22 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1317,7 +1344,7 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>18.80657601</v>
@@ -1329,22 +1356,22 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1358,7 +1385,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>18.80658294</v>
@@ -1370,22 +1397,22 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1399,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>18.80675924</v>
@@ -1411,22 +1438,22 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1440,7 +1467,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>18.80629446</v>
@@ -1452,25 +1479,148 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M21">
         <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22">
+        <v>19.85327262</v>
+      </c>
+      <c r="E22">
+        <v>99.74303213</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>19.90661769</v>
+      </c>
+      <c r="E23">
+        <v>99.82937135</v>
+      </c>
+      <c r="F23">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24">
+        <v>19.6476693</v>
+      </c>
+      <c r="E24">
+        <v>99.53219522000001</v>
+      </c>
+      <c r="F24">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1495,6 +1645,9 @@
     <hyperlink ref="L19" r:id="rId18"/>
     <hyperlink ref="L20" r:id="rId19"/>
     <hyperlink ref="L21" r:id="rId20"/>
+    <hyperlink ref="L22" r:id="rId21"/>
+    <hyperlink ref="L23" r:id="rId22"/>
+    <hyperlink ref="L24" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="94">
   <si>
     <t>status</t>
   </si>
@@ -64,6 +64,9 @@
     <t>sanitized</t>
   </si>
   <si>
+    <t>unspecified_location</t>
+  </si>
+  <si>
     <t>2020-07-08</t>
   </si>
   <si>
@@ -85,6 +88,12 @@
     <t>2020-11-30</t>
   </si>
   <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
     <t>สนามบินอู่ตะเภา</t>
   </si>
   <si>
@@ -154,6 +163,15 @@
     <t>7-Eleven ปั๊มปตท. อำเภอแม่สรวย</t>
   </si>
   <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>จ.สิงห์บุรี</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -238,6 +256,15 @@
     <t>เคสหญิงไทยอายุ 28 ปี ชาวพะเยากลับจากเมียนมา แวะ 7-Eleven ปั๊มปตท. อำเภอแม่สรวย</t>
   </si>
   <si>
+    <t>เคสพยาบาลทำงานที่สถานกักกันโรค พบเดินทางด้วย BTS เวลา 14:00 - 14:15 ใส่แมสก์ตลอดการเดินทาง</t>
+  </si>
+  <si>
+    <t>เคสพยาบาลทำงานที่สถานกักกันโรค พบเดินทางด้วย MRT เวลา 10:00 - 10:14 ใส่แมสก์ตลอดการเดินทาง</t>
+  </si>
+  <si>
+    <t>เคสโควิด 51 ปีเดินทางสายการบินเดียวกับผู้ป่วยโควิดลอบเข้าปท. ส่วนสาเหตุติดจากไหนขอรอสอบสวนเพิ่ม ล่าสุดพบผู้สัมผัสใกล้ชิด 4 ราย ได้ดำเนินการกักตัวอยู่แล้ว</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -263,6 +290,12 @@
   </si>
   <si>
     <t>https://thestandard.co/timeline-6-covid-19-addicts-phayao-phichit-bangkok-ratchaburi/</t>
+  </si>
+  <si>
+    <t>https://www.bangkokbiznews.com/news/detail/911869</t>
+  </si>
+  <si>
+    <t>https://www.hfocus.org/content/2020/12/20559</t>
   </si>
 </sst>
 </file>
@@ -633,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,10 +718,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -709,13 +742,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -726,10 +759,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -750,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -767,10 +800,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -791,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -808,10 +841,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -832,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -849,10 +882,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -873,13 +906,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -890,10 +923,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -905,22 +938,22 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -931,10 +964,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -946,22 +979,22 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -972,10 +1005,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -987,22 +1020,22 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1013,10 +1046,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -1028,22 +1061,22 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1054,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -1069,22 +1102,22 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1095,10 +1128,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>18.81089258</v>
@@ -1110,22 +1143,22 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1136,10 +1169,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>18.80951974</v>
@@ -1151,22 +1184,22 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1177,10 +1210,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>18.80401814</v>
@@ -1192,22 +1225,22 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1218,10 +1251,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>18.80732484</v>
@@ -1233,22 +1266,22 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1259,10 +1292,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>18.80709567</v>
@@ -1274,22 +1307,22 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1300,10 +1333,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>18.80650918</v>
@@ -1315,22 +1348,22 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1341,10 +1374,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>18.80657601</v>
@@ -1356,22 +1389,22 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I18" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1382,10 +1415,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>18.80658294</v>
@@ -1397,22 +1430,22 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I19" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1423,10 +1456,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>18.80675924</v>
@@ -1438,22 +1471,22 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1464,10 +1497,10 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>18.80629446</v>
@@ -1479,22 +1512,22 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K21" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -1505,10 +1538,10 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>19.85327262</v>
@@ -1520,22 +1553,22 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K22" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -1546,10 +1579,10 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>19.90661769</v>
@@ -1561,22 +1594,22 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J23" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -1587,10 +1620,10 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>19.6476693</v>
@@ -1602,25 +1635,189 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K24" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="M24">
         <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>13.7238495</v>
+      </c>
+      <c r="E25">
+        <v>100.5292931</v>
+      </c>
+      <c r="F25">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <v>13.7285268</v>
+      </c>
+      <c r="E26">
+        <v>100.5343257</v>
+      </c>
+      <c r="F26">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>13.7292718</v>
+      </c>
+      <c r="E27">
+        <v>100.5365002</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>14.896466</v>
+      </c>
+      <c r="E28">
+        <v>100.3976077</v>
+      </c>
+      <c r="F28">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M28">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1648,6 +1845,10 @@
     <hyperlink ref="L22" r:id="rId21"/>
     <hyperlink ref="L23" r:id="rId22"/>
     <hyperlink ref="L24" r:id="rId23"/>
+    <hyperlink ref="L25" r:id="rId24"/>
+    <hyperlink ref="L26" r:id="rId25"/>
+    <hyperlink ref="L27" r:id="rId26"/>
+    <hyperlink ref="L28" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="98">
   <si>
     <t>status</t>
   </si>
@@ -94,6 +94,9 @@
     <t>2020-12-05</t>
   </si>
   <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
     <t>สนามบินอู่ตะเภา</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
     <t>จ.สิงห์บุรี</t>
   </si>
   <si>
+    <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -265,6 +271,9 @@
     <t>เคสโควิด 51 ปีเดินทางสายการบินเดียวกับผู้ป่วยโควิดลอบเข้าปท. ส่วนสาเหตุติดจากไหนขอรอสอบสวนเพิ่ม ล่าสุดพบผู้สัมผัสใกล้ชิด 4 ราย ได้ดำเนินการกักตัวอยู่แล้ว</t>
   </si>
   <si>
+    <t>เคสโควิดตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร ล่าสุด 548 ราย</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -296,6 +305,9 @@
   </si>
   <si>
     <t>https://www.hfocus.org/content/2020/12/20559</t>
+  </si>
+  <si>
+    <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
 </sst>
 </file>
@@ -666,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,7 +733,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -742,13 +754,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -762,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -783,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -803,7 +815,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -824,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -844,7 +856,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -865,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -885,7 +897,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -906,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -926,7 +938,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -938,22 +950,22 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -967,7 +979,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -979,22 +991,22 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1008,7 +1020,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -1020,22 +1032,22 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1049,7 +1061,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -1061,22 +1073,22 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1090,7 +1102,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -1102,22 +1114,22 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1131,7 +1143,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12">
         <v>18.81089258</v>
@@ -1143,22 +1155,22 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1172,7 +1184,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>18.80951974</v>
@@ -1184,22 +1196,22 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1213,7 +1225,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>18.80401814</v>
@@ -1225,22 +1237,22 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1254,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15">
         <v>18.80732484</v>
@@ -1266,22 +1278,22 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1295,7 +1307,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>18.80709567</v>
@@ -1307,22 +1319,22 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1336,7 +1348,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>18.80650918</v>
@@ -1348,22 +1360,22 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1377,7 +1389,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18">
         <v>18.80657601</v>
@@ -1389,22 +1401,22 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1418,7 +1430,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>18.80658294</v>
@@ -1430,22 +1442,22 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1459,7 +1471,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>18.80675924</v>
@@ -1471,22 +1483,22 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1500,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>18.80629446</v>
@@ -1512,22 +1524,22 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -1541,7 +1553,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>19.85327262</v>
@@ -1553,22 +1565,22 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -1582,7 +1594,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>19.90661769</v>
@@ -1594,22 +1606,22 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -1623,7 +1635,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D24">
         <v>19.6476693</v>
@@ -1635,22 +1647,22 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M24">
         <v>22</v>
@@ -1664,7 +1676,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>13.7238495</v>
@@ -1676,22 +1688,22 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1705,7 +1717,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <v>13.7285268</v>
@@ -1717,22 +1729,22 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -1746,7 +1758,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D27">
         <v>13.7292718</v>
@@ -1758,22 +1770,22 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -1787,7 +1799,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D28">
         <v>14.896466</v>
@@ -1799,25 +1811,66 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M28">
         <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>13.5579068</v>
+      </c>
+      <c r="E29">
+        <v>100.270829</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
+        <v>85</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1849,6 +1902,7 @@
     <hyperlink ref="L26" r:id="rId25"/>
     <hyperlink ref="L27" r:id="rId26"/>
     <hyperlink ref="L28" r:id="rId27"/>
+    <hyperlink ref="L29" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="102">
   <si>
     <t>status</t>
   </si>
@@ -97,6 +97,9 @@
     <t>2020-12-18</t>
   </si>
   <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
     <t>สนามบินอู่ตะเภา</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
+    <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -274,6 +280,9 @@
     <t>เคสโควิดตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร ล่าสุด 548 ราย</t>
   </si>
   <si>
+    <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -308,6 +317,9 @@
   </si>
   <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
   </si>
 </sst>
 </file>
@@ -678,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -754,13 +766,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -774,7 +786,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -795,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -815,7 +827,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -836,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -856,7 +868,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -877,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -897,7 +909,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -918,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -938,7 +950,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -950,22 +962,22 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -979,7 +991,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -991,22 +1003,22 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1020,7 +1032,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -1032,22 +1044,22 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1061,7 +1073,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -1073,22 +1085,22 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1102,7 +1114,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -1114,22 +1126,22 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1143,7 +1155,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>18.81089258</v>
@@ -1155,22 +1167,22 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1184,7 +1196,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>18.80951974</v>
@@ -1196,22 +1208,22 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1225,7 +1237,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>18.80401814</v>
@@ -1237,22 +1249,22 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1266,7 +1278,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>18.80732484</v>
@@ -1278,22 +1290,22 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1307,7 +1319,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>18.80709567</v>
@@ -1319,22 +1331,22 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1348,7 +1360,7 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>18.80650918</v>
@@ -1360,22 +1372,22 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1389,7 +1401,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>18.80657601</v>
@@ -1401,22 +1413,22 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1430,7 +1442,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>18.80658294</v>
@@ -1442,22 +1454,22 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1471,7 +1483,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>18.80675924</v>
@@ -1483,22 +1495,22 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1512,7 +1524,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>18.80629446</v>
@@ -1524,22 +1536,22 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -1553,7 +1565,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>19.85327262</v>
@@ -1565,22 +1577,22 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -1594,7 +1606,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>19.90661769</v>
@@ -1606,22 +1618,22 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -1635,7 +1647,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>19.6476693</v>
@@ -1647,22 +1659,22 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M24">
         <v>22</v>
@@ -1676,7 +1688,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>13.7238495</v>
@@ -1688,22 +1700,22 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1717,7 +1729,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>13.7285268</v>
@@ -1729,22 +1741,22 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -1758,7 +1770,7 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>13.7292718</v>
@@ -1770,22 +1782,22 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -1799,7 +1811,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28">
         <v>14.896466</v>
@@ -1811,22 +1823,22 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M28">
         <v>26</v>
@@ -1840,7 +1852,7 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>13.5579068</v>
@@ -1861,16 +1873,57 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M29">
         <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>14.1487352</v>
+      </c>
+      <c r="E30">
+        <v>100.6155778</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1903,6 +1956,7 @@
     <hyperlink ref="L27" r:id="rId26"/>
     <hyperlink ref="L28" r:id="rId27"/>
     <hyperlink ref="L29" r:id="rId28"/>
+    <hyperlink ref="L30" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="126">
   <si>
     <t>status</t>
   </si>
@@ -67,6 +67,12 @@
     <t>unspecified_location</t>
   </si>
   <si>
+    <t>suspected</t>
+  </si>
+  <si>
+    <t>sanitizing</t>
+  </si>
+  <si>
     <t>2020-07-08</t>
   </si>
   <si>
@@ -94,12 +100,24 @@
     <t>2020-12-05</t>
   </si>
   <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
     <t>2020-12-18</t>
   </si>
   <si>
     <t>2020-12-19</t>
   </si>
   <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
     <t>สนามบินอู่ตะเภา</t>
   </si>
   <si>
@@ -178,12 +196,36 @@
     <t>จ.สิงห์บุรี</t>
   </si>
   <si>
+    <t>สยามสแควร์วัน</t>
+  </si>
+  <si>
+    <t>นนทบุรี</t>
+  </si>
+  <si>
+    <t>ตลาดยายพ่วง มหาชัย</t>
+  </si>
+  <si>
+    <t>แพกุ้งขนาดเล็ก บริเวณใกล้หอนาฬิกา</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
+    <t xml:space="preserve">รามอินทรา </t>
+  </si>
+  <si>
+    <t>เสรีไทย ซ.50</t>
+  </si>
+  <si>
+    <t>ร้านอาหารแห่งหนึ่ง</t>
+  </si>
+  <si>
+    <t>ตลาดหนองเสือ</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -277,12 +319,27 @@
     <t>เคสโควิด 51 ปีเดินทางสายการบินเดียวกับผู้ป่วยโควิดลอบเข้าปท. ส่วนสาเหตุติดจากไหนขอรอสอบสวนเพิ่ม ล่าสุดพบผู้สัมผัสใกล้ชิด 4 ราย ได้ดำเนินการกักตัวอยู่แล้ว</t>
   </si>
   <si>
-    <t>เคสโควิดตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร ล่าสุด 548 ราย</t>
+    <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง จ.สมุทรสาคร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
+  </si>
+  <si>
+    <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง ตลาดยายพ่วง มหาชัย</t>
+  </si>
+  <si>
+    <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
     <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
   </si>
   <si>
+    <t>ขอให้ผู้ที่ไปใช้บริการร้านอาหาร ตั้งแต่วันที่ 15-20 ธ.ค. 2563 เป็นต้นมา ณ ร้านแจ่วฮ้อนตาแป๊ะบุฟเฟ่ 149 ซึ่งมี 3 สาขา สาขาที่ 1 อำเภอหนองแค สาขา 2 อำเภอแก่งคอย และสาขา 3 อำเภอเมืองสระบุรี และตลาดหนองเสือ จ.ปทุมธานี ได้สังเกตอาการตนเองเป็นเวลา 14 วัน ให้สวมหน้ากากอนามัย หรือหน้ากากผ้าตลอดเวลา หลีกเลี่ยงคลุกคลีใกล้ชิดกับผู้อื่น</t>
+  </si>
+  <si>
+    <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -316,10 +373,25 @@
     <t>https://www.hfocus.org/content/2020/12/20559</t>
   </si>
   <si>
+    <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1999153</t>
+  </si>
+  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
     <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/east/1998735</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1998711</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
   </si>
 </sst>
 </file>
@@ -690,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,10 +814,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -766,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -783,10 +855,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -807,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -824,10 +896,10 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -848,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -865,10 +937,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -889,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -906,10 +978,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -930,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -947,10 +1019,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -962,22 +1034,22 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -988,10 +1060,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -1003,22 +1075,22 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1029,10 +1101,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -1044,22 +1116,22 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1070,10 +1142,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -1085,22 +1157,22 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1111,10 +1183,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -1126,22 +1198,22 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1152,10 +1224,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D12">
         <v>18.81089258</v>
@@ -1167,22 +1239,22 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1193,10 +1265,10 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>18.80951974</v>
@@ -1208,22 +1280,22 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1234,10 +1306,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D14">
         <v>18.80401814</v>
@@ -1249,22 +1321,22 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1275,10 +1347,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>18.80732484</v>
@@ -1290,22 +1362,22 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1316,10 +1388,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>18.80709567</v>
@@ -1331,22 +1403,22 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1357,10 +1429,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>18.80650918</v>
@@ -1372,22 +1444,22 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1398,10 +1470,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>18.80657601</v>
@@ -1413,22 +1485,22 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1439,10 +1511,10 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>18.80658294</v>
@@ -1454,22 +1526,22 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1480,10 +1552,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <v>18.80675924</v>
@@ -1495,22 +1567,22 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1521,10 +1593,10 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D21">
         <v>18.80629446</v>
@@ -1536,22 +1608,22 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -1562,10 +1634,10 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <v>19.85327262</v>
@@ -1577,22 +1649,22 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -1603,10 +1675,10 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>19.90661769</v>
@@ -1618,22 +1690,22 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -1644,10 +1716,10 @@
         <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>19.6476693</v>
@@ -1659,22 +1731,22 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="M24">
         <v>22</v>
@@ -1685,10 +1757,10 @@
         <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <v>13.7238495</v>
@@ -1700,22 +1772,22 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1726,10 +1798,10 @@
         <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D26">
         <v>13.7285268</v>
@@ -1741,22 +1813,22 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -1767,10 +1839,10 @@
         <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>13.7292718</v>
@@ -1782,22 +1854,22 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -1808,10 +1880,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D28">
         <v>14.896466</v>
@@ -1823,22 +1895,22 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="M28">
         <v>26</v>
@@ -1846,19 +1918,19 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D29">
-        <v>13.5579068</v>
+        <v>13.7449539</v>
       </c>
       <c r="E29">
-        <v>100.270829</v>
+        <v>100.5339095</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1872,14 +1944,14 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29" t="s">
-        <v>60</v>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="M29">
         <v>27</v>
@@ -1887,25 +1959,25 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D30">
-        <v>14.1487352</v>
+        <v>13.8205741</v>
       </c>
       <c r="E30">
-        <v>100.6155778</v>
+        <v>100.4822683</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" t="s">
-        <v>57</v>
+      <c r="G30">
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1913,17 +1985,509 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>60</v>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="M30">
         <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>13.5455607</v>
+      </c>
+      <c r="E31">
+        <v>100.2767611</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>103</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32">
+        <v>13.5440411</v>
+      </c>
+      <c r="E32">
+        <v>100.2752457</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33">
+        <v>13.8330877</v>
+      </c>
+      <c r="E33">
+        <v>100.499237</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>102</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34">
+        <v>13.5579068</v>
+      </c>
+      <c r="E34">
+        <v>100.270829</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34" t="s">
+        <v>104</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35">
+        <v>14.1487352</v>
+      </c>
+      <c r="E35">
+        <v>100.6155778</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36">
+        <v>13.8057625</v>
+      </c>
+      <c r="E36">
+        <v>100.6621959</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>102</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37">
+        <v>13.7937004</v>
+      </c>
+      <c r="E37">
+        <v>100.6923144</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>102</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38">
+        <v>13.7204469</v>
+      </c>
+      <c r="E38">
+        <v>100.5004708</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>101</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39">
+        <v>14.3355326</v>
+      </c>
+      <c r="E39">
+        <v>100.87017</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>106</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40">
+        <v>14.5786407</v>
+      </c>
+      <c r="E40">
+        <v>100.9662444</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>106</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41">
+        <v>14.5116599</v>
+      </c>
+      <c r="E41">
+        <v>100.9094134</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>106</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42">
+        <v>14.1378761</v>
+      </c>
+      <c r="E42">
+        <v>100.8255049</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>107</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M42">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1957,6 +2521,18 @@
     <hyperlink ref="L28" r:id="rId27"/>
     <hyperlink ref="L29" r:id="rId28"/>
     <hyperlink ref="L30" r:id="rId29"/>
+    <hyperlink ref="L31" r:id="rId30"/>
+    <hyperlink ref="L32" r:id="rId31"/>
+    <hyperlink ref="L33" r:id="rId32"/>
+    <hyperlink ref="L34" r:id="rId33"/>
+    <hyperlink ref="L35" r:id="rId34"/>
+    <hyperlink ref="L36" r:id="rId35"/>
+    <hyperlink ref="L37" r:id="rId36"/>
+    <hyperlink ref="L38" r:id="rId37"/>
+    <hyperlink ref="L39" r:id="rId38"/>
+    <hyperlink ref="L40" r:id="rId39"/>
+    <hyperlink ref="L41" r:id="rId40"/>
+    <hyperlink ref="L42" r:id="rId41" location="cxrecs_s"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="130">
   <si>
     <t>status</t>
   </si>
@@ -109,6 +109,9 @@
     <t>2020-12-16</t>
   </si>
   <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
     <t>2020-12-18</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>แพกุ้งขนาดเล็ก บริเวณใกล้หอนาฬิกา</t>
   </si>
   <si>
+    <t>INC2 Tower B</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -328,6 +334,9 @@
     <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง ตลาดยายพ่วง มหาชัย</t>
   </si>
   <si>
+    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -377,6 +386,9 @@
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
+  </si>
+  <si>
+    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
   </si>
   <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
@@ -762,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -817,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -838,13 +850,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -858,7 +870,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -879,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -899,7 +911,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -920,13 +932,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -940,7 +952,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -961,13 +973,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -981,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -1002,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -1022,7 +1034,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -1034,22 +1046,22 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1063,7 +1075,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -1075,22 +1087,22 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1104,7 +1116,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -1116,22 +1128,22 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1145,7 +1157,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -1157,22 +1169,22 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1186,7 +1198,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -1198,22 +1210,22 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1227,7 +1239,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12">
         <v>18.81089258</v>
@@ -1239,22 +1251,22 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1268,7 +1280,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>18.80951974</v>
@@ -1280,22 +1292,22 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1309,7 +1321,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>18.80401814</v>
@@ -1321,22 +1333,22 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1350,7 +1362,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>18.80732484</v>
@@ -1362,22 +1374,22 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1391,7 +1403,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>18.80709567</v>
@@ -1403,22 +1415,22 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1432,7 +1444,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>18.80650918</v>
@@ -1444,22 +1456,22 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1473,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18">
         <v>18.80657601</v>
@@ -1485,22 +1497,22 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1514,7 +1526,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>18.80658294</v>
@@ -1526,22 +1538,22 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1555,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>18.80675924</v>
@@ -1567,22 +1579,22 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1596,7 +1608,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <v>18.80629446</v>
@@ -1608,22 +1620,22 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -1637,7 +1649,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>19.85327262</v>
@@ -1649,22 +1661,22 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -1678,7 +1690,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>19.90661769</v>
@@ -1690,22 +1702,22 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -1719,7 +1731,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>19.6476693</v>
@@ -1731,22 +1743,22 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M24">
         <v>22</v>
@@ -1760,7 +1772,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>13.7238495</v>
@@ -1772,22 +1784,22 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1801,7 +1813,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D26">
         <v>13.7285268</v>
@@ -1813,22 +1825,22 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -1842,7 +1854,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D27">
         <v>13.7292718</v>
@@ -1854,22 +1866,22 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -1883,7 +1895,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>14.896466</v>
@@ -1895,22 +1907,22 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M28">
         <v>26</v>
@@ -1924,7 +1936,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <v>13.7449539</v>
@@ -1948,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M29">
         <v>27</v>
@@ -1965,7 +1977,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <v>13.8205741</v>
@@ -1989,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M30">
         <v>28</v>
@@ -2006,7 +2018,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D31">
         <v>13.5455607</v>
@@ -2030,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M31">
         <v>29</v>
@@ -2047,7 +2059,7 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D32">
         <v>13.5440411</v>
@@ -2071,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -2088,7 +2100,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33">
         <v>13.8330877</v>
@@ -2112,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M33">
         <v>31</v>
@@ -2123,19 +2135,19 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D34">
-        <v>13.5579068</v>
+        <v>14.0782451</v>
       </c>
       <c r="E34">
-        <v>100.270829</v>
+        <v>100.604118</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2149,14 +2161,14 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" t="s">
-        <v>74</v>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M34">
         <v>32</v>
@@ -2164,25 +2176,25 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D35">
-        <v>14.1487352</v>
+        <v>13.5579068</v>
       </c>
       <c r="E35">
-        <v>100.6155778</v>
+        <v>100.270829</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" t="s">
-        <v>71</v>
+      <c r="G35">
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2191,13 +2203,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -2205,25 +2217,25 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>13.8057625</v>
+        <v>14.1487352</v>
       </c>
       <c r="E36">
-        <v>100.6621959</v>
+        <v>100.6155778</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36">
-        <v>0</v>
+      <c r="G36" t="s">
+        <v>73</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2231,14 +2243,14 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36">
-        <v>0</v>
+      <c r="J36" t="s">
+        <v>76</v>
       </c>
       <c r="K36" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="M36">
         <v>34</v>
@@ -2252,13 +2264,13 @@
         <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D37">
-        <v>13.7937004</v>
+        <v>13.8057625</v>
       </c>
       <c r="E37">
-        <v>100.6923144</v>
+        <v>100.6621959</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2276,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M37">
         <v>35</v>
@@ -2287,19 +2299,19 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D38">
-        <v>13.7204469</v>
+        <v>13.7937004</v>
       </c>
       <c r="E38">
-        <v>100.5004708</v>
+        <v>100.6923144</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2317,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>123</v>
@@ -2328,19 +2340,19 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D39">
-        <v>14.3355326</v>
+        <v>13.7204469</v>
       </c>
       <c r="E39">
-        <v>100.87017</v>
+        <v>100.5004708</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2358,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -2372,16 +2384,16 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D40">
-        <v>14.5786407</v>
+        <v>14.3355326</v>
       </c>
       <c r="E40">
-        <v>100.9662444</v>
+        <v>100.87017</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2399,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M40">
         <v>38</v>
@@ -2413,16 +2425,16 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D41">
-        <v>14.5116599</v>
+        <v>14.5786407</v>
       </c>
       <c r="E41">
-        <v>100.9094134</v>
+        <v>100.9662444</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2440,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M41">
         <v>39</v>
@@ -2451,19 +2463,19 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D42">
-        <v>14.1378761</v>
+        <v>14.5116599</v>
       </c>
       <c r="E42">
-        <v>100.8255049</v>
+        <v>100.9094134</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2481,13 +2493,54 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M42">
         <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43">
+        <v>14.1378761</v>
+      </c>
+      <c r="E43">
+        <v>100.8255049</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>110</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="M43">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2585,8 @@
     <hyperlink ref="L39" r:id="rId38"/>
     <hyperlink ref="L40" r:id="rId39"/>
     <hyperlink ref="L41" r:id="rId40"/>
-    <hyperlink ref="L42" r:id="rId41" location="cxrecs_s"/>
+    <hyperlink ref="L42" r:id="rId41"/>
+    <hyperlink ref="L43" r:id="rId42" location="cxrecs_s"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="137">
   <si>
     <t>status</t>
   </si>
@@ -67,12 +67,12 @@
     <t>unspecified_location</t>
   </si>
   <si>
+    <t>sanitizing</t>
+  </si>
+  <si>
     <t>suspected</t>
   </si>
   <si>
-    <t>sanitizing</t>
-  </si>
-  <si>
     <t>2020-07-08</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>2020-12-05</t>
   </si>
   <si>
+    <t>2020-12-13</t>
+  </si>
+  <si>
     <t>2020-12-14</t>
   </si>
   <si>
@@ -199,6 +202,15 @@
     <t>จ.สิงห์บุรี</t>
   </si>
   <si>
+    <t>ห้างแพลตตินัม</t>
+  </si>
+  <si>
+    <t>ตลาดอินดี้ ดาวคะนอง</t>
+  </si>
+  <si>
+    <t>Central World</t>
+  </si>
+  <si>
     <t>สยามสแควร์วัน</t>
   </si>
   <si>
@@ -211,6 +223,9 @@
     <t>แพกุ้งขนาดเล็ก บริเวณใกล้หอนาฬิกา</t>
   </si>
   <si>
+    <t>สำนักงานขนส่งเขตบางขุนเทียน</t>
+  </si>
+  <si>
     <t>INC2 Tower B</t>
   </si>
   <si>
@@ -325,6 +340,9 @@
     <t>เคสโควิด 51 ปีเดินทางสายการบินเดียวกับผู้ป่วยโควิดลอบเข้าปท. ส่วนสาเหตุติดจากไหนขอรอสอบสวนเพิ่ม ล่าสุดพบผู้สัมผัสใกล้ชิด 4 ราย ได้ดำเนินการกักตัวอยู่แล้ว</t>
   </si>
   <si>
+    <t>เคสบุคลากร สวทช. ติดโควิด-19 ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
+  </si>
+  <si>
     <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -334,6 +352,9 @@
     <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง ตลาดยายพ่วง มหาชัย</t>
   </si>
   <si>
+    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาต่อใบขับขี่ที่นี่วันที่ 15 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
+  </si>
+  <si>
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
@@ -382,13 +403,13 @@
     <t>https://www.hfocus.org/content/2020/12/20559</t>
   </si>
   <si>
+    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
-  </si>
-  <si>
-    <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
   </si>
   <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
@@ -774,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -829,7 +850,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -850,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -870,7 +891,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -891,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -911,7 +932,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -932,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -952,7 +973,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -973,13 +994,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -993,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -1014,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -1034,7 +1055,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -1046,22 +1067,22 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1075,7 +1096,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -1087,22 +1108,22 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1116,7 +1137,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -1128,22 +1149,22 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1157,7 +1178,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -1169,22 +1190,22 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1198,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -1210,22 +1231,22 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1239,7 +1260,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>18.81089258</v>
@@ -1251,22 +1272,22 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1280,7 +1301,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>18.80951974</v>
@@ -1292,22 +1313,22 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1321,7 +1342,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>18.80401814</v>
@@ -1333,22 +1354,22 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1362,7 +1383,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D15">
         <v>18.80732484</v>
@@ -1374,22 +1395,22 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1403,7 +1424,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>18.80709567</v>
@@ -1415,22 +1436,22 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1444,7 +1465,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>18.80650918</v>
@@ -1456,22 +1477,22 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1485,7 +1506,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>18.80657601</v>
@@ -1497,22 +1518,22 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1526,7 +1547,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>18.80658294</v>
@@ -1538,22 +1559,22 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1567,7 +1588,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>18.80675924</v>
@@ -1579,22 +1600,22 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1608,7 +1629,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>18.80629446</v>
@@ -1620,22 +1641,22 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -1649,7 +1670,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>19.85327262</v>
@@ -1661,22 +1682,22 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K22" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -1690,7 +1711,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>19.90661769</v>
@@ -1702,22 +1723,22 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -1731,7 +1752,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24">
         <v>19.6476693</v>
@@ -1743,22 +1764,22 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="M24">
         <v>22</v>
@@ -1772,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>13.7238495</v>
@@ -1784,22 +1805,22 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1813,7 +1834,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26">
         <v>13.7285268</v>
@@ -1825,22 +1846,22 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -1854,7 +1875,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D27">
         <v>13.7292718</v>
@@ -1866,22 +1887,22 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K27" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -1895,7 +1916,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28">
         <v>14.896466</v>
@@ -1907,22 +1928,22 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M28">
         <v>26</v>
@@ -1936,13 +1957,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29">
-        <v>13.7449539</v>
+        <v>13.7499881</v>
       </c>
       <c r="E29">
-        <v>100.5339095</v>
+        <v>100.5393128</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1956,14 +1977,14 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>0</v>
+      <c r="J29" t="s">
+        <v>81</v>
       </c>
       <c r="K29" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M29">
         <v>27</v>
@@ -1971,19 +1992,19 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D30">
-        <v>13.8205741</v>
+        <v>13.6910012</v>
       </c>
       <c r="E30">
-        <v>100.4822683</v>
+        <v>100.4802337</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1997,14 +2018,14 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>0</v>
+      <c r="J30" t="s">
+        <v>81</v>
       </c>
       <c r="K30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M30">
         <v>28</v>
@@ -2012,19 +2033,19 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D31">
-        <v>13.5455607</v>
+        <v>13.7468252</v>
       </c>
       <c r="E31">
-        <v>100.2767611</v>
+        <v>100.538941</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2038,14 +2059,14 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>0</v>
+      <c r="J31" t="s">
+        <v>81</v>
       </c>
       <c r="K31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M31">
         <v>29</v>
@@ -2053,19 +2074,19 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D32">
-        <v>13.5440411</v>
+        <v>13.7449539</v>
       </c>
       <c r="E32">
-        <v>100.2752457</v>
+        <v>100.5339095</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2079,14 +2100,14 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="J32">
-        <v>0</v>
+      <c r="J32" t="s">
+        <v>81</v>
       </c>
       <c r="K32" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -2100,13 +2121,13 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D33">
-        <v>13.8330877</v>
+        <v>13.8205741</v>
       </c>
       <c r="E33">
-        <v>100.499237</v>
+        <v>100.4822683</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2120,14 +2141,14 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>0</v>
+      <c r="J33" t="s">
+        <v>81</v>
       </c>
       <c r="K33" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M33">
         <v>31</v>
@@ -2135,19 +2156,19 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D34">
-        <v>14.0782451</v>
+        <v>13.5455607</v>
       </c>
       <c r="E34">
-        <v>100.604118</v>
+        <v>100.2767611</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2161,14 +2182,14 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>0</v>
+      <c r="J34" t="s">
+        <v>81</v>
       </c>
       <c r="K34" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M34">
         <v>32</v>
@@ -2176,19 +2197,19 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D35">
-        <v>13.5579068</v>
+        <v>13.5440411</v>
       </c>
       <c r="E35">
-        <v>100.270829</v>
+        <v>100.2752457</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2203,13 +2224,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -2220,22 +2241,22 @@
         <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D36">
-        <v>14.1487352</v>
+        <v>13.6211105</v>
       </c>
       <c r="E36">
-        <v>100.6155778</v>
+        <v>100.4387341</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" t="s">
-        <v>73</v>
+      <c r="G36">
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2244,13 +2265,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M36">
         <v>34</v>
@@ -2261,16 +2282,16 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D37">
-        <v>13.8057625</v>
+        <v>13.8330877</v>
       </c>
       <c r="E37">
-        <v>100.6621959</v>
+        <v>100.499237</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2284,14 +2305,14 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>0</v>
+      <c r="J37" t="s">
+        <v>81</v>
       </c>
       <c r="K37" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="M37">
         <v>35</v>
@@ -2299,19 +2320,19 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D38">
-        <v>13.7937004</v>
+        <v>14.0782451</v>
       </c>
       <c r="E38">
-        <v>100.6923144</v>
+        <v>100.604118</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2325,14 +2346,14 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>0</v>
+      <c r="J38" t="s">
+        <v>81</v>
       </c>
       <c r="K38" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M38">
         <v>36</v>
@@ -2340,19 +2361,19 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D39">
-        <v>13.7204469</v>
+        <v>13.5579068</v>
       </c>
       <c r="E39">
-        <v>100.5004708</v>
+        <v>100.270829</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2366,14 +2387,14 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>0</v>
+      <c r="J39" t="s">
+        <v>81</v>
       </c>
       <c r="K39" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -2387,19 +2408,19 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D40">
-        <v>14.3355326</v>
+        <v>14.1487352</v>
       </c>
       <c r="E40">
-        <v>100.87017</v>
+        <v>100.6155778</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40">
-        <v>0</v>
+      <c r="G40" t="s">
+        <v>78</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2407,14 +2428,14 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40">
-        <v>0</v>
+      <c r="J40" t="s">
+        <v>81</v>
       </c>
       <c r="K40" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M40">
         <v>38</v>
@@ -2422,19 +2443,19 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D41">
-        <v>14.5786407</v>
+        <v>13.8057625</v>
       </c>
       <c r="E41">
-        <v>100.9662444</v>
+        <v>100.6621959</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2448,14 +2469,14 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41">
-        <v>0</v>
+      <c r="J41" t="s">
+        <v>81</v>
       </c>
       <c r="K41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M41">
         <v>39</v>
@@ -2463,19 +2484,19 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D42">
-        <v>14.5116599</v>
+        <v>13.7937004</v>
       </c>
       <c r="E42">
-        <v>100.9094134</v>
+        <v>100.6923144</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2489,14 +2510,14 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>0</v>
+      <c r="J42" t="s">
+        <v>81</v>
       </c>
       <c r="K42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M42">
         <v>40</v>
@@ -2507,16 +2528,16 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D43">
-        <v>14.1378761</v>
+        <v>13.7204469</v>
       </c>
       <c r="E43">
-        <v>100.8255049</v>
+        <v>100.5004708</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2530,17 +2551,181 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43">
-        <v>0</v>
+      <c r="J43" t="s">
+        <v>81</v>
       </c>
       <c r="K43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M43">
         <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44">
+        <v>14.3355326</v>
+      </c>
+      <c r="E44">
+        <v>100.87017</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K44" t="s">
+        <v>116</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45">
+        <v>14.5786407</v>
+      </c>
+      <c r="E45">
+        <v>100.9662444</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45" t="s">
+        <v>116</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46">
+        <v>14.5116599</v>
+      </c>
+      <c r="E46">
+        <v>100.9094134</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+      <c r="K46" t="s">
+        <v>116</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47">
+        <v>14.1378761</v>
+      </c>
+      <c r="E47">
+        <v>100.8255049</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+      <c r="K47" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M47">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2586,7 +2771,11 @@
     <hyperlink ref="L40" r:id="rId39"/>
     <hyperlink ref="L41" r:id="rId40"/>
     <hyperlink ref="L42" r:id="rId41"/>
-    <hyperlink ref="L43" r:id="rId42" location="cxrecs_s"/>
+    <hyperlink ref="L43" r:id="rId42"/>
+    <hyperlink ref="L44" r:id="rId43"/>
+    <hyperlink ref="L45" r:id="rId44"/>
+    <hyperlink ref="L46" r:id="rId45"/>
+    <hyperlink ref="L47" r:id="rId46" location="cxrecs_s"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="144">
   <si>
     <t>status</t>
   </si>
@@ -124,6 +124,9 @@
     <t>2020-12-20</t>
   </si>
   <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
     <t>สนามบินอู่ตะเภา</t>
   </si>
   <si>
@@ -247,6 +250,12 @@
     <t>ตลาดหนองเสือ</t>
   </si>
   <si>
+    <t>Siam Center</t>
+  </si>
+  <si>
+    <t>อาคารกรุงเทพประกันภัย</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -370,6 +379,12 @@
     <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
   </si>
   <si>
+    <t>สยามเซ็นเตอร์' ประกาศยืนยันมี พนง.ร้านอาหารติดเชื้อโควิด-19 ขอปิดบริการพื้นที่เสี่ยง 3 วัน</t>
+  </si>
+  <si>
+    <t>บมจ.กรุงเทพประกันภัย (BKI) แจ้งว่า พบพนักงานของ บมจ.ไอโออิ กรุงเทพประกันภัย จำกัด ซึ่งเป็นบริษัทผู้เช่าในอาคารกรุงเทพประกันภัย 1 รายติดเชื้อโควิด-19 ซึ่งผู้ติดเชื้อได้ทราบผลและการยืนยันจากแพทย์ว่าติดเชื้อโควิด-19 เมื่อวันที่ 22 ธ.ค.</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -425,6 +440,12 @@
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
+  </si>
+  <si>
+    <t>https://ch3thailandnews.bectero.com/news/224324</t>
+  </si>
+  <si>
+    <t>https://www.infoquest.co.th/2020/54934</t>
   </si>
 </sst>
 </file>
@@ -795,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,7 +871,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -871,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -891,7 +912,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -912,13 +933,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -932,7 +953,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -953,13 +974,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -973,7 +994,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -994,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -1014,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -1035,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -1055,7 +1076,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -1067,22 +1088,22 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1096,7 +1117,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -1108,22 +1129,22 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1137,7 +1158,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -1149,22 +1170,22 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1178,7 +1199,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -1190,22 +1211,22 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1219,7 +1240,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -1231,22 +1252,22 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1260,7 +1281,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>18.81089258</v>
@@ -1272,22 +1293,22 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1301,7 +1322,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>18.80951974</v>
@@ -1313,22 +1334,22 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1342,7 +1363,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>18.80401814</v>
@@ -1354,22 +1375,22 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1383,7 +1404,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>18.80732484</v>
@@ -1395,22 +1416,22 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1424,7 +1445,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>18.80709567</v>
@@ -1436,22 +1457,22 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1465,7 +1486,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>18.80650918</v>
@@ -1477,22 +1498,22 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1506,7 +1527,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>18.80657601</v>
@@ -1518,22 +1539,22 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1547,7 +1568,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>18.80658294</v>
@@ -1559,22 +1580,22 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1588,7 +1609,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>18.80675924</v>
@@ -1600,22 +1621,22 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1629,7 +1650,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>18.80629446</v>
@@ -1641,22 +1662,22 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -1670,7 +1691,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>19.85327262</v>
@@ -1682,22 +1703,22 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -1711,7 +1732,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <v>19.90661769</v>
@@ -1723,22 +1744,22 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -1752,7 +1773,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>19.6476693</v>
@@ -1764,22 +1785,22 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M24">
         <v>22</v>
@@ -1793,7 +1814,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>13.7238495</v>
@@ -1805,22 +1826,22 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1834,7 +1855,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>13.7285268</v>
@@ -1846,22 +1867,22 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -1875,7 +1896,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>13.7292718</v>
@@ -1887,22 +1908,22 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -1916,7 +1937,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>14.896466</v>
@@ -1928,22 +1949,22 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M28">
         <v>26</v>
@@ -1957,7 +1978,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D29">
         <v>13.7499881</v>
@@ -1978,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M29">
         <v>27</v>
@@ -1998,7 +2019,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <v>13.6910012</v>
@@ -2019,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M30">
         <v>28</v>
@@ -2039,7 +2060,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>13.7468252</v>
@@ -2060,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M31">
         <v>29</v>
@@ -2080,7 +2101,7 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>13.7449539</v>
@@ -2101,13 +2122,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -2121,7 +2142,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D33">
         <v>13.8205741</v>
@@ -2142,13 +2163,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M33">
         <v>31</v>
@@ -2162,7 +2183,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34">
         <v>13.5455607</v>
@@ -2183,13 +2204,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M34">
         <v>32</v>
@@ -2203,7 +2224,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D35">
         <v>13.5440411</v>
@@ -2224,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K35" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -2244,7 +2265,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D36">
         <v>13.6211105</v>
@@ -2265,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M36">
         <v>34</v>
@@ -2285,7 +2306,7 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D37">
         <v>13.8330877</v>
@@ -2306,13 +2327,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M37">
         <v>35</v>
@@ -2326,7 +2347,7 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D38">
         <v>14.0782451</v>
@@ -2347,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K38" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="M38">
         <v>36</v>
@@ -2367,7 +2388,7 @@
         <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D39">
         <v>13.5579068</v>
@@ -2388,13 +2409,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K39" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -2408,7 +2429,7 @@
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D40">
         <v>14.1487352</v>
@@ -2420,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2429,13 +2450,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K40" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="M40">
         <v>38</v>
@@ -2449,7 +2470,7 @@
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D41">
         <v>13.8057625</v>
@@ -2470,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M41">
         <v>39</v>
@@ -2490,7 +2511,7 @@
         <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D42">
         <v>13.7937004</v>
@@ -2511,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="M42">
         <v>40</v>
@@ -2531,7 +2552,7 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D43">
         <v>13.7204469</v>
@@ -2552,13 +2573,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="M43">
         <v>41</v>
@@ -2572,7 +2593,7 @@
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D44">
         <v>14.3355326</v>
@@ -2593,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K44" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M44">
         <v>42</v>
@@ -2613,7 +2634,7 @@
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D45">
         <v>14.5786407</v>
@@ -2634,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M45">
         <v>43</v>
@@ -2654,7 +2675,7 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D46">
         <v>14.5116599</v>
@@ -2675,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M46">
         <v>44</v>
@@ -2695,7 +2716,7 @@
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D47">
         <v>14.1378761</v>
@@ -2716,16 +2737,98 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M47">
         <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48">
+        <v>13.7462524</v>
+      </c>
+      <c r="E48">
+        <v>100.5328635</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>84</v>
+      </c>
+      <c r="K48" t="s">
+        <v>121</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49">
+        <v>13.7243591</v>
+      </c>
+      <c r="E49">
+        <v>100.5386589</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+      <c r="K49" t="s">
+        <v>122</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M49">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2776,6 +2879,8 @@
     <hyperlink ref="L45" r:id="rId44"/>
     <hyperlink ref="L46" r:id="rId45"/>
     <hyperlink ref="L47" r:id="rId46" location="cxrecs_s"/>
+    <hyperlink ref="L48" r:id="rId47"/>
+    <hyperlink ref="L49" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="156">
   <si>
     <t>status</t>
   </si>
@@ -124,6 +124,9 @@
     <t>2020-12-20</t>
   </si>
   <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
     <t>2020-12-23</t>
   </si>
   <si>
@@ -229,6 +232,9 @@
     <t>สำนักงานขนส่งเขตบางขุนเทียน</t>
   </si>
   <si>
+    <t>ตลาดหน้าสถานีรถไฟภาชี</t>
+  </si>
+  <si>
     <t>INC2 Tower B</t>
   </si>
   <si>
@@ -250,10 +256,19 @@
     <t>ตลาดหนองเสือ</t>
   </si>
   <si>
+    <t>ตลาดทะเลไทย</t>
+  </si>
+  <si>
+    <t>Lamptitude สาขาเอกมัย</t>
+  </si>
+  <si>
+    <t>กรมชลประทาน</t>
+  </si>
+  <si>
     <t>Siam Center</t>
   </si>
   <si>
-    <t>อาคารกรุงเทพประกันภัย</t>
+    <t>อาคารกรุงเทพประกันภัย ชั้น 22</t>
   </si>
   <si>
     <t>male</t>
@@ -364,6 +379,9 @@
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาต่อใบขับขี่ที่นี่วันที่ 15 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
+    <t>แม่ค้าอาหารทะเล ติดเชื้อจากการเดินทางไปตลาดทะเลไทย จ.สมุทรสาคร</t>
+  </si>
+  <si>
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
@@ -379,6 +397,15 @@
     <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
   </si>
   <si>
+    <t>พบแม่ค้าอยุธยาเดินทางมาซื้ออาหารทะเลที่นี่และติดเชื่อโควิด-19</t>
+  </si>
+  <si>
+    <t>พนักงาน Lamptitude ติดเชื้อหลังจากกลับจากกระบี่ และเข้ามาที่นี่ตั้งแต่วันที่ 14-22 ธ.ค.</t>
+  </si>
+  <si>
+    <t>เจ้าหน้าที่กรมชลประทานพบผู้ติดเชื้อโควิด-19 เบื้องต้น 1 ราย เป็นวิศวกร สังกัด​กองพัฒนาแหล่ง​น้ำ​ขนาดกลาง โดยได้เดินทางไปรับประทานอาหารในพื้นที่เสี่ยง จังหวัดสมุทรสาคร เมื่อวันที่ 13 ธันวาคมที่ผ่านมา</t>
+  </si>
+  <si>
     <t>สยามเซ็นเตอร์' ประกาศยืนยันมี พนง.ร้านอาหารติดเชื้อโควิด-19 ขอปิดบริการพื้นที่เสี่ยง 3 วัน</t>
   </si>
   <si>
@@ -427,6 +454,9 @@
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
+    <t>https://www.thairath.co.th/news/local/central/1999848</t>
+  </si>
+  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
@@ -440,6 +470,12 @@
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
+  </si>
+  <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B1%E0%B8%87%E0%B8%84%E0%B8%A1/138884</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/economy/news-579476</t>
   </si>
   <si>
     <t>https://ch3thailandnews.bectero.com/news/224324</t>
@@ -816,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -871,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -892,13 +928,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -912,7 +948,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -933,13 +969,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -953,7 +989,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -974,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -994,7 +1030,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -1015,13 +1051,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -1035,7 +1071,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -1056,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -1076,7 +1112,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -1088,22 +1124,22 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1117,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -1129,22 +1165,22 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1158,7 +1194,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -1170,22 +1206,22 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1199,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -1211,22 +1247,22 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1240,7 +1276,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -1252,22 +1288,22 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1281,7 +1317,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>18.81089258</v>
@@ -1293,22 +1329,22 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1322,7 +1358,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>18.80951974</v>
@@ -1334,22 +1370,22 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1363,7 +1399,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>18.80401814</v>
@@ -1375,22 +1411,22 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1404,7 +1440,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>18.80732484</v>
@@ -1416,22 +1452,22 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1445,7 +1481,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <v>18.80709567</v>
@@ -1457,22 +1493,22 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1486,7 +1522,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>18.80650918</v>
@@ -1498,22 +1534,22 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1527,7 +1563,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>18.80657601</v>
@@ -1539,22 +1575,22 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1568,7 +1604,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>18.80658294</v>
@@ -1580,22 +1616,22 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1609,7 +1645,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>18.80675924</v>
@@ -1621,22 +1657,22 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1650,7 +1686,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>18.80629446</v>
@@ -1662,22 +1698,22 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -1691,7 +1727,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>19.85327262</v>
@@ -1703,22 +1739,22 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -1732,7 +1768,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>19.90661769</v>
@@ -1744,22 +1780,22 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -1773,7 +1809,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24">
         <v>19.6476693</v>
@@ -1785,22 +1821,22 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M24">
         <v>22</v>
@@ -1814,7 +1850,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>13.7238495</v>
@@ -1826,22 +1862,22 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J25" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1855,7 +1891,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>13.7285268</v>
@@ -1867,22 +1903,22 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -1896,7 +1932,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>13.7292718</v>
@@ -1908,22 +1944,22 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -1937,7 +1973,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>14.896466</v>
@@ -1949,22 +1985,22 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M28">
         <v>26</v>
@@ -1978,7 +2014,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>13.7499881</v>
@@ -1999,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M29">
         <v>27</v>
@@ -2019,7 +2055,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30">
         <v>13.6910012</v>
@@ -2040,13 +2076,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M30">
         <v>28</v>
@@ -2060,7 +2096,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <v>13.7468252</v>
@@ -2081,13 +2117,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M31">
         <v>29</v>
@@ -2101,7 +2137,7 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>13.7449539</v>
@@ -2122,13 +2158,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -2142,7 +2178,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33">
         <v>13.8205741</v>
@@ -2163,13 +2199,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M33">
         <v>31</v>
@@ -2183,7 +2219,7 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34">
         <v>13.5455607</v>
@@ -2204,13 +2240,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M34">
         <v>32</v>
@@ -2224,7 +2260,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <v>13.5440411</v>
@@ -2245,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -2265,7 +2301,7 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D36">
         <v>13.6211105</v>
@@ -2286,13 +2322,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M36">
         <v>34</v>
@@ -2306,7 +2342,7 @@
         <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D37">
         <v>13.8330877</v>
@@ -2327,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M37">
         <v>35</v>
@@ -2344,16 +2380,16 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D38">
-        <v>14.0782451</v>
+        <v>14.45160513</v>
       </c>
       <c r="E38">
-        <v>100.604118</v>
+        <v>100.7230585</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2368,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="M38">
         <v>36</v>
@@ -2382,19 +2418,19 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D39">
-        <v>13.5579068</v>
+        <v>14.0782451</v>
       </c>
       <c r="E39">
-        <v>100.270829</v>
+        <v>100.604118</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2409,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -2423,25 +2459,25 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D40">
-        <v>14.1487352</v>
+        <v>13.5579068</v>
       </c>
       <c r="E40">
-        <v>100.6155778</v>
+        <v>100.270829</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40" t="s">
-        <v>81</v>
+      <c r="G40">
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2450,13 +2486,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="M40">
         <v>38</v>
@@ -2464,25 +2500,25 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>13.8057625</v>
+        <v>14.1487352</v>
       </c>
       <c r="E41">
-        <v>100.6621959</v>
+        <v>100.6155778</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41">
-        <v>0</v>
+      <c r="G41" t="s">
+        <v>86</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2491,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M41">
         <v>39</v>
@@ -2508,16 +2544,16 @@
         <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D42">
-        <v>13.7937004</v>
+        <v>13.8057625</v>
       </c>
       <c r="E42">
-        <v>100.6923144</v>
+        <v>100.6621959</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2532,13 +2568,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M42">
         <v>40</v>
@@ -2546,19 +2582,19 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43">
-        <v>13.7204469</v>
+        <v>13.7937004</v>
       </c>
       <c r="E43">
-        <v>100.5004708</v>
+        <v>100.6923144</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2573,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M43">
         <v>41</v>
@@ -2587,19 +2623,19 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D44">
-        <v>14.3355326</v>
+        <v>13.7204469</v>
       </c>
       <c r="E44">
-        <v>100.87017</v>
+        <v>100.5004708</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2614,13 +2650,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M44">
         <v>42</v>
@@ -2634,13 +2670,13 @@
         <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D45">
-        <v>14.5786407</v>
+        <v>14.3355326</v>
       </c>
       <c r="E45">
-        <v>100.9662444</v>
+        <v>100.87017</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2655,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M45">
         <v>43</v>
@@ -2675,13 +2711,13 @@
         <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D46">
-        <v>14.5116599</v>
+        <v>14.5786407</v>
       </c>
       <c r="E46">
-        <v>100.9094134</v>
+        <v>100.9662444</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2696,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="M46">
         <v>44</v>
@@ -2710,19 +2746,19 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
         <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47">
-        <v>14.1378761</v>
+        <v>14.5116599</v>
       </c>
       <c r="E47">
-        <v>100.8255049</v>
+        <v>100.9094134</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2737,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="M47">
         <v>45</v>
@@ -2751,19 +2787,19 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D48">
-        <v>13.7462524</v>
+        <v>14.1378761</v>
       </c>
       <c r="E48">
-        <v>100.5328635</v>
+        <v>100.8255049</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2778,13 +2814,13 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M48">
         <v>46</v>
@@ -2795,16 +2831,16 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D49">
-        <v>13.7243591</v>
+        <v>13.54974685</v>
       </c>
       <c r="E49">
-        <v>100.5386589</v>
+        <v>100.2561435</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2819,16 +2855,180 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M49">
         <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50">
+        <v>13.73541413</v>
+      </c>
+      <c r="E50">
+        <v>100.5877998</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50" t="s">
+        <v>128</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51">
+        <v>13.78766192</v>
+      </c>
+      <c r="E51">
+        <v>100.5105938</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51" t="s">
+        <v>129</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52">
+        <v>13.7462524</v>
+      </c>
+      <c r="E52">
+        <v>100.5328635</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>89</v>
+      </c>
+      <c r="K52" t="s">
+        <v>130</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53">
+        <v>13.7243591</v>
+      </c>
+      <c r="E53">
+        <v>100.5386589</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>89</v>
+      </c>
+      <c r="K53" t="s">
+        <v>131</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M53">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2878,9 +3078,13 @@
     <hyperlink ref="L44" r:id="rId43"/>
     <hyperlink ref="L45" r:id="rId44"/>
     <hyperlink ref="L46" r:id="rId45"/>
-    <hyperlink ref="L47" r:id="rId46" location="cxrecs_s"/>
-    <hyperlink ref="L48" r:id="rId47"/>
+    <hyperlink ref="L47" r:id="rId46"/>
+    <hyperlink ref="L48" r:id="rId47" location="cxrecs_s"/>
     <hyperlink ref="L49" r:id="rId48"/>
+    <hyperlink ref="L50" r:id="rId49"/>
+    <hyperlink ref="L51" r:id="rId50"/>
+    <hyperlink ref="L52" r:id="rId51"/>
+    <hyperlink ref="L53" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="158">
   <si>
     <t>status</t>
   </si>
@@ -115,9 +115,6 @@
     <t>2020-12-17</t>
   </si>
   <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
     <t>2020-12-19</t>
   </si>
   <si>
@@ -223,54 +220,57 @@
     <t>นนทบุรี</t>
   </si>
   <si>
+    <t>แพกุ้งขนาดเล็ก บริเวณใกล้หอนาฬิกา</t>
+  </si>
+  <si>
+    <t>สำนักงานขนส่งเขตบางขุนเทียน</t>
+  </si>
+  <si>
+    <t>INC2 Tower B</t>
+  </si>
+  <si>
+    <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รามอินทรา </t>
+  </si>
+  <si>
+    <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
+  </si>
+  <si>
+    <t>เสรีไทย ซ.50</t>
+  </si>
+  <si>
     <t>ตลาดยายพ่วง มหาชัย</t>
   </si>
   <si>
-    <t>แพกุ้งขนาดเล็ก บริเวณใกล้หอนาฬิกา</t>
-  </si>
-  <si>
-    <t>สำนักงานขนส่งเขตบางขุนเทียน</t>
+    <t>ร้านอาหารแห่งหนึ่ง</t>
+  </si>
+  <si>
+    <t>ตลาดหนองเสือ</t>
+  </si>
+  <si>
+    <t>Lamptitude สาขาเอกมัย</t>
+  </si>
+  <si>
+    <t>กรมชลประทาน</t>
+  </si>
+  <si>
+    <t>ตลาดเจดีย์</t>
+  </si>
+  <si>
+    <t>Siam Center</t>
+  </si>
+  <si>
+    <t>อาคารกรุงเทพประกันภัย ชั้น 22</t>
+  </si>
+  <si>
+    <t>ตลาดทะเลไทย</t>
   </si>
   <si>
     <t>ตลาดหน้าสถานีรถไฟภาชี</t>
   </si>
   <si>
-    <t>INC2 Tower B</t>
-  </si>
-  <si>
-    <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
-  </si>
-  <si>
-    <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รามอินทรา </t>
-  </si>
-  <si>
-    <t>เสรีไทย ซ.50</t>
-  </si>
-  <si>
-    <t>ร้านอาหารแห่งหนึ่ง</t>
-  </si>
-  <si>
-    <t>ตลาดหนองเสือ</t>
-  </si>
-  <si>
-    <t>ตลาดทะเลไทย</t>
-  </si>
-  <si>
-    <t>Lamptitude สาขาเอกมัย</t>
-  </si>
-  <si>
-    <t>กรมชลประทาน</t>
-  </si>
-  <si>
-    <t>Siam Center</t>
-  </si>
-  <si>
-    <t>อาคารกรุงเทพประกันภัย ชั้น 22</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -373,45 +373,48 @@
     <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
   </si>
   <si>
+    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาต่อใบขับขี่ที่นี่วันที่ 15 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
+  </si>
+  <si>
+    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
+  </si>
+  <si>
+    <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
+  </si>
+  <si>
+    <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
+  </si>
+  <si>
     <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง ตลาดยายพ่วง มหาชัย</t>
   </si>
   <si>
-    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาต่อใบขับขี่ที่นี่วันที่ 15 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
+    <t>ขอให้ผู้ที่ไปใช้บริการร้านอาหาร ตั้งแต่วันที่ 15-20 ธ.ค. 2563 เป็นต้นมา ณ ร้านแจ่วฮ้อนตาแป๊ะบุฟเฟ่ 149 ซึ่งมี 3 สาขา สาขาที่ 1 อำเภอหนองแค สาขา 2 อำเภอแก่งคอย และสาขา 3 อำเภอเมืองสระบุรี และตลาดหนองเสือ จ.ปทุมธานี ได้สังเกตอาการตนเองเป็นเวลา 14 วัน ให้สวมหน้ากากอนามัย หรือหน้ากากผ้าตลอดเวลา หลีกเลี่ยงคลุกคลีใกล้ชิดกับผู้อื่น</t>
+  </si>
+  <si>
+    <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
+  </si>
+  <si>
+    <t>พนักงาน Lamptitude ติดเชื้อหลังจากกลับจากกระบี่ และเข้ามาที่นี่ตั้งแต่วันที่ 14-22 ธ.ค.</t>
+  </si>
+  <si>
+    <t>เจ้าหน้าที่กรมชลประทานพบผู้ติดเชื้อโควิด-19 เบื้องต้น 1 ราย เป็นวิศวกร สังกัด​กองพัฒนาแหล่ง​น้ำ​ขนาดกลาง โดยได้เดินทางไปรับประทานอาหารในพื้นที่เสี่ยง จังหวัดสมุทรสาคร เมื่อวันที่ 13 ธันวาคมที่ผ่านมา</t>
+  </si>
+  <si>
+    <t>มีรายงานข่าวว่าพ่อค้าที่ติดโควิด-19 รับอาหารทะเลจากตลาดในจ.สมุทรสาครมาขายที่นี่</t>
+  </si>
+  <si>
+    <t>สยามเซ็นเตอร์' ประกาศยืนยันมี พนง.ร้านอาหารติดเชื้อโควิด-19 ขอปิดบริการพื้นที่เสี่ยง 3 วัน</t>
+  </si>
+  <si>
+    <t>บมจ.กรุงเทพประกันภัย (BKI) แจ้งว่า พบพนักงานของ บมจ.ไอโออิ กรุงเทพประกันภัย จำกัด ซึ่งเป็นบริษัทผู้เช่าในอาคารกรุงเทพประกันภัย 1 รายติดเชื้อโควิด-19 ซึ่งผู้ติดเชื้อได้ทราบผลและการยืนยันจากแพทย์ว่าติดเชื้อโควิด-19 เมื่อวันที่ 22 ธ.ค.</t>
+  </si>
+  <si>
+    <t>พบแม่ค้าอยุธยาเดินทางมาซื้ออาหารทะเลที่นี่และติดเชื่อโควิด-19</t>
   </si>
   <si>
     <t>แม่ค้าอาหารทะเล ติดเชื้อจากการเดินทางไปตลาดทะเลไทย จ.สมุทรสาคร</t>
   </si>
   <si>
-    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
-  </si>
-  <si>
-    <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
-  </si>
-  <si>
-    <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
-  </si>
-  <si>
-    <t>ขอให้ผู้ที่ไปใช้บริการร้านอาหาร ตั้งแต่วันที่ 15-20 ธ.ค. 2563 เป็นต้นมา ณ ร้านแจ่วฮ้อนตาแป๊ะบุฟเฟ่ 149 ซึ่งมี 3 สาขา สาขาที่ 1 อำเภอหนองแค สาขา 2 อำเภอแก่งคอย และสาขา 3 อำเภอเมืองสระบุรี และตลาดหนองเสือ จ.ปทุมธานี ได้สังเกตอาการตนเองเป็นเวลา 14 วัน ให้สวมหน้ากากอนามัย หรือหน้ากากผ้าตลอดเวลา หลีกเลี่ยงคลุกคลีใกล้ชิดกับผู้อื่น</t>
-  </si>
-  <si>
-    <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
-  </si>
-  <si>
-    <t>พบแม่ค้าอยุธยาเดินทางมาซื้ออาหารทะเลที่นี่และติดเชื่อโควิด-19</t>
-  </si>
-  <si>
-    <t>พนักงาน Lamptitude ติดเชื้อหลังจากกลับจากกระบี่ และเข้ามาที่นี่ตั้งแต่วันที่ 14-22 ธ.ค.</t>
-  </si>
-  <si>
-    <t>เจ้าหน้าที่กรมชลประทานพบผู้ติดเชื้อโควิด-19 เบื้องต้น 1 ราย เป็นวิศวกร สังกัด​กองพัฒนาแหล่ง​น้ำ​ขนาดกลาง โดยได้เดินทางไปรับประทานอาหารในพื้นที่เสี่ยง จังหวัดสมุทรสาคร เมื่อวันที่ 13 ธันวาคมที่ผ่านมา</t>
-  </si>
-  <si>
-    <t>สยามเซ็นเตอร์' ประกาศยืนยันมี พนง.ร้านอาหารติดเชื้อโควิด-19 ขอปิดบริการพื้นที่เสี่ยง 3 วัน</t>
-  </si>
-  <si>
-    <t>บมจ.กรุงเทพประกันภัย (BKI) แจ้งว่า พบพนักงานของ บมจ.ไอโออิ กรุงเทพประกันภัย จำกัด ซึ่งเป็นบริษัทผู้เช่าในอาคารกรุงเทพประกันภัย 1 รายติดเชื้อโควิด-19 ซึ่งผู้ติดเชื้อได้ทราบผลและการยืนยันจากแพทย์ว่าติดเชื้อโควิด-19 เมื่อวันที่ 22 ธ.ค.</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -454,34 +457,37 @@
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
+  </si>
+  <si>
+    <t>https://www.thaipost.net/main/detail/87367</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/east/1998735</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1998711</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
+  </si>
+  <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B1%E0%B8%87%E0%B8%84%E0%B8%A1/138884</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/economy/news-579476</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5583210</t>
+  </si>
+  <si>
+    <t>https://ch3thailandnews.bectero.com/news/224324</t>
+  </si>
+  <si>
+    <t>https://www.infoquest.co.th/2020/54934</t>
+  </si>
+  <si>
     <t>https://www.thairath.co.th/news/local/central/1999848</t>
-  </si>
-  <si>
-    <t>https://www.thaipost.net/main/detail/87367</t>
-  </si>
-  <si>
-    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/east/1998735</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1998711</t>
-  </si>
-  <si>
-    <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
-  </si>
-  <si>
-    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B1%E0%B8%87%E0%B8%84%E0%B8%A1/138884</t>
-  </si>
-  <si>
-    <t>https://www.prachachat.net/economy/news-579476</t>
-  </si>
-  <si>
-    <t>https://ch3thailandnews.bectero.com/news/224324</t>
-  </si>
-  <si>
-    <t>https://www.infoquest.co.th/2020/54934</t>
   </si>
 </sst>
 </file>
@@ -852,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -907,7 +913,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -934,7 +940,7 @@
         <v>90</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -948,7 +954,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -975,7 +981,7 @@
         <v>91</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -989,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -1016,7 +1022,7 @@
         <v>92</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -1030,7 +1036,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -1057,7 +1063,7 @@
         <v>93</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -1071,7 +1077,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -1098,7 +1104,7 @@
         <v>94</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -1112,7 +1118,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -1139,7 +1145,7 @@
         <v>95</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1153,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -1180,7 +1186,7 @@
         <v>96</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1194,7 +1200,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -1221,7 +1227,7 @@
         <v>97</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1235,7 +1241,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -1262,7 +1268,7 @@
         <v>98</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1276,7 +1282,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -1303,7 +1309,7 @@
         <v>99</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1317,7 +1323,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>18.81089258</v>
@@ -1344,7 +1350,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1358,7 +1364,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13">
         <v>18.80951974</v>
@@ -1385,7 +1391,7 @@
         <v>101</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1399,7 +1405,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>18.80401814</v>
@@ -1426,7 +1432,7 @@
         <v>102</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1440,7 +1446,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>18.80732484</v>
@@ -1467,7 +1473,7 @@
         <v>103</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1481,7 +1487,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>18.80709567</v>
@@ -1508,7 +1514,7 @@
         <v>104</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1522,7 +1528,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17">
         <v>18.80650918</v>
@@ -1549,7 +1555,7 @@
         <v>105</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1563,7 +1569,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18">
         <v>18.80657601</v>
@@ -1590,7 +1596,7 @@
         <v>106</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1604,7 +1610,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <v>18.80658294</v>
@@ -1631,7 +1637,7 @@
         <v>107</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1645,7 +1651,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>18.80675924</v>
@@ -1672,7 +1678,7 @@
         <v>108</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1686,7 +1692,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>18.80629446</v>
@@ -1713,7 +1719,7 @@
         <v>109</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -1727,7 +1733,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22">
         <v>19.85327262</v>
@@ -1754,7 +1760,7 @@
         <v>110</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -1768,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23">
         <v>19.90661769</v>
@@ -1795,7 +1801,7 @@
         <v>111</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -1809,7 +1815,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>19.6476693</v>
@@ -1836,7 +1842,7 @@
         <v>112</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M24">
         <v>22</v>
@@ -1850,7 +1856,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>13.7238495</v>
@@ -1877,7 +1883,7 @@
         <v>113</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1891,7 +1897,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>13.7285268</v>
@@ -1918,7 +1924,7 @@
         <v>113</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -1932,7 +1938,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>13.7292718</v>
@@ -1959,7 +1965,7 @@
         <v>114</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -1973,7 +1979,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>14.896466</v>
@@ -2000,7 +2006,7 @@
         <v>115</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M28">
         <v>26</v>
@@ -2014,7 +2020,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29">
         <v>13.7499881</v>
@@ -2041,7 +2047,7 @@
         <v>116</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M29">
         <v>27</v>
@@ -2055,7 +2061,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <v>13.6910012</v>
@@ -2082,7 +2088,7 @@
         <v>116</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M30">
         <v>28</v>
@@ -2096,7 +2102,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>13.7468252</v>
@@ -2123,7 +2129,7 @@
         <v>116</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M31">
         <v>29</v>
@@ -2137,7 +2143,7 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32">
         <v>13.7449539</v>
@@ -2164,7 +2170,7 @@
         <v>117</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -2178,7 +2184,7 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33">
         <v>13.8205741</v>
@@ -2205,7 +2211,7 @@
         <v>118</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M33">
         <v>31</v>
@@ -2213,19 +2219,19 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34">
-        <v>13.5455607</v>
+        <v>13.5440411</v>
       </c>
       <c r="E34">
-        <v>100.2767611</v>
+        <v>100.2752457</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2243,10 +2249,10 @@
         <v>89</v>
       </c>
       <c r="K34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M34">
         <v>32</v>
@@ -2254,19 +2260,19 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35">
-        <v>13.5440411</v>
+        <v>13.6211105</v>
       </c>
       <c r="E35">
-        <v>100.2752457</v>
+        <v>100.4387341</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2284,7 +2290,7 @@
         <v>89</v>
       </c>
       <c r="K35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>144</v>
@@ -2295,19 +2301,19 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>13.6211105</v>
+        <v>13.8330877</v>
       </c>
       <c r="E36">
-        <v>100.4387341</v>
+        <v>100.499237</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2325,10 +2331,10 @@
         <v>89</v>
       </c>
       <c r="K36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M36">
         <v>34</v>
@@ -2336,19 +2342,19 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D37">
-        <v>13.8330877</v>
+        <v>14.0782451</v>
       </c>
       <c r="E37">
-        <v>100.499237</v>
+        <v>100.604118</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2366,10 +2372,10 @@
         <v>89</v>
       </c>
       <c r="K37" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M37">
         <v>35</v>
@@ -2380,22 +2386,22 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D38">
-        <v>14.45160513</v>
+        <v>14.1487352</v>
       </c>
       <c r="E38">
-        <v>100.7230585</v>
+        <v>100.6155778</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38">
-        <v>0</v>
+      <c r="G38" t="s">
+        <v>86</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2410,7 +2416,7 @@
         <v>121</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M38">
         <v>36</v>
@@ -2418,19 +2424,19 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39">
-        <v>14.0782451</v>
+        <v>13.8057625</v>
       </c>
       <c r="E39">
-        <v>100.604118</v>
+        <v>100.6621959</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2448,10 +2454,10 @@
         <v>89</v>
       </c>
       <c r="K39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -2462,10 +2468,10 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40">
         <v>13.5579068</v>
@@ -2489,10 +2495,10 @@
         <v>89</v>
       </c>
       <c r="K40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M40">
         <v>38</v>
@@ -2500,25 +2506,25 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41">
-        <v>14.1487352</v>
+        <v>13.7937004</v>
       </c>
       <c r="E41">
-        <v>100.6155778</v>
+        <v>100.6923144</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" t="s">
-        <v>86</v>
+      <c r="G41">
+        <v>0</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -2530,10 +2536,10 @@
         <v>89</v>
       </c>
       <c r="K41" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M41">
         <v>39</v>
@@ -2541,19 +2547,19 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42">
-        <v>13.8057625</v>
+        <v>13.5455607</v>
       </c>
       <c r="E42">
-        <v>100.6621959</v>
+        <v>100.2767611</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2571,7 +2577,7 @@
         <v>89</v>
       </c>
       <c r="K42" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>145</v>
@@ -2582,19 +2588,19 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43">
-        <v>13.7937004</v>
+        <v>13.7204469</v>
       </c>
       <c r="E43">
-        <v>100.6923144</v>
+        <v>100.5004708</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2612,10 +2618,10 @@
         <v>89</v>
       </c>
       <c r="K43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M43">
         <v>41</v>
@@ -2623,19 +2629,19 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D44">
-        <v>13.7204469</v>
+        <v>14.3355326</v>
       </c>
       <c r="E44">
-        <v>100.5004708</v>
+        <v>100.87017</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2653,10 +2659,10 @@
         <v>89</v>
       </c>
       <c r="K44" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M44">
         <v>42</v>
@@ -2667,16 +2673,16 @@
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D45">
-        <v>14.3355326</v>
+        <v>14.5786407</v>
       </c>
       <c r="E45">
-        <v>100.87017</v>
+        <v>100.9662444</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2694,7 +2700,7 @@
         <v>89</v>
       </c>
       <c r="K45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>150</v>
@@ -2708,16 +2714,16 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46">
-        <v>14.5786407</v>
+        <v>14.5116599</v>
       </c>
       <c r="E46">
-        <v>100.9662444</v>
+        <v>100.9094134</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2735,7 +2741,7 @@
         <v>89</v>
       </c>
       <c r="K46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>150</v>
@@ -2746,19 +2752,19 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47">
-        <v>14.5116599</v>
+        <v>14.1378761</v>
       </c>
       <c r="E47">
-        <v>100.9094134</v>
+        <v>100.8255049</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2779,7 +2785,7 @@
         <v>125</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M47">
         <v>45</v>
@@ -2787,19 +2793,19 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48">
-        <v>14.1378761</v>
+        <v>13.73541413</v>
       </c>
       <c r="E48">
-        <v>100.8255049</v>
+        <v>100.5877998</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2820,7 +2826,7 @@
         <v>126</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M48">
         <v>46</v>
@@ -2828,19 +2834,19 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
         <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49">
-        <v>13.54974685</v>
+        <v>13.78766192</v>
       </c>
       <c r="E49">
-        <v>100.2561435</v>
+        <v>100.5105938</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2861,7 +2867,7 @@
         <v>127</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="M49">
         <v>47</v>
@@ -2869,19 +2875,19 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D50">
-        <v>13.73541413</v>
+        <v>13.5951449</v>
       </c>
       <c r="E50">
-        <v>100.5877998</v>
+        <v>100.5802135</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2902,7 +2908,7 @@
         <v>128</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M50">
         <v>48</v>
@@ -2910,19 +2916,19 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
         <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D51">
-        <v>13.78766192</v>
+        <v>13.7462524</v>
       </c>
       <c r="E51">
-        <v>100.5105938</v>
+        <v>100.5328635</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2943,7 +2949,7 @@
         <v>129</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M51">
         <v>49</v>
@@ -2954,16 +2960,16 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D52">
-        <v>13.7462524</v>
+        <v>13.7243591</v>
       </c>
       <c r="E52">
-        <v>100.5328635</v>
+        <v>100.5386589</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2984,7 +2990,7 @@
         <v>130</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M52">
         <v>50</v>
@@ -2995,16 +3001,16 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D53">
-        <v>13.7243591</v>
+        <v>13.54974685</v>
       </c>
       <c r="E53">
-        <v>100.5386589</v>
+        <v>100.2561435</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3025,10 +3031,51 @@
         <v>131</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M53">
         <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54">
+        <v>14.45160513</v>
+      </c>
+      <c r="E54">
+        <v>100.7230585</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+      <c r="K54" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M54">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3078,13 +3125,14 @@
     <hyperlink ref="L44" r:id="rId43"/>
     <hyperlink ref="L45" r:id="rId44"/>
     <hyperlink ref="L46" r:id="rId45"/>
-    <hyperlink ref="L47" r:id="rId46"/>
-    <hyperlink ref="L48" r:id="rId47" location="cxrecs_s"/>
+    <hyperlink ref="L47" r:id="rId46" location="cxrecs_s"/>
+    <hyperlink ref="L48" r:id="rId47"/>
     <hyperlink ref="L49" r:id="rId48"/>
     <hyperlink ref="L50" r:id="rId49"/>
     <hyperlink ref="L51" r:id="rId50"/>
     <hyperlink ref="L52" r:id="rId51"/>
     <hyperlink ref="L53" r:id="rId52"/>
+    <hyperlink ref="L54" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="182">
   <si>
     <t>status</t>
   </si>
@@ -121,6 +121,9 @@
     <t>2020-12-20</t>
   </si>
   <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
     <t>2020-12-22</t>
   </si>
   <si>
@@ -217,6 +220,9 @@
     <t>สยามสแควร์วัน</t>
   </si>
   <si>
+    <t>สยามคูโบต้า นวนคร</t>
+  </si>
+  <si>
     <t>นนทบุรี</t>
   </si>
   <si>
@@ -226,15 +232,39 @@
     <t>สำนักงานขนส่งเขตบางขุนเทียน</t>
   </si>
   <si>
+    <t>สถานบันเทิงอีสานกรองแก้ว</t>
+  </si>
+  <si>
+    <t>ร้านแซ่บอีสานคาราโอเกะ ย่านเทเวศร์</t>
+  </si>
+  <si>
     <t>INC2 Tower B</t>
   </si>
   <si>
+    <t>ตลาด เขตคลองสามวา</t>
+  </si>
+  <si>
+    <t>ร้านชาบู ในตลาดพระปิ่น 3</t>
+  </si>
+  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
     <t xml:space="preserve">รามอินทรา </t>
   </si>
   <si>
+    <t>บ่อนไก่ชนใน ต.บางเลน</t>
+  </si>
+  <si>
+    <t>ห้างสรรพสินค้ายูเนียนมอลล์</t>
+  </si>
+  <si>
+    <t>เซ็นทรัลลาดพร้าว</t>
+  </si>
+  <si>
+    <t>ตลาดชาวสยาม บางกรวย</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -250,6 +280,18 @@
     <t>ตลาดหนองเสือ</t>
   </si>
   <si>
+    <t>แพกุ้ง ในหมู่บ้านไผ่คอย ตำบลสระสี่มุม อำเภอกำแพงแสน</t>
+  </si>
+  <si>
+    <t>คาเฟ่แห่งหนึ่งใน จ.นนทบุรี</t>
+  </si>
+  <si>
+    <t>ตลาดการ์เด้นตรงข้ามซอยแก้วอินทร์</t>
+  </si>
+  <si>
+    <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -370,6 +412,9 @@
     <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง จ.สมุทรสาคร</t>
   </si>
   <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
+  </si>
+  <si>
     <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
   </si>
   <si>
@@ -379,9 +424,18 @@
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
+    <t>ผู้ป่วยโควิด-19 ชายวัย 37 ปี ส่งอาหารทะเลจากสมุทรสาคร ไปยังตลาดคลองสามวา และตลาดในจังหวัดปทุมธานี 2 แห่ง ระหว่างวันที่ 1-17 ธันวาคม 2563</t>
+  </si>
+  <si>
     <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
   </si>
   <si>
+    <t>พบผู้ป่วยโควิด-19 ชาย มาบ่อนไก่ชนในบางเลน</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -394,6 +448,12 @@
     <t>เจ้าของร้านอาหารที่ติดโควิดได้ไปขายเนื้อสดที่ตลาด</t>
   </si>
   <si>
+    <t>เคสผู้ป่วยโควิด-19 ชาย อยู่ต.บางหลวง อ.บางเลน จ.นครปฐม</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
+  </si>
+  <si>
     <t>พนักงาน Lamptitude ติดเชื้อหลังจากกลับจากกระบี่ และเข้ามาที่นี่ตั้งแต่วันที่ 14-22 ธ.ค.</t>
   </si>
   <si>
@@ -409,7 +469,7 @@
     <t>บมจ.กรุงเทพประกันภัย (BKI) แจ้งว่า พบพนักงานของ บมจ.ไอโออิ กรุงเทพประกันภัย จำกัด ซึ่งเป็นบริษัทผู้เช่าในอาคารกรุงเทพประกันภัย 1 รายติดเชื้อโควิด-19 ซึ่งผู้ติดเชื้อได้ทราบผลและการยืนยันจากแพทย์ว่าติดเชื้อโควิด-19 เมื่อวันที่ 22 ธ.ค.</t>
   </si>
   <si>
-    <t>พบแม่ค้าอยุธยาเดินทางมาซื้ออาหารทะเลที่นี่และติดเชื่อโควิด-19</t>
+    <t>พบแม่ค้าอยุธยาเดินทางมาซื้ออาหารทะเลที่นี่และตรวจพบเชื้อโควิด-19ภายหลัง</t>
   </si>
   <si>
     <t>แม่ค้าอาหารทะเล ติดเชื้อจากการเดินทางไปตลาดทะเลไทย จ.สมุทรสาคร</t>
@@ -454,10 +514,22 @@
     <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
   </si>
   <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
+  </si>
+  <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
+  </si>
+  <si>
     <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/local/detail/9630000130818</t>
+  </si>
+  <si>
+    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
   </si>
   <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
@@ -858,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,7 +985,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -934,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -954,7 +1026,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -975,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -995,7 +1067,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -1016,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -1036,7 +1108,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -1057,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -1077,7 +1149,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -1098,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -1118,7 +1190,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -1130,22 +1202,22 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1159,7 +1231,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -1171,22 +1243,22 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1200,7 +1272,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -1212,22 +1284,22 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1241,7 +1313,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -1253,22 +1325,22 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1282,7 +1354,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -1294,22 +1366,22 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1323,7 +1395,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>18.81089258</v>
@@ -1335,22 +1407,22 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I12" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1364,7 +1436,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>18.80951974</v>
@@ -1376,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1405,7 +1477,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>18.80401814</v>
@@ -1417,22 +1489,22 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1446,7 +1518,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>18.80732484</v>
@@ -1458,22 +1530,22 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1487,7 +1559,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <v>18.80709567</v>
@@ -1499,22 +1571,22 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1528,7 +1600,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>18.80650918</v>
@@ -1540,22 +1612,22 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1569,7 +1641,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>18.80657601</v>
@@ -1581,22 +1653,22 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H18" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J18" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1610,7 +1682,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>18.80658294</v>
@@ -1622,22 +1694,22 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1651,7 +1723,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>18.80675924</v>
@@ -1663,22 +1735,22 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J20" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1692,7 +1764,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>18.80629446</v>
@@ -1704,22 +1776,22 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J21" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -1733,7 +1805,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>19.85327262</v>
@@ -1745,22 +1817,22 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J22" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -1774,7 +1846,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>19.90661769</v>
@@ -1786,22 +1858,22 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J23" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -1815,7 +1887,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24">
         <v>19.6476693</v>
@@ -1827,22 +1899,22 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J24" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K24" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="M24">
         <v>22</v>
@@ -1856,7 +1928,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>13.7238495</v>
@@ -1868,22 +1940,22 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J25" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K25" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1897,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>13.7285268</v>
@@ -1909,22 +1981,22 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J26" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K26" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -1938,7 +2010,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>13.7292718</v>
@@ -1950,22 +2022,22 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H27" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K27" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -1979,7 +2051,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>14.896466</v>
@@ -1991,22 +2063,22 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="J28" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="M28">
         <v>26</v>
@@ -2020,7 +2092,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>13.7499881</v>
@@ -2041,13 +2113,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K29" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="M29">
         <v>27</v>
@@ -2061,7 +2133,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D30">
         <v>13.6910012</v>
@@ -2082,13 +2154,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="M30">
         <v>28</v>
@@ -2102,7 +2174,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <v>13.7468252</v>
@@ -2123,13 +2195,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K31" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="M31">
         <v>29</v>
@@ -2143,7 +2215,7 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>13.7449539</v>
@@ -2164,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K32" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -2178,19 +2250,19 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33">
-        <v>13.8205741</v>
+        <v>14.1246719</v>
       </c>
       <c r="E33">
-        <v>100.4822683</v>
+        <v>100.603357</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2205,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K33" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="M33">
         <v>31</v>
@@ -2225,13 +2297,13 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34">
-        <v>13.5440411</v>
+        <v>13.8205741</v>
       </c>
       <c r="E34">
-        <v>100.2752457</v>
+        <v>100.4822683</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2246,13 +2318,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="M34">
         <v>32</v>
@@ -2260,19 +2332,19 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D35">
-        <v>13.6211105</v>
+        <v>13.5440411</v>
       </c>
       <c r="E35">
-        <v>100.4387341</v>
+        <v>100.2752457</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2287,13 +2359,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K35" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -2301,19 +2373,19 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D36">
-        <v>13.8330877</v>
+        <v>13.6211105</v>
       </c>
       <c r="E36">
-        <v>100.499237</v>
+        <v>100.4387341</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2328,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K36" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="M36">
         <v>34</v>
@@ -2345,16 +2417,16 @@
         <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37">
-        <v>14.0782451</v>
+        <v>13.7731761</v>
       </c>
       <c r="E37">
-        <v>100.604118</v>
+        <v>100.4851346</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2369,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K37" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="M37">
         <v>35</v>
@@ -2383,25 +2455,25 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38">
-        <v>14.1487352</v>
+        <v>13.8330877</v>
       </c>
       <c r="E38">
-        <v>100.6155778</v>
+        <v>100.499237</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" t="s">
-        <v>86</v>
+      <c r="G38">
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -2410,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K38" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="M38">
         <v>36</v>
@@ -2427,16 +2499,16 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D39">
-        <v>13.8057625</v>
+        <v>13.7689441</v>
       </c>
       <c r="E39">
-        <v>100.6621959</v>
+        <v>100.5046383</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2451,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K39" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -2465,19 +2537,19 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D40">
-        <v>13.5579068</v>
+        <v>14.0782451</v>
       </c>
       <c r="E40">
-        <v>100.270829</v>
+        <v>100.604118</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2492,13 +2564,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K40" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M40">
         <v>38</v>
@@ -2509,16 +2581,16 @@
         <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>13.7937004</v>
+        <v>13.86019768</v>
       </c>
       <c r="E41">
-        <v>100.6923144</v>
+        <v>100.7223304</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2533,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K41" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="M41">
         <v>39</v>
@@ -2547,19 +2619,19 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D42">
-        <v>13.5455607</v>
+        <v>13.8578211</v>
       </c>
       <c r="E42">
-        <v>100.2767611</v>
+        <v>100.4105189</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2574,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K42" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="M42">
         <v>40</v>
@@ -2588,25 +2660,25 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43">
-        <v>13.7204469</v>
+        <v>14.1487352</v>
       </c>
       <c r="E43">
-        <v>100.5004708</v>
+        <v>100.6155778</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43">
-        <v>0</v>
+      <c r="G43" t="s">
+        <v>100</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2615,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K43" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="M43">
         <v>41</v>
@@ -2629,19 +2701,19 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D44">
-        <v>14.3355326</v>
+        <v>13.8057625</v>
       </c>
       <c r="E44">
-        <v>100.87017</v>
+        <v>100.6621959</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2656,13 +2728,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M44">
         <v>42</v>
@@ -2670,19 +2742,19 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D45">
-        <v>14.5786407</v>
+        <v>14.01215068</v>
       </c>
       <c r="E45">
-        <v>100.9662444</v>
+        <v>100.17523</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2697,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K45" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="M45">
         <v>43</v>
@@ -2714,16 +2786,16 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D46">
-        <v>14.5116599</v>
+        <v>13.8134088</v>
       </c>
       <c r="E46">
-        <v>100.9094134</v>
+        <v>100.5616103</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2738,13 +2810,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="M46">
         <v>44</v>
@@ -2752,19 +2824,19 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D47">
-        <v>14.1378761</v>
+        <v>13.816493</v>
       </c>
       <c r="E47">
-        <v>100.8255049</v>
+        <v>100.5610062</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2779,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K47" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="M47">
         <v>45</v>
@@ -2796,16 +2868,16 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D48">
-        <v>13.73541413</v>
+        <v>13.7966595</v>
       </c>
       <c r="E48">
-        <v>100.5877998</v>
+        <v>100.4755856</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2820,13 +2892,13 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K48" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="M48">
         <v>46</v>
@@ -2834,19 +2906,19 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D49">
-        <v>13.78766192</v>
+        <v>13.5579068</v>
       </c>
       <c r="E49">
-        <v>100.5105938</v>
+        <v>100.270829</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2861,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K49" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M49">
         <v>47</v>
@@ -2875,19 +2947,19 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D50">
-        <v>13.5951449</v>
+        <v>13.7937004</v>
       </c>
       <c r="E50">
-        <v>100.5802135</v>
+        <v>100.6923144</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2902,13 +2974,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K50" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M50">
         <v>48</v>
@@ -2919,16 +2991,16 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D51">
-        <v>13.7462524</v>
+        <v>13.5455607</v>
       </c>
       <c r="E51">
-        <v>100.5328635</v>
+        <v>100.2767611</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2943,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K51" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="M51">
         <v>49</v>
@@ -2957,19 +3029,19 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D52">
-        <v>13.7243591</v>
+        <v>13.7204469</v>
       </c>
       <c r="E52">
-        <v>100.5386589</v>
+        <v>100.5004708</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2984,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M52">
         <v>50</v>
@@ -2998,19 +3070,19 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D53">
-        <v>13.54974685</v>
+        <v>14.3355326</v>
       </c>
       <c r="E53">
-        <v>100.2561435</v>
+        <v>100.87017</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3025,13 +3097,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K53" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M53">
         <v>51</v>
@@ -3039,19 +3111,19 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D54">
-        <v>14.45160513</v>
+        <v>14.5786407</v>
       </c>
       <c r="E54">
-        <v>100.7230585</v>
+        <v>100.9662444</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3066,16 +3138,549 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M54">
         <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55">
+        <v>14.5116599</v>
+      </c>
+      <c r="E55">
+        <v>100.9094134</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>103</v>
+      </c>
+      <c r="K55" t="s">
+        <v>142</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56">
+        <v>14.1378761</v>
+      </c>
+      <c r="E56">
+        <v>100.8255049</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>103</v>
+      </c>
+      <c r="K56" t="s">
+        <v>143</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57">
+        <v>14.06566869</v>
+      </c>
+      <c r="E57">
+        <v>99.9821468</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>103</v>
+      </c>
+      <c r="K57" t="s">
+        <v>144</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58">
+        <v>13.8220818</v>
+      </c>
+      <c r="E58">
+        <v>100.4241012</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>103</v>
+      </c>
+      <c r="K58" t="s">
+        <v>139</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59">
+        <v>13.8683169</v>
+      </c>
+      <c r="E59">
+        <v>100.4107308</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>103</v>
+      </c>
+      <c r="K59" t="s">
+        <v>145</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60">
+        <v>13.8781452</v>
+      </c>
+      <c r="E60">
+        <v>100.4091302</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>103</v>
+      </c>
+      <c r="K60" t="s">
+        <v>132</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61">
+        <v>13.73541413</v>
+      </c>
+      <c r="E61">
+        <v>100.5877998</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K61" t="s">
+        <v>146</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62">
+        <v>13.78766192</v>
+      </c>
+      <c r="E62">
+        <v>100.5105938</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>103</v>
+      </c>
+      <c r="K62" t="s">
+        <v>147</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63">
+        <v>13.5951449</v>
+      </c>
+      <c r="E63">
+        <v>100.5802135</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>103</v>
+      </c>
+      <c r="K63" t="s">
+        <v>148</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64">
+        <v>13.7462524</v>
+      </c>
+      <c r="E64">
+        <v>100.5328635</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>103</v>
+      </c>
+      <c r="K64" t="s">
+        <v>149</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65">
+        <v>13.7243591</v>
+      </c>
+      <c r="E65">
+        <v>100.5386589</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>103</v>
+      </c>
+      <c r="K65" t="s">
+        <v>150</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>97</v>
+      </c>
+      <c r="D66">
+        <v>13.54974685</v>
+      </c>
+      <c r="E66">
+        <v>100.2561435</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+      <c r="K66" t="s">
+        <v>151</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67">
+        <v>14.45160513</v>
+      </c>
+      <c r="E67">
+        <v>100.7230585</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+      <c r="K67" t="s">
+        <v>152</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="M67">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3125,7 +3730,7 @@
     <hyperlink ref="L44" r:id="rId43"/>
     <hyperlink ref="L45" r:id="rId44"/>
     <hyperlink ref="L46" r:id="rId45"/>
-    <hyperlink ref="L47" r:id="rId46" location="cxrecs_s"/>
+    <hyperlink ref="L47" r:id="rId46"/>
     <hyperlink ref="L48" r:id="rId47"/>
     <hyperlink ref="L49" r:id="rId48"/>
     <hyperlink ref="L50" r:id="rId49"/>
@@ -3133,6 +3738,19 @@
     <hyperlink ref="L52" r:id="rId51"/>
     <hyperlink ref="L53" r:id="rId52"/>
     <hyperlink ref="L54" r:id="rId53"/>
+    <hyperlink ref="L55" r:id="rId54"/>
+    <hyperlink ref="L56" r:id="rId55" location="cxrecs_s"/>
+    <hyperlink ref="L57" r:id="rId56"/>
+    <hyperlink ref="L58" r:id="rId57"/>
+    <hyperlink ref="L59" r:id="rId58"/>
+    <hyperlink ref="L60" r:id="rId59"/>
+    <hyperlink ref="L61" r:id="rId60"/>
+    <hyperlink ref="L62" r:id="rId61"/>
+    <hyperlink ref="L63" r:id="rId62"/>
+    <hyperlink ref="L64" r:id="rId63"/>
+    <hyperlink ref="L65" r:id="rId64"/>
+    <hyperlink ref="L66" r:id="rId65"/>
+    <hyperlink ref="L67" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="198">
   <si>
     <t>status</t>
   </si>
@@ -100,6 +100,9 @@
     <t>2020-12-05</t>
   </si>
   <si>
+    <t>2020-12-12</t>
+  </si>
+  <si>
     <t>2020-12-13</t>
   </si>
   <si>
@@ -115,6 +118,9 @@
     <t>2020-12-17</t>
   </si>
   <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
     <t>2020-12-19</t>
   </si>
   <si>
@@ -208,6 +214,9 @@
     <t>จ.สิงห์บุรี</t>
   </si>
   <si>
+    <t>ตลาดสดแสงจันทร์</t>
+  </si>
+  <si>
     <t>ห้างแพลตตินัม</t>
   </si>
   <si>
@@ -217,12 +226,18 @@
     <t>Central World</t>
   </si>
   <si>
+    <t>ร้านกาแฟใกล้สถานีราชเทวี</t>
+  </si>
+  <si>
+    <t>สยามคูโบต้า นวนคร</t>
+  </si>
+  <si>
+    <t>บิ๊กซี สาขานวนคร</t>
+  </si>
+  <si>
     <t>สยามสแควร์วัน</t>
   </si>
   <si>
-    <t>สยามคูโบต้า นวนคร</t>
-  </si>
-  <si>
     <t>นนทบุรี</t>
   </si>
   <si>
@@ -235,6 +250,9 @@
     <t>สถานบันเทิงอีสานกรองแก้ว</t>
   </si>
   <si>
+    <t>ห้างมาบุญครอง</t>
+  </si>
+  <si>
     <t>ร้านแซ่บอีสานคาราโอเกะ ย่านเทเวศร์</t>
   </si>
   <si>
@@ -247,6 +265,9 @@
     <t>ร้านชาบู ในตลาดพระปิ่น 3</t>
   </si>
   <si>
+    <t>ซ.รุ่งเรือง 5 บางบัวทอง</t>
+  </si>
+  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
@@ -283,7 +304,7 @@
     <t>แพกุ้ง ในหมู่บ้านไผ่คอย ตำบลสระสี่มุม อำเภอกำแพงแสน</t>
   </si>
   <si>
-    <t>คาเฟ่แห่งหนึ่งใน จ.นนทบุรี</t>
+    <t>Two Do Someting จ.นนทบุรี</t>
   </si>
   <si>
     <t>ตลาดการ์เด้นตรงข้ามซอยแก้วอินทร์</t>
@@ -406,34 +427,52 @@
     <t>เคสโควิด 51 ปีเดินทางสายการบินเดียวกับผู้ป่วยโควิดลอบเข้าปท. ส่วนสาเหตุติดจากไหนขอรอสอบสวนเพิ่ม ล่าสุดพบผู้สัมผัสใกล้ชิด 4 ราย ได้ดำเนินการกักตัวอยู่แล้ว</t>
   </si>
   <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 ออกไปซื้อกับข้าวที่ตลาดแสงจันทร์ตอนเย็น สวมแมสก์ และใช้จ่ายผ่านแอพ</t>
+  </si>
+  <si>
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
+    <t xml:space="preserve">เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 13 ธ.ค. เวลา 12.00 น. ขึ้นบีทีเอสจากสถานีห้าแยกลาดพร้าว ไปลง สถานีราชเทวี และไปร้านกาแฟใกล้สถานี </t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. นัดคุยงานกับลูกค้าที่บริษัทคูโบต้า สาขานวนคร รังสิต</t>
+  </si>
+  <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. แวะบิ๊กซี สาขานวนคร เพื่อเปลี่ยนชุด</t>
+  </si>
+  <si>
     <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง จ.สมุทรสาคร</t>
   </si>
   <si>
+    <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
+  </si>
+  <si>
+    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาต่อใบขับขี่ที่นี่วันที่ 15 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
+  </si>
+  <si>
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
   </si>
   <si>
-    <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
-  </si>
-  <si>
-    <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาต่อใบขับขี่ที่นี่วันที่ 15 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
-  </si>
-  <si>
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
     <t>ผู้ป่วยโควิด-19 ชายวัย 37 ปี ส่งอาหารทะเลจากสมุทรสาคร ไปยังตลาดคลองสามวา และตลาดในจังหวัดปทุมธานี 2 แห่ง ระหว่างวันที่ 1-17 ธันวาคม 2563</t>
   </si>
   <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>
+  </si>
+  <si>
     <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
   </si>
   <si>
     <t>พบผู้ป่วยโควิด-19 ชาย มาบ่อนไก่ชนในบางเลน</t>
   </si>
   <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย</t>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 10.00 น. ไปห้างสรรพสินค้ายูเนียนมอลล์ และเดินข้ามมาเซ็นทรัลลาดพร้าว</t>
+  </si>
+  <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 20.00 น. ไปตลาดชาวสยาม บางกรวยพร้าว</t>
   </si>
   <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
@@ -451,6 +490,9 @@
     <t>เคสผู้ป่วยโควิด-19 ชาย อยู่ต.บางหลวง อ.บางเลน จ.นครปฐม</t>
   </si>
   <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย  20 ธ.ค. เวลา 10.00 น. ไปคาเฟ่ Two Do Someting</t>
+  </si>
+  <si>
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
   </si>
   <si>
@@ -508,18 +550,24 @@
     <t>https://www.hfocus.org/content/2020/12/20559</t>
   </si>
   <si>
+    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
+  </si>
+  <si>
     <t>https://liff.line.me/1454988218-NjbXbq18/v2/article/jpyamK?utm_source=copyshare</t>
   </si>
   <si>
+    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
   </si>
   <si>
-    <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
-  </si>
-  <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
+    <t>https://www.facebook.com/mbkcenterth/posts/3939890189363487</t>
+  </si>
+  <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
   </si>
   <si>
@@ -529,9 +577,6 @@
     <t>https://mgronline.com/local/detail/9630000130818</t>
   </si>
   <si>
-    <t>https://www.khaosod.co.th/breaking-news/news_5591909</t>
-  </si>
-  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
@@ -542,6 +587,9 @@
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1998795?cx_testId=0&amp;cx_testVariant=cx_0&amp;cx_artPos=0&amp;cx_rec_section=news&amp;cx_rec_topic=local#cxrecs_s</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
   </si>
   <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B1%E0%B8%87%E0%B8%84%E0%B8%A1/138884</t>
@@ -930,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,7 +1033,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>12.674583</v>
@@ -1006,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -1026,7 +1074,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>13.7250712</v>
@@ -1047,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1067,7 +1115,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>12.6838253</v>
@@ -1088,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -1108,7 +1156,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D5">
         <v>12.6959971</v>
@@ -1129,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -1149,7 +1197,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>12.6833042</v>
@@ -1170,13 +1218,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -1190,7 +1238,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>13.653942</v>
@@ -1202,22 +1250,22 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M7">
         <v>5</v>
@@ -1231,7 +1279,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>13.700916</v>
@@ -1243,22 +1291,22 @@
         <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -1272,7 +1320,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>13.829441</v>
@@ -1284,22 +1332,22 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1313,7 +1361,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>13.759791</v>
@@ -1325,22 +1373,22 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M10">
         <v>8</v>
@@ -1354,7 +1402,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>13.845817</v>
@@ -1366,22 +1414,22 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M11">
         <v>9</v>
@@ -1395,7 +1443,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>18.81089258</v>
@@ -1407,22 +1455,22 @@
         <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1436,7 +1484,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>18.80951974</v>
@@ -1448,22 +1496,22 @@
         <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1477,7 +1525,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>18.80401814</v>
@@ -1489,22 +1537,22 @@
         <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1518,7 +1566,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>18.80732484</v>
@@ -1530,22 +1578,22 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M15">
         <v>13</v>
@@ -1559,7 +1607,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>18.80709567</v>
@@ -1571,22 +1619,22 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K16" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -1600,7 +1648,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>18.80650918</v>
@@ -1612,22 +1660,22 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M17">
         <v>15</v>
@@ -1641,7 +1689,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>18.80657601</v>
@@ -1653,22 +1701,22 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1682,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>18.80658294</v>
@@ -1694,22 +1742,22 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M19">
         <v>17</v>
@@ -1723,7 +1771,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20">
         <v>18.80675924</v>
@@ -1735,22 +1783,22 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K20" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M20">
         <v>18</v>
@@ -1764,7 +1812,7 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>18.80629446</v>
@@ -1776,22 +1824,22 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I21" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -1805,7 +1853,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>19.85327262</v>
@@ -1817,22 +1865,22 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I22" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K22" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M22">
         <v>20</v>
@@ -1846,7 +1894,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>19.90661769</v>
@@ -1858,22 +1906,22 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I23" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J23" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K23" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M23">
         <v>21</v>
@@ -1887,7 +1935,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>19.6476693</v>
@@ -1899,22 +1947,22 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I24" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K24" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M24">
         <v>22</v>
@@ -1928,7 +1976,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>13.7238495</v>
@@ -1940,22 +1988,22 @@
         <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H25" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I25" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K25" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M25">
         <v>23</v>
@@ -1969,7 +2017,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>13.7285268</v>
@@ -1981,22 +2029,22 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H26" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I26" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -2010,7 +2058,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>13.7292718</v>
@@ -2022,22 +2070,22 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J27" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="M27">
         <v>25</v>
@@ -2051,7 +2099,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D28">
         <v>14.896466</v>
@@ -2063,22 +2111,22 @@
         <v>51</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H28" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J28" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K28" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M28">
         <v>26</v>
@@ -2092,13 +2140,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D29">
-        <v>13.7499881</v>
+        <v>13.7185015</v>
       </c>
       <c r="E29">
-        <v>100.5393128</v>
+        <v>100.5079366</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2113,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M29">
         <v>27</v>
@@ -2130,16 +2178,16 @@
         <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D30">
-        <v>13.6910012</v>
+        <v>13.7499881</v>
       </c>
       <c r="E30">
-        <v>100.4802337</v>
+        <v>100.5393128</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2154,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K30" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M30">
         <v>28</v>
@@ -2171,16 +2219,16 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31">
-        <v>13.7468252</v>
+        <v>13.6910012</v>
       </c>
       <c r="E31">
-        <v>100.538941</v>
+        <v>100.4802337</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2195,13 +2243,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K31" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M31">
         <v>29</v>
@@ -2215,13 +2263,13 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D32">
-        <v>13.7449539</v>
+        <v>13.7468252</v>
       </c>
       <c r="E32">
-        <v>100.5339095</v>
+        <v>100.538941</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2236,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K32" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="M32">
         <v>30</v>
@@ -2250,19 +2298,19 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D33">
-        <v>14.1246719</v>
+        <v>13.7519927</v>
       </c>
       <c r="E33">
-        <v>100.603357</v>
+        <v>100.5293886</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2277,13 +2325,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K33" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M33">
         <v>31</v>
@@ -2291,19 +2339,19 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D34">
-        <v>13.8205741</v>
+        <v>14.1246719</v>
       </c>
       <c r="E34">
-        <v>100.4822683</v>
+        <v>100.603357</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2318,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K34" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="M34">
         <v>32</v>
@@ -2332,19 +2380,19 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35">
-        <v>13.5440411</v>
+        <v>14.1152336</v>
       </c>
       <c r="E35">
-        <v>100.2752457</v>
+        <v>100.6005268</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2359,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K35" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -2379,13 +2427,13 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D36">
-        <v>13.6211105</v>
+        <v>13.7449539</v>
       </c>
       <c r="E36">
-        <v>100.4387341</v>
+        <v>100.5339095</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2400,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K36" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="M36">
         <v>34</v>
@@ -2414,19 +2462,19 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D37">
-        <v>13.7731761</v>
+        <v>13.8205741</v>
       </c>
       <c r="E37">
-        <v>100.4851346</v>
+        <v>100.4822683</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2441,13 +2489,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K37" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M37">
         <v>35</v>
@@ -2461,13 +2509,13 @@
         <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D38">
-        <v>13.8330877</v>
+        <v>13.5440411</v>
       </c>
       <c r="E38">
-        <v>100.499237</v>
+        <v>100.2752457</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2482,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K38" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M38">
         <v>36</v>
@@ -2496,19 +2544,19 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
         <v>31</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D39">
-        <v>13.7689441</v>
+        <v>13.6211105</v>
       </c>
       <c r="E39">
-        <v>100.5046383</v>
+        <v>100.4387341</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2523,13 +2571,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K39" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="M39">
         <v>37</v>
@@ -2540,16 +2588,16 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D40">
-        <v>14.0782451</v>
+        <v>13.7731761</v>
       </c>
       <c r="E40">
-        <v>100.604118</v>
+        <v>100.4851346</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2564,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K40" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M40">
         <v>38</v>
@@ -2578,19 +2626,19 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D41">
-        <v>13.86019768</v>
+        <v>13.74512653</v>
       </c>
       <c r="E41">
-        <v>100.7223304</v>
+        <v>100.5298302</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2605,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K41" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M41">
         <v>39</v>
@@ -2625,13 +2673,13 @@
         <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D42">
-        <v>13.8578211</v>
+        <v>13.8330877</v>
       </c>
       <c r="E42">
-        <v>100.4105189</v>
+        <v>100.499237</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2646,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K42" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M42">
         <v>40</v>
@@ -2660,25 +2708,25 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D43">
-        <v>14.1487352</v>
+        <v>13.7689441</v>
       </c>
       <c r="E43">
-        <v>100.6155778</v>
+        <v>100.5046383</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" t="s">
-        <v>100</v>
+      <c r="G43">
+        <v>0</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2687,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K43" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="M43">
         <v>41</v>
@@ -2701,19 +2749,19 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D44">
-        <v>13.8057625</v>
+        <v>14.0782451</v>
       </c>
       <c r="E44">
-        <v>100.6621959</v>
+        <v>100.604118</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2728,13 +2776,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K44" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="M44">
         <v>42</v>
@@ -2748,13 +2796,13 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D45">
-        <v>14.01215068</v>
+        <v>13.86019768</v>
       </c>
       <c r="E45">
-        <v>100.17523</v>
+        <v>100.7223304</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2769,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K45" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="M45">
         <v>43</v>
@@ -2783,19 +2831,19 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D46">
-        <v>13.8134088</v>
+        <v>13.8578211</v>
       </c>
       <c r="E46">
-        <v>100.5616103</v>
+        <v>100.4105189</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2810,13 +2858,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K46" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M46">
         <v>44</v>
@@ -2824,19 +2872,19 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D47">
-        <v>13.816493</v>
+        <v>13.87779142</v>
       </c>
       <c r="E47">
-        <v>100.5610062</v>
+        <v>100.4215436</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2851,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K47" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M47">
         <v>45</v>
@@ -2868,22 +2916,22 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D48">
-        <v>13.7966595</v>
+        <v>14.1487352</v>
       </c>
       <c r="E48">
-        <v>100.4755856</v>
+        <v>100.6155778</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
-      <c r="G48">
-        <v>0</v>
+      <c r="G48" t="s">
+        <v>107</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2892,13 +2940,13 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K48" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M48">
         <v>46</v>
@@ -2906,19 +2954,19 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D49">
-        <v>13.5579068</v>
+        <v>13.8057625</v>
       </c>
       <c r="E49">
-        <v>100.270829</v>
+        <v>100.6621959</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2933,13 +2981,13 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K49" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="M49">
         <v>47</v>
@@ -2950,16 +2998,16 @@
         <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D50">
-        <v>13.7937004</v>
+        <v>14.01215068</v>
       </c>
       <c r="E50">
-        <v>100.6923144</v>
+        <v>100.17523</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2974,13 +3022,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K50" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M50">
         <v>48</v>
@@ -2988,19 +3036,19 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D51">
-        <v>13.5455607</v>
+        <v>13.8134088</v>
       </c>
       <c r="E51">
-        <v>100.2767611</v>
+        <v>100.5616103</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3015,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K51" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M51">
         <v>49</v>
@@ -3029,19 +3077,19 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D52">
-        <v>13.7204469</v>
+        <v>13.816493</v>
       </c>
       <c r="E52">
-        <v>100.5004708</v>
+        <v>100.5610062</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3056,13 +3104,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K52" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="M52">
         <v>50</v>
@@ -3073,16 +3121,16 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D53">
-        <v>14.3355326</v>
+        <v>13.7966595</v>
       </c>
       <c r="E53">
-        <v>100.87017</v>
+        <v>100.4755856</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3097,13 +3145,13 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K53" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M53">
         <v>51</v>
@@ -3111,19 +3159,19 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D54">
-        <v>14.5786407</v>
+        <v>13.5579068</v>
       </c>
       <c r="E54">
-        <v>100.9662444</v>
+        <v>100.270829</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3138,13 +3186,13 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K54" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="M54">
         <v>52</v>
@@ -3152,19 +3200,19 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D55">
-        <v>14.5116599</v>
+        <v>13.7937004</v>
       </c>
       <c r="E55">
-        <v>100.9094134</v>
+        <v>100.6923144</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3179,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K55" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M55">
         <v>53</v>
@@ -3193,19 +3241,19 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D56">
-        <v>14.1378761</v>
+        <v>13.5455607</v>
       </c>
       <c r="E56">
-        <v>100.8255049</v>
+        <v>100.2767611</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3220,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K56" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M56">
         <v>54</v>
@@ -3234,19 +3282,19 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D57">
-        <v>14.06566869</v>
+        <v>13.7204469</v>
       </c>
       <c r="E57">
-        <v>99.9821468</v>
+        <v>100.5004708</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3261,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M57">
         <v>55</v>
@@ -3278,16 +3326,16 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D58">
-        <v>13.8220818</v>
+        <v>14.3355326</v>
       </c>
       <c r="E58">
-        <v>100.4241012</v>
+        <v>100.87017</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3302,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K58" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="M58">
         <v>56</v>
@@ -3316,19 +3364,19 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D59">
-        <v>13.8683169</v>
+        <v>14.5786407</v>
       </c>
       <c r="E59">
-        <v>100.4107308</v>
+        <v>100.9662444</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3343,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K59" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="M59">
         <v>57</v>
@@ -3357,19 +3405,19 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D60">
-        <v>13.8781452</v>
+        <v>14.5116599</v>
       </c>
       <c r="E60">
-        <v>100.4091302</v>
+        <v>100.9094134</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3384,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K60" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="M60">
         <v>58</v>
@@ -3398,19 +3446,19 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
         <v>36</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D61">
-        <v>13.73541413</v>
+        <v>14.1378761</v>
       </c>
       <c r="E61">
-        <v>100.5877998</v>
+        <v>100.8255049</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3425,13 +3473,13 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K61" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M61">
         <v>59</v>
@@ -3439,19 +3487,19 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
         <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D62">
-        <v>13.78766192</v>
+        <v>14.06566869</v>
       </c>
       <c r="E62">
-        <v>100.5105938</v>
+        <v>99.9821468</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3466,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K62" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="M62">
         <v>60</v>
@@ -3480,19 +3528,19 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
         <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D63">
-        <v>13.5951449</v>
+        <v>13.8220612</v>
       </c>
       <c r="E63">
-        <v>100.5802135</v>
+        <v>100.421874</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3507,13 +3555,13 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K63" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="M63">
         <v>61</v>
@@ -3521,19 +3569,19 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D64">
-        <v>13.7462524</v>
+        <v>13.8683169</v>
       </c>
       <c r="E64">
-        <v>100.5328635</v>
+        <v>100.4107308</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3548,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K64" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M64">
         <v>62</v>
@@ -3562,19 +3610,19 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D65">
-        <v>13.7243591</v>
+        <v>13.8781452</v>
       </c>
       <c r="E65">
-        <v>100.5386589</v>
+        <v>100.4091302</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3589,13 +3637,13 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K65" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M65">
         <v>63</v>
@@ -3603,19 +3651,19 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D66">
-        <v>13.54974685</v>
+        <v>13.73541413</v>
       </c>
       <c r="E66">
-        <v>100.2561435</v>
+        <v>100.5877998</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3630,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K66" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="M66">
         <v>64</v>
@@ -3644,19 +3692,19 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D67">
-        <v>14.45160513</v>
+        <v>13.78766192</v>
       </c>
       <c r="E67">
-        <v>100.7230585</v>
+        <v>100.5105938</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3671,16 +3719,221 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K67" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="M67">
         <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68">
+        <v>13.5951449</v>
+      </c>
+      <c r="E68">
+        <v>100.5802135</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>110</v>
+      </c>
+      <c r="K68" t="s">
+        <v>162</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69">
+        <v>13.7462524</v>
+      </c>
+      <c r="E69">
+        <v>100.5328635</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>110</v>
+      </c>
+      <c r="K69" t="s">
+        <v>163</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70">
+        <v>13.7243591</v>
+      </c>
+      <c r="E70">
+        <v>100.5386589</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>110</v>
+      </c>
+      <c r="K70" t="s">
+        <v>164</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71">
+        <v>13.54974685</v>
+      </c>
+      <c r="E71">
+        <v>100.2561435</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>110</v>
+      </c>
+      <c r="K71" t="s">
+        <v>165</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72">
+        <v>14.45160513</v>
+      </c>
+      <c r="E72">
+        <v>100.7230585</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>110</v>
+      </c>
+      <c r="K72" t="s">
+        <v>166</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M72">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3739,18 +3992,23 @@
     <hyperlink ref="L53" r:id="rId52"/>
     <hyperlink ref="L54" r:id="rId53"/>
     <hyperlink ref="L55" r:id="rId54"/>
-    <hyperlink ref="L56" r:id="rId55" location="cxrecs_s"/>
+    <hyperlink ref="L56" r:id="rId55"/>
     <hyperlink ref="L57" r:id="rId56"/>
     <hyperlink ref="L58" r:id="rId57"/>
     <hyperlink ref="L59" r:id="rId58"/>
     <hyperlink ref="L60" r:id="rId59"/>
-    <hyperlink ref="L61" r:id="rId60"/>
+    <hyperlink ref="L61" r:id="rId60" location="cxrecs_s"/>
     <hyperlink ref="L62" r:id="rId61"/>
     <hyperlink ref="L63" r:id="rId62"/>
     <hyperlink ref="L64" r:id="rId63"/>
     <hyperlink ref="L65" r:id="rId64"/>
     <hyperlink ref="L66" r:id="rId65"/>
     <hyperlink ref="L67" r:id="rId66"/>
+    <hyperlink ref="L68" r:id="rId67"/>
+    <hyperlink ref="L69" r:id="rId68"/>
+    <hyperlink ref="L70" r:id="rId69"/>
+    <hyperlink ref="L71" r:id="rId70"/>
+    <hyperlink ref="L72" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="208">
   <si>
     <t>id</t>
   </si>
@@ -337,21 +337,30 @@
     <t>ตลาดหน้าสถานีรถไฟภาชี</t>
   </si>
   <si>
+    <t>สีลมคอมเพล็ก</t>
+  </si>
+  <si>
+    <t>เดอะมอลล์ บางกะปิ</t>
+  </si>
+  <si>
+    <t>เดอะมอลล์ บางแค</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
     <t>female</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>Thai</t>
   </si>
   <si>
     <t>Thailand</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>ชาย อายุ 43 ปี ลูกเรือเครื่องบินทหาร บินจากอียิปต์ถึงอู่ตะเภา 8 ก.ค. พักโรงแรมแห่งหนึ่งที่ระยอง มีประวัติเดินทางไปสถานที่ต่างๆ เช่นห้างสรรพสินค้า ก่อนบินไปจีนเช้าเย็นกลับในวันที่ 9 ก.ค. ตรวจพบติดเชื้อโควิด-19 และบินกลับประเทศต้นทางไปแล้วเมื่อ 11 กค.</t>
   </si>
   <si>
@@ -439,7 +448,7 @@
     <t xml:space="preserve">เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 13 ธ.ค. เวลา 12.00 น. ขึ้นบีทีเอสจากสถานีห้าแยกลาดพร้าว ไปลง สถานีราชเทวี และไปร้านกาแฟใกล้สถานี </t>
   </si>
   <si>
-    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. นัดคุยงานกับลูกค้าที่บริษัทคูโบต้า สาขานวนคร รังสิต</t>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. นัดคุยงานกับลูกค้าที่บริษัทคูโบต้า นวนคร</t>
   </si>
   <si>
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. แวะบิ๊กซี สาขานวนคร เพื่อเปลี่ยนชุด</t>
@@ -457,6 +466,9 @@
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20</t>
   </si>
   <si>
+    <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. แวะมาบุญครอง</t>
+  </si>
+  <si>
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
@@ -520,6 +532,15 @@
     <t>แม่ค้าอาหารทะเล ติดเชื้อจากการเดินทางไปตลาดทะเลไทย จ.สมุทรสาคร</t>
   </si>
   <si>
+    <t>ศูนย์การค้าสีลมคอมเพล็กซ์ ประกาศทำความสะอาดตามมาตรการความปลอดภัยขั้นสูงสุด หลังผู้ป่วย "โควิด-19" ไปใช้บริการในร้านอาหารภายในห้าง</t>
+  </si>
+  <si>
+    <t>เดอะมอลล์บางกะปิ ได้ระบุว่า พบผู้ป่วยมาใช้บริการที่ ร้านยำแซ่บ จึงได้ดำเนินการปิดร้านดังกล่าว 3 วัน ตั้งแต่วันที่ 23-25 ธ.ค. พร้อมทำความสะอาด ฆ่าเชื้อโรคในร้าน พร้อมให้พนักงานหยุดปฏิบัติหน้าที่ และทำความสะอาดภายในศูนย์การค้า</t>
+  </si>
+  <si>
+    <t>เดอะมอลล์ บางแค ได้ระบุว่า มีผู้ป่วยเข้ามาใช้บริการที่ ร้าน Dtac และร้าน I Care จากการตรวจสอบ ได้ให้ร้านดังกล่าวปิดเป็นเวลา 3 วัน ตั้งแต่วันที่ 23-25 ธ.ค. พร้อมทำความสะอาด และให้พนักงานหยุดปฏิบัติหน้าที่ เป็นเวลา 14 วัน พร้อมทำความสะอาดห้างตามมาตรการควบคุมโรค</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -611,6 +632,12 @@
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1999848</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/local/2000605</t>
+  </si>
+  <si>
+    <t>https://today.line.me/th/v2/article/vLe2Mj?utm_source=lineshare</t>
   </si>
 </sst>
 </file>
@@ -981,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1107,13 +1134,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1151,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1195,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1239,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1274,22 +1301,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1318,22 +1345,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1362,22 +1389,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1406,22 +1433,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1450,22 +1477,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1494,22 +1521,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1538,22 +1565,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1582,22 +1609,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1626,22 +1653,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1670,22 +1697,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1714,22 +1741,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J17" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1758,22 +1785,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1802,22 +1829,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J19" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1846,22 +1873,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1890,22 +1917,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L21" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1934,22 +1961,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J22" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L22" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1978,22 +2005,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2022,22 +2049,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L24" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2066,22 +2093,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2110,22 +2137,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J26" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L26" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2154,22 +2181,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L27" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2198,22 +2225,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J28" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2241,23 +2268,23 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
+      <c r="H29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" t="s">
+        <v>113</v>
+      </c>
+      <c r="J29" t="s">
+        <v>114</v>
       </c>
       <c r="K29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2288,20 +2315,20 @@
       <c r="H30">
         <v>0</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
+      <c r="I30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" t="s">
+        <v>114</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L30" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2332,20 +2359,20 @@
       <c r="H31">
         <v>0</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
+      <c r="I31" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" t="s">
+        <v>114</v>
       </c>
       <c r="K31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2376,20 +2403,20 @@
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
+      <c r="I32" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" t="s">
+        <v>114</v>
       </c>
       <c r="K32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L32" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2417,23 +2444,23 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
+      <c r="H33" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" t="s">
+        <v>114</v>
       </c>
       <c r="K33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L33" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2461,23 +2488,23 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
+      <c r="H34" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" t="s">
+        <v>114</v>
       </c>
       <c r="K34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2505,23 +2532,23 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" t="s">
+        <v>114</v>
       </c>
       <c r="K35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L35" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2549,23 +2576,23 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
+      <c r="H36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" t="s">
+        <v>114</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L36" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2593,23 +2620,23 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
+      <c r="H37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" t="s">
+        <v>113</v>
+      </c>
+      <c r="J37" t="s">
+        <v>114</v>
       </c>
       <c r="K37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L37" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2637,23 +2664,23 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
+      <c r="H38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" t="s">
+        <v>113</v>
+      </c>
+      <c r="J38" t="s">
+        <v>114</v>
       </c>
       <c r="K38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2684,20 +2711,20 @@
       <c r="H39">
         <v>0</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
+      <c r="I39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
+        <v>114</v>
       </c>
       <c r="K39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L39" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2725,23 +2752,23 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
+      <c r="H40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I40" t="s">
+        <v>113</v>
+      </c>
+      <c r="J40" t="s">
+        <v>114</v>
       </c>
       <c r="K40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2769,23 +2796,23 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
+      <c r="H41" t="s">
+        <v>110</v>
+      </c>
+      <c r="I41" t="s">
+        <v>113</v>
+      </c>
+      <c r="J41" t="s">
+        <v>114</v>
       </c>
       <c r="K41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L41" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2813,23 +2840,23 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
+      <c r="H42" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" t="s">
+        <v>113</v>
+      </c>
+      <c r="J42" t="s">
+        <v>114</v>
       </c>
       <c r="K42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L42" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2857,23 +2884,23 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
+      <c r="H43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" t="s">
+        <v>113</v>
+      </c>
+      <c r="J43" t="s">
+        <v>114</v>
       </c>
       <c r="K43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2904,20 +2931,20 @@
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
+      <c r="I44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J44" t="s">
+        <v>114</v>
       </c>
       <c r="K44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L44" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2943,25 +2970,25 @@
         <v>100.7223304</v>
       </c>
       <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="H45" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" t="s">
+        <v>113</v>
+      </c>
+      <c r="J45" t="s">
+        <v>114</v>
       </c>
       <c r="K45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L45" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -2989,23 +3016,23 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
+      <c r="H46" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" t="s">
+        <v>113</v>
+      </c>
+      <c r="J46" t="s">
+        <v>114</v>
       </c>
       <c r="K46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L46" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3033,23 +3060,23 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
+      <c r="H47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" t="s">
+        <v>113</v>
+      </c>
+      <c r="J47" t="s">
+        <v>114</v>
       </c>
       <c r="K47" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L47" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3078,22 +3105,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>108</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="I48" t="s">
+        <v>113</v>
+      </c>
+      <c r="J48" t="s">
+        <v>114</v>
       </c>
       <c r="K48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L48" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3121,23 +3148,23 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
+      <c r="H49" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" t="s">
+        <v>113</v>
+      </c>
+      <c r="J49" t="s">
+        <v>114</v>
       </c>
       <c r="K49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L49" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3165,23 +3192,23 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
+      <c r="H50" t="s">
+        <v>110</v>
+      </c>
+      <c r="I50" t="s">
+        <v>113</v>
+      </c>
+      <c r="J50" t="s">
+        <v>114</v>
       </c>
       <c r="K50" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L50" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3209,23 +3236,23 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
+      <c r="H51" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" t="s">
+        <v>113</v>
+      </c>
+      <c r="J51" t="s">
+        <v>114</v>
       </c>
       <c r="K51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3253,23 +3280,23 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
+      <c r="H52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" t="s">
+        <v>113</v>
+      </c>
+      <c r="J52" t="s">
+        <v>114</v>
       </c>
       <c r="K52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L52" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3297,23 +3324,23 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
+      <c r="H53" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" t="s">
+        <v>113</v>
+      </c>
+      <c r="J53" t="s">
+        <v>114</v>
       </c>
       <c r="K53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L53" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3344,20 +3371,20 @@
       <c r="H54">
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
+      <c r="I54" t="s">
+        <v>113</v>
+      </c>
+      <c r="J54" t="s">
+        <v>114</v>
       </c>
       <c r="K54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L54" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3385,23 +3412,23 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
+      <c r="H55" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" t="s">
+        <v>113</v>
+      </c>
+      <c r="J55" t="s">
+        <v>114</v>
       </c>
       <c r="K55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L55" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3429,23 +3456,23 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
+      <c r="H56" t="s">
+        <v>111</v>
+      </c>
+      <c r="I56" t="s">
+        <v>113</v>
+      </c>
+      <c r="J56" t="s">
+        <v>114</v>
       </c>
       <c r="K56" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L56" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3473,23 +3500,23 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
+      <c r="H57" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57" t="s">
+        <v>113</v>
+      </c>
+      <c r="J57" t="s">
+        <v>114</v>
       </c>
       <c r="K57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L57" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3520,20 +3547,20 @@
       <c r="H58">
         <v>0</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
+      <c r="I58" t="s">
+        <v>113</v>
+      </c>
+      <c r="J58" t="s">
+        <v>114</v>
       </c>
       <c r="K58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L58" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3564,20 +3591,20 @@
       <c r="H59">
         <v>0</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
+      <c r="I59" t="s">
+        <v>113</v>
+      </c>
+      <c r="J59" t="s">
+        <v>114</v>
       </c>
       <c r="K59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L59" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3608,20 +3635,20 @@
       <c r="H60">
         <v>0</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
+      <c r="I60" t="s">
+        <v>113</v>
+      </c>
+      <c r="J60" t="s">
+        <v>114</v>
       </c>
       <c r="K60" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L60" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3652,20 +3679,20 @@
       <c r="H61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
+      <c r="I61" t="s">
+        <v>113</v>
+      </c>
+      <c r="J61" t="s">
+        <v>114</v>
       </c>
       <c r="K61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L61" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3693,23 +3720,23 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
+      <c r="H62" t="s">
+        <v>110</v>
+      </c>
+      <c r="I62" t="s">
+        <v>113</v>
+      </c>
+      <c r="J62" t="s">
+        <v>114</v>
       </c>
       <c r="K62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L62" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3737,23 +3764,23 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
+      <c r="H63" t="s">
+        <v>111</v>
+      </c>
+      <c r="I63" t="s">
+        <v>113</v>
+      </c>
+      <c r="J63" t="s">
+        <v>114</v>
       </c>
       <c r="K63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L63" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3781,23 +3808,23 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
+      <c r="H64" t="s">
+        <v>110</v>
+      </c>
+      <c r="I64" t="s">
+        <v>113</v>
+      </c>
+      <c r="J64" t="s">
+        <v>114</v>
       </c>
       <c r="K64" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L64" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3825,23 +3852,23 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
+      <c r="H65" t="s">
+        <v>110</v>
+      </c>
+      <c r="I65" t="s">
+        <v>113</v>
+      </c>
+      <c r="J65" t="s">
+        <v>114</v>
       </c>
       <c r="K65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L65" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3872,20 +3899,20 @@
       <c r="H66">
         <v>0</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
+      <c r="I66" t="s">
+        <v>113</v>
+      </c>
+      <c r="J66" t="s">
+        <v>114</v>
       </c>
       <c r="K66" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L66" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3916,20 +3943,20 @@
       <c r="H67">
         <v>0</v>
       </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
+      <c r="I67" t="s">
+        <v>113</v>
+      </c>
+      <c r="J67" t="s">
+        <v>114</v>
       </c>
       <c r="K67" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L67" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3957,23 +3984,23 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
+      <c r="H68" t="s">
+        <v>110</v>
+      </c>
+      <c r="I68" t="s">
+        <v>113</v>
+      </c>
+      <c r="J68" t="s">
+        <v>114</v>
       </c>
       <c r="K68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L68" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4004,20 +4031,20 @@
       <c r="H69">
         <v>0</v>
       </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
+      <c r="I69" t="s">
+        <v>113</v>
+      </c>
+      <c r="J69" t="s">
+        <v>114</v>
       </c>
       <c r="K69" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L69" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4048,20 +4075,20 @@
       <c r="H70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
+      <c r="I70" t="s">
+        <v>113</v>
+      </c>
+      <c r="J70" t="s">
+        <v>114</v>
       </c>
       <c r="K70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L70" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4089,23 +4116,23 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
+      <c r="H71" t="s">
+        <v>111</v>
+      </c>
+      <c r="I71" t="s">
+        <v>113</v>
+      </c>
+      <c r="J71" t="s">
+        <v>114</v>
       </c>
       <c r="K71" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L71" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4133,25 +4160,157 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
+      <c r="H72" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72" t="s">
+        <v>113</v>
+      </c>
+      <c r="J72" t="s">
+        <v>114</v>
       </c>
       <c r="K72" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L72" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73">
+        <v>13.72836497</v>
+      </c>
+      <c r="F73">
+        <v>100.5350858</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>112</v>
+      </c>
+      <c r="I73" t="s">
+        <v>113</v>
+      </c>
+      <c r="J73" t="s">
+        <v>114</v>
+      </c>
+      <c r="K73" t="s">
+        <v>112</v>
+      </c>
+      <c r="L73" t="s">
+        <v>172</v>
+      </c>
+      <c r="M73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74">
+        <v>13.7660558</v>
+      </c>
+      <c r="F74">
+        <v>100.6403032</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>112</v>
+      </c>
+      <c r="I74" t="s">
+        <v>113</v>
+      </c>
+      <c r="J74" t="s">
+        <v>114</v>
+      </c>
+      <c r="K74" t="s">
+        <v>112</v>
+      </c>
+      <c r="L74" t="s">
+        <v>173</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75">
+        <v>13.710361</v>
+      </c>
+      <c r="F75">
+        <v>100.4073817</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>112</v>
+      </c>
+      <c r="I75" t="s">
+        <v>113</v>
+      </c>
+      <c r="J75" t="s">
+        <v>114</v>
+      </c>
+      <c r="K75" t="s">
+        <v>112</v>
+      </c>
+      <c r="L75" t="s">
+        <v>174</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N75">
         <v>0</v>
       </c>
     </row>
@@ -4228,6 +4387,9 @@
     <hyperlink ref="M70" r:id="rId69"/>
     <hyperlink ref="M71" r:id="rId70"/>
     <hyperlink ref="M72" r:id="rId71"/>
+    <hyperlink ref="M73" r:id="rId72"/>
+    <hyperlink ref="M74" r:id="rId73"/>
+    <hyperlink ref="M75" r:id="rId74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="213">
   <si>
     <t>id</t>
   </si>
@@ -268,9 +268,15 @@
     <t>ร้านชาบู ในตลาดพระปิ่น 3</t>
   </si>
   <si>
+    <t>ตลาดสดเคหะบางบัว</t>
+  </si>
+  <si>
     <t>ซ.รุ่งเรือง 5 บางบัวทอง</t>
   </si>
   <si>
+    <t>ตลาดแจ้งวัฒนะ ซ.6</t>
+  </si>
+  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
@@ -313,6 +319,9 @@
     <t>ตลาดการ์เด้นตรงข้ามซอยแก้วอินทร์</t>
   </si>
   <si>
+    <t>ปากซ.พหลโยธิน 52</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -475,6 +484,9 @@
     <t>ผู้ป่วยโควิด-19 ชายวัย 37 ปี ส่งอาหารทะเลจากสมุทรสาคร ไปยังตลาดคลองสามวา และตลาดในจังหวัดปทุมธานี 2 แห่ง ระหว่างวันที่ 1-17 ธันวาคม 2563</t>
   </si>
   <si>
+    <t>เคสผู้ติดเชื้อโควิด-19 ชาย คนขายอาหารทะเลปากซ.พหล52</t>
+  </si>
+  <si>
     <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>
   </si>
   <si>
@@ -593,6 +605,9 @@
   </si>
   <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/814914</t>
   </si>
   <si>
     <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
@@ -1008,7 +1023,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1134,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1178,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1222,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1266,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1301,22 +1316,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1345,22 +1360,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1389,22 +1404,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1433,22 +1448,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1477,22 +1492,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1521,22 +1536,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1565,22 +1580,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1609,22 +1624,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1653,22 +1668,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1697,22 +1712,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1741,22 +1756,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1785,22 +1800,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L18" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1829,22 +1844,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L19" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1873,22 +1888,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1917,22 +1932,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1961,22 +1976,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K22" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L22" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2005,22 +2020,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2049,22 +2064,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L24" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2093,22 +2108,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I25" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2137,22 +2152,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I26" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K26" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L26" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2181,22 +2196,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I27" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L27" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2225,22 +2240,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I28" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K28" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L28" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2269,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K29" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L29" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2316,19 +2331,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K30" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2360,19 +2375,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L31" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2404,19 +2419,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K32" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2445,22 +2460,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L33" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2489,22 +2504,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K34" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L34" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2533,22 +2548,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K35" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L35" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2577,22 +2592,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I36" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J36" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K36" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L36" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2621,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I37" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J37" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K37" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2665,22 +2680,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I38" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K38" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2712,19 +2727,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J39" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K39" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L39" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2753,22 +2768,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I40" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J40" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K40" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L40" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2797,22 +2812,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I41" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J41" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K41" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L41" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2841,22 +2856,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I42" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J42" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K42" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L42" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2885,22 +2900,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K43" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L43" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2932,19 +2947,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J44" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K44" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L44" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2973,22 +2988,22 @@
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I45" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K45" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L45" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3017,22 +3032,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I46" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J46" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K46" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L46" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3043,40 +3058,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" t="s">
         <v>84</v>
       </c>
       <c r="E47">
-        <v>13.87779142</v>
+        <v>13.85934159</v>
       </c>
       <c r="F47">
-        <v>100.4215436</v>
+        <v>100.5849015</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I47" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J47" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K47" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L47" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3087,40 +3102,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
         <v>85</v>
       </c>
       <c r="E48">
-        <v>14.1487352</v>
+        <v>13.87779142</v>
       </c>
       <c r="F48">
-        <v>100.6155778</v>
+        <v>100.4215436</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I48" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J48" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K48" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3131,40 +3146,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
         <v>86</v>
       </c>
       <c r="E49">
-        <v>13.8057625</v>
+        <v>13.88376994</v>
       </c>
       <c r="F49">
-        <v>100.6621959</v>
+        <v>100.5843207</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I49" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J49" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K49" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L49" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3175,7 +3190,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
         <v>36</v>
@@ -3184,31 +3199,31 @@
         <v>87</v>
       </c>
       <c r="E50">
-        <v>14.01215068</v>
+        <v>14.1487352</v>
       </c>
       <c r="F50">
-        <v>100.17523</v>
+        <v>100.6155778</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I50" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J50" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K50" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L50" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3219,7 +3234,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>36</v>
@@ -3228,31 +3243,31 @@
         <v>88</v>
       </c>
       <c r="E51">
-        <v>13.8134088</v>
+        <v>13.8057625</v>
       </c>
       <c r="F51">
-        <v>100.5616103</v>
+        <v>100.6621959</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I51" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J51" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L51" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3263,7 +3278,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
         <v>36</v>
@@ -3272,31 +3287,31 @@
         <v>89</v>
       </c>
       <c r="E52">
-        <v>13.816493</v>
+        <v>14.01215068</v>
       </c>
       <c r="F52">
-        <v>100.5610062</v>
+        <v>100.17523</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J52" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K52" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L52" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3316,31 +3331,31 @@
         <v>90</v>
       </c>
       <c r="E53">
-        <v>13.7966595</v>
+        <v>13.8134088</v>
       </c>
       <c r="F53">
-        <v>100.4755856</v>
+        <v>100.5616103</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I53" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J53" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K53" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L53" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3351,40 +3366,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D54" t="s">
         <v>91</v>
       </c>
       <c r="E54">
-        <v>13.5579068</v>
+        <v>13.816493</v>
       </c>
       <c r="F54">
-        <v>100.270829</v>
+        <v>100.5610062</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54">
-        <v>0</v>
+      <c r="H54" t="s">
+        <v>114</v>
       </c>
       <c r="I54" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J54" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K54" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L54" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3395,40 +3410,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
         <v>92</v>
       </c>
       <c r="E55">
-        <v>13.7937004</v>
+        <v>13.7966595</v>
       </c>
       <c r="F55">
-        <v>100.6923144</v>
+        <v>100.4755856</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I55" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J55" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K55" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L55" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3448,31 +3463,31 @@
         <v>93</v>
       </c>
       <c r="E56">
-        <v>13.5455607</v>
+        <v>13.5579068</v>
       </c>
       <c r="F56">
-        <v>100.2767611</v>
+        <v>100.270829</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" t="s">
-        <v>111</v>
+      <c r="H56">
+        <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K56" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L56" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3483,7 +3498,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
         <v>37</v>
@@ -3492,31 +3507,31 @@
         <v>94</v>
       </c>
       <c r="E57">
-        <v>13.7204469</v>
+        <v>13.7937004</v>
       </c>
       <c r="F57">
-        <v>100.5004708</v>
+        <v>100.6923144</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J57" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K57" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L57" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3527,40 +3542,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58">
-        <v>14.3355326</v>
+        <v>13.5455607</v>
       </c>
       <c r="F58">
-        <v>100.87017</v>
+        <v>100.2767611</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>0</v>
+      <c r="H58" t="s">
+        <v>114</v>
       </c>
       <c r="I58" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J58" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K58" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L58" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3571,40 +3586,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59">
-        <v>14.5786407</v>
+        <v>13.7204469</v>
       </c>
       <c r="F59">
-        <v>100.9662444</v>
+        <v>100.5004708</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>0</v>
+      <c r="H59" t="s">
+        <v>114</v>
       </c>
       <c r="I59" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J59" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K59" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L59" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3621,13 +3636,13 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60">
-        <v>14.5116599</v>
+        <v>14.3355326</v>
       </c>
       <c r="F60">
-        <v>100.9094134</v>
+        <v>100.87017</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3636,19 +3651,19 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J60" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K60" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L60" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3659,19 +3674,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E61">
-        <v>14.1378761</v>
+        <v>14.5786407</v>
       </c>
       <c r="F61">
-        <v>100.8255049</v>
+        <v>100.9662444</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -3680,19 +3695,19 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J61" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K61" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L61" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3703,7 +3718,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
         <v>37</v>
@@ -3712,31 +3727,31 @@
         <v>96</v>
       </c>
       <c r="E62">
-        <v>14.06566869</v>
+        <v>14.5116599</v>
       </c>
       <c r="F62">
-        <v>99.9821468</v>
+        <v>100.9094134</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62" t="s">
-        <v>110</v>
+      <c r="H62">
+        <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J62" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K62" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L62" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3747,7 +3762,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
         <v>37</v>
@@ -3756,31 +3771,31 @@
         <v>97</v>
       </c>
       <c r="E63">
-        <v>13.8220612</v>
+        <v>14.1378761</v>
       </c>
       <c r="F63">
-        <v>100.421874</v>
+        <v>100.8255049</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63" t="s">
-        <v>111</v>
+      <c r="H63">
+        <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L63" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3800,31 +3815,31 @@
         <v>98</v>
       </c>
       <c r="E64">
-        <v>13.8683169</v>
+        <v>14.06566869</v>
       </c>
       <c r="F64">
-        <v>100.4107308</v>
+        <v>99.9821468</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J64" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K64" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L64" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3835,40 +3850,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
         <v>99</v>
       </c>
       <c r="E65">
-        <v>13.8781452</v>
+        <v>13.8220612</v>
       </c>
       <c r="F65">
-        <v>100.4091302</v>
+        <v>100.421874</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I65" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J65" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K65" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L65" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3879,40 +3894,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D66" t="s">
         <v>100</v>
       </c>
       <c r="E66">
-        <v>13.73541413</v>
+        <v>13.8683169</v>
       </c>
       <c r="F66">
-        <v>100.5877998</v>
+        <v>100.4107308</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66">
-        <v>0</v>
+      <c r="H66" t="s">
+        <v>113</v>
       </c>
       <c r="I66" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J66" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K66" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L66" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3926,37 +3941,37 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
         <v>101</v>
       </c>
       <c r="E67">
-        <v>13.78766192</v>
+        <v>13.89757086</v>
       </c>
       <c r="F67">
-        <v>100.5105938</v>
+        <v>100.6098027</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>0</v>
+      <c r="H67" t="s">
+        <v>113</v>
       </c>
       <c r="I67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J67" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K67" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L67" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3967,40 +3982,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
         <v>102</v>
       </c>
       <c r="E68">
-        <v>13.5951449</v>
+        <v>13.8781452</v>
       </c>
       <c r="F68">
-        <v>100.5802135</v>
+        <v>100.4091302</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I68" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J68" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K68" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L68" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4011,19 +4026,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
         <v>103</v>
       </c>
       <c r="E69">
-        <v>13.7462524</v>
+        <v>13.73541413</v>
       </c>
       <c r="F69">
-        <v>100.5328635</v>
+        <v>100.5877998</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4032,19 +4047,19 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J69" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K69" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L69" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4055,19 +4070,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
         <v>104</v>
       </c>
       <c r="E70">
-        <v>13.7243591</v>
+        <v>13.78766192</v>
       </c>
       <c r="F70">
-        <v>100.5386589</v>
+        <v>100.5105938</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4076,19 +4091,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J70" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K70" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4099,40 +4114,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
         <v>105</v>
       </c>
       <c r="E71">
-        <v>13.54974685</v>
+        <v>13.5951449</v>
       </c>
       <c r="F71">
-        <v>100.2561435</v>
+        <v>100.5802135</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I71" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J71" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K71" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L71" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4143,7 +4158,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>40</v>
@@ -4152,31 +4167,31 @@
         <v>106</v>
       </c>
       <c r="E72">
-        <v>14.45160513</v>
+        <v>13.7462524</v>
       </c>
       <c r="F72">
-        <v>100.7230585</v>
+        <v>100.5328635</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72" t="s">
-        <v>111</v>
+      <c r="H72">
+        <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J72" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K72" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4187,7 +4202,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
         <v>40</v>
@@ -4196,31 +4211,31 @@
         <v>107</v>
       </c>
       <c r="E73">
-        <v>13.72836497</v>
+        <v>13.7243591</v>
       </c>
       <c r="F73">
-        <v>100.5350858</v>
+        <v>100.5386589</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73" t="s">
-        <v>112</v>
+      <c r="H73">
+        <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J73" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K73" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4231,7 +4246,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>40</v>
@@ -4240,31 +4255,31 @@
         <v>108</v>
       </c>
       <c r="E74">
-        <v>13.7660558</v>
+        <v>13.54974685</v>
       </c>
       <c r="F74">
-        <v>100.6403032</v>
+        <v>100.2561435</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I74" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J74" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K74" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4275,7 +4290,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
         <v>40</v>
@@ -4284,33 +4299,165 @@
         <v>109</v>
       </c>
       <c r="E75">
+        <v>14.45160513</v>
+      </c>
+      <c r="F75">
+        <v>100.7230585</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>114</v>
+      </c>
+      <c r="I75" t="s">
+        <v>116</v>
+      </c>
+      <c r="J75" t="s">
+        <v>117</v>
+      </c>
+      <c r="K75" t="s">
+        <v>115</v>
+      </c>
+      <c r="L75" t="s">
+        <v>175</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76">
+        <v>13.72836497</v>
+      </c>
+      <c r="F76">
+        <v>100.5350858</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>115</v>
+      </c>
+      <c r="I76" t="s">
+        <v>116</v>
+      </c>
+      <c r="J76" t="s">
+        <v>117</v>
+      </c>
+      <c r="K76" t="s">
+        <v>115</v>
+      </c>
+      <c r="L76" t="s">
+        <v>176</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77">
+        <v>13.7660558</v>
+      </c>
+      <c r="F77">
+        <v>100.6403032</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>115</v>
+      </c>
+      <c r="I77" t="s">
+        <v>116</v>
+      </c>
+      <c r="J77" t="s">
+        <v>117</v>
+      </c>
+      <c r="K77" t="s">
+        <v>115</v>
+      </c>
+      <c r="L77" t="s">
+        <v>177</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78">
         <v>13.710361</v>
       </c>
-      <c r="F75">
+      <c r="F78">
         <v>100.4073817</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
-        <v>112</v>
-      </c>
-      <c r="I75" t="s">
-        <v>113</v>
-      </c>
-      <c r="J75" t="s">
-        <v>114</v>
-      </c>
-      <c r="K75" t="s">
-        <v>112</v>
-      </c>
-      <c r="L75" t="s">
-        <v>174</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="N75">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>115</v>
+      </c>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
+      <c r="J78" t="s">
+        <v>117</v>
+      </c>
+      <c r="K78" t="s">
+        <v>115</v>
+      </c>
+      <c r="L78" t="s">
+        <v>178</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N78">
         <v>0</v>
       </c>
     </row>
@@ -4375,9 +4522,9 @@
     <hyperlink ref="M58" r:id="rId57"/>
     <hyperlink ref="M59" r:id="rId58"/>
     <hyperlink ref="M60" r:id="rId59"/>
-    <hyperlink ref="M61" r:id="rId60" location="cxrecs_s"/>
+    <hyperlink ref="M61" r:id="rId60"/>
     <hyperlink ref="M62" r:id="rId61"/>
-    <hyperlink ref="M63" r:id="rId62"/>
+    <hyperlink ref="M63" r:id="rId62" location="cxrecs_s"/>
     <hyperlink ref="M64" r:id="rId63"/>
     <hyperlink ref="M65" r:id="rId64"/>
     <hyperlink ref="M66" r:id="rId65"/>
@@ -4390,6 +4537,9 @@
     <hyperlink ref="M73" r:id="rId72"/>
     <hyperlink ref="M74" r:id="rId73"/>
     <hyperlink ref="M75" r:id="rId74"/>
+    <hyperlink ref="M76" r:id="rId75"/>
+    <hyperlink ref="M77" r:id="rId76"/>
+    <hyperlink ref="M78" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -484,7 +484,7 @@
     <t>ผู้ป่วยโควิด-19 ชายวัย 37 ปี ส่งอาหารทะเลจากสมุทรสาคร ไปยังตลาดคลองสามวา และตลาดในจังหวัดปทุมธานี 2 แห่ง ระหว่างวันที่ 1-17 ธันวาคม 2563</t>
   </si>
   <si>
-    <t>เคสผู้ติดเชื้อโควิด-19 ชาย คนขายอาหารทะเลปากซ.พหล52</t>
+    <t>เคสผู้ติดเชื้อโควิด-19 ชายขายอาหารทะเลปากซ.พหล52</t>
   </si>
   <si>
     <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="220">
   <si>
     <t>id</t>
   </si>
@@ -139,6 +139,9 @@
     <t>2020-12-23</t>
   </si>
   <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
     <t>สนามบินอู่ตะเภา</t>
   </si>
   <si>
@@ -355,6 +358,12 @@
     <t>เดอะมอลล์ บางแค</t>
   </si>
   <si>
+    <t>อ.บ้านแหลม จ.เพชรบุรี</t>
+  </si>
+  <si>
+    <t>ทำเนียบรัฐบาล</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -553,6 +562,12 @@
     <t>เดอะมอลล์ บางแค ได้ระบุว่า มีผู้ป่วยเข้ามาใช้บริการที่ ร้าน Dtac และร้าน I Care จากการตรวจสอบ ได้ให้ร้านดังกล่าวปิดเป็นเวลา 3 วัน ตั้งแต่วันที่ 23-25 ธ.ค. พร้อมทำความสะอาด และให้พนักงานหยุดปฏิบัติหน้าที่ เป็นเวลา 14 วัน พร้อมทำความสะอาดห้างตามมาตรการควบคุมโรค</t>
   </si>
   <si>
+    <t>พบเคสแม่ค้าพ่อค้าอาหารทะเลติดเชื้อโควิด-19 เชื่อมโยงกรณีตลาดอาหารทะเลที่สมุทรสาคร</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สุ่มตรวจ กลุ่ม ข้าราชการและเจ้าหน้าที่ของ สลน. จำนวน 350 ราย โดยวิธีการตรวจหาภูมิคุ้มกัน COVID-19 ด้วยชุดทดสอบแบบรวดเร็ว หรือ Rapid Test ซึ่งเป็นการตรวจหาเชื้อโดยน้ำลาย ปรากฏว่ามี 6 รายที่มีผลเป็นบวก และเพื่อความแม่นยำในการตรวจสอบจึงได้ส่งทั้ง 6 ราย ทำการตรวจหาเชื้อจากโพรงจมูกและคอ </t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -653,6 +668,12 @@
   </si>
   <si>
     <t>https://today.line.me/th/v2/article/vLe2Mj?utm_source=lineshare</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/uptodate/detail/9630000131859</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/politics/news-582260</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1105,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>12.674583</v>
@@ -1105,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1128,7 +1149,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>13.7250712</v>
@@ -1149,13 +1170,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1172,7 +1193,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>12.6838253</v>
@@ -1193,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1216,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>12.6959971</v>
@@ -1237,13 +1258,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1260,7 +1281,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>12.6833042</v>
@@ -1281,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1304,7 +1325,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>13.653942</v>
@@ -1316,22 +1337,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1348,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>13.700916</v>
@@ -1360,22 +1381,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1392,7 +1413,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>13.829441</v>
@@ -1404,22 +1425,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1436,7 +1457,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>13.759791</v>
@@ -1448,22 +1469,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1480,7 +1501,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11">
         <v>13.845817</v>
@@ -1492,22 +1513,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1524,7 +1545,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>18.81089258</v>
@@ -1536,22 +1557,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1568,7 +1589,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>18.80951974</v>
@@ -1580,22 +1601,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1612,7 +1633,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>18.80401814</v>
@@ -1624,22 +1645,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1656,7 +1677,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>18.80732484</v>
@@ -1668,22 +1689,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1700,7 +1721,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16">
         <v>18.80709567</v>
@@ -1712,22 +1733,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1744,7 +1765,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17">
         <v>18.80650918</v>
@@ -1756,22 +1777,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1788,7 +1809,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18">
         <v>18.80657601</v>
@@ -1800,22 +1821,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1832,7 +1853,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>18.80658294</v>
@@ -1844,22 +1865,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I19" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1876,7 +1897,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>18.80675924</v>
@@ -1888,22 +1909,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1920,7 +1941,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>18.80629446</v>
@@ -1932,22 +1953,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L21" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1964,7 +1985,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>19.85327262</v>
@@ -1976,22 +1997,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2008,7 +2029,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>19.90661769</v>
@@ -2020,22 +2041,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2052,7 +2073,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24">
         <v>19.6476693</v>
@@ -2064,22 +2085,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I24" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2096,7 +2117,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E25">
         <v>13.7238495</v>
@@ -2108,22 +2129,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I25" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2140,7 +2161,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <v>13.7285268</v>
@@ -2152,22 +2173,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2184,7 +2205,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27">
         <v>13.7292718</v>
@@ -2196,22 +2217,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L27" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2228,7 +2249,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>14.896466</v>
@@ -2240,22 +2261,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L28" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2272,7 +2293,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29">
         <v>13.7185015</v>
@@ -2284,22 +2305,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I29" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2316,7 +2337,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>13.7499881</v>
@@ -2331,19 +2352,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2360,7 +2381,7 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <v>13.6910012</v>
@@ -2375,19 +2396,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2404,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E32">
         <v>13.7468252</v>
@@ -2419,19 +2440,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L32" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2448,7 +2469,7 @@
         <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33">
         <v>13.7519927</v>
@@ -2460,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I33" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L33" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2492,7 +2513,7 @@
         <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E34">
         <v>14.1246719</v>
@@ -2504,22 +2525,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L34" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2536,7 +2557,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E35">
         <v>14.1152336</v>
@@ -2548,22 +2569,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I35" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L35" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2580,7 +2601,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E36">
         <v>13.7449539</v>
@@ -2592,22 +2613,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I36" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L36" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2624,7 +2645,7 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37">
         <v>13.8205741</v>
@@ -2636,22 +2657,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I37" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K37" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L37" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2668,7 +2689,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E38">
         <v>13.5440411</v>
@@ -2680,22 +2701,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L38" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2712,7 +2733,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39">
         <v>13.6211105</v>
@@ -2727,19 +2748,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2756,7 +2777,7 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E40">
         <v>13.7731761</v>
@@ -2768,22 +2789,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J40" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K40" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L40" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2800,7 +2821,7 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E41">
         <v>13.74512653</v>
@@ -2812,22 +2833,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I41" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K41" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L41" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2844,7 +2865,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>13.8330877</v>
@@ -2856,22 +2877,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I42" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L42" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2888,7 +2909,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E43">
         <v>13.7689441</v>
@@ -2900,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I43" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K43" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L43" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2932,7 +2953,7 @@
         <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E44">
         <v>14.0782451</v>
@@ -2947,19 +2968,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2976,7 +2997,7 @@
         <v>34</v>
       </c>
       <c r="D45" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E45">
         <v>13.86019768</v>
@@ -2988,22 +3009,22 @@
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I45" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L45" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3020,7 +3041,7 @@
         <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46">
         <v>13.8578211</v>
@@ -3032,22 +3053,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I46" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K46" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L46" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3064,7 +3085,7 @@
         <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47">
         <v>13.85934159</v>
@@ -3076,22 +3097,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I47" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J47" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K47" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L47" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3108,7 +3129,7 @@
         <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E48">
         <v>13.87779142</v>
@@ -3120,22 +3141,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K48" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L48" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3152,7 +3173,7 @@
         <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49">
         <v>13.88376994</v>
@@ -3164,22 +3185,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I49" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J49" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K49" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L49" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3196,7 +3217,7 @@
         <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E50">
         <v>14.1487352</v>
@@ -3208,22 +3229,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I50" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J50" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K50" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L50" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3240,7 +3261,7 @@
         <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E51">
         <v>13.8057625</v>
@@ -3252,22 +3273,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I51" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J51" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K51" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L51" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3284,7 +3305,7 @@
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E52">
         <v>14.01215068</v>
@@ -3296,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I52" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J52" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K52" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L52" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3328,7 +3349,7 @@
         <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E53">
         <v>13.8134088</v>
@@ -3340,22 +3361,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I53" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J53" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K53" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L53" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3372,7 +3393,7 @@
         <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54">
         <v>13.816493</v>
@@ -3384,22 +3405,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I54" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J54" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L54" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3416,7 +3437,7 @@
         <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55">
         <v>13.7966595</v>
@@ -3428,22 +3449,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I55" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J55" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K55" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3460,7 +3481,7 @@
         <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56">
         <v>13.5579068</v>
@@ -3475,19 +3496,19 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J56" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K56" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L56" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3504,7 +3525,7 @@
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E57">
         <v>13.7937004</v>
@@ -3516,22 +3537,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K57" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L57" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3548,7 +3569,7 @@
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E58">
         <v>13.5455607</v>
@@ -3560,22 +3581,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J58" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K58" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L58" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3592,7 +3613,7 @@
         <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E59">
         <v>13.7204469</v>
@@ -3604,22 +3625,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I59" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K59" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L59" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3636,7 +3657,7 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60">
         <v>14.3355326</v>
@@ -3651,19 +3672,19 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J60" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K60" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L60" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3680,7 +3701,7 @@
         <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E61">
         <v>14.5786407</v>
@@ -3695,19 +3716,19 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J61" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K61" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L61" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3724,7 +3745,7 @@
         <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E62">
         <v>14.5116599</v>
@@ -3739,19 +3760,19 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J62" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K62" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L62" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3768,7 +3789,7 @@
         <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E63">
         <v>14.1378761</v>
@@ -3783,19 +3804,19 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J63" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K63" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L63" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3812,7 +3833,7 @@
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E64">
         <v>14.06566869</v>
@@ -3824,22 +3845,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I64" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J64" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K64" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L64" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3856,7 +3877,7 @@
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E65">
         <v>13.8220612</v>
@@ -3868,22 +3889,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I65" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J65" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K65" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L65" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3900,7 +3921,7 @@
         <v>37</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E66">
         <v>13.8683169</v>
@@ -3912,22 +3933,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I66" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J66" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K66" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L66" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3944,7 +3965,7 @@
         <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E67">
         <v>13.89757086</v>
@@ -3956,22 +3977,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I67" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J67" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K67" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L67" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3988,7 +4009,7 @@
         <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E68">
         <v>13.8781452</v>
@@ -4000,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I68" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J68" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K68" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L68" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4032,7 +4053,7 @@
         <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E69">
         <v>13.73541413</v>
@@ -4047,19 +4068,19 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J69" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K69" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L69" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4076,7 +4097,7 @@
         <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70">
         <v>13.78766192</v>
@@ -4091,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J70" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K70" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L70" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4120,7 +4141,7 @@
         <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E71">
         <v>13.5951449</v>
@@ -4132,22 +4153,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I71" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J71" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K71" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L71" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4164,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E72">
         <v>13.7462524</v>
@@ -4179,19 +4200,19 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J72" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K72" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L72" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4208,7 +4229,7 @@
         <v>40</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E73">
         <v>13.7243591</v>
@@ -4223,19 +4244,19 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J73" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K73" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L73" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4252,7 +4273,7 @@
         <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E74">
         <v>13.54974685</v>
@@ -4264,22 +4285,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I74" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J74" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K74" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L74" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4296,7 +4317,7 @@
         <v>40</v>
       </c>
       <c r="D75" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E75">
         <v>14.45160513</v>
@@ -4308,22 +4329,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I75" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J75" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K75" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L75" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4340,7 +4361,7 @@
         <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E76">
         <v>13.72836497</v>
@@ -4352,22 +4373,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I76" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J76" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K76" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L76" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4384,7 +4405,7 @@
         <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E77">
         <v>13.7660558</v>
@@ -4396,22 +4417,22 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I77" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J77" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K77" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L77" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4428,7 +4449,7 @@
         <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E78">
         <v>13.710361</v>
@@ -4440,24 +4461,112 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
+        <v>118</v>
+      </c>
+      <c r="I78" t="s">
+        <v>119</v>
+      </c>
+      <c r="J78" t="s">
+        <v>120</v>
+      </c>
+      <c r="K78" t="s">
+        <v>118</v>
+      </c>
+      <c r="L78" t="s">
+        <v>181</v>
+      </c>
+      <c r="M78" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79">
+        <v>13.2054213</v>
+      </c>
+      <c r="F79">
+        <v>99.9793013</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>119</v>
+      </c>
+      <c r="J79" t="s">
+        <v>120</v>
+      </c>
+      <c r="K79" t="s">
+        <v>118</v>
+      </c>
+      <c r="L79" t="s">
+        <v>182</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>41</v>
+      </c>
+      <c r="D80" t="s">
         <v>115</v>
       </c>
-      <c r="I78" t="s">
-        <v>116</v>
-      </c>
-      <c r="J78" t="s">
-        <v>117</v>
-      </c>
-      <c r="K78" t="s">
-        <v>115</v>
-      </c>
-      <c r="L78" t="s">
-        <v>178</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N78">
+      <c r="E80">
+        <v>13.7636001</v>
+      </c>
+      <c r="F80">
+        <v>100.5114624</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>118</v>
+      </c>
+      <c r="L80" t="s">
+        <v>183</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N80">
         <v>0</v>
       </c>
     </row>
@@ -4540,6 +4649,8 @@
     <hyperlink ref="M76" r:id="rId75"/>
     <hyperlink ref="M77" r:id="rId76"/>
     <hyperlink ref="M78" r:id="rId77"/>
+    <hyperlink ref="M79" r:id="rId78"/>
+    <hyperlink ref="M80" r:id="rId79"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="249">
   <si>
     <t>id</t>
   </si>
@@ -103,6 +103,9 @@
     <t>2020-12-05</t>
   </si>
   <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
     <t>2020-12-12</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t>จ.สิงห์บุรี</t>
   </si>
   <si>
+    <t>ธนาคารกสิกรไทย สาขาบิ๊กซี พระราม 2</t>
+  </si>
+  <si>
     <t>ตลาดสดแสงจันทร์</t>
   </si>
   <si>
@@ -244,6 +250,15 @@
     <t>สยามสแควร์วัน</t>
   </si>
   <si>
+    <t>EVEANDBOY สาขา The Underground Siam Square One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ร้านชีวิตชีวา สาขาสยามสแควร์วัน </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ร้านครัวดอกไม้ขาว สาขาสยามสแควร์วัน </t>
+  </si>
+  <si>
     <t>นนทบุรี</t>
   </si>
   <si>
@@ -262,6 +277,12 @@
     <t>ร้านแซ่บอีสานคาราโอเกะ ย่านเทเวศร์</t>
   </si>
   <si>
+    <t>ร้าน นมโจ สาขาประชาชื่น 39</t>
+  </si>
+  <si>
+    <t>เซ็นทรัลเวสต์เกต</t>
+  </si>
+  <si>
     <t>INC2 Tower B</t>
   </si>
   <si>
@@ -298,6 +319,9 @@
     <t>ตลาดชาวสยาม บางกรวย</t>
   </si>
   <si>
+    <t>ธนาคารกสิกรไทย สาขา โลตัสเพชรเกษม 81</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -325,9 +349,15 @@
     <t>ปากซ.พหลโยธิน 52</t>
   </si>
   <si>
+    <t>สมศักดิ์ ปูอบ สาขา2 บีทีเอสกรุงธนบุรี</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
+    <t>โครงการ สวนเพลิน มาร์เก็ต</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -361,6 +391,9 @@
     <t>อ.บ้านแหลม จ.เพชรบุรี</t>
   </si>
   <si>
+    <t>ตลาดอ่อนนุช</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -457,6 +490,9 @@
     <t>เคสโควิด 51 ปีเดินทางสายการบินเดียวกับผู้ป่วยโควิดลอบเข้าปท. ส่วนสาเหตุติดจากไหนขอรอสอบสวนเพิ่ม ล่าสุดพบผู้สัมผัสใกล้ชิด 4 ราย ได้ดำเนินการกักตัวอยู่แล้ว</t>
   </si>
   <si>
+    <t>ธนาคารกสิกร สาขาบิ๊กซี พระราม 2  ปิด 1 วัน  หลังพบลูกค้ามาใช้บริการติดโควิด</t>
+  </si>
+  <si>
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 ออกไปซื้อกับข้าวที่ตลาดแสงจันทร์ตอนเย็น สวมแมสก์ และใช้จ่ายผ่านแอพ</t>
   </si>
   <si>
@@ -475,6 +511,15 @@
     <t>เคสเจ้าของร้านอาหารติดโควิด มีประวัติไปแพกุ้ง จ.สมุทรสาคร</t>
   </si>
   <si>
+    <t>อีฟแอนบอย ปิดสาขา The Underground Siam Square One บิ๊กคลีนนิ่ง หลังผู้ป่วยโควิดใช้บริการ</t>
+  </si>
+  <si>
+    <t>ร้านชีวิตชีวา'สยามฯปิดชั่วคราว เจ้าของร้านปูอบมานั่งกิน</t>
+  </si>
+  <si>
+    <t>ร้านครัวดอกไม้ขาว สาขาสยามสแควร์วัน ปิด Big Cleaning 1 วัน หลังพบไทม์ไลน์ผู้ติดเชื้อโควิด-19 มาใช้บริการ</t>
+  </si>
+  <si>
     <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
   </si>
   <si>
@@ -487,6 +532,12 @@
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. แวะมาบุญครอง</t>
   </si>
   <si>
+    <t>พบผู้ติดโควิดมาใช้บริการ'นมโจ'สาขาประชาชื่น39</t>
+  </si>
+  <si>
+    <t>เซ็นทรัลเวสต์เกต แจง ฉีดพ่นน้ำยาฆ่าเชื้อทันที-ทั่วศูนย์การค้า หลังพบผู้ป่วยโควิดใช้บริการ</t>
+  </si>
+  <si>
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
@@ -511,6 +562,9 @@
     <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย 19 ธ.ค. เวลา 20.00 น. ไปตลาดชาวสยาม บางกรวยพร้าว</t>
   </si>
   <si>
+    <t>ตรวจพบเชื้อ COVID-19 จากคุณรัตน์เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -532,6 +586,9 @@
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
   </si>
   <si>
+    <t>โครงการฯ ได้รับแจ้งจากเขตคลองเตยเรื่อง Time Line ของผู้ป่วยติดเชื้อไวรัสโควิด 19 ว่าได้เข้ามาใช้บริการที่ร้านนิตยาไก่ย่าง เมื่อวันที่ 21 ธันวาคม 2563 ระหว่างเวลา 13.00-14.00น.ที่ผ่านมา</t>
+  </si>
+  <si>
     <t>พนักงาน Lamptitude ติดเชื้อหลังจากกลับจากกระบี่ และเข้ามาที่นี่ตั้งแต่วันที่ 14-22 ธ.ค.</t>
   </si>
   <si>
@@ -565,6 +622,9 @@
     <t>พบเคสแม่ค้าพ่อค้าอาหารทะเลติดเชื้อโควิด-19 เชื่อมโยงกรณีตลาดอาหารทะเลที่สมุทรสาคร</t>
   </si>
   <si>
+    <t xml:space="preserve">ตลาดอ่อนนุช ประกาศ ทำความสะอาดใหญ่ และฉีดพ่นน้ำยาฆ่าเชื้อ แล้วเปิดทำการตามปกติแล้ว หลังจากหลายวันก่อนพบผู้ค้าอาหารทะเลที่รับมาจากสมุทรสาครติดโควิด-19  </t>
+  </si>
+  <si>
     <t xml:space="preserve">สุ่มตรวจ กลุ่ม ข้าราชการและเจ้าหน้าที่ของ สลน. จำนวน 350 ราย โดยวิธีการตรวจหาภูมิคุ้มกัน COVID-19 ด้วยชุดทดสอบแบบรวดเร็ว หรือ Rapid Test ซึ่งเป็นการตรวจหาเชื้อโดยน้ำลาย ปรากฏว่ามี 6 รายที่มีผลเป็นบวก และเพื่อความแม่นยำในการตรวจสอบจึงได้ส่งทั้ง 6 ราย ทำการตรวจหาเชื้อจากโพรงจมูกและคอ </t>
   </si>
   <si>
@@ -601,6 +661,9 @@
     <t>https://www.hfocus.org/content/2020/12/20559</t>
   </si>
   <si>
+    <t>https://www.prachachat.net/general/news-580499</t>
+  </si>
+  <si>
     <t>https://www.khaosod.co.th/covid-19/news_5583885</t>
   </si>
   <si>
@@ -613,12 +676,27 @@
     <t>https://www.facebook.com/SomsakPuOb/photos/a.237834942950311/3554401867960252/?type=3</t>
   </si>
   <si>
+    <t>https://www.matichon.co.th/social/news_2495701</t>
+  </si>
+  <si>
+    <t>https://www.dailynews.co.th/regional/814235</t>
+  </si>
+  <si>
+    <t>https://mgronline.com/onlinesection/detail/9630000130287</t>
+  </si>
+  <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
   </si>
   <si>
     <t>https://www.facebook.com/mbkcenterth/posts/3939890189363487</t>
   </si>
   <si>
+    <t>https://www.dailynews.co.th/regional/814463</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2500853</t>
+  </si>
+  <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
   </si>
   <si>
@@ -631,6 +709,9 @@
     <t>https://mgronline.com/local/detail/9630000130818</t>
   </si>
   <si>
+    <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
+  </si>
+  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
@@ -646,6 +727,9 @@
     <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
   </si>
   <si>
+    <t>https://www.facebook.com/suanplernmarket/photos/a.407116596138751/1714728045377593/</t>
+  </si>
+  <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B1%E0%B8%87%E0%B8%84%E0%B8%A1/138884</t>
   </si>
   <si>
@@ -671,6 +755,9 @@
   </si>
   <si>
     <t>https://mgronline.com/uptodate/detail/9630000131859</t>
+  </si>
+  <si>
+    <t>https://www.sanook.com/news/8324143/</t>
   </si>
   <si>
     <t>https://www.prachachat.net/politics/news-582260</t>
@@ -1044,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,7 +1192,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>12.674583</v>
@@ -1126,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1149,7 +1236,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>13.7250712</v>
@@ -1170,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1193,7 +1280,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>12.6838253</v>
@@ -1214,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L4" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1237,7 +1324,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>12.6959971</v>
@@ -1258,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L5" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1281,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>12.6833042</v>
@@ -1302,13 +1389,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L6" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1325,7 +1412,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>13.653942</v>
@@ -1337,22 +1424,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1369,7 +1456,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>13.700916</v>
@@ -1381,22 +1468,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I8" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1413,7 +1500,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>13.829441</v>
@@ -1425,22 +1512,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1457,7 +1544,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10">
         <v>13.759791</v>
@@ -1469,22 +1556,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1501,7 +1588,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>13.845817</v>
@@ -1513,22 +1600,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1545,7 +1632,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>18.81089258</v>
@@ -1557,22 +1644,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1589,7 +1676,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>18.80951974</v>
@@ -1601,22 +1688,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1633,7 +1720,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14">
         <v>18.80401814</v>
@@ -1645,22 +1732,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1677,7 +1764,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>18.80732484</v>
@@ -1689,22 +1776,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1721,7 +1808,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>18.80709567</v>
@@ -1733,22 +1820,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K16" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1765,7 +1852,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17">
         <v>18.80650918</v>
@@ -1777,22 +1864,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J17" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L17" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1809,7 +1896,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>18.80657601</v>
@@ -1821,22 +1908,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L18" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1853,7 +1940,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19">
         <v>18.80658294</v>
@@ -1865,22 +1952,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1897,7 +1984,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <v>18.80675924</v>
@@ -1909,22 +1996,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K20" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1941,7 +2028,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>18.80629446</v>
@@ -1953,22 +2040,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1985,7 +2072,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22">
         <v>19.85327262</v>
@@ -1997,22 +2084,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K22" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L22" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2029,7 +2116,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>19.90661769</v>
@@ -2041,22 +2128,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L23" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2073,7 +2160,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E24">
         <v>19.6476693</v>
@@ -2085,22 +2172,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I24" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2117,7 +2204,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>13.7238495</v>
@@ -2129,22 +2216,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2161,7 +2248,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>13.7285268</v>
@@ -2173,22 +2260,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J26" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2205,7 +2292,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <v>13.7292718</v>
@@ -2217,22 +2304,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L27" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2249,7 +2336,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28">
         <v>14.896466</v>
@@ -2261,22 +2348,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I28" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L28" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2287,40 +2374,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29">
-        <v>13.7185015</v>
+        <v>13.65099232</v>
       </c>
       <c r="F29">
-        <v>100.5079366</v>
+        <v>100.420192</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J29" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2337,34 +2424,34 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30">
-        <v>13.7499881</v>
+        <v>13.7185015</v>
       </c>
       <c r="F30">
-        <v>100.5393128</v>
+        <v>100.5079366</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
+      <c r="H30" t="s">
+        <v>127</v>
       </c>
       <c r="I30" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J30" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L30" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2378,16 +2465,16 @@
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31">
-        <v>13.6910012</v>
+        <v>13.7499881</v>
       </c>
       <c r="F31">
-        <v>100.4802337</v>
+        <v>100.5393128</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2396,19 +2483,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L31" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2422,16 +2509,16 @@
         <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32">
-        <v>13.7468252</v>
+        <v>13.6910012</v>
       </c>
       <c r="F32">
-        <v>100.538941</v>
+        <v>100.4802337</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2440,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J32" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L32" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2463,40 +2550,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33">
-        <v>13.7519927</v>
+        <v>13.7468252</v>
       </c>
       <c r="F33">
-        <v>100.5293886</v>
+        <v>100.538941</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33" t="s">
-        <v>117</v>
+      <c r="H33">
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J33" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L33" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2507,40 +2594,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E34">
-        <v>14.1246719</v>
+        <v>13.7519927</v>
       </c>
       <c r="F34">
-        <v>100.603357</v>
+        <v>100.5293886</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I34" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J34" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L34" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2554,37 +2641,37 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E35">
-        <v>14.1152336</v>
+        <v>14.1246719</v>
       </c>
       <c r="F35">
-        <v>100.6005268</v>
+        <v>100.603357</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I35" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J35" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K35" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2601,34 +2688,34 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36">
-        <v>13.7449539</v>
+        <v>14.1152336</v>
       </c>
       <c r="F36">
-        <v>100.5339095</v>
+        <v>100.6005268</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J36" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K36" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2639,40 +2726,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37">
-        <v>13.8205741</v>
+        <v>13.7449539</v>
       </c>
       <c r="F37">
-        <v>100.4822683</v>
+        <v>100.5339095</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I37" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J37" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2683,40 +2770,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38">
-        <v>13.5440411</v>
+        <v>13.7446331</v>
       </c>
       <c r="F38">
-        <v>100.2752457</v>
+        <v>100.5335668</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I38" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J38" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L38" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2727,40 +2814,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E39">
-        <v>13.6211105</v>
+        <v>13.74492074</v>
       </c>
       <c r="F39">
-        <v>100.4387341</v>
+        <v>100.5342369</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
+      <c r="H39" t="s">
+        <v>128</v>
       </c>
       <c r="I39" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J39" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L39" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2771,40 +2858,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40">
-        <v>13.7731761</v>
+        <v>13.74491756</v>
       </c>
       <c r="F40">
-        <v>100.4851346</v>
+        <v>100.5342154</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I40" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J40" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2815,40 +2902,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E41">
-        <v>13.74512653</v>
+        <v>13.8205741</v>
       </c>
       <c r="F41">
-        <v>100.5298302</v>
+        <v>100.4822683</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I41" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J41" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K41" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L41" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2865,34 +2952,34 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E42">
-        <v>13.8330877</v>
+        <v>13.5440411</v>
       </c>
       <c r="F42">
-        <v>100.499237</v>
+        <v>100.2752457</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I42" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J42" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L42" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2903,40 +2990,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43">
-        <v>13.7689441</v>
+        <v>13.6211105</v>
       </c>
       <c r="F43">
-        <v>100.5046383</v>
+        <v>100.4387341</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" t="s">
-        <v>116</v>
+      <c r="H43">
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J43" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -2950,37 +3037,37 @@
         <v>15</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E44">
-        <v>14.0782451</v>
+        <v>13.7731761</v>
       </c>
       <c r="F44">
-        <v>100.604118</v>
+        <v>100.4851346</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>0</v>
+      <c r="H44" t="s">
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J44" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K44" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L44" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -2991,40 +3078,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45">
-        <v>13.86019768</v>
+        <v>13.74512653</v>
       </c>
       <c r="F45">
-        <v>100.7223304</v>
+        <v>100.5298302</v>
       </c>
       <c r="G45">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I45" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J45" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3041,34 +3128,34 @@
         <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E46">
-        <v>13.8578211</v>
+        <v>13.8330877</v>
       </c>
       <c r="F46">
-        <v>100.4105189</v>
+        <v>100.499237</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I46" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J46" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3079,40 +3166,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
         <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E47">
-        <v>13.85934159</v>
+        <v>13.7689441</v>
       </c>
       <c r="F47">
-        <v>100.5849015</v>
+        <v>100.5046383</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J47" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L47" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3123,40 +3210,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E48">
-        <v>13.87779142</v>
+        <v>13.84341791</v>
       </c>
       <c r="F48">
-        <v>100.4215436</v>
+        <v>100.5419373</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="I48" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J48" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K48" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L48" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3167,40 +3254,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E49">
-        <v>13.88376994</v>
+        <v>13.87694672</v>
       </c>
       <c r="F49">
-        <v>100.5843207</v>
+        <v>100.4115482</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="I49" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J49" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K49" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L49" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3214,37 +3301,37 @@
         <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50">
-        <v>14.1487352</v>
+        <v>14.0782451</v>
       </c>
       <c r="F50">
-        <v>100.6155778</v>
+        <v>100.604118</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" t="s">
-        <v>117</v>
+      <c r="H50">
+        <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J50" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3258,37 +3345,37 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E51">
-        <v>13.8057625</v>
+        <v>13.86019768</v>
       </c>
       <c r="F51">
-        <v>100.6621959</v>
+        <v>100.7223304</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I51" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J51" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3302,37 +3389,37 @@
         <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E52">
-        <v>14.01215068</v>
+        <v>13.8578211</v>
       </c>
       <c r="F52">
-        <v>100.17523</v>
+        <v>100.4105189</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I52" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J52" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K52" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3346,37 +3433,37 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53">
-        <v>13.8134088</v>
+        <v>13.85934159</v>
       </c>
       <c r="F53">
-        <v>100.5616103</v>
+        <v>100.5849015</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I53" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J53" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K53" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L53" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3387,40 +3474,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
         <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E54">
-        <v>13.816493</v>
+        <v>13.87779142</v>
       </c>
       <c r="F54">
-        <v>100.5610062</v>
+        <v>100.4215436</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I54" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J54" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K54" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3437,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E55">
-        <v>13.7966595</v>
+        <v>13.88376994</v>
       </c>
       <c r="F55">
-        <v>100.4755856</v>
+        <v>100.5843207</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I55" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J55" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L55" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3475,40 +3562,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
         <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E56">
-        <v>13.5579068</v>
+        <v>14.1487352</v>
       </c>
       <c r="F56">
-        <v>100.270829</v>
+        <v>100.6155778</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>0</v>
+      <c r="H56" t="s">
+        <v>128</v>
       </c>
       <c r="I56" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J56" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K56" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L56" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3525,34 +3612,34 @@
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E57">
-        <v>13.7937004</v>
+        <v>13.8057625</v>
       </c>
       <c r="F57">
-        <v>100.6923144</v>
+        <v>100.6621959</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I57" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J57" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L57" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3563,40 +3650,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E58">
-        <v>13.5455607</v>
+        <v>14.01215068</v>
       </c>
       <c r="F58">
-        <v>100.2767611</v>
+        <v>100.17523</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I58" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J58" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L58" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3607,40 +3694,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E59">
-        <v>13.7204469</v>
+        <v>13.8134088</v>
       </c>
       <c r="F59">
-        <v>100.5004708</v>
+        <v>100.5616103</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J59" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L59" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3657,34 +3744,34 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60">
-        <v>14.3355326</v>
+        <v>13.816493</v>
       </c>
       <c r="F60">
-        <v>100.87017</v>
+        <v>100.5610062</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60">
-        <v>0</v>
+      <c r="H60" t="s">
+        <v>128</v>
       </c>
       <c r="I60" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J60" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L60" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3701,34 +3788,34 @@
         <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E61">
-        <v>14.5786407</v>
+        <v>13.7966595</v>
       </c>
       <c r="F61">
-        <v>100.9662444</v>
+        <v>100.4755856</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>0</v>
+      <c r="H61" t="s">
+        <v>128</v>
       </c>
       <c r="I61" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J61" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K61" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3739,40 +3826,40 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E62">
-        <v>14.5116599</v>
+        <v>13.69121688</v>
       </c>
       <c r="F62">
-        <v>100.9094134</v>
+        <v>100.3412194</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62">
-        <v>0</v>
+      <c r="H62" t="s">
+        <v>128</v>
       </c>
       <c r="I62" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J62" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K62" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L62" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3783,19 +3870,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E63">
-        <v>14.1378761</v>
+        <v>13.5579068</v>
       </c>
       <c r="F63">
-        <v>100.8255049</v>
+        <v>100.270829</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -3804,19 +3891,19 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J63" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L63" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3830,37 +3917,37 @@
         <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E64">
-        <v>14.06566869</v>
+        <v>13.7937004</v>
       </c>
       <c r="F64">
-        <v>99.9821468</v>
+        <v>100.6923144</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I64" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J64" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3871,40 +3958,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E65">
-        <v>13.8220612</v>
+        <v>13.5455607</v>
       </c>
       <c r="F65">
-        <v>100.421874</v>
+        <v>100.2767611</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I65" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J65" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K65" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L65" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -3915,40 +4002,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E66">
-        <v>13.8683169</v>
+        <v>13.7204469</v>
       </c>
       <c r="F66">
-        <v>100.4107308</v>
+        <v>100.5004708</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="I66" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J66" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K66" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L66" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3962,37 +4049,37 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E67">
-        <v>13.89757086</v>
+        <v>14.3355326</v>
       </c>
       <c r="F67">
-        <v>100.6098027</v>
+        <v>100.87017</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67" t="s">
-        <v>116</v>
+      <c r="H67">
+        <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J67" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K67" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L67" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4003,40 +4090,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
         <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E68">
-        <v>13.8781452</v>
+        <v>14.5786407</v>
       </c>
       <c r="F68">
-        <v>100.4091302</v>
+        <v>100.9662444</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68" t="s">
-        <v>116</v>
+      <c r="H68">
+        <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J68" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L68" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4050,16 +4137,16 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69">
-        <v>13.73541413</v>
+        <v>14.5116599</v>
       </c>
       <c r="F69">
-        <v>100.5877998</v>
+        <v>100.9094134</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -4068,19 +4155,19 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J69" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L69" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4091,19 +4178,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E70">
-        <v>13.78766192</v>
+        <v>14.1378761</v>
       </c>
       <c r="F70">
-        <v>100.5105938</v>
+        <v>100.8255049</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4112,19 +4199,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J70" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K70" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L70" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4135,40 +4222,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E71">
-        <v>13.5951449</v>
+        <v>14.06566869</v>
       </c>
       <c r="F71">
-        <v>100.5802135</v>
+        <v>99.9821468</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="I71" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J71" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L71" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4182,37 +4269,37 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E72">
-        <v>13.7462524</v>
+        <v>13.8220612</v>
       </c>
       <c r="F72">
-        <v>100.5328635</v>
+        <v>100.421874</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>0</v>
+      <c r="H72" t="s">
+        <v>128</v>
       </c>
       <c r="I72" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J72" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L72" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4223,40 +4310,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E73">
-        <v>13.7243591</v>
+        <v>13.8683169</v>
       </c>
       <c r="F73">
-        <v>100.5386589</v>
+        <v>100.4107308</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>0</v>
+      <c r="H73" t="s">
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J73" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L73" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4267,40 +4354,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E74">
-        <v>13.54974685</v>
+        <v>13.89757086</v>
       </c>
       <c r="F74">
-        <v>100.2561435</v>
+        <v>100.6098027</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J74" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K74" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4311,40 +4398,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E75">
-        <v>14.45160513</v>
+        <v>13.72045903</v>
       </c>
       <c r="F75">
-        <v>100.7230585</v>
+        <v>100.5004852</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I75" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J75" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K75" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L75" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4355,37 +4442,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E76">
-        <v>13.72836497</v>
+        <v>13.8781452</v>
       </c>
       <c r="F76">
-        <v>100.5350858</v>
+        <v>100.4091302</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="I76" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J76" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L76" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="M76" s="2" t="s">
         <v>216</v>
@@ -4402,37 +4489,37 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E77">
-        <v>13.7660558</v>
+        <v>13.7164198</v>
       </c>
       <c r="F77">
-        <v>100.6403032</v>
+        <v>100.5716135</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="I77" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J77" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K77" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L77" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4443,40 +4530,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
         <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E78">
-        <v>13.710361</v>
+        <v>13.73541413</v>
       </c>
       <c r="F78">
-        <v>100.4073817</v>
+        <v>100.5877998</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" t="s">
-        <v>118</v>
+      <c r="H78">
+        <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J78" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K78" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L78" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4487,19 +4574,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C79" t="s">
         <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E79">
-        <v>13.2054213</v>
+        <v>13.78766192</v>
       </c>
       <c r="F79">
-        <v>99.9793013</v>
+        <v>100.5105938</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -4508,19 +4595,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J79" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K79" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L79" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4534,39 +4621,479 @@
         <v>19</v>
       </c>
       <c r="C80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80">
+        <v>13.5951449</v>
+      </c>
+      <c r="F80">
+        <v>100.5802135</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>127</v>
+      </c>
+      <c r="I80" t="s">
+        <v>130</v>
+      </c>
+      <c r="J80" t="s">
+        <v>131</v>
+      </c>
+      <c r="K80" t="s">
+        <v>129</v>
+      </c>
+      <c r="L80" t="s">
+        <v>193</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
         <v>41</v>
       </c>
-      <c r="D80" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80">
+      <c r="D81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81">
+        <v>13.7462524</v>
+      </c>
+      <c r="F81">
+        <v>100.5328635</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>130</v>
+      </c>
+      <c r="J81" t="s">
+        <v>131</v>
+      </c>
+      <c r="K81" t="s">
+        <v>129</v>
+      </c>
+      <c r="L81" t="s">
+        <v>194</v>
+      </c>
+      <c r="M81" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" t="s">
+        <v>118</v>
+      </c>
+      <c r="E82">
+        <v>13.7243591</v>
+      </c>
+      <c r="F82">
+        <v>100.5386589</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>130</v>
+      </c>
+      <c r="J82" t="s">
+        <v>131</v>
+      </c>
+      <c r="K82" t="s">
+        <v>129</v>
+      </c>
+      <c r="L82" t="s">
+        <v>195</v>
+      </c>
+      <c r="M82" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" t="s">
+        <v>119</v>
+      </c>
+      <c r="E83">
+        <v>13.54974685</v>
+      </c>
+      <c r="F83">
+        <v>100.2561435</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>128</v>
+      </c>
+      <c r="I83" t="s">
+        <v>130</v>
+      </c>
+      <c r="J83" t="s">
+        <v>131</v>
+      </c>
+      <c r="K83" t="s">
+        <v>129</v>
+      </c>
+      <c r="L83" t="s">
+        <v>196</v>
+      </c>
+      <c r="M83" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84">
+        <v>14.45160513</v>
+      </c>
+      <c r="F84">
+        <v>100.7230585</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>128</v>
+      </c>
+      <c r="I84" t="s">
+        <v>130</v>
+      </c>
+      <c r="J84" t="s">
+        <v>131</v>
+      </c>
+      <c r="K84" t="s">
+        <v>129</v>
+      </c>
+      <c r="L84" t="s">
+        <v>197</v>
+      </c>
+      <c r="M84" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85">
+        <v>13.72836497</v>
+      </c>
+      <c r="F85">
+        <v>100.5350858</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>129</v>
+      </c>
+      <c r="I85" t="s">
+        <v>130</v>
+      </c>
+      <c r="J85" t="s">
+        <v>131</v>
+      </c>
+      <c r="K85" t="s">
+        <v>129</v>
+      </c>
+      <c r="L85" t="s">
+        <v>198</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>41</v>
+      </c>
+      <c r="D86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86">
+        <v>13.7660558</v>
+      </c>
+      <c r="F86">
+        <v>100.6403032</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>129</v>
+      </c>
+      <c r="I86" t="s">
+        <v>130</v>
+      </c>
+      <c r="J86" t="s">
+        <v>131</v>
+      </c>
+      <c r="K86" t="s">
+        <v>129</v>
+      </c>
+      <c r="L86" t="s">
+        <v>199</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>41</v>
+      </c>
+      <c r="D87" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87">
+        <v>13.710361</v>
+      </c>
+      <c r="F87">
+        <v>100.4073817</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>129</v>
+      </c>
+      <c r="I87" t="s">
+        <v>130</v>
+      </c>
+      <c r="J87" t="s">
+        <v>131</v>
+      </c>
+      <c r="K87" t="s">
+        <v>129</v>
+      </c>
+      <c r="L87" t="s">
+        <v>200</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88">
+        <v>13.2054213</v>
+      </c>
+      <c r="F88">
+        <v>99.9793013</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>130</v>
+      </c>
+      <c r="J88" t="s">
+        <v>131</v>
+      </c>
+      <c r="K88" t="s">
+        <v>129</v>
+      </c>
+      <c r="L88" t="s">
+        <v>201</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+      <c r="D89" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89">
+        <v>13.7100705</v>
+      </c>
+      <c r="F89">
+        <v>100.6007069</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>202</v>
+      </c>
+      <c r="M89" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90">
         <v>13.7636001</v>
       </c>
-      <c r="F80">
+      <c r="F90">
         <v>100.5114624</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80" t="s">
-        <v>118</v>
-      </c>
-      <c r="L80" t="s">
-        <v>183</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N80">
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>129</v>
+      </c>
+      <c r="L90" t="s">
+        <v>203</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="N90">
         <v>0</v>
       </c>
     </row>
@@ -4633,14 +5160,14 @@
     <hyperlink ref="M60" r:id="rId59"/>
     <hyperlink ref="M61" r:id="rId60"/>
     <hyperlink ref="M62" r:id="rId61"/>
-    <hyperlink ref="M63" r:id="rId62" location="cxrecs_s"/>
+    <hyperlink ref="M63" r:id="rId62"/>
     <hyperlink ref="M64" r:id="rId63"/>
     <hyperlink ref="M65" r:id="rId64"/>
     <hyperlink ref="M66" r:id="rId65"/>
     <hyperlink ref="M67" r:id="rId66"/>
     <hyperlink ref="M68" r:id="rId67"/>
     <hyperlink ref="M69" r:id="rId68"/>
-    <hyperlink ref="M70" r:id="rId69"/>
+    <hyperlink ref="M70" r:id="rId69" location="cxrecs_s"/>
     <hyperlink ref="M71" r:id="rId70"/>
     <hyperlink ref="M72" r:id="rId71"/>
     <hyperlink ref="M73" r:id="rId72"/>
@@ -4651,6 +5178,16 @@
     <hyperlink ref="M78" r:id="rId77"/>
     <hyperlink ref="M79" r:id="rId78"/>
     <hyperlink ref="M80" r:id="rId79"/>
+    <hyperlink ref="M81" r:id="rId80"/>
+    <hyperlink ref="M82" r:id="rId81"/>
+    <hyperlink ref="M83" r:id="rId82"/>
+    <hyperlink ref="M84" r:id="rId83"/>
+    <hyperlink ref="M85" r:id="rId84"/>
+    <hyperlink ref="M86" r:id="rId85"/>
+    <hyperlink ref="M87" r:id="rId86"/>
+    <hyperlink ref="M88" r:id="rId87"/>
+    <hyperlink ref="M89" r:id="rId88"/>
+    <hyperlink ref="M90" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="253">
   <si>
     <t>id</t>
   </si>
@@ -142,6 +142,9 @@
     <t>2020-12-23</t>
   </si>
   <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
     <t>2020-12-25</t>
   </si>
   <si>
@@ -394,6 +397,9 @@
     <t>ตลาดอ่อนนุช</t>
   </si>
   <si>
+    <t>สาธร ซิตี้ ทาวเวอร์</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -625,6 +631,9 @@
     <t xml:space="preserve">ตลาดอ่อนนุช ประกาศ ทำความสะอาดใหญ่ และฉีดพ่นน้ำยาฆ่าเชื้อ แล้วเปิดทำการตามปกติแล้ว หลังจากหลายวันก่อนพบผู้ค้าอาหารทะเลที่รับมาจากสมุทรสาครติดโควิด-19  </t>
   </si>
   <si>
+    <t>พนักงานสาธรซิตี้ ทาวเวอร์ ติดโควิด</t>
+  </si>
+  <si>
     <t xml:space="preserve">สุ่มตรวจ กลุ่ม ข้าราชการและเจ้าหน้าที่ของ สลน. จำนวน 350 ราย โดยวิธีการตรวจหาภูมิคุ้มกัน COVID-19 ด้วยชุดทดสอบแบบรวดเร็ว หรือ Rapid Test ซึ่งเป็นการตรวจหาเชื้อโดยน้ำลาย ปรากฏว่ามี 6 รายที่มีผลเป็นบวก และเพื่อความแม่นยำในการตรวจสอบจึงได้ส่งทั้ง 6 ราย ทำการตรวจหาเชื้อจากโพรงจมูกและคอ </t>
   </si>
   <si>
@@ -758,6 +767,9 @@
   </si>
   <si>
     <t>https://www.sanook.com/news/8324143/</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/news_2500693</t>
   </si>
   <si>
     <t>https://www.prachachat.net/politics/news-582260</t>
@@ -1131,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1192,7 +1204,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>12.674583</v>
@@ -1213,13 +1225,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1236,7 +1248,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>13.7250712</v>
@@ -1257,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1280,7 +1292,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>12.6838253</v>
@@ -1301,13 +1313,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1324,7 +1336,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>12.6959971</v>
@@ -1345,13 +1357,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1368,7 +1380,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>12.6833042</v>
@@ -1389,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1412,7 +1424,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>13.653942</v>
@@ -1424,22 +1436,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1456,7 +1468,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>13.700916</v>
@@ -1468,22 +1480,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1500,7 +1512,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>13.829441</v>
@@ -1512,22 +1524,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1544,7 +1556,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>13.759791</v>
@@ -1556,22 +1568,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1588,7 +1600,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>13.845817</v>
@@ -1600,22 +1612,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1632,7 +1644,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>18.81089258</v>
@@ -1644,22 +1656,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1676,7 +1688,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>18.80951974</v>
@@ -1688,22 +1700,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1720,7 +1732,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>18.80401814</v>
@@ -1732,22 +1744,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1764,7 +1776,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>18.80732484</v>
@@ -1776,22 +1788,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1808,7 +1820,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>18.80709567</v>
@@ -1820,22 +1832,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1852,7 +1864,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>18.80650918</v>
@@ -1864,22 +1876,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1896,7 +1908,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>18.80657601</v>
@@ -1908,22 +1920,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K18" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1940,7 +1952,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>18.80658294</v>
@@ -1952,22 +1964,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1984,7 +1996,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <v>18.80675924</v>
@@ -1996,22 +2008,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2028,7 +2040,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>18.80629446</v>
@@ -2040,22 +2052,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2072,7 +2084,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>19.85327262</v>
@@ -2084,22 +2096,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2116,7 +2128,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E23">
         <v>19.90661769</v>
@@ -2128,22 +2140,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K23" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2160,7 +2172,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <v>19.6476693</v>
@@ -2172,22 +2184,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2204,7 +2216,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25">
         <v>13.7238495</v>
@@ -2216,22 +2228,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2248,7 +2260,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26">
         <v>13.7285268</v>
@@ -2260,22 +2272,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2292,7 +2304,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27">
         <v>13.7292718</v>
@@ -2304,22 +2316,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I27" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2336,7 +2348,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E28">
         <v>14.896466</v>
@@ -2348,22 +2360,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2380,7 +2392,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29">
         <v>13.65099232</v>
@@ -2392,22 +2404,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J29" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2424,7 +2436,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <v>13.7185015</v>
@@ -2436,22 +2448,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2468,7 +2480,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31">
         <v>13.7499881</v>
@@ -2483,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2512,7 +2524,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32">
         <v>13.6910012</v>
@@ -2527,19 +2539,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2556,7 +2568,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E33">
         <v>13.7468252</v>
@@ -2571,19 +2583,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J33" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K33" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2600,7 +2612,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34">
         <v>13.7519927</v>
@@ -2612,22 +2624,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I34" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2644,7 +2656,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35">
         <v>14.1246719</v>
@@ -2656,22 +2668,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J35" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K35" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2688,7 +2700,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36">
         <v>14.1152336</v>
@@ -2700,22 +2712,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2732,7 +2744,7 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37">
         <v>13.7449539</v>
@@ -2744,22 +2756,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I37" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K37" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2776,7 +2788,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E38">
         <v>13.7446331</v>
@@ -2788,22 +2800,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I38" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2820,7 +2832,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E39">
         <v>13.74492074</v>
@@ -2832,22 +2844,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I39" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J39" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2864,7 +2876,7 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E40">
         <v>13.74491756</v>
@@ -2876,22 +2888,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2908,7 +2920,7 @@
         <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41">
         <v>13.8205741</v>
@@ -2920,22 +2932,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K41" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2952,7 +2964,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E42">
         <v>13.5440411</v>
@@ -2964,22 +2976,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K42" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2996,7 +3008,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E43">
         <v>13.6211105</v>
@@ -3011,19 +3023,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K43" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3040,7 +3052,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44">
         <v>13.7731761</v>
@@ -3052,22 +3064,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J44" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L44" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3084,7 +3096,7 @@
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E45">
         <v>13.74512653</v>
@@ -3096,22 +3108,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J45" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3128,7 +3140,7 @@
         <v>34</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E46">
         <v>13.8330877</v>
@@ -3140,22 +3152,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K46" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3172,7 +3184,7 @@
         <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E47">
         <v>13.7689441</v>
@@ -3184,22 +3196,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J47" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3216,7 +3228,7 @@
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E48">
         <v>13.84341791</v>
@@ -3228,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I48" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K48" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3260,7 +3272,7 @@
         <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E49">
         <v>13.87694672</v>
@@ -3272,22 +3284,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J49" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3304,7 +3316,7 @@
         <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E50">
         <v>14.0782451</v>
@@ -3319,19 +3331,19 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J50" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K50" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3348,7 +3360,7 @@
         <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E51">
         <v>13.86019768</v>
@@ -3360,22 +3372,22 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I51" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J51" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3392,7 +3404,7 @@
         <v>35</v>
       </c>
       <c r="D52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52">
         <v>13.8578211</v>
@@ -3404,22 +3416,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J52" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K52" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L52" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3436,7 +3448,7 @@
         <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E53">
         <v>13.85934159</v>
@@ -3448,22 +3460,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I53" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J53" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K53" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3480,7 +3492,7 @@
         <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E54">
         <v>13.87779142</v>
@@ -3492,22 +3504,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J54" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K54" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3524,7 +3536,7 @@
         <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E55">
         <v>13.88376994</v>
@@ -3536,22 +3548,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J55" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K55" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3568,7 +3580,7 @@
         <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E56">
         <v>14.1487352</v>
@@ -3580,22 +3592,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I56" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J56" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K56" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3612,7 +3624,7 @@
         <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E57">
         <v>13.8057625</v>
@@ -3624,22 +3636,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I57" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J57" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K57" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3656,7 +3668,7 @@
         <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E58">
         <v>14.01215068</v>
@@ -3668,22 +3680,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J58" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K58" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3700,7 +3712,7 @@
         <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E59">
         <v>13.8134088</v>
@@ -3712,22 +3724,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I59" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K59" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3744,7 +3756,7 @@
         <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E60">
         <v>13.816493</v>
@@ -3756,22 +3768,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I60" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J60" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K60" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3788,7 +3800,7 @@
         <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E61">
         <v>13.7966595</v>
@@ -3800,22 +3812,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I61" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K61" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3832,7 +3844,7 @@
         <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E62">
         <v>13.69121688</v>
@@ -3844,22 +3856,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K62" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3876,7 +3888,7 @@
         <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E63">
         <v>13.5579068</v>
@@ -3891,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J63" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L63" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3920,7 +3932,7 @@
         <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E64">
         <v>13.7937004</v>
@@ -3932,22 +3944,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I64" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J64" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K64" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L64" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3964,7 +3976,7 @@
         <v>38</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65">
         <v>13.5455607</v>
@@ -3976,22 +3988,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I65" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J65" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K65" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4008,7 +4020,7 @@
         <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E66">
         <v>13.7204469</v>
@@ -4020,22 +4032,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I66" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J66" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L66" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4052,7 +4064,7 @@
         <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E67">
         <v>14.3355326</v>
@@ -4067,19 +4079,19 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J67" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K67" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L67" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4096,7 +4108,7 @@
         <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E68">
         <v>14.5786407</v>
@@ -4111,19 +4123,19 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J68" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K68" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4140,7 +4152,7 @@
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E69">
         <v>14.5116599</v>
@@ -4155,19 +4167,19 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J69" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K69" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4184,7 +4196,7 @@
         <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E70">
         <v>14.1378761</v>
@@ -4199,19 +4211,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J70" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K70" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L70" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4228,7 +4240,7 @@
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E71">
         <v>14.06566869</v>
@@ -4240,22 +4252,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J71" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K71" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4272,7 +4284,7 @@
         <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E72">
         <v>13.8220612</v>
@@ -4284,22 +4296,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I72" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J72" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K72" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4316,7 +4328,7 @@
         <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E73">
         <v>13.8683169</v>
@@ -4328,22 +4340,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I73" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J73" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K73" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L73" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4360,7 +4372,7 @@
         <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E74">
         <v>13.89757086</v>
@@ -4372,22 +4384,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K74" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L74" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4404,7 +4416,7 @@
         <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E75">
         <v>13.72045903</v>
@@ -4416,22 +4428,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I75" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J75" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K75" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L75" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4448,7 +4460,7 @@
         <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E76">
         <v>13.8781452</v>
@@ -4460,22 +4472,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I76" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J76" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L76" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4492,7 +4504,7 @@
         <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E77">
         <v>13.7164198</v>
@@ -4504,22 +4516,22 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I77" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J77" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K77" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L77" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4536,7 +4548,7 @@
         <v>40</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E78">
         <v>13.73541413</v>
@@ -4551,19 +4563,19 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J78" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L78" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4580,7 +4592,7 @@
         <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E79">
         <v>13.78766192</v>
@@ -4595,19 +4607,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J79" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K79" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L79" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4624,7 +4636,7 @@
         <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E80">
         <v>13.5951449</v>
@@ -4636,22 +4648,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I80" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J80" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K80" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L80" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4668,7 +4680,7 @@
         <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E81">
         <v>13.7462524</v>
@@ -4683,19 +4695,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J81" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K81" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L81" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4712,7 +4724,7 @@
         <v>41</v>
       </c>
       <c r="D82" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E82">
         <v>13.7243591</v>
@@ -4727,19 +4739,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J82" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K82" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L82" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4756,7 +4768,7 @@
         <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E83">
         <v>13.54974685</v>
@@ -4768,22 +4780,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I83" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J83" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K83" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L83" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4800,7 +4812,7 @@
         <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E84">
         <v>14.45160513</v>
@@ -4812,22 +4824,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I84" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J84" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K84" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L84" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4844,7 +4856,7 @@
         <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E85">
         <v>13.72836497</v>
@@ -4856,22 +4868,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I85" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J85" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K85" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L85" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4888,7 +4900,7 @@
         <v>41</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E86">
         <v>13.7660558</v>
@@ -4900,22 +4912,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I86" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J86" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K86" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L86" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -4932,7 +4944,7 @@
         <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E87">
         <v>13.710361</v>
@@ -4944,22 +4956,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J87" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K87" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L87" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -4976,7 +4988,7 @@
         <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E88">
         <v>13.2054213</v>
@@ -4991,19 +5003,19 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J88" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K88" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L88" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5020,7 +5032,7 @@
         <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E89">
         <v>13.7100705</v>
@@ -5044,10 +5056,10 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5058,42 +5070,86 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
         <v>42</v>
       </c>
       <c r="D90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E90">
+        <v>13.721681</v>
+      </c>
+      <c r="F90">
+        <v>100.53</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>131</v>
+      </c>
+      <c r="I90" t="s">
+        <v>132</v>
+      </c>
+      <c r="J90" t="s">
+        <v>133</v>
+      </c>
+      <c r="K90" t="s">
+        <v>131</v>
+      </c>
+      <c r="L90" t="s">
+        <v>205</v>
+      </c>
+      <c r="M90" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91">
         <v>13.7636001</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <v>100.5114624</v>
       </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>0</v>
-      </c>
-      <c r="K90" t="s">
-        <v>129</v>
-      </c>
-      <c r="L90" t="s">
-        <v>203</v>
-      </c>
-      <c r="M90" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="N90">
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91" t="s">
+        <v>131</v>
+      </c>
+      <c r="L91" t="s">
+        <v>206</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="N91">
         <v>0</v>
       </c>
     </row>
@@ -5188,6 +5244,7 @@
     <hyperlink ref="M88" r:id="rId87"/>
     <hyperlink ref="M89" r:id="rId88"/>
     <hyperlink ref="M90" r:id="rId89"/>
+    <hyperlink ref="M91" r:id="rId90"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="257">
   <si>
     <t>id</t>
   </si>
@@ -145,7 +145,7 @@
     <t>2020-12-24</t>
   </si>
   <si>
-    <t>2020-12-25</t>
+    <t>2020-12-26</t>
   </si>
   <si>
     <t>สนามบินอู่ตะเภา</t>
@@ -400,6 +400,9 @@
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
+    <t>วัดเล่งเนยยี่ 2</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -415,6 +418,9 @@
     <t>Thai</t>
   </si>
   <si>
+    <t>Burmese</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
@@ -634,7 +640,10 @@
     <t>พนักงานสาธรซิตี้ ทาวเวอร์ ติดโควิด</t>
   </si>
   <si>
-    <t xml:space="preserve">สุ่มตรวจ กลุ่ม ข้าราชการและเจ้าหน้าที่ของ สลน. จำนวน 350 ราย โดยวิธีการตรวจหาภูมิคุ้มกัน COVID-19 ด้วยชุดทดสอบแบบรวดเร็ว หรือ Rapid Test ซึ่งเป็นการตรวจหาเชื้อโดยน้ำลาย ปรากฏว่ามี 6 รายที่มีผลเป็นบวก และเพื่อความแม่นยำในการตรวจสอบจึงได้ส่งทั้ง 6 ราย ทำการตรวจหาเชื้อจากโพรงจมูกและคอ </t>
+    <t>พบ 2 แม่ครัวชาวเมียนม่า ทำงานโรงครัววัดเล่งเน่ยยี่ 2 บางบัวทอง ติดโควิด-19</t>
+  </si>
+  <si>
+    <t>ผลตรวจซ้ำเจ้าหน้าที่ในทำเนียบรัฐบาล 6 ราย ไม่พบเชื้อ และได้มีการทำความสะอาดพ่นฆ่าเชื้อในทำเนียบรัฐบาลเรียบร้อยแล้ว</t>
   </si>
   <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
@@ -772,7 +781,10 @@
     <t>https://www.matichon.co.th/covid19/news_2500693</t>
   </si>
   <si>
-    <t>https://www.prachachat.net/politics/news-582260</t>
+    <t>https://www.khaosod.co.th/covid-19/news_5610412</t>
+  </si>
+  <si>
+    <t>https://www.thairath.co.th/news/politic/2001897</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1225,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1269,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1313,13 +1325,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1357,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1401,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1436,22 +1448,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1480,22 +1492,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1524,22 +1536,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1568,22 +1580,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1612,22 +1624,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1656,22 +1668,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1700,22 +1712,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1744,22 +1756,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1788,22 +1800,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1832,22 +1844,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1876,22 +1888,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1920,22 +1932,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1964,22 +1976,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2008,22 +2020,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2052,22 +2064,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2096,22 +2108,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2140,22 +2152,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2184,22 +2196,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2228,22 +2240,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L25" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2272,22 +2284,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2316,22 +2328,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2360,22 +2372,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2404,22 +2416,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2448,22 +2460,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2495,19 +2507,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2539,19 +2551,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2583,19 +2595,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2624,22 +2636,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2668,22 +2680,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2712,22 +2724,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2756,22 +2768,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2800,22 +2812,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K38" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L38" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2844,22 +2856,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2888,22 +2900,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2932,22 +2944,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2976,22 +2988,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K42" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3023,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3064,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K44" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3108,22 +3120,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I45" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3152,22 +3164,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3196,22 +3208,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I47" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3240,22 +3252,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3284,22 +3296,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J49" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L49" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3331,19 +3343,19 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J50" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3372,22 +3384,22 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J51" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K51" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3416,22 +3428,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J52" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3460,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J53" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3504,22 +3516,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I54" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J54" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3548,22 +3560,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J55" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L55" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3592,22 +3604,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I56" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3636,22 +3648,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J57" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3680,22 +3692,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J58" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K58" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3724,22 +3736,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I59" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J59" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3768,22 +3780,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I60" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J60" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K60" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3812,22 +3824,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I61" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J61" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K61" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3856,22 +3868,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J62" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3903,19 +3915,19 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J63" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3944,22 +3956,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J64" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K64" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3988,22 +4000,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I65" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K65" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4032,22 +4044,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J66" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L66" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4079,19 +4091,19 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J67" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K67" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4123,19 +4135,19 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J68" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K68" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4167,19 +4179,19 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J69" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4211,19 +4223,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J70" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L70" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4252,22 +4264,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I71" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J71" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L71" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4296,22 +4308,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L72" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4340,22 +4352,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J73" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K73" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L73" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4384,22 +4396,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L74" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4428,22 +4440,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J75" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K75" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4472,22 +4484,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I76" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J76" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K76" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L76" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4516,22 +4528,22 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I77" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J77" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K77" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L77" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4563,19 +4575,19 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J78" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K78" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L78" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4607,19 +4619,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J79" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K79" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L79" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4648,22 +4660,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I80" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J80" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K80" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4695,19 +4707,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J81" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K81" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4739,19 +4751,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J82" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K82" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L82" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4780,22 +4792,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I83" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J83" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K83" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L83" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4824,22 +4836,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J84" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K84" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L84" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4868,22 +4880,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I85" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J85" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K85" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L85" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4912,22 +4924,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I86" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J86" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K86" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L86" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -4956,22 +4968,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I87" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J87" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K87" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L87" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5003,19 +5015,19 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J88" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K88" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L88" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5056,10 +5068,10 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5088,22 +5100,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J90" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K90" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L90" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5114,42 +5126,86 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D91" t="s">
         <v>128</v>
       </c>
       <c r="E91">
+        <v>13.9134431</v>
+      </c>
+      <c r="F91">
+        <v>100.4220473</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>131</v>
+      </c>
+      <c r="I91" t="s">
+        <v>134</v>
+      </c>
+      <c r="J91" t="s">
+        <v>135</v>
+      </c>
+      <c r="K91" t="s">
+        <v>132</v>
+      </c>
+      <c r="L91" t="s">
+        <v>208</v>
+      </c>
+      <c r="M91" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" t="s">
+        <v>129</v>
+      </c>
+      <c r="E92">
         <v>13.7636001</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <v>100.5114624</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91" t="s">
-        <v>131</v>
-      </c>
-      <c r="L91" t="s">
-        <v>206</v>
-      </c>
-      <c r="M91" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="N91">
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92" t="s">
+        <v>132</v>
+      </c>
+      <c r="L92" t="s">
+        <v>209</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="N92">
         <v>0</v>
       </c>
     </row>
@@ -5245,6 +5301,7 @@
     <hyperlink ref="M89" r:id="rId88"/>
     <hyperlink ref="M90" r:id="rId89"/>
     <hyperlink ref="M91" r:id="rId90"/>
+    <hyperlink ref="M92" r:id="rId91"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="263">
   <si>
     <t>id</t>
   </si>
@@ -406,6 +406,12 @@
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
+    <t>ร้านนิตยาไก่ย่าง</t>
+  </si>
+  <si>
+    <t>บ่อนใน อ.เมืองระยอง และ มาบตาพุด</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -646,6 +652,12 @@
     <t>ผลตรวจซ้ำเจ้าหน้าที่ในทำเนียบรัฐบาล 6 ราย ไม่พบเชื้อ และได้มีการทำความสะอาดพ่นฆ่าเชื้อในทำเนียบรัฐบาลเรียบร้อยแล้ว</t>
   </si>
   <si>
+    <t>ปิด “นิตยาไก่ย่าง” 3 วัน ในสามย่านมิตรทาวน์ หลังพบผู้ติดโควิดใช้บริการ</t>
+  </si>
+  <si>
+    <t>ระยองพบติดเชื้อโควิดเพิ่ม 37 ราย จากบ่อนพนันในอ.เมืองระยอง และมาบตาพุด</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -785,6 +797,12 @@
   </si>
   <si>
     <t>https://www.thairath.co.th/news/politic/2001897</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/marketing/news-582754</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/general/news-582764</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N92"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,13 +1255,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1281,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1325,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1369,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1413,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1448,22 +1466,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1492,22 +1510,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1536,22 +1554,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1580,22 +1598,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1624,22 +1642,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1668,22 +1686,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1712,22 +1730,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1756,22 +1774,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1800,22 +1818,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1844,22 +1862,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1888,22 +1906,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1932,22 +1950,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J18" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1976,22 +1994,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2020,22 +2038,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2064,22 +2082,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2108,22 +2126,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J22" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2152,22 +2170,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2196,22 +2214,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J24" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2240,22 +2258,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2284,22 +2302,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2328,22 +2346,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2372,22 +2390,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J28" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2416,22 +2434,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I29" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2460,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2507,19 +2525,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J31" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2551,19 +2569,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J32" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K32" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2595,19 +2613,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J33" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2636,22 +2654,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J34" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2680,22 +2698,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J35" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2724,22 +2742,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2768,22 +2786,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J37" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2812,22 +2830,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2856,22 +2874,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J39" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K39" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2900,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I40" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K40" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2944,22 +2962,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K41" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L41" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2988,22 +3006,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L42" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3035,19 +3053,19 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J43" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L43" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3076,22 +3094,22 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3120,22 +3138,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I45" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J45" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K45" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3164,22 +3182,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J46" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L46" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3208,22 +3226,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3252,22 +3270,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I48" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K48" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3296,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I49" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J49" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K49" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3343,19 +3361,19 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J50" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K50" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3384,22 +3402,22 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I51" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J51" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K51" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3428,22 +3446,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I52" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K52" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L52" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3472,22 +3490,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I53" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J53" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K53" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L53" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3516,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I54" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K54" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L54" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3560,22 +3578,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I55" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J55" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K55" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3604,22 +3622,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I56" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J56" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K56" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L56" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3648,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I57" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J57" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K57" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3692,22 +3710,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I58" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J58" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K58" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3736,22 +3754,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I59" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J59" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K59" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3780,22 +3798,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I60" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J60" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3824,22 +3842,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I61" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J61" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K61" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L61" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3868,22 +3886,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I62" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J62" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K62" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3915,19 +3933,19 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J63" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K63" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L63" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3956,22 +3974,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J64" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K64" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L64" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4000,22 +4018,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I65" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J65" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K65" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4044,22 +4062,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I66" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J66" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K66" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L66" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4091,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K67" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4135,19 +4153,19 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K68" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L68" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4179,19 +4197,19 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J69" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K69" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L69" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4223,19 +4241,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J70" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K70" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4264,22 +4282,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I71" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J71" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K71" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L71" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4308,22 +4326,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I72" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J72" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K72" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L72" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4352,22 +4370,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I73" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J73" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K73" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L73" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4396,22 +4414,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I74" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J74" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K74" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L74" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4440,22 +4458,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I75" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J75" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K75" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4484,22 +4502,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I76" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J76" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K76" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L76" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4528,22 +4546,22 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I77" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J77" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K77" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L77" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4575,19 +4593,19 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J78" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K78" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L78" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4619,19 +4637,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J79" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K79" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L79" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4660,22 +4678,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I80" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J80" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K80" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L80" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4707,19 +4725,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J81" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K81" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L81" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4751,19 +4769,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J82" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K82" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L82" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4792,22 +4810,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I83" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J83" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K83" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L83" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4836,22 +4854,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I84" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J84" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K84" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L84" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4880,22 +4898,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I85" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J85" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K85" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L85" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4924,22 +4942,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I86" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J86" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K86" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L86" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -4968,22 +4986,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I87" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J87" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K87" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L87" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5015,19 +5033,19 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J88" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K88" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L88" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5068,10 +5086,10 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5100,22 +5118,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I90" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J90" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K90" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L90" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5144,22 +5162,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I91" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J91" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K91" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L91" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5197,15 +5215,103 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L92" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93">
+        <v>13.734066</v>
+      </c>
+      <c r="F93">
+        <v>100.5278354</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>212</v>
+      </c>
+      <c r="M93" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>43</v>
+      </c>
+      <c r="D94" t="s">
+        <v>131</v>
+      </c>
+      <c r="E94">
+        <v>12.6483736</v>
+      </c>
+      <c r="F94">
+        <v>101.2273679</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>213</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="N94">
         <v>0</v>
       </c>
     </row>
@@ -5302,6 +5408,8 @@
     <hyperlink ref="M90" r:id="rId89"/>
     <hyperlink ref="M91" r:id="rId90"/>
     <hyperlink ref="M92" r:id="rId91"/>
+    <hyperlink ref="M93" r:id="rId92"/>
+    <hyperlink ref="M94" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="280">
   <si>
     <t>id</t>
   </si>
@@ -262,6 +262,9 @@
     <t xml:space="preserve">ร้านครัวดอกไม้ขาว สาขาสยามสแควร์วัน </t>
   </si>
   <si>
+    <t>ธนาคารออมสินสาขาบางเลน</t>
+  </si>
+  <si>
     <t>นนทบุรี</t>
   </si>
   <si>
@@ -277,6 +280,9 @@
     <t>ห้างมาบุญครอง</t>
   </si>
   <si>
+    <t>ห้างบิ๊กซี อ.เมือง นครปฐม</t>
+  </si>
+  <si>
     <t>ร้านแซ่บอีสานคาราโอเกะ ย่านเทเวศร์</t>
   </si>
   <si>
@@ -286,6 +292,9 @@
     <t>เซ็นทรัลเวสต์เกต</t>
   </si>
   <si>
+    <t>ตลาดนัดวัดสามง่าม ต.สามง่าม อ.ดอนตูม</t>
+  </si>
+  <si>
     <t>INC2 Tower B</t>
   </si>
   <si>
@@ -298,12 +307,21 @@
     <t>ตลาดสดเคหะบางบัว</t>
   </si>
   <si>
+    <t>โรงเรียนเจี้ยนหัว ต.บางเลน อ.บางเลน</t>
+  </si>
+  <si>
     <t>ซ.รุ่งเรือง 5 บางบัวทอง</t>
   </si>
   <si>
     <t>ตลาดแจ้งวัฒนะ ซ.6</t>
   </si>
   <si>
+    <t>โรงเรียนราษฎร์บำรุงวิทยา อ.ดอนตูม</t>
+  </si>
+  <si>
+    <t>โรงเรียนแสงอรุณ</t>
+  </si>
+  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
@@ -325,6 +343,9 @@
     <t>ธนาคารกสิกรไทย สาขา โลตัสเพชรเกษม 81</t>
   </si>
   <si>
+    <t>ตลาดนัดห้วยตะโก ต.พะเนียด อ.นครชัยศรี</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -355,6 +376,15 @@
     <t>สมศักดิ์ ปูอบ สาขา2 บีทีเอสกรุงธนบุรี</t>
   </si>
   <si>
+    <t>มหาวิทยาลัยศิลปากร</t>
+  </si>
+  <si>
+    <t>วัดดอนยายหอม อ.เมือง</t>
+  </si>
+  <si>
+    <t>ที่ว่าการอำเภอบางเลน</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -370,6 +400,12 @@
     <t>ตลาดเจดีย์</t>
   </si>
   <si>
+    <t>การไฟฟ้า อ.นครชัยศรี</t>
+  </si>
+  <si>
+    <t>ธนาคารไทยพานิชย์ สาขานครชัยศรี</t>
+  </si>
+  <si>
     <t>Siam Center</t>
   </si>
   <si>
@@ -397,12 +433,21 @@
     <t>ตลาดอ่อนนุช</t>
   </si>
   <si>
+    <t>ตลาดนัดท่าข้าม ต.บางระกำ อ.นครชัยศรี</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงไทย สาขานครชัยศรี</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
     <t>วัดเล่งเนยยี่ 2</t>
   </si>
   <si>
+    <t>ศูนย์การแพทย์กาญจนาภิเษก อ.พุทธมณฑล</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -538,6 +583,9 @@
     <t>ร้านครัวดอกไม้ขาว สาขาสยามสแควร์วัน ปิด Big Cleaning 1 วัน หลังพบไทม์ไลน์ผู้ติดเชื้อโควิด-19 มาใช้บริการ</t>
   </si>
   <si>
+    <t>ผู้ป่วย  covid-19 นครปฐม รายที่22-29</t>
+  </si>
+  <si>
     <t xml:space="preserve">เคสแม่ค้ารถพุ่มพวงติดโควิด เป็นรถกระบะสีขาว ป้ายแดง ทะเบียน 8681 สมุทรปราการ </t>
   </si>
   <si>
@@ -713,6 +761,9 @@
   </si>
   <si>
     <t>https://mgronline.com/onlinesection/detail/9630000130287</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/story.php?story_fbid=3200886696679973&amp;id=246608695441136&amp;sfnsn=mo</t>
   </si>
   <si>
     <t>https://www.thairath.co.th/news/local/central/1999153</t>
@@ -1173,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1255,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1299,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1343,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L4" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1387,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L5" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1431,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L6" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1466,22 +1517,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1510,22 +1561,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K8" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L8" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1554,22 +1605,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J9" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K9" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L9" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1598,22 +1649,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L10" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1642,22 +1693,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K11" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1686,22 +1737,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1730,22 +1781,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1774,22 +1825,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1818,22 +1869,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1862,22 +1913,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1906,22 +1957,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J17" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1950,22 +2001,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1994,22 +2045,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I19" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K19" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2038,22 +2089,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I20" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J20" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2082,22 +2133,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I21" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J21" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K21" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L21" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2126,22 +2177,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I22" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J22" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K22" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2170,22 +2221,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2214,22 +2265,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J24" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K24" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2258,22 +2309,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J25" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2302,22 +2353,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I26" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J26" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L26" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2346,22 +2397,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I27" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J27" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L27" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2390,22 +2441,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I28" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L28" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2434,22 +2485,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="I29" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J29" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K29" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2478,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I30" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J30" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L30" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2525,19 +2576,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2569,19 +2620,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J32" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K32" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L32" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2613,19 +2664,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J33" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K33" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2654,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I34" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J34" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K34" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L34" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2698,22 +2749,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I35" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J35" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K35" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L35" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2742,22 +2793,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I36" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J36" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K36" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L36" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2786,22 +2837,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I37" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J37" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K37" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L37" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2830,22 +2881,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I38" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J38" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K38" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L38" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2874,22 +2925,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I39" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J39" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K39" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2918,22 +2969,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I40" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K40" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -2944,40 +2995,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
         <v>82</v>
       </c>
       <c r="E41">
-        <v>13.8205741</v>
+        <v>14.032751</v>
       </c>
       <c r="F41">
-        <v>100.4822683</v>
+        <v>100.166337</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I41" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J41" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K41" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L41" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -2997,31 +3048,31 @@
         <v>83</v>
       </c>
       <c r="E42">
-        <v>13.5440411</v>
+        <v>13.8205741</v>
       </c>
       <c r="F42">
-        <v>100.2752457</v>
+        <v>100.4822683</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I42" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J42" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K42" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L42" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3032,7 +3083,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C43" t="s">
         <v>33</v>
@@ -3041,31 +3092,31 @@
         <v>84</v>
       </c>
       <c r="E43">
-        <v>13.6211105</v>
+        <v>13.5440411</v>
       </c>
       <c r="F43">
-        <v>100.4387341</v>
+        <v>100.2752457</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>0</v>
+      <c r="H43" t="s">
+        <v>148</v>
       </c>
       <c r="I43" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J43" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K43" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3085,31 +3136,31 @@
         <v>85</v>
       </c>
       <c r="E44">
-        <v>13.7731761</v>
+        <v>13.6211105</v>
       </c>
       <c r="F44">
-        <v>100.4851346</v>
+        <v>100.4387341</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" t="s">
-        <v>132</v>
+      <c r="H44">
+        <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J44" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K44" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3120,7 +3171,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>33</v>
@@ -3129,31 +3180,31 @@
         <v>86</v>
       </c>
       <c r="E45">
-        <v>13.74512653</v>
+        <v>13.7731761</v>
       </c>
       <c r="F45">
-        <v>100.5298302</v>
+        <v>100.4851346</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I45" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J45" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K45" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L45" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3164,40 +3215,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E46">
-        <v>13.8330877</v>
+        <v>13.74512653</v>
       </c>
       <c r="F46">
-        <v>100.499237</v>
+        <v>100.5298302</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I46" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J46" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K46" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L46" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3208,40 +3259,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E47">
-        <v>13.7689441</v>
+        <v>13.812836</v>
       </c>
       <c r="F47">
-        <v>100.5046383</v>
+        <v>100.07</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="I47" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J47" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K47" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L47" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3252,40 +3303,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E48">
-        <v>13.84341791</v>
+        <v>13.8330877</v>
       </c>
       <c r="F48">
-        <v>100.5419373</v>
+        <v>100.499237</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="I48" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J48" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K48" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3296,7 +3347,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
@@ -3305,31 +3356,31 @@
         <v>89</v>
       </c>
       <c r="E49">
-        <v>13.87694672</v>
+        <v>13.7689441</v>
       </c>
       <c r="F49">
-        <v>100.4115482</v>
+        <v>100.5046383</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I49" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J49" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K49" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L49" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3340,40 +3391,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
         <v>90</v>
       </c>
       <c r="E50">
-        <v>14.0782451</v>
+        <v>13.84341791</v>
       </c>
       <c r="F50">
-        <v>100.604118</v>
+        <v>100.5419373</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50">
-        <v>0</v>
+      <c r="H50" t="s">
+        <v>149</v>
       </c>
       <c r="I50" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J50" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K50" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L50" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3384,40 +3435,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
         <v>91</v>
       </c>
       <c r="E51">
-        <v>13.86019768</v>
+        <v>13.87694672</v>
       </c>
       <c r="F51">
-        <v>100.7223304</v>
+        <v>100.4115482</v>
       </c>
       <c r="G51">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="I51" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J51" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K51" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L51" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3428,40 +3479,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
         <v>92</v>
       </c>
       <c r="E52">
-        <v>13.8578211</v>
+        <v>13.964334</v>
       </c>
       <c r="F52">
-        <v>100.4105189</v>
+        <v>100.083426</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="I52" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J52" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K52" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L52" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3481,31 +3532,31 @@
         <v>93</v>
       </c>
       <c r="E53">
-        <v>13.85934159</v>
+        <v>14.0782451</v>
       </c>
       <c r="F53">
-        <v>100.5849015</v>
+        <v>100.604118</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53" t="s">
-        <v>132</v>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J53" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K53" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3519,37 +3570,37 @@
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D54" t="s">
         <v>94</v>
       </c>
       <c r="E54">
-        <v>13.87779142</v>
+        <v>13.86019768</v>
       </c>
       <c r="F54">
-        <v>100.4215436</v>
+        <v>100.7223304</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I54" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J54" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K54" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L54" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3560,40 +3611,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
         <v>95</v>
       </c>
       <c r="E55">
-        <v>13.88376994</v>
+        <v>13.8578211</v>
       </c>
       <c r="F55">
-        <v>100.5843207</v>
+        <v>100.4105189</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I55" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J55" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K55" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L55" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3607,37 +3658,37 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
         <v>96</v>
       </c>
       <c r="E56">
-        <v>14.1487352</v>
+        <v>13.85934159</v>
       </c>
       <c r="F56">
-        <v>100.6155778</v>
+        <v>100.5849015</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I56" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J56" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K56" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3648,40 +3699,40 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
         <v>97</v>
       </c>
       <c r="E57">
-        <v>13.8057625</v>
+        <v>14.119413</v>
       </c>
       <c r="F57">
-        <v>100.6621959</v>
+        <v>100.118335</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I57" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J57" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K57" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3695,37 +3746,37 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
         <v>98</v>
       </c>
       <c r="E58">
-        <v>14.01215068</v>
+        <v>13.87779142</v>
       </c>
       <c r="F58">
-        <v>100.17523</v>
+        <v>100.4215436</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="I58" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J58" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K58" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3739,37 +3790,37 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s">
         <v>99</v>
       </c>
       <c r="E59">
-        <v>13.8134088</v>
+        <v>13.88376994</v>
       </c>
       <c r="F59">
-        <v>100.5616103</v>
+        <v>100.5843207</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I59" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J59" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K59" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L59" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3783,37 +3834,37 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D60" t="s">
         <v>100</v>
       </c>
       <c r="E60">
-        <v>13.816493</v>
+        <v>13.965066</v>
       </c>
       <c r="F60">
-        <v>100.5610062</v>
+        <v>100.07959</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I60" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J60" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K60" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L60" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3827,37 +3878,37 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D61" t="s">
         <v>101</v>
       </c>
       <c r="E61">
-        <v>13.7966595</v>
+        <v>14.036373</v>
       </c>
       <c r="F61">
-        <v>100.4755856</v>
+        <v>100.168774</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I61" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J61" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K61" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3868,7 +3919,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
         <v>37</v>
@@ -3877,31 +3928,31 @@
         <v>102</v>
       </c>
       <c r="E62">
-        <v>13.69121688</v>
+        <v>14.1487352</v>
       </c>
       <c r="F62">
-        <v>100.3412194</v>
+        <v>100.6155778</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I62" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J62" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K62" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3912,40 +3963,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D63" t="s">
         <v>103</v>
       </c>
       <c r="E63">
-        <v>13.5579068</v>
+        <v>13.8057625</v>
       </c>
       <c r="F63">
-        <v>100.270829</v>
+        <v>100.6621959</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63">
-        <v>0</v>
+      <c r="H63" t="s">
+        <v>148</v>
       </c>
       <c r="I63" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J63" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K63" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L63" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3959,37 +4010,37 @@
         <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D64" t="s">
         <v>104</v>
       </c>
       <c r="E64">
-        <v>13.7937004</v>
+        <v>14.01215068</v>
       </c>
       <c r="F64">
-        <v>100.6923144</v>
+        <v>100.17523</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="I64" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J64" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K64" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L64" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4000,40 +4051,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" t="s">
         <v>105</v>
       </c>
       <c r="E65">
-        <v>13.5455607</v>
+        <v>13.8134088</v>
       </c>
       <c r="F65">
-        <v>100.2767611</v>
+        <v>100.5616103</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I65" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J65" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K65" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L65" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4044,40 +4095,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D66" t="s">
         <v>106</v>
       </c>
       <c r="E66">
-        <v>13.7204469</v>
+        <v>13.816493</v>
       </c>
       <c r="F66">
-        <v>100.5004708</v>
+        <v>100.5610062</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I66" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J66" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K66" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4091,34 +4142,34 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E67">
-        <v>14.3355326</v>
+        <v>13.7966595</v>
       </c>
       <c r="F67">
-        <v>100.87017</v>
+        <v>100.4755856</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>0</v>
+      <c r="H67" t="s">
+        <v>148</v>
       </c>
       <c r="I67" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J67" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K67" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L67" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>244</v>
@@ -4132,40 +4183,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68">
-        <v>14.5786407</v>
+        <v>13.69121688</v>
       </c>
       <c r="F68">
-        <v>100.9662444</v>
+        <v>100.3412194</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>0</v>
+      <c r="H68" t="s">
+        <v>148</v>
       </c>
       <c r="I68" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J68" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K68" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L68" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4179,37 +4230,37 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E69">
-        <v>14.5116599</v>
+        <v>13.79584</v>
       </c>
       <c r="F69">
-        <v>100.9094134</v>
+        <v>100.13118</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69">
-        <v>0</v>
+      <c r="H69" t="s">
+        <v>149</v>
       </c>
       <c r="I69" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J69" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K69" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4220,19 +4271,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
         <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E70">
-        <v>14.1378761</v>
+        <v>13.5579068</v>
       </c>
       <c r="F70">
-        <v>100.8255049</v>
+        <v>100.270829</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -4241,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J70" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K70" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L70" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4270,34 +4321,34 @@
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E71">
-        <v>14.06566869</v>
+        <v>13.7937004</v>
       </c>
       <c r="F71">
-        <v>99.9821468</v>
+        <v>100.6923144</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="I71" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J71" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K71" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L71" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4308,40 +4359,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E72">
-        <v>13.8220612</v>
+        <v>13.5455607</v>
       </c>
       <c r="F72">
-        <v>100.421874</v>
+        <v>100.2767611</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I72" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J72" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K72" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L72" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4352,40 +4403,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
         <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E73">
-        <v>13.8683169</v>
+        <v>13.7204469</v>
       </c>
       <c r="F73">
-        <v>100.4107308</v>
+        <v>100.5004708</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="I73" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J73" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K73" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L73" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4402,34 +4453,34 @@
         <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E74">
-        <v>13.89757086</v>
+        <v>14.3355326</v>
       </c>
       <c r="F74">
-        <v>100.6098027</v>
+        <v>100.87017</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74" t="s">
-        <v>132</v>
+      <c r="H74">
+        <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J74" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K74" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L74" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4440,40 +4491,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
         <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E75">
-        <v>13.72045903</v>
+        <v>14.5786407</v>
       </c>
       <c r="F75">
-        <v>100.5004852</v>
+        <v>100.9662444</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75" t="s">
-        <v>133</v>
+      <c r="H75">
+        <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J75" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K75" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L75" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4484,40 +4535,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
         <v>113</v>
       </c>
       <c r="E76">
-        <v>13.8781452</v>
+        <v>14.5116599</v>
       </c>
       <c r="F76">
-        <v>100.4091302</v>
+        <v>100.9094134</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76" t="s">
-        <v>132</v>
+      <c r="H76">
+        <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J76" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K76" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L76" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4528,40 +4579,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D77" t="s">
         <v>114</v>
       </c>
       <c r="E77">
-        <v>13.7164198</v>
+        <v>14.1378761</v>
       </c>
       <c r="F77">
-        <v>100.5716135</v>
+        <v>100.8255049</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77" t="s">
-        <v>134</v>
+      <c r="H77">
+        <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J77" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K77" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L77" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4572,40 +4623,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
         <v>115</v>
       </c>
       <c r="E78">
-        <v>13.73541413</v>
+        <v>14.06566869</v>
       </c>
       <c r="F78">
-        <v>100.5877998</v>
+        <v>99.9821468</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78">
-        <v>0</v>
+      <c r="H78" t="s">
+        <v>147</v>
       </c>
       <c r="I78" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J78" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K78" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L78" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4616,40 +4667,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D79" t="s">
         <v>116</v>
       </c>
       <c r="E79">
-        <v>13.78766192</v>
+        <v>13.8220612</v>
       </c>
       <c r="F79">
-        <v>100.5105938</v>
+        <v>100.421874</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79">
-        <v>0</v>
+      <c r="H79" t="s">
+        <v>148</v>
       </c>
       <c r="I79" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J79" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K79" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L79" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4660,40 +4711,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D80" t="s">
         <v>117</v>
       </c>
       <c r="E80">
-        <v>13.5951449</v>
+        <v>13.8683169</v>
       </c>
       <c r="F80">
-        <v>100.5802135</v>
+        <v>100.4107308</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="I80" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J80" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K80" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L80" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4704,40 +4755,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
         <v>118</v>
       </c>
       <c r="E81">
-        <v>13.7462524</v>
+        <v>13.89757086</v>
       </c>
       <c r="F81">
-        <v>100.5328635</v>
+        <v>100.6098027</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81">
-        <v>0</v>
+      <c r="H81" t="s">
+        <v>147</v>
       </c>
       <c r="I81" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J81" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K81" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4748,40 +4799,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D82" t="s">
         <v>119</v>
       </c>
       <c r="E82">
-        <v>13.7243591</v>
+        <v>13.72045903</v>
       </c>
       <c r="F82">
-        <v>100.5386589</v>
+        <v>100.5004852</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>0</v>
+      <c r="H82" t="s">
+        <v>148</v>
       </c>
       <c r="I82" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J82" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K82" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L82" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4792,40 +4843,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D83" t="s">
         <v>120</v>
       </c>
       <c r="E83">
-        <v>13.54974685</v>
+        <v>13.817137</v>
       </c>
       <c r="F83">
-        <v>100.2561435</v>
+        <v>100.041497</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I83" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J83" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K83" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L83" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4836,40 +4887,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
         <v>121</v>
       </c>
       <c r="E84">
-        <v>14.45160513</v>
+        <v>13.737328</v>
       </c>
       <c r="F84">
-        <v>100.7230585</v>
+        <v>100.081218</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I84" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J84" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K84" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L84" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4880,40 +4931,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
         <v>122</v>
       </c>
       <c r="E85">
-        <v>13.72836497</v>
+        <v>14.021384</v>
       </c>
       <c r="F85">
-        <v>100.5350858</v>
+        <v>100.165325</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="I85" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J85" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K85" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L85" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4924,40 +4975,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D86" t="s">
         <v>123</v>
       </c>
       <c r="E86">
-        <v>13.7660558</v>
+        <v>13.8781452</v>
       </c>
       <c r="F86">
-        <v>100.6403032</v>
+        <v>100.4091302</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I86" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J86" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K86" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L86" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -4971,37 +5022,37 @@
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D87" t="s">
         <v>124</v>
       </c>
       <c r="E87">
-        <v>13.710361</v>
+        <v>13.7164198</v>
       </c>
       <c r="F87">
-        <v>100.4073817</v>
+        <v>100.5716135</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="I87" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J87" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K87" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L87" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5012,19 +5063,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
         <v>125</v>
       </c>
       <c r="E88">
-        <v>13.2054213</v>
+        <v>13.73541413</v>
       </c>
       <c r="F88">
-        <v>99.9793013</v>
+        <v>100.5877998</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -5033,19 +5084,19 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J88" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K88" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L88" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5056,19 +5107,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D89" t="s">
         <v>126</v>
       </c>
       <c r="E89">
-        <v>13.7100705</v>
+        <v>13.78766192</v>
       </c>
       <c r="F89">
-        <v>100.6007069</v>
+        <v>100.5105938</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -5076,20 +5127,20 @@
       <c r="H89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
+      <c r="I89" t="s">
+        <v>150</v>
+      </c>
+      <c r="J89" t="s">
+        <v>152</v>
+      </c>
+      <c r="K89" t="s">
+        <v>149</v>
       </c>
       <c r="L89" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5100,40 +5151,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D90" t="s">
         <v>127</v>
       </c>
       <c r="E90">
-        <v>13.721681</v>
+        <v>13.5951449</v>
       </c>
       <c r="F90">
-        <v>100.53</v>
+        <v>100.5802135</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="I90" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J90" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K90" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L90" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5144,40 +5195,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D91" t="s">
         <v>128</v>
       </c>
       <c r="E91">
-        <v>13.9134431</v>
+        <v>13.803038</v>
       </c>
       <c r="F91">
-        <v>100.4220473</v>
+        <v>100.188902</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I91" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J91" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K91" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L91" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5188,40 +5239,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D92" t="s">
         <v>129</v>
       </c>
       <c r="E92">
-        <v>13.7636001</v>
+        <v>13.802276</v>
       </c>
       <c r="F92">
-        <v>100.5114624</v>
+        <v>100.19</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
+      <c r="H92" t="s">
+        <v>149</v>
+      </c>
+      <c r="I92" t="s">
+        <v>150</v>
+      </c>
+      <c r="J92" t="s">
+        <v>152</v>
       </c>
       <c r="K92" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L92" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5232,19 +5283,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
         <v>130</v>
       </c>
       <c r="E93">
-        <v>13.734066</v>
+        <v>13.7462524</v>
       </c>
       <c r="F93">
-        <v>100.5278354</v>
+        <v>100.5328635</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -5252,20 +5303,20 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
+      <c r="I93" t="s">
+        <v>150</v>
+      </c>
+      <c r="J93" t="s">
+        <v>152</v>
+      </c>
+      <c r="K93" t="s">
+        <v>149</v>
       </c>
       <c r="L93" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5276,42 +5327,702 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D94" t="s">
         <v>131</v>
       </c>
       <c r="E94">
+        <v>13.7243591</v>
+      </c>
+      <c r="F94">
+        <v>100.5386589</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>150</v>
+      </c>
+      <c r="J94" t="s">
+        <v>152</v>
+      </c>
+      <c r="K94" t="s">
+        <v>149</v>
+      </c>
+      <c r="L94" t="s">
+        <v>217</v>
+      </c>
+      <c r="M94" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" t="s">
+        <v>132</v>
+      </c>
+      <c r="E95">
+        <v>13.54974685</v>
+      </c>
+      <c r="F95">
+        <v>100.2561435</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>148</v>
+      </c>
+      <c r="I95" t="s">
+        <v>150</v>
+      </c>
+      <c r="J95" t="s">
+        <v>152</v>
+      </c>
+      <c r="K95" t="s">
+        <v>149</v>
+      </c>
+      <c r="L95" t="s">
+        <v>218</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>41</v>
+      </c>
+      <c r="D96" t="s">
+        <v>133</v>
+      </c>
+      <c r="E96">
+        <v>14.45160513</v>
+      </c>
+      <c r="F96">
+        <v>100.7230585</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>148</v>
+      </c>
+      <c r="I96" t="s">
+        <v>150</v>
+      </c>
+      <c r="J96" t="s">
+        <v>152</v>
+      </c>
+      <c r="K96" t="s">
+        <v>149</v>
+      </c>
+      <c r="L96" t="s">
+        <v>219</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" t="s">
+        <v>134</v>
+      </c>
+      <c r="E97">
+        <v>13.72836497</v>
+      </c>
+      <c r="F97">
+        <v>100.5350858</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>149</v>
+      </c>
+      <c r="I97" t="s">
+        <v>150</v>
+      </c>
+      <c r="J97" t="s">
+        <v>152</v>
+      </c>
+      <c r="K97" t="s">
+        <v>149</v>
+      </c>
+      <c r="L97" t="s">
+        <v>220</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D98" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98">
+        <v>13.7660558</v>
+      </c>
+      <c r="F98">
+        <v>100.6403032</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>149</v>
+      </c>
+      <c r="I98" t="s">
+        <v>150</v>
+      </c>
+      <c r="J98" t="s">
+        <v>152</v>
+      </c>
+      <c r="K98" t="s">
+        <v>149</v>
+      </c>
+      <c r="L98" t="s">
+        <v>221</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>41</v>
+      </c>
+      <c r="D99" t="s">
+        <v>136</v>
+      </c>
+      <c r="E99">
+        <v>13.710361</v>
+      </c>
+      <c r="F99">
+        <v>100.4073817</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>149</v>
+      </c>
+      <c r="I99" t="s">
+        <v>150</v>
+      </c>
+      <c r="J99" t="s">
+        <v>152</v>
+      </c>
+      <c r="K99" t="s">
+        <v>149</v>
+      </c>
+      <c r="L99" t="s">
+        <v>222</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" t="s">
+        <v>137</v>
+      </c>
+      <c r="E100">
+        <v>13.2054213</v>
+      </c>
+      <c r="F100">
+        <v>99.9793013</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>150</v>
+      </c>
+      <c r="J100" t="s">
+        <v>152</v>
+      </c>
+      <c r="K100" t="s">
+        <v>149</v>
+      </c>
+      <c r="L100" t="s">
+        <v>223</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>41</v>
+      </c>
+      <c r="D101" t="s">
+        <v>138</v>
+      </c>
+      <c r="E101">
+        <v>13.7100705</v>
+      </c>
+      <c r="F101">
+        <v>100.6007069</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101" t="s">
+        <v>224</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>41</v>
+      </c>
+      <c r="D102" t="s">
+        <v>139</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>149</v>
+      </c>
+      <c r="I102" t="s">
+        <v>150</v>
+      </c>
+      <c r="J102" t="s">
+        <v>152</v>
+      </c>
+      <c r="K102" t="s">
+        <v>149</v>
+      </c>
+      <c r="L102" t="s">
+        <v>189</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D103" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103">
+        <v>13.802283</v>
+      </c>
+      <c r="F103">
+        <v>100.184509</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>149</v>
+      </c>
+      <c r="I103" t="s">
+        <v>150</v>
+      </c>
+      <c r="J103" t="s">
+        <v>152</v>
+      </c>
+      <c r="K103" t="s">
+        <v>149</v>
+      </c>
+      <c r="L103" t="s">
+        <v>189</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>42</v>
+      </c>
+      <c r="D104" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104">
+        <v>13.721681</v>
+      </c>
+      <c r="F104">
+        <v>100.53</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>149</v>
+      </c>
+      <c r="I104" t="s">
+        <v>150</v>
+      </c>
+      <c r="J104" t="s">
+        <v>152</v>
+      </c>
+      <c r="K104" t="s">
+        <v>149</v>
+      </c>
+      <c r="L104" t="s">
+        <v>225</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>42</v>
+      </c>
+      <c r="D105" t="s">
+        <v>142</v>
+      </c>
+      <c r="E105">
+        <v>13.9134431</v>
+      </c>
+      <c r="F105">
+        <v>100.4220473</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>148</v>
+      </c>
+      <c r="I105" t="s">
+        <v>151</v>
+      </c>
+      <c r="J105" t="s">
+        <v>152</v>
+      </c>
+      <c r="K105" t="s">
+        <v>149</v>
+      </c>
+      <c r="L105" t="s">
+        <v>226</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>42</v>
+      </c>
+      <c r="D106" t="s">
+        <v>143</v>
+      </c>
+      <c r="E106">
+        <v>13.786588</v>
+      </c>
+      <c r="F106">
+        <v>100.321233</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>149</v>
+      </c>
+      <c r="I106" t="s">
+        <v>150</v>
+      </c>
+      <c r="J106" t="s">
+        <v>152</v>
+      </c>
+      <c r="K106" t="s">
+        <v>149</v>
+      </c>
+      <c r="L106" t="s">
+        <v>189</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>43</v>
+      </c>
+      <c r="D107" t="s">
+        <v>144</v>
+      </c>
+      <c r="E107">
+        <v>13.7636001</v>
+      </c>
+      <c r="F107">
+        <v>100.5114624</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>149</v>
+      </c>
+      <c r="L107" t="s">
+        <v>227</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" t="s">
+        <v>145</v>
+      </c>
+      <c r="E108">
+        <v>13.734066</v>
+      </c>
+      <c r="F108">
+        <v>100.5278354</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108" t="s">
+        <v>228</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" t="s">
+        <v>146</v>
+      </c>
+      <c r="E109">
         <v>12.6483736</v>
       </c>
-      <c r="F94">
+      <c r="F109">
         <v>101.2273679</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94" t="s">
-        <v>213</v>
-      </c>
-      <c r="M94" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="N94">
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109" t="s">
+        <v>229</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="N109">
         <v>0</v>
       </c>
     </row>
@@ -5385,14 +6096,14 @@
     <hyperlink ref="M67" r:id="rId66"/>
     <hyperlink ref="M68" r:id="rId67"/>
     <hyperlink ref="M69" r:id="rId68"/>
-    <hyperlink ref="M70" r:id="rId69" location="cxrecs_s"/>
+    <hyperlink ref="M70" r:id="rId69"/>
     <hyperlink ref="M71" r:id="rId70"/>
     <hyperlink ref="M72" r:id="rId71"/>
     <hyperlink ref="M73" r:id="rId72"/>
     <hyperlink ref="M74" r:id="rId73"/>
     <hyperlink ref="M75" r:id="rId74"/>
     <hyperlink ref="M76" r:id="rId75"/>
-    <hyperlink ref="M77" r:id="rId76"/>
+    <hyperlink ref="M77" r:id="rId76" location="cxrecs_s"/>
     <hyperlink ref="M78" r:id="rId77"/>
     <hyperlink ref="M79" r:id="rId78"/>
     <hyperlink ref="M80" r:id="rId79"/>
@@ -5410,6 +6121,21 @@
     <hyperlink ref="M92" r:id="rId91"/>
     <hyperlink ref="M93" r:id="rId92"/>
     <hyperlink ref="M94" r:id="rId93"/>
+    <hyperlink ref="M95" r:id="rId94"/>
+    <hyperlink ref="M96" r:id="rId95"/>
+    <hyperlink ref="M97" r:id="rId96"/>
+    <hyperlink ref="M98" r:id="rId97"/>
+    <hyperlink ref="M99" r:id="rId98"/>
+    <hyperlink ref="M100" r:id="rId99"/>
+    <hyperlink ref="M101" r:id="rId100"/>
+    <hyperlink ref="M102" r:id="rId101"/>
+    <hyperlink ref="M103" r:id="rId102"/>
+    <hyperlink ref="M104" r:id="rId103"/>
+    <hyperlink ref="M105" r:id="rId104"/>
+    <hyperlink ref="M106" r:id="rId105"/>
+    <hyperlink ref="M107" r:id="rId106"/>
+    <hyperlink ref="M108" r:id="rId107"/>
+    <hyperlink ref="M109" r:id="rId108"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="289">
   <si>
     <t>id</t>
   </si>
@@ -145,6 +145,9 @@
     <t>2020-12-24</t>
   </si>
   <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
     <t>2020-12-26</t>
   </si>
   <si>
@@ -406,6 +409,12 @@
     <t>ธนาคารไทยพานิชย์ สาขานครชัยศรี</t>
   </si>
   <si>
+    <t>ร้าน เจเจ ชาบู&amp;ปิ้งย่าง สรงประภาดอนเมือง</t>
+  </si>
+  <si>
+    <t>ตลาดโอโซนวัน</t>
+  </si>
+  <si>
     <t>Siam Center</t>
   </si>
   <si>
@@ -439,6 +448,9 @@
     <t>ธนาคารกรุงไทย สาขานครชัยศรี</t>
   </si>
   <si>
+    <t>สนามบินดอนเมือง</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
@@ -448,6 +460,9 @@
     <t>ศูนย์การแพทย์กาญจนาภิเษก อ.พุทธมณฑล</t>
   </si>
   <si>
+    <t xml:space="preserve">JW Condo @Donmuang </t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -664,6 +679,12 @@
     <t>มีรายงานข่าวว่าพ่อค้าที่ติดโควิด-19 รับอาหารทะเลจากตลาดในจ.สมุทรสาครมาขายที่นี่</t>
   </si>
   <si>
+    <t>คอนโดย่านดอนเมืองพบคนติด ‘โควิด’ ฝึกงานสนามบิน-เดินตลาด</t>
+  </si>
+  <si>
+    <t>ตลาดโอโซนวัน ประกาศปิด 2 วัน หลังพบคนติดเชื้อโควิดเข้ามาใช้บริการ</t>
+  </si>
+  <si>
     <t>สยามเซ็นเตอร์' ประกาศยืนยันมี พนง.ร้านอาหารติดเชื้อโควิด-19 ขอปิดบริการพื้นที่เสี่ยง 3 วัน</t>
   </si>
   <si>
@@ -818,6 +839,12 @@
   </si>
   <si>
     <t>https://www.khaosod.co.th/covid-19/news_5583210</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/news_2502106</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/covid19/news_2502134</t>
   </si>
   <si>
     <t>https://ch3thailandnews.bectero.com/news/224324</t>
@@ -1224,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1312,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>12.674583</v>
@@ -1306,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1329,7 +1356,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>13.7250712</v>
@@ -1350,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1373,7 +1400,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>12.6838253</v>
@@ -1394,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1417,7 +1444,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>12.6959971</v>
@@ -1438,13 +1465,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1461,7 +1488,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>12.6833042</v>
@@ -1482,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1505,7 +1532,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>13.653942</v>
@@ -1517,22 +1544,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1549,7 +1576,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8">
         <v>13.700916</v>
@@ -1561,22 +1588,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1593,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9">
         <v>13.829441</v>
@@ -1605,22 +1632,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1637,7 +1664,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>13.759791</v>
@@ -1649,22 +1676,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L10" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1681,7 +1708,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>13.845817</v>
@@ -1693,22 +1720,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K11" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1725,7 +1752,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>18.81089258</v>
@@ -1737,22 +1764,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1769,7 +1796,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13">
         <v>18.80951974</v>
@@ -1781,22 +1808,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1813,7 +1840,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>18.80401814</v>
@@ -1825,22 +1852,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1857,7 +1884,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>18.80732484</v>
@@ -1869,22 +1896,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1901,7 +1928,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16">
         <v>18.80709567</v>
@@ -1913,22 +1940,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1945,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>18.80650918</v>
@@ -1957,22 +1984,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I17" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1989,7 +2016,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>18.80657601</v>
@@ -2001,22 +2028,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2033,7 +2060,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>18.80658294</v>
@@ -2045,22 +2072,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2077,7 +2104,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>18.80675924</v>
@@ -2089,22 +2116,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J20" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2121,7 +2148,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>18.80629446</v>
@@ -2133,22 +2160,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J21" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K21" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2165,7 +2192,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>19.85327262</v>
@@ -2177,22 +2204,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J22" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K22" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L22" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2209,7 +2236,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E23">
         <v>19.90661769</v>
@@ -2221,22 +2248,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J23" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K23" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L23" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2253,7 +2280,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>19.6476693</v>
@@ -2265,22 +2292,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J24" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K24" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2297,7 +2324,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E25">
         <v>13.7238495</v>
@@ -2309,22 +2336,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I25" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K25" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2341,7 +2368,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E26">
         <v>13.7285268</v>
@@ -2353,22 +2380,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I26" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J26" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K26" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L26" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2385,7 +2412,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E27">
         <v>13.7292718</v>
@@ -2397,22 +2424,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K27" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L27" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2429,7 +2456,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28">
         <v>14.896466</v>
@@ -2441,22 +2468,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I28" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J28" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K28" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L28" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2473,7 +2500,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <v>13.65099232</v>
@@ -2485,22 +2512,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I29" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J29" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L29" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2517,7 +2544,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30">
         <v>13.7185015</v>
@@ -2529,22 +2556,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I30" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J30" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L30" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2561,7 +2588,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31">
         <v>13.7499881</v>
@@ -2576,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J31" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K31" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2605,7 +2632,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E32">
         <v>13.6910012</v>
@@ -2620,19 +2647,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J32" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K32" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L32" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2649,7 +2676,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33">
         <v>13.7468252</v>
@@ -2664,19 +2691,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J33" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K33" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L33" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2693,7 +2720,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E34">
         <v>13.7519927</v>
@@ -2705,22 +2732,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I34" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K34" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L34" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2737,7 +2764,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35">
         <v>14.1246719</v>
@@ -2749,22 +2776,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I35" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J35" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K35" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2781,7 +2808,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36">
         <v>14.1152336</v>
@@ -2793,22 +2820,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I36" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J36" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K36" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L36" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2825,7 +2852,7 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37">
         <v>13.7449539</v>
@@ -2837,22 +2864,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I37" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J37" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K37" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L37" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2869,7 +2896,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38">
         <v>13.7446331</v>
@@ -2881,22 +2908,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I38" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K38" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L38" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2913,7 +2940,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E39">
         <v>13.74492074</v>
@@ -2925,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I39" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J39" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K39" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L39" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2957,7 +2984,7 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40">
         <v>13.74491756</v>
@@ -2969,22 +2996,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I40" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J40" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K40" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L40" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3001,7 +3028,7 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41">
         <v>14.032751</v>
@@ -3013,22 +3040,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I41" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J41" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K41" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L41" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3045,7 +3072,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42">
         <v>13.8205741</v>
@@ -3057,22 +3084,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I42" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J42" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K42" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L42" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3089,7 +3116,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E43">
         <v>13.5440411</v>
@@ -3101,22 +3128,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I43" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J43" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K43" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L43" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3133,7 +3160,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E44">
         <v>13.6211105</v>
@@ -3148,19 +3175,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J44" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K44" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L44" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3177,7 +3204,7 @@
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E45">
         <v>13.7731761</v>
@@ -3189,22 +3216,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J45" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K45" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L45" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3221,7 +3248,7 @@
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E46">
         <v>13.74512653</v>
@@ -3233,22 +3260,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I46" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J46" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K46" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L46" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3265,7 +3292,7 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E47">
         <v>13.812836</v>
@@ -3277,22 +3304,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I47" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J47" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K47" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L47" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3309,7 +3336,7 @@
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48">
         <v>13.8330877</v>
@@ -3321,22 +3348,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I48" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J48" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K48" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L48" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3353,7 +3380,7 @@
         <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E49">
         <v>13.7689441</v>
@@ -3365,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I49" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J49" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K49" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L49" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3397,7 +3424,7 @@
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E50">
         <v>13.84341791</v>
@@ -3409,22 +3436,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I50" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J50" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K50" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L50" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3441,7 +3468,7 @@
         <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51">
         <v>13.87694672</v>
@@ -3453,22 +3480,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I51" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J51" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K51" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L51" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3485,7 +3512,7 @@
         <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E52">
         <v>13.964334</v>
@@ -3497,22 +3524,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I52" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J52" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K52" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L52" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3529,7 +3556,7 @@
         <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E53">
         <v>14.0782451</v>
@@ -3544,19 +3571,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J53" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L53" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3573,7 +3600,7 @@
         <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E54">
         <v>13.86019768</v>
@@ -3585,22 +3612,22 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I54" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J54" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K54" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L54" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3617,7 +3644,7 @@
         <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E55">
         <v>13.8578211</v>
@@ -3629,22 +3656,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I55" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J55" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K55" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L55" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3661,7 +3688,7 @@
         <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E56">
         <v>13.85934159</v>
@@ -3673,22 +3700,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I56" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J56" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K56" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L56" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3705,7 +3732,7 @@
         <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E57">
         <v>14.119413</v>
@@ -3717,22 +3744,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I57" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J57" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K57" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L57" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3749,7 +3776,7 @@
         <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E58">
         <v>13.87779142</v>
@@ -3761,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I58" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J58" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K58" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L58" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3793,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E59">
         <v>13.88376994</v>
@@ -3805,22 +3832,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I59" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J59" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K59" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L59" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3837,7 +3864,7 @@
         <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E60">
         <v>13.965066</v>
@@ -3849,22 +3876,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I60" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J60" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K60" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L60" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3881,7 +3908,7 @@
         <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E61">
         <v>14.036373</v>
@@ -3893,22 +3920,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I61" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J61" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K61" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L61" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3925,7 +3952,7 @@
         <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E62">
         <v>14.1487352</v>
@@ -3937,22 +3964,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I62" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J62" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K62" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L62" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3969,7 +3996,7 @@
         <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E63">
         <v>13.8057625</v>
@@ -3981,22 +4008,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I63" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J63" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K63" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L63" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4013,7 +4040,7 @@
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E64">
         <v>14.01215068</v>
@@ -4025,22 +4052,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I64" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J64" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K64" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L64" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4057,7 +4084,7 @@
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E65">
         <v>13.8134088</v>
@@ -4069,22 +4096,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I65" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J65" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K65" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L65" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4101,7 +4128,7 @@
         <v>37</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E66">
         <v>13.816493</v>
@@ -4113,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I66" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J66" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K66" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L66" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4145,7 +4172,7 @@
         <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E67">
         <v>13.7966595</v>
@@ -4157,22 +4184,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I67" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J67" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K67" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L67" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4189,7 +4216,7 @@
         <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E68">
         <v>13.69121688</v>
@@ -4201,22 +4228,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I68" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J68" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K68" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L68" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4233,7 +4260,7 @@
         <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E69">
         <v>13.79584</v>
@@ -4245,22 +4272,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I69" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J69" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K69" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L69" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4277,7 +4304,7 @@
         <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E70">
         <v>13.5579068</v>
@@ -4292,19 +4319,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J70" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K70" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L70" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4321,7 +4348,7 @@
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E71">
         <v>13.7937004</v>
@@ -4333,22 +4360,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I71" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J71" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K71" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L71" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4365,7 +4392,7 @@
         <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E72">
         <v>13.5455607</v>
@@ -4377,22 +4404,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I72" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J72" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K72" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L72" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4409,7 +4436,7 @@
         <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E73">
         <v>13.7204469</v>
@@ -4421,22 +4448,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I73" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J73" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K73" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L73" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4453,7 +4480,7 @@
         <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E74">
         <v>14.3355326</v>
@@ -4468,19 +4495,19 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J74" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K74" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L74" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4497,7 +4524,7 @@
         <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E75">
         <v>14.5786407</v>
@@ -4512,19 +4539,19 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J75" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K75" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L75" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4541,7 +4568,7 @@
         <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E76">
         <v>14.5116599</v>
@@ -4556,19 +4583,19 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J76" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K76" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L76" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4585,7 +4612,7 @@
         <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E77">
         <v>14.1378761</v>
@@ -4600,19 +4627,19 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J77" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L77" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4629,7 +4656,7 @@
         <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E78">
         <v>14.06566869</v>
@@ -4641,22 +4668,22 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I78" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J78" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K78" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L78" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4673,7 +4700,7 @@
         <v>38</v>
       </c>
       <c r="D79" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E79">
         <v>13.8220612</v>
@@ -4685,22 +4712,22 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I79" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J79" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K79" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L79" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4717,7 +4744,7 @@
         <v>38</v>
       </c>
       <c r="D80" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E80">
         <v>13.8683169</v>
@@ -4729,22 +4756,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I80" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J80" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K80" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L80" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4761,7 +4788,7 @@
         <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E81">
         <v>13.89757086</v>
@@ -4773,22 +4800,22 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I81" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J81" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K81" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L81" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4805,7 +4832,7 @@
         <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E82">
         <v>13.72045903</v>
@@ -4817,22 +4844,22 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I82" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J82" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K82" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L82" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4849,7 +4876,7 @@
         <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E83">
         <v>13.817137</v>
@@ -4861,22 +4888,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I83" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J83" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K83" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L83" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4893,7 +4920,7 @@
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E84">
         <v>13.737328</v>
@@ -4905,22 +4932,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I84" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J84" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K84" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L84" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4937,7 +4964,7 @@
         <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E85">
         <v>14.021384</v>
@@ -4949,22 +4976,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I85" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J85" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K85" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L85" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4981,7 +5008,7 @@
         <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E86">
         <v>13.8781452</v>
@@ -4993,22 +5020,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I86" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J86" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K86" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L86" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5025,7 +5052,7 @@
         <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E87">
         <v>13.7164198</v>
@@ -5037,22 +5064,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I87" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J87" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K87" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L87" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5069,7 +5096,7 @@
         <v>40</v>
       </c>
       <c r="D88" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E88">
         <v>13.73541413</v>
@@ -5084,19 +5111,19 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J88" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K88" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L88" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5113,7 +5140,7 @@
         <v>40</v>
       </c>
       <c r="D89" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E89">
         <v>13.78766192</v>
@@ -5128,19 +5155,19 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J89" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K89" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L89" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5157,7 +5184,7 @@
         <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E90">
         <v>13.5951449</v>
@@ -5169,22 +5196,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I90" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J90" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K90" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L90" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5201,7 +5228,7 @@
         <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E91">
         <v>13.803038</v>
@@ -5213,22 +5240,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I91" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J91" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K91" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L91" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5245,7 +5272,7 @@
         <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E92">
         <v>13.802276</v>
@@ -5257,22 +5284,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I92" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J92" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K92" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L92" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5283,40 +5310,40 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E93">
-        <v>13.7462524</v>
+        <v>13.928974</v>
       </c>
       <c r="F93">
-        <v>100.5328635</v>
+        <v>100.577365</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93">
-        <v>0</v>
+      <c r="H93" t="s">
+        <v>154</v>
       </c>
       <c r="I93" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J93" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K93" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L93" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5327,40 +5354,40 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E94">
-        <v>13.7243591</v>
+        <v>13.929686</v>
       </c>
       <c r="F94">
-        <v>100.5386589</v>
+        <v>100.576</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94">
-        <v>0</v>
+      <c r="H94" t="s">
+        <v>154</v>
       </c>
       <c r="I94" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J94" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K94" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L94" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5371,40 +5398,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
         <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E95">
-        <v>13.54974685</v>
+        <v>13.7462524</v>
       </c>
       <c r="F95">
-        <v>100.2561435</v>
+        <v>100.5328635</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95" t="s">
-        <v>148</v>
+      <c r="H95">
+        <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J95" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K95" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L95" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5421,34 +5448,34 @@
         <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E96">
-        <v>14.45160513</v>
+        <v>13.7243591</v>
       </c>
       <c r="F96">
-        <v>100.7230585</v>
+        <v>100.5386589</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96" t="s">
-        <v>148</v>
+      <c r="H96">
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J96" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K96" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L96" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5459,40 +5486,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
         <v>41</v>
       </c>
       <c r="D97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E97">
-        <v>13.72836497</v>
+        <v>13.54974685</v>
       </c>
       <c r="F97">
-        <v>100.5350858</v>
+        <v>100.2561435</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I97" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J97" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K97" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L97" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5503,40 +5530,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
         <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E98">
-        <v>13.7660558</v>
+        <v>14.45160513</v>
       </c>
       <c r="F98">
-        <v>100.6403032</v>
+        <v>100.7230585</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I98" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J98" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K98" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L98" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5553,34 +5580,34 @@
         <v>41</v>
       </c>
       <c r="D99" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E99">
-        <v>13.710361</v>
+        <v>13.72836497</v>
       </c>
       <c r="F99">
-        <v>100.4073817</v>
+        <v>100.5350858</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I99" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J99" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K99" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L99" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5591,40 +5618,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
         <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E100">
-        <v>13.2054213</v>
+        <v>13.7660558</v>
       </c>
       <c r="F100">
-        <v>99.9793013</v>
+        <v>100.6403032</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100">
-        <v>0</v>
+      <c r="H100" t="s">
+        <v>154</v>
       </c>
       <c r="I100" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J100" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K100" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L100" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5641,34 +5668,34 @@
         <v>41</v>
       </c>
       <c r="D101" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E101">
-        <v>13.7100705</v>
+        <v>13.710361</v>
       </c>
       <c r="F101">
-        <v>100.6007069</v>
+        <v>100.4073817</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
+      <c r="H101" t="s">
+        <v>154</v>
+      </c>
+      <c r="I101" t="s">
+        <v>155</v>
+      </c>
+      <c r="J101" t="s">
+        <v>157</v>
+      </c>
+      <c r="K101" t="s">
+        <v>154</v>
       </c>
       <c r="L101" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5679,40 +5706,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s">
         <v>41</v>
       </c>
       <c r="D102" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>13.2054213</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>99.9793013</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102" t="s">
-        <v>149</v>
+      <c r="H102">
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J102" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K102" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L102" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5723,40 +5750,40 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
         <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E103">
-        <v>13.802283</v>
+        <v>13.7100705</v>
       </c>
       <c r="F103">
-        <v>100.184509</v>
+        <v>100.6007069</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103" t="s">
-        <v>149</v>
-      </c>
-      <c r="I103" t="s">
-        <v>150</v>
-      </c>
-      <c r="J103" t="s">
-        <v>152</v>
-      </c>
-      <c r="K103" t="s">
-        <v>149</v>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5770,37 +5797,37 @@
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E104">
-        <v>13.721681</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>100.53</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I104" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J104" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K104" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L104" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5811,40 +5838,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E105">
-        <v>13.9134431</v>
+        <v>13.802283</v>
       </c>
       <c r="F105">
-        <v>100.4220473</v>
+        <v>100.184509</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I105" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J105" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K105" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L105" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5858,37 +5885,37 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D106" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E106">
-        <v>13.786588</v>
+        <v>13.91857</v>
       </c>
       <c r="F106">
-        <v>100.321233</v>
+        <v>100.601606</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I106" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J106" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K106" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L106" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5899,40 +5926,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D107" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E107">
-        <v>13.7636001</v>
+        <v>13.721681</v>
       </c>
       <c r="F107">
-        <v>100.5114624</v>
+        <v>100.53</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
+      <c r="H107" t="s">
+        <v>154</v>
+      </c>
+      <c r="I107" t="s">
+        <v>155</v>
+      </c>
+      <c r="J107" t="s">
+        <v>157</v>
       </c>
       <c r="K107" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="L107" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5946,37 +5973,37 @@
         <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D108" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E108">
-        <v>13.734066</v>
+        <v>13.9134431</v>
       </c>
       <c r="F108">
-        <v>100.5278354</v>
+        <v>100.4220473</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
+      <c r="H108" t="s">
+        <v>153</v>
+      </c>
+      <c r="I108" t="s">
+        <v>156</v>
+      </c>
+      <c r="J108" t="s">
+        <v>157</v>
+      </c>
+      <c r="K108" t="s">
+        <v>154</v>
       </c>
       <c r="L108" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -5987,42 +6014,218 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>42</v>
+      </c>
+      <c r="D109" t="s">
+        <v>147</v>
+      </c>
+      <c r="E109">
+        <v>13.786588</v>
+      </c>
+      <c r="F109">
+        <v>100.321233</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>154</v>
+      </c>
+      <c r="I109" t="s">
+        <v>155</v>
+      </c>
+      <c r="J109" t="s">
+        <v>157</v>
+      </c>
+      <c r="K109" t="s">
+        <v>154</v>
+      </c>
+      <c r="L109" t="s">
+        <v>194</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>43</v>
+      </c>
+      <c r="D110" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110">
+        <v>13.924252</v>
+      </c>
+      <c r="F110">
+        <v>100.597945</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>154</v>
+      </c>
+      <c r="I110" t="s">
+        <v>155</v>
+      </c>
+      <c r="J110" t="s">
+        <v>157</v>
+      </c>
+      <c r="K110" t="s">
+        <v>154</v>
+      </c>
+      <c r="L110" t="s">
+        <v>221</v>
+      </c>
+      <c r="M110" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>44</v>
+      </c>
+      <c r="D111" t="s">
+        <v>149</v>
+      </c>
+      <c r="E111">
+        <v>13.7636001</v>
+      </c>
+      <c r="F111">
+        <v>100.5114624</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111" t="s">
+        <v>154</v>
+      </c>
+      <c r="L111" t="s">
+        <v>234</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112" t="s">
+        <v>150</v>
+      </c>
+      <c r="E112">
+        <v>13.734066</v>
+      </c>
+      <c r="F112">
+        <v>100.5278354</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112" t="s">
+        <v>235</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
         <v>17</v>
       </c>
-      <c r="C109" t="s">
-        <v>43</v>
-      </c>
-      <c r="D109" t="s">
-        <v>146</v>
-      </c>
-      <c r="E109">
+      <c r="C113" t="s">
+        <v>44</v>
+      </c>
+      <c r="D113" t="s">
+        <v>151</v>
+      </c>
+      <c r="E113">
         <v>12.6483736</v>
       </c>
-      <c r="F109">
+      <c r="F113">
         <v>101.2273679</v>
       </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109" t="s">
-        <v>229</v>
-      </c>
-      <c r="M109" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="N109">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113" t="s">
+        <v>236</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N113">
         <v>0</v>
       </c>
     </row>
@@ -6136,6 +6339,10 @@
     <hyperlink ref="M107" r:id="rId106"/>
     <hyperlink ref="M108" r:id="rId107"/>
     <hyperlink ref="M109" r:id="rId108"/>
+    <hyperlink ref="M110" r:id="rId109"/>
+    <hyperlink ref="M111" r:id="rId110"/>
+    <hyperlink ref="M112" r:id="rId111"/>
+    <hyperlink ref="M113" r:id="rId112"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="294">
   <si>
     <t>id</t>
   </si>
@@ -151,6 +151,9 @@
     <t>2020-12-26</t>
   </si>
   <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
     <t>สนามบินอู่ตะเภา</t>
   </si>
   <si>
@@ -379,7 +382,7 @@
     <t>สมศักดิ์ ปูอบ สาขา2 บีทีเอสกรุงธนบุรี</t>
   </si>
   <si>
-    <t>มหาวิทยาลัยศิลปากร</t>
+    <t>คณะวิทยาศาสตร์ มหาวิทยาลัยศิลปากร</t>
   </si>
   <si>
     <t>วัดดอนยายหอม อ.เมือง</t>
@@ -472,6 +475,12 @@
     <t>บ่อนใน อ.เมืองระยอง และ มาบตาพุด</t>
   </si>
   <si>
+    <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
+  </si>
+  <si>
+    <t>สถานที่ลักลอบเล่นการพนันหลัง ร้านนำชัย พัทยาเหนือ อำเภอบางละมุง จังหวัดชลบุรี</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -727,6 +736,9 @@
     <t>ระยองพบติดเชื้อโควิดเพิ่ม 37 ราย จากบ่อนพนันในอ.เมืองระยอง และมาบตาพุด</t>
   </si>
   <si>
+    <t>สาธารณสุขจังหวัดชลบุรีแฉพื้นที่บ่อนพนัน เชื่อมระยอง เปิด 3 บ่อนจุดเสี่ยงแพร่เชื้อโควิดพุ่ง</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -881,6 +893,9 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-582764</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/general/news-582966</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1312,7 +1327,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>12.674583</v>
@@ -1333,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1356,7 +1371,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>13.7250712</v>
@@ -1377,13 +1392,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1400,7 +1415,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>12.6838253</v>
@@ -1421,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1444,7 +1459,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>12.6959971</v>
@@ -1465,13 +1480,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1488,7 +1503,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>12.6833042</v>
@@ -1509,13 +1524,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1532,7 +1547,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>13.653942</v>
@@ -1544,22 +1559,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1576,7 +1591,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>13.700916</v>
@@ -1588,22 +1603,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1620,7 +1635,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>13.829441</v>
@@ -1632,22 +1647,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1664,7 +1679,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>13.759791</v>
@@ -1676,22 +1691,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1708,7 +1723,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <v>13.845817</v>
@@ -1720,22 +1735,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1752,7 +1767,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>18.81089258</v>
@@ -1764,22 +1779,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J12" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1796,7 +1811,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>18.80951974</v>
@@ -1808,22 +1823,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1840,7 +1855,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>18.80401814</v>
@@ -1852,22 +1867,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1884,7 +1899,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15">
         <v>18.80732484</v>
@@ -1896,22 +1911,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1928,7 +1943,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>18.80709567</v>
@@ -1940,22 +1955,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1972,7 +1987,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>18.80650918</v>
@@ -1984,22 +1999,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2016,7 +2031,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>18.80657601</v>
@@ -2028,22 +2043,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2060,7 +2075,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E19">
         <v>18.80658294</v>
@@ -2072,22 +2087,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2104,7 +2119,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>18.80675924</v>
@@ -2116,22 +2131,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J20" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2148,7 +2163,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>18.80629446</v>
@@ -2160,22 +2175,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I21" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2192,7 +2207,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>19.85327262</v>
@@ -2204,22 +2219,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I22" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2236,7 +2251,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23">
         <v>19.90661769</v>
@@ -2248,22 +2263,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J23" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2280,7 +2295,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E24">
         <v>19.6476693</v>
@@ -2292,22 +2307,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I24" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J24" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2324,7 +2339,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E25">
         <v>13.7238495</v>
@@ -2336,22 +2351,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J25" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2368,7 +2383,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E26">
         <v>13.7285268</v>
@@ -2380,22 +2395,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2412,7 +2427,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E27">
         <v>13.7292718</v>
@@ -2424,22 +2439,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I27" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J27" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K27" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2456,7 +2471,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E28">
         <v>14.896466</v>
@@ -2468,22 +2483,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J28" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L28" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2500,7 +2515,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E29">
         <v>13.65099232</v>
@@ -2512,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I29" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J29" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2544,7 +2559,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E30">
         <v>13.7185015</v>
@@ -2556,22 +2571,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I30" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J30" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2588,7 +2603,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E31">
         <v>13.7499881</v>
@@ -2603,19 +2618,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K31" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2632,7 +2647,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32">
         <v>13.6910012</v>
@@ -2647,19 +2662,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J32" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L32" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2676,7 +2691,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33">
         <v>13.7468252</v>
@@ -2691,19 +2706,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L33" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2720,7 +2735,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34">
         <v>13.7519927</v>
@@ -2732,22 +2747,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I34" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L34" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2764,7 +2779,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35">
         <v>14.1246719</v>
@@ -2776,22 +2791,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I35" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J35" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K35" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L35" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2808,7 +2823,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E36">
         <v>14.1152336</v>
@@ -2820,22 +2835,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I36" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J36" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L36" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2852,7 +2867,7 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E37">
         <v>13.7449539</v>
@@ -2864,22 +2879,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K37" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L37" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2896,7 +2911,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E38">
         <v>13.7446331</v>
@@ -2908,22 +2923,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I38" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J38" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K38" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L38" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2940,7 +2955,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39">
         <v>13.74492074</v>
@@ -2952,22 +2967,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I39" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K39" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L39" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -2984,7 +2999,7 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E40">
         <v>13.74491756</v>
@@ -2996,22 +3011,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I40" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J40" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K40" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L40" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3028,7 +3043,7 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E41">
         <v>14.032751</v>
@@ -3040,22 +3055,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I41" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J41" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K41" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L41" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3072,7 +3087,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E42">
         <v>13.8205741</v>
@@ -3084,22 +3099,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I42" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J42" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K42" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3116,7 +3131,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E43">
         <v>13.5440411</v>
@@ -3128,22 +3143,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I43" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J43" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K43" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L43" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3160,7 +3175,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E44">
         <v>13.6211105</v>
@@ -3175,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J44" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K44" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L44" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3204,7 +3219,7 @@
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E45">
         <v>13.7731761</v>
@@ -3216,22 +3231,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I45" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J45" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K45" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L45" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3248,7 +3263,7 @@
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46">
         <v>13.74512653</v>
@@ -3260,22 +3275,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I46" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J46" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K46" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L46" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3292,7 +3307,7 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E47">
         <v>13.812836</v>
@@ -3304,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J47" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K47" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L47" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3336,7 +3351,7 @@
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E48">
         <v>13.8330877</v>
@@ -3348,22 +3363,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I48" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J48" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K48" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L48" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3380,7 +3395,7 @@
         <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E49">
         <v>13.7689441</v>
@@ -3392,22 +3407,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I49" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K49" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L49" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3424,7 +3439,7 @@
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50">
         <v>13.84341791</v>
@@ -3436,22 +3451,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I50" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J50" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K50" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L50" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3468,7 +3483,7 @@
         <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E51">
         <v>13.87694672</v>
@@ -3480,22 +3495,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I51" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J51" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L51" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3512,7 +3527,7 @@
         <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E52">
         <v>13.964334</v>
@@ -3524,22 +3539,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I52" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J52" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L52" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3556,7 +3571,7 @@
         <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53">
         <v>14.0782451</v>
@@ -3571,19 +3586,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J53" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K53" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L53" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3600,7 +3615,7 @@
         <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E54">
         <v>13.86019768</v>
@@ -3612,22 +3627,22 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I54" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J54" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K54" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L54" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3644,7 +3659,7 @@
         <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E55">
         <v>13.8578211</v>
@@ -3656,22 +3671,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I55" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J55" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K55" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3688,7 +3703,7 @@
         <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E56">
         <v>13.85934159</v>
@@ -3700,22 +3715,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I56" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J56" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K56" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L56" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3732,7 +3747,7 @@
         <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E57">
         <v>14.119413</v>
@@ -3744,22 +3759,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I57" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J57" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K57" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L57" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3776,7 +3791,7 @@
         <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E58">
         <v>13.87779142</v>
@@ -3788,22 +3803,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I58" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J58" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L58" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3820,7 +3835,7 @@
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59">
         <v>13.88376994</v>
@@ -3832,22 +3847,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I59" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J59" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K59" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L59" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3864,7 +3879,7 @@
         <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E60">
         <v>13.965066</v>
@@ -3876,22 +3891,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I60" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J60" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K60" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L60" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3908,7 +3923,7 @@
         <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E61">
         <v>14.036373</v>
@@ -3920,22 +3935,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I61" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J61" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K61" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L61" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3952,7 +3967,7 @@
         <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E62">
         <v>14.1487352</v>
@@ -3964,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I62" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J62" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K62" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L62" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -3996,7 +4011,7 @@
         <v>37</v>
       </c>
       <c r="D63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E63">
         <v>13.8057625</v>
@@ -4008,22 +4023,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I63" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J63" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K63" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L63" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4040,7 +4055,7 @@
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E64">
         <v>14.01215068</v>
@@ -4052,22 +4067,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I64" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J64" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K64" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4084,7 +4099,7 @@
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E65">
         <v>13.8134088</v>
@@ -4096,22 +4111,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I65" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J65" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K65" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L65" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4128,7 +4143,7 @@
         <v>37</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E66">
         <v>13.816493</v>
@@ -4140,22 +4155,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J66" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K66" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L66" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4172,7 +4187,7 @@
         <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E67">
         <v>13.7966595</v>
@@ -4184,22 +4199,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I67" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J67" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K67" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L67" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4216,7 +4231,7 @@
         <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E68">
         <v>13.69121688</v>
@@ -4228,22 +4243,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I68" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J68" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K68" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L68" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4260,7 +4275,7 @@
         <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E69">
         <v>13.79584</v>
@@ -4272,22 +4287,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I69" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J69" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K69" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L69" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4304,7 +4319,7 @@
         <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E70">
         <v>13.5579068</v>
@@ -4319,19 +4334,19 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J70" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K70" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L70" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4348,7 +4363,7 @@
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E71">
         <v>13.7937004</v>
@@ -4360,22 +4375,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I71" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J71" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K71" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L71" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4392,7 +4407,7 @@
         <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E72">
         <v>13.5455607</v>
@@ -4404,22 +4419,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I72" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J72" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K72" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L72" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4436,7 +4451,7 @@
         <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E73">
         <v>13.7204469</v>
@@ -4448,22 +4463,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I73" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J73" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K73" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L73" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4480,7 +4495,7 @@
         <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E74">
         <v>14.3355326</v>
@@ -4495,19 +4510,19 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J74" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K74" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L74" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4524,7 +4539,7 @@
         <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E75">
         <v>14.5786407</v>
@@ -4539,19 +4554,19 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J75" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K75" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L75" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4568,7 +4583,7 @@
         <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E76">
         <v>14.5116599</v>
@@ -4583,19 +4598,19 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J76" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K76" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L76" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4612,7 +4627,7 @@
         <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E77">
         <v>14.1378761</v>
@@ -4627,19 +4642,19 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J77" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K77" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L77" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4656,7 +4671,7 @@
         <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E78">
         <v>14.06566869</v>
@@ -4668,22 +4683,22 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I78" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J78" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K78" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L78" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4700,7 +4715,7 @@
         <v>38</v>
       </c>
       <c r="D79" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E79">
         <v>13.8220612</v>
@@ -4712,22 +4727,22 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I79" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J79" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K79" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L79" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4744,7 +4759,7 @@
         <v>38</v>
       </c>
       <c r="D80" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E80">
         <v>13.8683169</v>
@@ -4756,22 +4771,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I80" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J80" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K80" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L80" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4788,7 +4803,7 @@
         <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E81">
         <v>13.89757086</v>
@@ -4800,22 +4815,22 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I81" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J81" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K81" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L81" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4832,7 +4847,7 @@
         <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E82">
         <v>13.72045903</v>
@@ -4844,22 +4859,22 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I82" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J82" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L82" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4876,7 +4891,7 @@
         <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E83">
         <v>13.817137</v>
@@ -4888,22 +4903,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I83" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J83" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K83" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L83" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4920,7 +4935,7 @@
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E84">
         <v>13.737328</v>
@@ -4932,22 +4947,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I84" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J84" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K84" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L84" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4964,7 +4979,7 @@
         <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E85">
         <v>14.021384</v>
@@ -4976,22 +4991,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I85" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J85" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K85" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L85" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5008,7 +5023,7 @@
         <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E86">
         <v>13.8781452</v>
@@ -5020,22 +5035,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I86" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J86" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K86" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L86" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5052,7 +5067,7 @@
         <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E87">
         <v>13.7164198</v>
@@ -5064,22 +5079,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I87" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J87" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K87" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L87" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5096,7 +5111,7 @@
         <v>40</v>
       </c>
       <c r="D88" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E88">
         <v>13.73541413</v>
@@ -5111,19 +5126,19 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J88" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K88" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L88" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5140,7 +5155,7 @@
         <v>40</v>
       </c>
       <c r="D89" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E89">
         <v>13.78766192</v>
@@ -5155,19 +5170,19 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J89" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K89" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L89" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5184,7 +5199,7 @@
         <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E90">
         <v>13.5951449</v>
@@ -5196,22 +5211,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I90" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J90" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K90" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L90" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5228,7 +5243,7 @@
         <v>40</v>
       </c>
       <c r="D91" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E91">
         <v>13.803038</v>
@@ -5240,22 +5255,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I91" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J91" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K91" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L91" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5272,7 +5287,7 @@
         <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E92">
         <v>13.802276</v>
@@ -5284,22 +5299,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I92" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J92" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K92" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L92" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5316,7 +5331,7 @@
         <v>40</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E93">
         <v>13.928974</v>
@@ -5328,22 +5343,22 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I93" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J93" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K93" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L93" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5360,7 +5375,7 @@
         <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E94">
         <v>13.929686</v>
@@ -5372,22 +5387,22 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I94" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J94" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K94" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L94" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5404,7 +5419,7 @@
         <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E95">
         <v>13.7462524</v>
@@ -5419,19 +5434,19 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J95" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K95" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L95" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5448,7 +5463,7 @@
         <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E96">
         <v>13.7243591</v>
@@ -5463,19 +5478,19 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J96" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K96" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L96" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5492,7 +5507,7 @@
         <v>41</v>
       </c>
       <c r="D97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E97">
         <v>13.54974685</v>
@@ -5504,22 +5519,22 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I97" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J97" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K97" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L97" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5536,7 +5551,7 @@
         <v>41</v>
       </c>
       <c r="D98" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E98">
         <v>14.45160513</v>
@@ -5548,22 +5563,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J98" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K98" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L98" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5580,7 +5595,7 @@
         <v>41</v>
       </c>
       <c r="D99" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E99">
         <v>13.72836497</v>
@@ -5592,22 +5607,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I99" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J99" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K99" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L99" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5624,7 +5639,7 @@
         <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E100">
         <v>13.7660558</v>
@@ -5636,22 +5651,22 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I100" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J100" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K100" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L100" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5668,7 +5683,7 @@
         <v>41</v>
       </c>
       <c r="D101" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E101">
         <v>13.710361</v>
@@ -5680,22 +5695,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I101" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J101" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K101" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L101" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5712,7 +5727,7 @@
         <v>41</v>
       </c>
       <c r="D102" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E102">
         <v>13.2054213</v>
@@ -5727,19 +5742,19 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J102" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K102" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L102" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5756,7 +5771,7 @@
         <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E103">
         <v>13.7100705</v>
@@ -5780,10 +5795,10 @@
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5800,7 +5815,7 @@
         <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -5812,22 +5827,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I104" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J104" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K104" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L104" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5844,7 +5859,7 @@
         <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E105">
         <v>13.802283</v>
@@ -5856,22 +5871,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I105" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J105" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K105" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L105" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5888,7 +5903,7 @@
         <v>41</v>
       </c>
       <c r="D106" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E106">
         <v>13.91857</v>
@@ -5900,22 +5915,22 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I106" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J106" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K106" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L106" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5932,7 +5947,7 @@
         <v>42</v>
       </c>
       <c r="D107" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E107">
         <v>13.721681</v>
@@ -5944,22 +5959,22 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I107" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J107" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K107" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L107" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5976,7 +5991,7 @@
         <v>42</v>
       </c>
       <c r="D108" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E108">
         <v>13.9134431</v>
@@ -5988,22 +6003,22 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I108" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J108" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K108" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L108" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6020,7 +6035,7 @@
         <v>42</v>
       </c>
       <c r="D109" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E109">
         <v>13.786588</v>
@@ -6032,22 +6047,22 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I109" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J109" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K109" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L109" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6064,7 +6079,7 @@
         <v>43</v>
       </c>
       <c r="D110" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E110">
         <v>13.924252</v>
@@ -6076,22 +6091,22 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I110" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J110" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K110" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L110" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6108,7 +6123,7 @@
         <v>44</v>
       </c>
       <c r="D111" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E111">
         <v>13.7636001</v>
@@ -6129,13 +6144,13 @@
         <v>0</v>
       </c>
       <c r="K111" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L111" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6152,7 +6167,7 @@
         <v>44</v>
       </c>
       <c r="D112" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E112">
         <v>13.734066</v>
@@ -6176,10 +6191,10 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6196,7 +6211,7 @@
         <v>44</v>
       </c>
       <c r="D113" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E113">
         <v>12.6483736</v>
@@ -6220,12 +6235,100 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D114" t="s">
+        <v>153</v>
+      </c>
+      <c r="E114">
+        <v>12.6836172</v>
+      </c>
+      <c r="F114">
+        <v>101.273757</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>157</v>
+      </c>
+      <c r="L114" t="s">
+        <v>240</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>45</v>
+      </c>
+      <c r="D115" t="s">
+        <v>154</v>
+      </c>
+      <c r="E115">
+        <v>12.9730033</v>
+      </c>
+      <c r="F115">
+        <v>100.9029061</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>157</v>
+      </c>
+      <c r="L115" t="s">
+        <v>240</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="N115">
         <v>0</v>
       </c>
     </row>
@@ -6343,6 +6446,8 @@
     <hyperlink ref="M111" r:id="rId110"/>
     <hyperlink ref="M112" r:id="rId111"/>
     <hyperlink ref="M113" r:id="rId112"/>
+    <hyperlink ref="M114" r:id="rId113"/>
+    <hyperlink ref="M115" r:id="rId114"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -6258,10 +6258,10 @@
         <v>153</v>
       </c>
       <c r="E114">
-        <v>12.6836172</v>
+        <v>12.6844183</v>
       </c>
       <c r="F114">
-        <v>101.273757</v>
+        <v>101.2742991</v>
       </c>
       <c r="G114">
         <v>0</v>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="307">
   <si>
     <t>id</t>
   </si>
@@ -352,6 +352,9 @@
     <t>ตลาดนัดห้วยตะโก ต.พะเนียด อ.นครชัยศรี</t>
   </si>
   <si>
+    <t>เกทเวย์ แอท บางซื่อ</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -391,6 +394,12 @@
     <t>ที่ว่าการอำเภอบางเลน</t>
   </si>
   <si>
+    <t>โลตัสพลัสมอลล์ บางใหญ่</t>
+  </si>
+  <si>
+    <t>ร้านเชฟอ้วนก๋วยเตี๋ยวหมูนายแกละ-บางใหญ่</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -418,6 +427,12 @@
     <t>ตลาดโอโซนวัน</t>
   </si>
   <si>
+    <t>ตลาดศาลาน้ำร้อน</t>
+  </si>
+  <si>
+    <t>แมคโครนครอินทร์</t>
+  </si>
+  <si>
     <t>Siam Center</t>
   </si>
   <si>
@@ -481,6 +496,9 @@
     <t>สถานที่ลักลอบเล่นการพนันหลัง ร้านนำชัย พัทยาเหนือ อำเภอบางละมุง จังหวัดชลบุรี</t>
   </si>
   <si>
+    <t>รัฐสภา</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -655,6 +673,9 @@
     <t>ตรวจพบเชื้อ COVID-19 จากคุณรัตน์เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
   </si>
   <si>
+    <t>เกทเวย์ แอท บางซื่อ ชี้แจงกรณีพบผู้ติดเชื้อโควิดเข้าใช้บริการ</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -676,6 +697,12 @@
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ได้ออกมาเลือกตั้งหน้าหมู่บ้านและซื้อต้นไม้ ผู้ขายเป็นชาวพม่า</t>
   </si>
   <si>
+    <t>ตรวจพบเชื้อ COVID-19 เจ้าของร้านสมศักดิ์ปูอบ สาขาบีทีเอสกรุงธนบุรี</t>
+  </si>
+  <si>
+    <t>4 ผู้ป่วยโควิด นนทบุรีเชื่อมโยงตลาดทะเลไทย สมุทรสาคร</t>
+  </si>
+  <si>
     <t>โครงการฯ ได้รับแจ้งจากเขตคลองเตยเรื่อง Time Line ของผู้ป่วยติดเชื้อไวรัสโควิด 19 ว่าได้เข้ามาใช้บริการที่ร้านนิตยาไก่ย่าง เมื่อวันที่ 21 ธันวาคม 2563 ระหว่างเวลา 13.00-14.00น.ที่ผ่านมา</t>
   </si>
   <si>
@@ -739,6 +766,9 @@
     <t>สาธารณสุขจังหวัดชลบุรีแฉพื้นที่บ่อนพนัน เชื่อมระยอง เปิด 3 บ่อนจุดเสี่ยงแพร่เชื้อโควิดพุ่ง</t>
   </si>
   <si>
+    <t>ผลการตรวจออกมายืนยันแล้วว่า ชายที่เข้าร่วมประชุมอนุกรรมาธิการฯ พนันออนไลน์ในสภา ติดโควิด-19</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -826,6 +856,9 @@
     <t>https://www.facebook.com/SomsakPuOb/posts/3554410321292740</t>
   </si>
   <si>
+    <t>https://www.onbnews.today/post/43979</t>
+  </si>
+  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
@@ -841,6 +874,9 @@
     <t>https://www.facebook.com/twodosomething/posts/140825121150938</t>
   </si>
   <si>
+    <t>https://www.matichon.co.th/covid19/thai-covid19/news_2499640</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/suanplernmarket/photos/a.407116596138751/1714728045377593/</t>
   </si>
   <si>
@@ -896,6 +932,9 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-582966</t>
+  </si>
+  <si>
+    <t>https://www.matichon.co.th/politics/news_2503046</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1392,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1436,13 +1475,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1480,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L5" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1524,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1559,22 +1598,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1603,22 +1642,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L8" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1647,22 +1686,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L9" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1691,22 +1730,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L10" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1735,22 +1774,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I11" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L11" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1779,22 +1818,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L12" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1823,22 +1862,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J13" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1867,22 +1906,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1911,22 +1950,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L15" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1955,22 +1994,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1999,22 +2038,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2043,22 +2082,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I18" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2087,22 +2126,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2131,22 +2170,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2175,22 +2214,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2219,22 +2258,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I22" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J22" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2263,22 +2302,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I23" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L23" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2307,22 +2346,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I24" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J24" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2351,22 +2390,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I25" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J25" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K25" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L25" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2395,22 +2434,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I26" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J26" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K26" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L26" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2439,22 +2478,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I27" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J27" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L27" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2483,22 +2522,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I28" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J28" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L28" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2527,22 +2566,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J29" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K29" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L29" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2571,22 +2610,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L30" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2618,19 +2657,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J31" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K31" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L31" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2662,19 +2701,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J32" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K32" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L32" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2706,19 +2745,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J33" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K33" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L33" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2747,22 +2786,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I34" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J34" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K34" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L34" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2791,22 +2830,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I35" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J35" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L35" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2835,22 +2874,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I36" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J36" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K36" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L36" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2879,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I37" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J37" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L37" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2923,22 +2962,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I38" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J38" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K38" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L38" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -2967,22 +3006,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I39" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J39" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K39" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L39" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3011,22 +3050,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I40" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J40" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K40" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L40" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3055,22 +3094,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I41" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J41" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K41" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3099,22 +3138,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I42" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J42" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K42" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L42" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3143,22 +3182,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I43" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J43" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K43" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L43" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3190,19 +3229,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J44" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K44" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L44" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3231,22 +3270,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I45" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J45" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K45" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L45" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3275,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I46" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J46" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K46" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L46" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3319,22 +3358,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I47" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J47" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K47" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3363,22 +3402,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I48" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J48" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K48" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3407,22 +3446,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I49" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J49" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K49" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3451,22 +3490,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I50" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J50" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K50" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L50" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3495,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I51" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J51" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K51" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L51" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3539,22 +3578,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I52" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J52" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K52" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L52" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3586,19 +3625,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J53" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K53" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L53" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3627,22 +3666,22 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I54" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J54" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K54" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L54" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3671,22 +3710,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I55" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J55" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K55" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L55" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3715,22 +3754,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I56" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J56" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K56" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L56" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3759,22 +3798,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I57" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J57" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K57" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L57" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3803,22 +3842,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I58" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J58" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K58" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3847,22 +3886,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I59" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J59" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K59" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L59" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3891,22 +3930,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I60" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J60" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K60" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L60" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3935,22 +3974,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I61" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J61" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L61" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3979,22 +4018,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I62" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J62" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K62" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L62" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4023,22 +4062,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I63" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J63" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K63" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L63" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4067,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I64" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J64" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K64" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L64" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4111,22 +4150,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I65" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J65" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K65" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L65" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4155,22 +4194,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I66" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J66" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K66" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L66" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4199,22 +4238,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I67" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J67" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K67" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L67" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4243,22 +4282,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I68" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J68" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K68" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L68" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4287,22 +4326,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I69" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J69" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K69" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L69" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4313,40 +4352,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
         <v>112</v>
       </c>
       <c r="E70">
-        <v>13.5579068</v>
+        <v>13.80564274</v>
       </c>
       <c r="F70">
-        <v>100.270829</v>
+        <v>100.5238077</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>0</v>
+      <c r="H70" t="s">
+        <v>162</v>
       </c>
       <c r="I70" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J70" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K70" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L70" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4357,7 +4396,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
@@ -4366,31 +4405,31 @@
         <v>113</v>
       </c>
       <c r="E71">
-        <v>13.7937004</v>
+        <v>13.5579068</v>
       </c>
       <c r="F71">
-        <v>100.6923144</v>
+        <v>100.270829</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71" t="s">
-        <v>156</v>
+      <c r="H71">
+        <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J71" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K71" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L71" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4401,7 +4440,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
         <v>38</v>
@@ -4410,31 +4449,31 @@
         <v>114</v>
       </c>
       <c r="E72">
-        <v>13.5455607</v>
+        <v>13.7937004</v>
       </c>
       <c r="F72">
-        <v>100.2767611</v>
+        <v>100.6923144</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I72" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J72" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K72" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L72" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4445,7 +4484,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
         <v>38</v>
@@ -4454,31 +4493,31 @@
         <v>115</v>
       </c>
       <c r="E73">
-        <v>13.7204469</v>
+        <v>13.5455607</v>
       </c>
       <c r="F73">
-        <v>100.5004708</v>
+        <v>100.2767611</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I73" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J73" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K73" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L73" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4489,40 +4528,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
         <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E74">
-        <v>14.3355326</v>
+        <v>13.7204469</v>
       </c>
       <c r="F74">
-        <v>100.87017</v>
+        <v>100.5004708</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74">
-        <v>0</v>
+      <c r="H74" t="s">
+        <v>162</v>
       </c>
       <c r="I74" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J74" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K74" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L74" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4539,13 +4578,13 @@
         <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E75">
-        <v>14.5786407</v>
+        <v>14.3355326</v>
       </c>
       <c r="F75">
-        <v>100.9662444</v>
+        <v>100.87017</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -4554,19 +4593,19 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J75" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K75" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L75" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4583,13 +4622,13 @@
         <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E76">
-        <v>14.5116599</v>
+        <v>14.5786407</v>
       </c>
       <c r="F76">
-        <v>100.9094134</v>
+        <v>100.9662444</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4598,19 +4637,19 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J76" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K76" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L76" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4621,7 +4660,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
         <v>38</v>
@@ -4630,10 +4669,10 @@
         <v>116</v>
       </c>
       <c r="E77">
-        <v>14.1378761</v>
+        <v>14.5116599</v>
       </c>
       <c r="F77">
-        <v>100.8255049</v>
+        <v>100.9094134</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4642,19 +4681,19 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J77" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K77" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L77" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4665,7 +4704,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
         <v>38</v>
@@ -4674,31 +4713,31 @@
         <v>117</v>
       </c>
       <c r="E78">
-        <v>14.06566869</v>
+        <v>14.1378761</v>
       </c>
       <c r="F78">
-        <v>99.9821468</v>
+        <v>100.8255049</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78" t="s">
-        <v>155</v>
+      <c r="H78">
+        <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J78" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K78" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L78" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4709,7 +4748,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
@@ -4718,31 +4757,31 @@
         <v>118</v>
       </c>
       <c r="E79">
-        <v>13.8220612</v>
+        <v>14.06566869</v>
       </c>
       <c r="F79">
-        <v>100.421874</v>
+        <v>99.9821468</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I79" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J79" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K79" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L79" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4753,7 +4792,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
         <v>38</v>
@@ -4762,31 +4801,31 @@
         <v>119</v>
       </c>
       <c r="E80">
-        <v>13.8683169</v>
+        <v>13.8220612</v>
       </c>
       <c r="F80">
-        <v>100.4107308</v>
+        <v>100.421874</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I80" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J80" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K80" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L80" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4797,7 +4836,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C81" t="s">
         <v>38</v>
@@ -4806,31 +4845,31 @@
         <v>120</v>
       </c>
       <c r="E81">
-        <v>13.89757086</v>
+        <v>13.8683169</v>
       </c>
       <c r="F81">
-        <v>100.6098027</v>
+        <v>100.4107308</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I81" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J81" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K81" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L81" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4841,7 +4880,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
         <v>38</v>
@@ -4850,31 +4889,31 @@
         <v>121</v>
       </c>
       <c r="E82">
-        <v>13.72045903</v>
+        <v>13.89757086</v>
       </c>
       <c r="F82">
-        <v>100.5004852</v>
+        <v>100.6098027</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I82" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J82" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K82" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L82" t="s">
         <v>212</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4885,7 +4924,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C83" t="s">
         <v>38</v>
@@ -4894,31 +4933,31 @@
         <v>122</v>
       </c>
       <c r="E83">
-        <v>13.817137</v>
+        <v>13.72045903</v>
       </c>
       <c r="F83">
-        <v>100.041497</v>
+        <v>100.5004852</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I83" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J83" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K83" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L83" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4938,31 +4977,31 @@
         <v>123</v>
       </c>
       <c r="E84">
-        <v>13.737328</v>
+        <v>13.817137</v>
       </c>
       <c r="F84">
-        <v>100.081218</v>
+        <v>100.041497</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I84" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J84" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K84" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L84" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -4982,31 +5021,31 @@
         <v>124</v>
       </c>
       <c r="E85">
-        <v>14.021384</v>
+        <v>13.737328</v>
       </c>
       <c r="F85">
-        <v>100.165325</v>
+        <v>100.081218</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I85" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J85" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L85" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5017,40 +5056,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D86" t="s">
         <v>125</v>
       </c>
       <c r="E86">
-        <v>13.8781452</v>
+        <v>14.021384</v>
       </c>
       <c r="F86">
-        <v>100.4091302</v>
+        <v>100.165325</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I86" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J86" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K86" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L86" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5061,40 +5100,40 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D87" t="s">
         <v>126</v>
       </c>
       <c r="E87">
-        <v>13.7164198</v>
+        <v>13.82347979</v>
       </c>
       <c r="F87">
-        <v>100.5716135</v>
+        <v>100.4101224</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I87" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J87" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K87" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L87" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5108,37 +5147,37 @@
         <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D88" t="s">
         <v>127</v>
       </c>
       <c r="E88">
-        <v>13.73541413</v>
+        <v>13.82622351</v>
       </c>
       <c r="F88">
-        <v>100.5877998</v>
+        <v>100.4124415</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88">
-        <v>0</v>
+      <c r="H88" t="s">
+        <v>163</v>
       </c>
       <c r="I88" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J88" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K88" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L88" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5149,40 +5188,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D89" t="s">
         <v>128</v>
       </c>
       <c r="E89">
-        <v>13.78766192</v>
+        <v>13.8781452</v>
       </c>
       <c r="F89">
-        <v>100.5105938</v>
+        <v>100.4091302</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89">
-        <v>0</v>
+      <c r="H89" t="s">
+        <v>161</v>
       </c>
       <c r="I89" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J89" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K89" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L89" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5193,40 +5232,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
         <v>129</v>
       </c>
       <c r="E90">
-        <v>13.5951449</v>
+        <v>13.7164198</v>
       </c>
       <c r="F90">
-        <v>100.5802135</v>
+        <v>100.5716135</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I90" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J90" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K90" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L90" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5246,31 +5285,31 @@
         <v>130</v>
       </c>
       <c r="E91">
-        <v>13.803038</v>
+        <v>13.73541413</v>
       </c>
       <c r="F91">
-        <v>100.188902</v>
+        <v>100.5877998</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91" t="s">
-        <v>157</v>
+      <c r="H91">
+        <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J91" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K91" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L91" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5290,31 +5329,31 @@
         <v>131</v>
       </c>
       <c r="E92">
-        <v>13.802276</v>
+        <v>13.78766192</v>
       </c>
       <c r="F92">
-        <v>100.19</v>
+        <v>100.5105938</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92" t="s">
-        <v>157</v>
+      <c r="H92">
+        <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J92" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K92" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L92" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5325,7 +5364,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
         <v>40</v>
@@ -5334,31 +5373,31 @@
         <v>132</v>
       </c>
       <c r="E93">
-        <v>13.928974</v>
+        <v>13.5951449</v>
       </c>
       <c r="F93">
-        <v>100.577365</v>
+        <v>100.5802135</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I93" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J93" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K93" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L93" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5378,31 +5417,31 @@
         <v>133</v>
       </c>
       <c r="E94">
-        <v>13.929686</v>
+        <v>13.803038</v>
       </c>
       <c r="F94">
-        <v>100.576</v>
+        <v>100.188902</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I94" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J94" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K94" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L94" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5413,40 +5452,40 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D95" t="s">
         <v>134</v>
       </c>
       <c r="E95">
-        <v>13.7462524</v>
+        <v>13.802276</v>
       </c>
       <c r="F95">
-        <v>100.5328635</v>
+        <v>100.19</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95">
-        <v>0</v>
+      <c r="H95" t="s">
+        <v>163</v>
       </c>
       <c r="I95" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J95" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K95" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L95" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5457,40 +5496,40 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D96" t="s">
         <v>135</v>
       </c>
       <c r="E96">
-        <v>13.7243591</v>
+        <v>13.928974</v>
       </c>
       <c r="F96">
-        <v>100.5386589</v>
+        <v>100.577365</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96">
-        <v>0</v>
+      <c r="H96" t="s">
+        <v>163</v>
       </c>
       <c r="I96" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J96" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K96" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L96" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5501,40 +5540,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D97" t="s">
         <v>136</v>
       </c>
       <c r="E97">
-        <v>13.54974685</v>
+        <v>13.929686</v>
       </c>
       <c r="F97">
-        <v>100.2561435</v>
+        <v>100.576</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I97" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J97" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K97" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L97" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5545,40 +5584,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
         <v>137</v>
       </c>
       <c r="E98">
-        <v>14.45160513</v>
+        <v>13.76033018</v>
       </c>
       <c r="F98">
-        <v>100.7230585</v>
+        <v>100.4796436</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I98" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J98" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K98" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5589,40 +5628,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D99" t="s">
         <v>138</v>
       </c>
       <c r="E99">
-        <v>13.72836497</v>
+        <v>13.82853997</v>
       </c>
       <c r="F99">
-        <v>100.5350858</v>
+        <v>100.4842102</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I99" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J99" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K99" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L99" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5642,31 +5681,31 @@
         <v>139</v>
       </c>
       <c r="E100">
-        <v>13.7660558</v>
+        <v>13.7462524</v>
       </c>
       <c r="F100">
-        <v>100.6403032</v>
+        <v>100.5328635</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100" t="s">
-        <v>157</v>
+      <c r="H100">
+        <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J100" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K100" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L100" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5677,7 +5716,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
         <v>41</v>
@@ -5686,31 +5725,31 @@
         <v>140</v>
       </c>
       <c r="E101">
-        <v>13.710361</v>
+        <v>13.7243591</v>
       </c>
       <c r="F101">
-        <v>100.4073817</v>
+        <v>100.5386589</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101" t="s">
-        <v>157</v>
+      <c r="H101">
+        <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J101" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K101" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L101" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5721,7 +5760,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
         <v>41</v>
@@ -5730,31 +5769,31 @@
         <v>141</v>
       </c>
       <c r="E102">
-        <v>13.2054213</v>
+        <v>13.54974685</v>
       </c>
       <c r="F102">
-        <v>99.9793013</v>
+        <v>100.2561435</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102">
-        <v>0</v>
+      <c r="H102" t="s">
+        <v>162</v>
       </c>
       <c r="I102" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J102" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K102" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L102" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5765,7 +5804,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
         <v>41</v>
@@ -5774,31 +5813,31 @@
         <v>142</v>
       </c>
       <c r="E103">
-        <v>13.7100705</v>
+        <v>14.45160513</v>
       </c>
       <c r="F103">
-        <v>100.6007069</v>
+        <v>100.7230585</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>0</v>
-      </c>
-      <c r="J103">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
+      <c r="H103" t="s">
+        <v>162</v>
+      </c>
+      <c r="I103" t="s">
+        <v>164</v>
+      </c>
+      <c r="J103" t="s">
+        <v>166</v>
+      </c>
+      <c r="K103" t="s">
+        <v>163</v>
       </c>
       <c r="L103" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5809,7 +5848,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
         <v>41</v>
@@ -5818,31 +5857,31 @@
         <v>143</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>13.72836497</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>100.5350858</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I104" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J104" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K104" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L104" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5853,7 +5892,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
         <v>41</v>
@@ -5862,31 +5901,31 @@
         <v>144</v>
       </c>
       <c r="E105">
-        <v>13.802283</v>
+        <v>13.7660558</v>
       </c>
       <c r="F105">
-        <v>100.184509</v>
+        <v>100.6403032</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I105" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J105" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K105" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L105" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5897,7 +5936,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
         <v>41</v>
@@ -5906,31 +5945,31 @@
         <v>145</v>
       </c>
       <c r="E106">
-        <v>13.91857</v>
+        <v>13.710361</v>
       </c>
       <c r="F106">
-        <v>100.601606</v>
+        <v>100.4073817</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I106" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J106" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K106" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L106" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5941,40 +5980,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D107" t="s">
         <v>146</v>
       </c>
       <c r="E107">
-        <v>13.721681</v>
+        <v>13.2054213</v>
       </c>
       <c r="F107">
-        <v>100.53</v>
+        <v>99.9793013</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107" t="s">
-        <v>157</v>
+      <c r="H107">
+        <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J107" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K107" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L107" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5985,40 +6024,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D108" t="s">
         <v>147</v>
       </c>
       <c r="E108">
-        <v>13.9134431</v>
+        <v>13.7100705</v>
       </c>
       <c r="F108">
-        <v>100.4220473</v>
+        <v>100.6007069</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="H108" t="s">
-        <v>156</v>
-      </c>
-      <c r="I108" t="s">
-        <v>159</v>
-      </c>
-      <c r="J108" t="s">
-        <v>160</v>
-      </c>
-      <c r="K108" t="s">
-        <v>157</v>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6032,37 +6071,37 @@
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D109" t="s">
         <v>148</v>
       </c>
       <c r="E109">
-        <v>13.786588</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>100.321233</v>
+        <v>0</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I109" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J109" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K109" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L109" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6076,37 +6115,37 @@
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
         <v>149</v>
       </c>
       <c r="E110">
-        <v>13.924252</v>
+        <v>13.802283</v>
       </c>
       <c r="F110">
-        <v>100.597945</v>
+        <v>100.184509</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I110" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J110" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K110" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L110" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6117,40 +6156,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
         <v>150</v>
       </c>
       <c r="E111">
-        <v>13.7636001</v>
+        <v>13.91857</v>
       </c>
       <c r="F111">
-        <v>100.5114624</v>
+        <v>100.601606</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
+      <c r="H111" t="s">
+        <v>163</v>
+      </c>
+      <c r="I111" t="s">
+        <v>164</v>
+      </c>
+      <c r="J111" t="s">
+        <v>166</v>
       </c>
       <c r="K111" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L111" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6161,40 +6200,40 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
         <v>151</v>
       </c>
       <c r="E112">
-        <v>13.734066</v>
+        <v>13.721681</v>
       </c>
       <c r="F112">
-        <v>100.5278354</v>
+        <v>100.53</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
+      <c r="H112" t="s">
+        <v>163</v>
+      </c>
+      <c r="I112" t="s">
+        <v>164</v>
+      </c>
+      <c r="J112" t="s">
+        <v>166</v>
+      </c>
+      <c r="K112" t="s">
+        <v>163</v>
       </c>
       <c r="L112" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6205,40 +6244,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D113" t="s">
         <v>152</v>
       </c>
       <c r="E113">
-        <v>12.6483736</v>
+        <v>13.9134431</v>
       </c>
       <c r="F113">
-        <v>101.2273679</v>
+        <v>100.4220473</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
+      <c r="H113" t="s">
+        <v>162</v>
+      </c>
+      <c r="I113" t="s">
+        <v>165</v>
+      </c>
+      <c r="J113" t="s">
+        <v>166</v>
+      </c>
+      <c r="K113" t="s">
+        <v>163</v>
       </c>
       <c r="L113" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6249,40 +6288,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D114" t="s">
         <v>153</v>
       </c>
       <c r="E114">
-        <v>12.6844183</v>
+        <v>13.786588</v>
       </c>
       <c r="F114">
-        <v>101.2742991</v>
+        <v>100.321233</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
+      <c r="H114" t="s">
+        <v>163</v>
+      </c>
+      <c r="I114" t="s">
+        <v>164</v>
+      </c>
+      <c r="J114" t="s">
+        <v>166</v>
       </c>
       <c r="K114" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="L114" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6293,42 +6332,306 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D115" t="s">
         <v>154</v>
       </c>
       <c r="E115">
+        <v>13.924252</v>
+      </c>
+      <c r="F115">
+        <v>100.597945</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>163</v>
+      </c>
+      <c r="I115" t="s">
+        <v>164</v>
+      </c>
+      <c r="J115" t="s">
+        <v>166</v>
+      </c>
+      <c r="K115" t="s">
+        <v>163</v>
+      </c>
+      <c r="L115" t="s">
+        <v>233</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>44</v>
+      </c>
+      <c r="D116" t="s">
+        <v>155</v>
+      </c>
+      <c r="E116">
+        <v>13.7636001</v>
+      </c>
+      <c r="F116">
+        <v>100.5114624</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>163</v>
+      </c>
+      <c r="L116" t="s">
+        <v>246</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E117">
+        <v>13.734066</v>
+      </c>
+      <c r="F117">
+        <v>100.5278354</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117" t="s">
+        <v>247</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" t="s">
+        <v>44</v>
+      </c>
+      <c r="D118" t="s">
+        <v>157</v>
+      </c>
+      <c r="E118">
+        <v>12.6483736</v>
+      </c>
+      <c r="F118">
+        <v>101.2273679</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118" t="s">
+        <v>248</v>
+      </c>
+      <c r="M118" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" t="s">
+        <v>45</v>
+      </c>
+      <c r="D119" t="s">
+        <v>158</v>
+      </c>
+      <c r="E119">
+        <v>12.6844183</v>
+      </c>
+      <c r="F119">
+        <v>101.2742991</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119" t="s">
+        <v>163</v>
+      </c>
+      <c r="L119" t="s">
+        <v>249</v>
+      </c>
+      <c r="M119" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
+        <v>159</v>
+      </c>
+      <c r="E120">
         <v>12.9730033</v>
       </c>
-      <c r="F115">
+      <c r="F120">
         <v>100.9029061</v>
       </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115" t="s">
-        <v>157</v>
-      </c>
-      <c r="L115" t="s">
-        <v>240</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="N115">
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>163</v>
+      </c>
+      <c r="L120" t="s">
+        <v>249</v>
+      </c>
+      <c r="M120" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>45</v>
+      </c>
+      <c r="D121" t="s">
+        <v>160</v>
+      </c>
+      <c r="E121">
+        <v>13.7946069</v>
+      </c>
+      <c r="F121">
+        <v>100.5161808</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>163</v>
+      </c>
+      <c r="L121" t="s">
+        <v>250</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="N121">
         <v>0</v>
       </c>
     </row>
@@ -6409,8 +6712,8 @@
     <hyperlink ref="M74" r:id="rId73"/>
     <hyperlink ref="M75" r:id="rId74"/>
     <hyperlink ref="M76" r:id="rId75"/>
-    <hyperlink ref="M77" r:id="rId76" location="cxrecs_s"/>
-    <hyperlink ref="M78" r:id="rId77"/>
+    <hyperlink ref="M77" r:id="rId76"/>
+    <hyperlink ref="M78" r:id="rId77" location="cxrecs_s"/>
     <hyperlink ref="M79" r:id="rId78"/>
     <hyperlink ref="M80" r:id="rId79"/>
     <hyperlink ref="M81" r:id="rId80"/>
@@ -6448,6 +6751,12 @@
     <hyperlink ref="M113" r:id="rId112"/>
     <hyperlink ref="M114" r:id="rId113"/>
     <hyperlink ref="M115" r:id="rId114"/>
+    <hyperlink ref="M116" r:id="rId115"/>
+    <hyperlink ref="M117" r:id="rId116"/>
+    <hyperlink ref="M118" r:id="rId117"/>
+    <hyperlink ref="M119" r:id="rId118"/>
+    <hyperlink ref="M120" r:id="rId119"/>
+    <hyperlink ref="M121" r:id="rId120"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="314">
   <si>
     <t>id</t>
   </si>
@@ -355,6 +355,9 @@
     <t>เกทเวย์ แอท บางซื่อ</t>
   </si>
   <si>
+    <t>เมเจอร์ปิ่นเกล้า</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -406,6 +409,9 @@
     <t>โครงการ สวนเพลิน มาร์เก็ต</t>
   </si>
   <si>
+    <t>การประปาพระโขนง</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -469,6 +475,9 @@
     <t>สนามบินดอนเมือง</t>
   </si>
   <si>
+    <t>โรงงาน Big Star</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
@@ -676,6 +685,9 @@
     <t>เกทเวย์ แอท บางซื่อ ชี้แจงกรณีพบผู้ติดเชื้อโควิดเข้าใช้บริการ</t>
   </si>
   <si>
+    <t>โฆษกกทม.ทยอยเปิดไทม์ไลน์ ติดเชื้อโควิดในกรุงเทพฯ 75 คนแล้ว ไล่สอบสวนโรค พบไปหลายห้าง ดูหนัง คาราโอเกะ</t>
+  </si>
+  <si>
     <t>พบการแพร่ระบาดของโควิดในตลาดกุ้ง และในพื้นที่ จ.สมุทรสาคร</t>
   </si>
   <si>
@@ -748,6 +760,9 @@
     <t xml:space="preserve">ตลาดอ่อนนุช ประกาศ ทำความสะอาดใหญ่ และฉีดพ่นน้ำยาฆ่าเชื้อ แล้วเปิดทำการตามปกติแล้ว หลังจากหลายวันก่อนพบผู้ค้าอาหารทะเลที่รับมาจากสมุทรสาครติดโควิด-19  </t>
   </si>
   <si>
+    <t>กทม.เก็บน้ำลายคนงานโรงงานบิ๊กสตาร์ 200 คน กลุ่มเสี่ยงหลังพบ 3 คนติดโควิด</t>
+  </si>
+  <si>
     <t>พนักงานสาธรซิตี้ ทาวเวอร์ ติดโควิด</t>
   </si>
   <si>
@@ -859,6 +874,9 @@
     <t>https://www.onbnews.today/post/43979</t>
   </si>
   <si>
+    <t>https://www.pptvhd36.com/news/%E0%B8%AA%E0%B8%B8%E0%B8%82%E0%B8%A0%E0%B8%B2%E0%B8%9E/139122</t>
+  </si>
+  <si>
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
@@ -914,6 +932,9 @@
   </si>
   <si>
     <t>https://www.sanook.com/news/8324143/</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/general/news-582425</t>
   </si>
   <si>
     <t>https://www.matichon.co.th/covid19/news_2500693</t>
@@ -1305,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,13 +1408,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1431,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1475,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1519,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1563,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1598,22 +1619,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1642,22 +1663,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1686,22 +1707,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1730,22 +1751,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1774,22 +1795,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1818,22 +1839,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1862,22 +1883,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I13" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1906,22 +1927,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1950,22 +1971,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1994,22 +2015,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2038,22 +2059,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2082,22 +2103,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2126,22 +2147,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2170,22 +2191,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2214,22 +2235,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2258,22 +2279,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I22" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K22" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2302,22 +2323,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2346,22 +2367,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J24" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K24" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L24" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2390,22 +2411,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J25" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K25" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L25" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2434,22 +2455,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2478,22 +2499,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J27" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2522,22 +2543,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I28" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K28" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L28" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2566,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J29" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2610,22 +2631,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K30" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2657,19 +2678,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J31" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L31" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2701,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K32" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2745,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L33" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2786,22 +2807,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K34" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2830,22 +2851,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J35" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K35" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L35" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2874,22 +2895,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J36" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2918,22 +2939,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J37" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K37" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L37" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2962,22 +2983,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I38" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J38" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K38" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L38" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3006,22 +3027,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I39" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J39" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K39" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L39" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3050,22 +3071,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I40" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J40" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K40" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L40" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3094,22 +3115,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J41" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K41" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3138,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K42" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L42" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3182,22 +3203,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I43" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J43" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L43" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3229,19 +3250,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J44" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K44" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L44" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3270,22 +3291,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I45" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J45" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L45" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3314,22 +3335,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J46" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L46" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3358,22 +3379,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J47" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L47" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3402,22 +3423,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I48" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J48" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K48" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L48" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3446,22 +3467,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I49" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J49" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K49" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L49" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3490,22 +3511,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I50" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J50" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L50" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3534,22 +3555,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I51" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J51" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K51" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L51" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3578,22 +3599,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I52" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J52" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L52" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3625,19 +3646,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J53" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K53" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L53" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3666,22 +3687,22 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I54" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J54" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K54" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L54" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3710,22 +3731,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I55" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J55" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K55" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L55" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3754,22 +3775,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J56" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K56" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L56" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3798,22 +3819,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I57" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J57" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K57" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L57" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3842,22 +3863,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I58" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J58" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K58" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L58" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3886,22 +3907,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I59" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J59" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K59" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L59" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3930,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I60" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K60" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3974,22 +3995,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I61" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J61" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K61" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L61" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4018,22 +4039,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I62" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J62" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K62" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L62" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4062,22 +4083,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I63" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J63" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K63" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L63" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4106,22 +4127,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I64" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J64" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K64" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L64" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4150,22 +4171,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J65" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K65" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L65" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4194,22 +4215,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I66" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J66" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L66" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4238,22 +4259,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I67" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J67" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L67" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4282,22 +4303,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I68" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J68" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K68" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L68" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4326,22 +4347,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I69" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J69" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K69" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L69" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4370,22 +4391,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I70" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J70" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K70" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L70" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4396,40 +4417,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
         <v>113</v>
       </c>
       <c r="E71">
-        <v>13.5579068</v>
+        <v>13.77870414</v>
       </c>
       <c r="F71">
-        <v>100.270829</v>
+        <v>100.4778649</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>0</v>
+      <c r="H71" t="s">
+        <v>166</v>
       </c>
       <c r="I71" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J71" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K71" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L71" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4440,7 +4461,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>38</v>
@@ -4449,31 +4470,31 @@
         <v>114</v>
       </c>
       <c r="E72">
-        <v>13.7937004</v>
+        <v>13.5579068</v>
       </c>
       <c r="F72">
-        <v>100.6923144</v>
+        <v>100.270829</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72" t="s">
-        <v>162</v>
+      <c r="H72">
+        <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J72" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K72" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L72" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4484,7 +4505,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C73" t="s">
         <v>38</v>
@@ -4493,31 +4514,31 @@
         <v>115</v>
       </c>
       <c r="E73">
-        <v>13.5455607</v>
+        <v>13.7937004</v>
       </c>
       <c r="F73">
-        <v>100.2767611</v>
+        <v>100.6923144</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I73" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J73" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K73" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L73" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4528,7 +4549,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>38</v>
@@ -4537,31 +4558,31 @@
         <v>116</v>
       </c>
       <c r="E74">
-        <v>13.7204469</v>
+        <v>13.5455607</v>
       </c>
       <c r="F74">
-        <v>100.5004708</v>
+        <v>100.2767611</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I74" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J74" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K74" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L74" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4572,40 +4593,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
         <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E75">
-        <v>14.3355326</v>
+        <v>13.7204469</v>
       </c>
       <c r="F75">
-        <v>100.87017</v>
+        <v>100.5004708</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75">
-        <v>0</v>
+      <c r="H75" t="s">
+        <v>165</v>
       </c>
       <c r="I75" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J75" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K75" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L75" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4622,13 +4643,13 @@
         <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E76">
-        <v>14.5786407</v>
+        <v>14.3355326</v>
       </c>
       <c r="F76">
-        <v>100.9662444</v>
+        <v>100.87017</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -4637,19 +4658,19 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J76" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K76" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L76" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4666,13 +4687,13 @@
         <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E77">
-        <v>14.5116599</v>
+        <v>14.5786407</v>
       </c>
       <c r="F77">
-        <v>100.9094134</v>
+        <v>100.9662444</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4681,19 +4702,19 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J77" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K77" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L77" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4704,7 +4725,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
         <v>38</v>
@@ -4713,10 +4734,10 @@
         <v>117</v>
       </c>
       <c r="E78">
-        <v>14.1378761</v>
+        <v>14.5116599</v>
       </c>
       <c r="F78">
-        <v>100.8255049</v>
+        <v>100.9094134</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -4725,19 +4746,19 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J78" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K78" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L78" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4748,7 +4769,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
@@ -4757,31 +4778,31 @@
         <v>118</v>
       </c>
       <c r="E79">
-        <v>14.06566869</v>
+        <v>14.1378761</v>
       </c>
       <c r="F79">
-        <v>99.9821468</v>
+        <v>100.8255049</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79" t="s">
-        <v>161</v>
+      <c r="H79">
+        <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J79" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K79" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L79" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4792,7 +4813,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
         <v>38</v>
@@ -4801,31 +4822,31 @@
         <v>119</v>
       </c>
       <c r="E80">
-        <v>13.8220612</v>
+        <v>14.06566869</v>
       </c>
       <c r="F80">
-        <v>100.421874</v>
+        <v>99.9821468</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I80" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J80" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K80" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L80" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4836,7 +4857,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
         <v>38</v>
@@ -4845,31 +4866,31 @@
         <v>120</v>
       </c>
       <c r="E81">
-        <v>13.8683169</v>
+        <v>13.8220612</v>
       </c>
       <c r="F81">
-        <v>100.4107308</v>
+        <v>100.421874</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I81" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J81" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K81" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L81" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4880,7 +4901,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C82" t="s">
         <v>38</v>
@@ -4889,31 +4910,31 @@
         <v>121</v>
       </c>
       <c r="E82">
-        <v>13.89757086</v>
+        <v>13.8683169</v>
       </c>
       <c r="F82">
-        <v>100.6098027</v>
+        <v>100.4107308</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I82" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J82" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K82" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L82" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4924,7 +4945,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
         <v>38</v>
@@ -4933,31 +4954,31 @@
         <v>122</v>
       </c>
       <c r="E83">
-        <v>13.72045903</v>
+        <v>13.89757086</v>
       </c>
       <c r="F83">
-        <v>100.5004852</v>
+        <v>100.6098027</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I83" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J83" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K83" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L83" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4968,7 +4989,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C84" t="s">
         <v>38</v>
@@ -4977,31 +4998,31 @@
         <v>123</v>
       </c>
       <c r="E84">
-        <v>13.817137</v>
+        <v>13.72045903</v>
       </c>
       <c r="F84">
-        <v>100.041497</v>
+        <v>100.5004852</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I84" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J84" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K84" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L84" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5021,31 +5042,31 @@
         <v>124</v>
       </c>
       <c r="E85">
-        <v>13.737328</v>
+        <v>13.817137</v>
       </c>
       <c r="F85">
-        <v>100.081218</v>
+        <v>100.041497</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I85" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J85" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K85" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L85" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5065,31 +5086,31 @@
         <v>125</v>
       </c>
       <c r="E86">
-        <v>14.021384</v>
+        <v>13.737328</v>
       </c>
       <c r="F86">
-        <v>100.165325</v>
+        <v>100.081218</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I86" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J86" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K86" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L86" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5109,31 +5130,31 @@
         <v>126</v>
       </c>
       <c r="E87">
-        <v>13.82347979</v>
+        <v>14.021384</v>
       </c>
       <c r="F87">
-        <v>100.4101224</v>
+        <v>100.165325</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I87" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J87" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K87" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L87" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5153,31 +5174,31 @@
         <v>127</v>
       </c>
       <c r="E88">
-        <v>13.82622351</v>
+        <v>13.82347979</v>
       </c>
       <c r="F88">
-        <v>100.4124415</v>
+        <v>100.4101224</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I88" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J88" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K88" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L88" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5188,40 +5209,40 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
         <v>128</v>
       </c>
       <c r="E89">
-        <v>13.8781452</v>
+        <v>13.82622351</v>
       </c>
       <c r="F89">
-        <v>100.4091302</v>
+        <v>100.4124415</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I89" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J89" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K89" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L89" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5232,7 +5253,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
         <v>39</v>
@@ -5241,31 +5262,31 @@
         <v>129</v>
       </c>
       <c r="E90">
-        <v>13.7164198</v>
+        <v>13.8781452</v>
       </c>
       <c r="F90">
-        <v>100.5716135</v>
+        <v>100.4091302</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I90" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J90" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K90" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L90" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5276,40 +5297,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D91" t="s">
         <v>130</v>
       </c>
       <c r="E91">
-        <v>13.73541413</v>
+        <v>13.7164198</v>
       </c>
       <c r="F91">
-        <v>100.5877998</v>
+        <v>100.5716135</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91">
-        <v>0</v>
+      <c r="H91" t="s">
+        <v>166</v>
       </c>
       <c r="I91" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J91" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L91" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5323,37 +5344,37 @@
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D92" t="s">
         <v>131</v>
       </c>
       <c r="E92">
-        <v>13.78766192</v>
+        <v>13.70807262</v>
       </c>
       <c r="F92">
-        <v>100.5105938</v>
+        <v>100.59964</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92">
-        <v>0</v>
+      <c r="H92" t="s">
+        <v>166</v>
       </c>
       <c r="I92" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J92" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K92" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L92" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5364,7 +5385,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
         <v>40</v>
@@ -5373,31 +5394,31 @@
         <v>132</v>
       </c>
       <c r="E93">
-        <v>13.5951449</v>
+        <v>13.73541413</v>
       </c>
       <c r="F93">
-        <v>100.5802135</v>
+        <v>100.5877998</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93" t="s">
-        <v>161</v>
+      <c r="H93">
+        <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J93" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K93" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L93" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5417,31 +5438,31 @@
         <v>133</v>
       </c>
       <c r="E94">
-        <v>13.803038</v>
+        <v>13.78766192</v>
       </c>
       <c r="F94">
-        <v>100.188902</v>
+        <v>100.5105938</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94" t="s">
-        <v>163</v>
+      <c r="H94">
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J94" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K94" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L94" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5452,7 +5473,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
         <v>40</v>
@@ -5461,31 +5482,31 @@
         <v>134</v>
       </c>
       <c r="E95">
-        <v>13.802276</v>
+        <v>13.5951449</v>
       </c>
       <c r="F95">
-        <v>100.19</v>
+        <v>100.5802135</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I95" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J95" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K95" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L95" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5505,31 +5526,31 @@
         <v>135</v>
       </c>
       <c r="E96">
-        <v>13.928974</v>
+        <v>13.803038</v>
       </c>
       <c r="F96">
-        <v>100.577365</v>
+        <v>100.188902</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J96" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K96" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L96" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5549,31 +5570,31 @@
         <v>136</v>
       </c>
       <c r="E97">
-        <v>13.929686</v>
+        <v>13.802276</v>
       </c>
       <c r="F97">
-        <v>100.576</v>
+        <v>100.19</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I97" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J97" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K97" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L97" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5593,31 +5614,31 @@
         <v>137</v>
       </c>
       <c r="E98">
-        <v>13.76033018</v>
+        <v>13.928974</v>
       </c>
       <c r="F98">
-        <v>100.4796436</v>
+        <v>100.577365</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I98" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J98" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K98" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L98" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5637,31 +5658,31 @@
         <v>138</v>
       </c>
       <c r="E99">
-        <v>13.82853997</v>
+        <v>13.929686</v>
       </c>
       <c r="F99">
-        <v>100.4842102</v>
+        <v>100.576</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I99" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J99" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K99" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L99" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5672,40 +5693,40 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
         <v>139</v>
       </c>
       <c r="E100">
-        <v>13.7462524</v>
+        <v>13.76033018</v>
       </c>
       <c r="F100">
-        <v>100.5328635</v>
+        <v>100.4796436</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100">
-        <v>0</v>
+      <c r="H100" t="s">
+        <v>166</v>
       </c>
       <c r="I100" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J100" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K100" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L100" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5716,40 +5737,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D101" t="s">
         <v>140</v>
       </c>
       <c r="E101">
-        <v>13.7243591</v>
+        <v>13.82853997</v>
       </c>
       <c r="F101">
-        <v>100.5386589</v>
+        <v>100.4842102</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="H101">
-        <v>0</v>
+      <c r="H101" t="s">
+        <v>166</v>
       </c>
       <c r="I101" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J101" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K101" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L101" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5760,7 +5781,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
         <v>41</v>
@@ -5769,31 +5790,31 @@
         <v>141</v>
       </c>
       <c r="E102">
-        <v>13.54974685</v>
+        <v>13.7462524</v>
       </c>
       <c r="F102">
-        <v>100.2561435</v>
+        <v>100.5328635</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102" t="s">
-        <v>162</v>
+      <c r="H102">
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J102" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K102" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L102" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5813,31 +5834,31 @@
         <v>142</v>
       </c>
       <c r="E103">
-        <v>14.45160513</v>
+        <v>13.7243591</v>
       </c>
       <c r="F103">
-        <v>100.7230585</v>
+        <v>100.5386589</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103" t="s">
-        <v>162</v>
+      <c r="H103">
+        <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J103" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K103" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L103" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5848,7 +5869,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
         <v>41</v>
@@ -5857,31 +5878,31 @@
         <v>143</v>
       </c>
       <c r="E104">
-        <v>13.72836497</v>
+        <v>13.54974685</v>
       </c>
       <c r="F104">
-        <v>100.5350858</v>
+        <v>100.2561435</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I104" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J104" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K104" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L104" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5892,7 +5913,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
         <v>41</v>
@@ -5901,31 +5922,31 @@
         <v>144</v>
       </c>
       <c r="E105">
-        <v>13.7660558</v>
+        <v>14.45160513</v>
       </c>
       <c r="F105">
-        <v>100.6403032</v>
+        <v>100.7230585</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I105" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J105" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K105" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L105" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5945,31 +5966,31 @@
         <v>145</v>
       </c>
       <c r="E106">
-        <v>13.710361</v>
+        <v>13.72836497</v>
       </c>
       <c r="F106">
-        <v>100.4073817</v>
+        <v>100.5350858</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I106" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J106" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K106" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L106" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -5980,7 +6001,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
         <v>41</v>
@@ -5989,31 +6010,31 @@
         <v>146</v>
       </c>
       <c r="E107">
-        <v>13.2054213</v>
+        <v>13.7660558</v>
       </c>
       <c r="F107">
-        <v>99.9793013</v>
+        <v>100.6403032</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="H107">
-        <v>0</v>
+      <c r="H107" t="s">
+        <v>166</v>
       </c>
       <c r="I107" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J107" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K107" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L107" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6033,31 +6054,31 @@
         <v>147</v>
       </c>
       <c r="E108">
-        <v>13.7100705</v>
+        <v>13.710361</v>
       </c>
       <c r="F108">
-        <v>100.6007069</v>
+        <v>100.4073817</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
+      <c r="H108" t="s">
+        <v>166</v>
+      </c>
+      <c r="I108" t="s">
+        <v>167</v>
+      </c>
+      <c r="J108" t="s">
+        <v>169</v>
+      </c>
+      <c r="K108" t="s">
+        <v>166</v>
       </c>
       <c r="L108" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6068,7 +6089,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C109" t="s">
         <v>41</v>
@@ -6077,31 +6098,31 @@
         <v>148</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>13.2054213</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>99.9793013</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109" t="s">
-        <v>163</v>
+      <c r="H109">
+        <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J109" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K109" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L109" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6112,7 +6133,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
         <v>41</v>
@@ -6121,31 +6142,31 @@
         <v>149</v>
       </c>
       <c r="E110">
-        <v>13.802283</v>
+        <v>13.7100705</v>
       </c>
       <c r="F110">
-        <v>100.184509</v>
+        <v>100.6007069</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110" t="s">
-        <v>163</v>
-      </c>
-      <c r="I110" t="s">
-        <v>164</v>
-      </c>
-      <c r="J110" t="s">
-        <v>166</v>
-      </c>
-      <c r="K110" t="s">
-        <v>163</v>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6165,31 +6186,31 @@
         <v>150</v>
       </c>
       <c r="E111">
-        <v>13.91857</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>100.601606</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I111" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J111" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K111" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L111" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6203,37 +6224,37 @@
         <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D112" t="s">
         <v>151</v>
       </c>
       <c r="E112">
-        <v>13.721681</v>
+        <v>13.802283</v>
       </c>
       <c r="F112">
-        <v>100.53</v>
+        <v>100.184509</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I112" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J112" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K112" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L112" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6244,40 +6265,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D113" t="s">
         <v>152</v>
       </c>
       <c r="E113">
-        <v>13.9134431</v>
+        <v>13.91857</v>
       </c>
       <c r="F113">
-        <v>100.4220473</v>
+        <v>100.601606</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="I113" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J113" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K113" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L113" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6291,37 +6312,37 @@
         <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
         <v>153</v>
       </c>
       <c r="E114">
-        <v>13.786588</v>
+        <v>13.6171972</v>
       </c>
       <c r="F114">
-        <v>100.321233</v>
+        <v>100.3791504</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I114" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J114" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K114" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L114" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6335,37 +6356,37 @@
         <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D115" t="s">
         <v>154</v>
       </c>
       <c r="E115">
-        <v>13.924252</v>
+        <v>13.721681</v>
       </c>
       <c r="F115">
-        <v>100.597945</v>
+        <v>100.53</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I115" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J115" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K115" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L115" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6376,40 +6397,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D116" t="s">
         <v>155</v>
       </c>
       <c r="E116">
-        <v>13.7636001</v>
+        <v>13.9134431</v>
       </c>
       <c r="F116">
-        <v>100.5114624</v>
+        <v>100.4220473</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
-      <c r="J116">
-        <v>0</v>
+      <c r="H116" t="s">
+        <v>165</v>
+      </c>
+      <c r="I116" t="s">
+        <v>168</v>
+      </c>
+      <c r="J116" t="s">
+        <v>169</v>
       </c>
       <c r="K116" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L116" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6420,40 +6441,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D117" t="s">
         <v>156</v>
       </c>
       <c r="E117">
-        <v>13.734066</v>
+        <v>13.786588</v>
       </c>
       <c r="F117">
-        <v>100.5278354</v>
+        <v>100.321233</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <v>0</v>
+      <c r="H117" t="s">
+        <v>166</v>
+      </c>
+      <c r="I117" t="s">
+        <v>167</v>
+      </c>
+      <c r="J117" t="s">
+        <v>169</v>
+      </c>
+      <c r="K117" t="s">
+        <v>166</v>
       </c>
       <c r="L117" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6464,40 +6485,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D118" t="s">
         <v>157</v>
       </c>
       <c r="E118">
-        <v>12.6483736</v>
+        <v>13.924252</v>
       </c>
       <c r="F118">
-        <v>101.2273679</v>
+        <v>100.597945</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>0</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
+      <c r="H118" t="s">
+        <v>166</v>
+      </c>
+      <c r="I118" t="s">
+        <v>167</v>
+      </c>
+      <c r="J118" t="s">
+        <v>169</v>
+      </c>
+      <c r="K118" t="s">
+        <v>166</v>
       </c>
       <c r="L118" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6508,19 +6529,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D119" t="s">
         <v>158</v>
       </c>
       <c r="E119">
-        <v>12.6844183</v>
+        <v>13.7636001</v>
       </c>
       <c r="F119">
-        <v>101.2742991</v>
+        <v>100.5114624</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6535,13 +6556,13 @@
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L119" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6552,19 +6573,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D120" t="s">
         <v>159</v>
       </c>
       <c r="E120">
-        <v>12.9730033</v>
+        <v>13.734066</v>
       </c>
       <c r="F120">
-        <v>100.9029061</v>
+        <v>100.5278354</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -6578,14 +6599,14 @@
       <c r="J120">
         <v>0</v>
       </c>
-      <c r="K120" t="s">
-        <v>163</v>
+      <c r="K120">
+        <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6596,42 +6617,174 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D121" t="s">
         <v>160</v>
       </c>
       <c r="E121">
+        <v>12.6483736</v>
+      </c>
+      <c r="F121">
+        <v>101.2273679</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121" t="s">
+        <v>253</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>45</v>
+      </c>
+      <c r="D122" t="s">
+        <v>161</v>
+      </c>
+      <c r="E122">
+        <v>12.6844183</v>
+      </c>
+      <c r="F122">
+        <v>101.2742991</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>166</v>
+      </c>
+      <c r="L122" t="s">
+        <v>254</v>
+      </c>
+      <c r="M122" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" t="s">
+        <v>45</v>
+      </c>
+      <c r="D123" t="s">
+        <v>162</v>
+      </c>
+      <c r="E123">
+        <v>12.9730033</v>
+      </c>
+      <c r="F123">
+        <v>100.9029061</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>166</v>
+      </c>
+      <c r="L123" t="s">
+        <v>254</v>
+      </c>
+      <c r="M123" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124" t="s">
+        <v>163</v>
+      </c>
+      <c r="E124">
         <v>13.7946069</v>
       </c>
-      <c r="F121">
+      <c r="F124">
         <v>100.5161808</v>
       </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121" t="s">
-        <v>163</v>
-      </c>
-      <c r="L121" t="s">
-        <v>250</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="N121">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>166</v>
+      </c>
+      <c r="L124" t="s">
+        <v>255</v>
+      </c>
+      <c r="M124" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="N124">
         <v>0</v>
       </c>
     </row>
@@ -6713,8 +6866,8 @@
     <hyperlink ref="M75" r:id="rId74"/>
     <hyperlink ref="M76" r:id="rId75"/>
     <hyperlink ref="M77" r:id="rId76"/>
-    <hyperlink ref="M78" r:id="rId77" location="cxrecs_s"/>
-    <hyperlink ref="M79" r:id="rId78"/>
+    <hyperlink ref="M78" r:id="rId77"/>
+    <hyperlink ref="M79" r:id="rId78" location="cxrecs_s"/>
     <hyperlink ref="M80" r:id="rId79"/>
     <hyperlink ref="M81" r:id="rId80"/>
     <hyperlink ref="M82" r:id="rId81"/>
@@ -6757,6 +6910,9 @@
     <hyperlink ref="M119" r:id="rId118"/>
     <hyperlink ref="M120" r:id="rId119"/>
     <hyperlink ref="M121" r:id="rId120"/>
+    <hyperlink ref="M122" r:id="rId121"/>
+    <hyperlink ref="M123" r:id="rId122"/>
+    <hyperlink ref="M124" r:id="rId123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="317">
   <si>
     <t>id</t>
   </si>
@@ -508,6 +508,9 @@
     <t>รัฐสภา</t>
   </si>
   <si>
+    <t>ร้านท่าเรือภัตตาคาร มหาชัย</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -784,6 +787,9 @@
     <t>ผลการตรวจออกมายืนยันแล้วว่า ชายที่เข้าร่วมประชุมอนุกรรมาธิการฯ พนันออนไลน์ในสภา ติดโควิด-19</t>
   </si>
   <si>
+    <t>ผู้ว่าฯ สมุทรสาคร พา “อนุทิน” ตรวจตลาดกลางกุ้ง ก่อนติดโควิด 1 วัน</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -956,6 +962,9 @@
   </si>
   <si>
     <t>https://www.matichon.co.th/politics/news_2503046</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/general/news-583401</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1452,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1496,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1540,13 +1549,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1584,13 +1593,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1619,22 +1628,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1663,22 +1672,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1707,22 +1716,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1751,22 +1760,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1795,22 +1804,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1839,22 +1848,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1883,22 +1892,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1927,22 +1936,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1971,22 +1980,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2015,22 +2024,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2059,22 +2068,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2103,22 +2112,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2147,22 +2156,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2191,22 +2200,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2235,22 +2244,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2279,22 +2288,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2323,22 +2332,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2367,22 +2376,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J24" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2411,22 +2420,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2455,22 +2464,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J26" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2499,22 +2508,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2543,22 +2552,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2587,22 +2596,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2631,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2678,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2722,19 +2731,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2766,19 +2775,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2807,22 +2816,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I34" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K34" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L34" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2851,22 +2860,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2895,22 +2904,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2939,22 +2948,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I37" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K37" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L37" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2983,22 +2992,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3027,22 +3036,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J39" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K39" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L39" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3071,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I40" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J40" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3115,22 +3124,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3159,22 +3168,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J42" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3203,22 +3212,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3250,19 +3259,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3291,22 +3300,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3335,22 +3344,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L46" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3379,22 +3388,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J47" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3423,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3467,22 +3476,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I49" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3511,22 +3520,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3555,22 +3564,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J51" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K51" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3599,22 +3608,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K52" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3646,19 +3655,19 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3687,22 +3696,22 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3731,22 +3740,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J55" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L55" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3775,22 +3784,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I56" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3819,22 +3828,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K57" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3863,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L58" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3907,22 +3916,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J59" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3951,22 +3960,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3995,22 +4004,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4039,22 +4048,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I62" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4083,22 +4092,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4127,22 +4136,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J64" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K64" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4171,22 +4180,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I65" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K65" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L65" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4215,22 +4224,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I66" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K66" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4259,22 +4268,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I67" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J67" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K67" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4303,22 +4312,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I68" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J68" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4347,22 +4356,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J69" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4391,22 +4400,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J70" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4435,22 +4444,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I71" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4482,19 +4491,19 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K72" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L72" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4523,22 +4532,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I73" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J73" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4567,22 +4576,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4611,22 +4620,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J75" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L75" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4658,19 +4667,19 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L76" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4702,19 +4711,19 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K77" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4746,19 +4755,19 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K78" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4790,19 +4799,19 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K79" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L79" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4831,22 +4840,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I80" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J80" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K80" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4875,22 +4884,22 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I81" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J81" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K81" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4919,22 +4928,22 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J82" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4963,22 +4972,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K83" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5007,22 +5016,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I84" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J84" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K84" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L84" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5051,22 +5060,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I85" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J85" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5095,22 +5104,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J86" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K86" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L86" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5139,22 +5148,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I87" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5183,22 +5192,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K88" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5227,22 +5236,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I89" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J89" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5271,22 +5280,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I90" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J90" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K90" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5315,22 +5324,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K91" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5359,22 +5368,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I92" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J92" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K92" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L92" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5406,19 +5415,19 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K93" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L93" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5450,19 +5459,19 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J94" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5491,22 +5500,22 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I95" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J95" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K95" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5535,22 +5544,22 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I96" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J96" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K96" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L96" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5579,22 +5588,22 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I97" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J97" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K97" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L97" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5623,22 +5632,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I98" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J98" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K98" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5667,22 +5676,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I99" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J99" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K99" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L99" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5711,22 +5720,22 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I100" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J100" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K100" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5755,22 +5764,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I101" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J101" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K101" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L101" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5802,19 +5811,19 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J102" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K102" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L102" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5846,19 +5855,19 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J103" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K103" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L103" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5887,22 +5896,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I104" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J104" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K104" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L104" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5931,22 +5940,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I105" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J105" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K105" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L105" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5975,22 +5984,22 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I106" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J106" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K106" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6019,22 +6028,22 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I107" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J107" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K107" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6063,22 +6072,22 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I108" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J108" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K108" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6110,19 +6119,19 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K109" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6163,10 +6172,10 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6195,22 +6204,22 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I111" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J111" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K111" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L111" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6239,22 +6248,22 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I112" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J112" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K112" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L112" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6283,22 +6292,22 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I113" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J113" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K113" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6327,22 +6336,22 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I114" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J114" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K114" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6371,22 +6380,22 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I115" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J115" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K115" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6415,22 +6424,22 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I116" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J116" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K116" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6459,22 +6468,22 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I117" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J117" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K117" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L117" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6503,22 +6512,22 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I118" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J118" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K118" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L118" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6556,13 +6565,13 @@
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L119" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6603,10 +6612,10 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6647,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6688,13 +6697,13 @@
         <v>0</v>
       </c>
       <c r="K122" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L122" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6732,13 +6741,13 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6776,15 +6785,59 @@
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>45</v>
+      </c>
+      <c r="D125" t="s">
+        <v>164</v>
+      </c>
+      <c r="E125">
+        <v>13.54448567</v>
+      </c>
+      <c r="F125">
+        <v>100.2752027</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>165</v>
+      </c>
+      <c r="I125" t="s">
+        <v>168</v>
+      </c>
+      <c r="J125" t="s">
+        <v>170</v>
+      </c>
+      <c r="K125" t="s">
+        <v>167</v>
+      </c>
+      <c r="L125" t="s">
+        <v>257</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="N125">
         <v>0</v>
       </c>
     </row>
@@ -6913,6 +6966,7 @@
     <hyperlink ref="M122" r:id="rId121"/>
     <hyperlink ref="M123" r:id="rId122"/>
     <hyperlink ref="M124" r:id="rId123"/>
+    <hyperlink ref="M125" r:id="rId124"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="337">
   <si>
     <t>id</t>
   </si>
@@ -154,6 +154,9 @@
     <t>2020-12-27</t>
   </si>
   <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
     <t>สนามบินอู่ตะเภา</t>
   </si>
   <si>
@@ -289,6 +292,9 @@
     <t>ห้างบิ๊กซี อ.เมือง นครปฐม</t>
   </si>
   <si>
+    <t>ขนส่งบางขุนเทียน</t>
+  </si>
+  <si>
     <t>ร้านแซ่บอีสานคาราโอเกะ ย่านเทเวศร์</t>
   </si>
   <si>
@@ -316,6 +322,9 @@
     <t>โรงเรียนเจี้ยนหัว ต.บางเลน อ.บางเลน</t>
   </si>
   <si>
+    <t>สวทช.</t>
+  </si>
+  <si>
     <t>ซ.รุ่งเรือง 5 บางบัวทอง</t>
   </si>
   <si>
@@ -358,6 +367,15 @@
     <t>เมเจอร์ปิ่นเกล้า</t>
   </si>
   <si>
+    <t>ตลาดแสมดำ</t>
+  </si>
+  <si>
+    <t>ธนาคารกสิกรไทย สาขาบิ๊กซีอ่อนนุช</t>
+  </si>
+  <si>
+    <t>สนามบอล ย่านลาดพร้าว80</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -403,6 +421,15 @@
     <t>ร้านเชฟอ้วนก๋วยเตี๋ยวหมูนายแกละ-บางใหญ่</t>
   </si>
   <si>
+    <t>ตลาดบางแค</t>
+  </si>
+  <si>
+    <t>การเคหะวัดพระเงิน</t>
+  </si>
+  <si>
+    <t>ร้านข้าวแกงแม่เสี้ยน ปั๊ม ปตท.</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -412,6 +439,12 @@
     <t>การประปาพระโขนง</t>
   </si>
   <si>
+    <t>ขนส่งสายใต้ใหม่</t>
+  </si>
+  <si>
+    <t>สนามสปอร์ตคลับ ย่านปรีดีพนมยงค์</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -511,6 +544,15 @@
     <t>ร้านท่าเรือภัตตาคาร มหาชัย</t>
   </si>
   <si>
+    <t>ตู้มวยเทพประสิทธิ์ บางละมุง</t>
+  </si>
+  <si>
+    <t>ตู้มวยฝนจางนางหาย ถนนพระยาสัจจา</t>
+  </si>
+  <si>
+    <t>Bone (night club)</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -652,6 +694,9 @@
     <t>ผู้ป่วยโควิด-19 ชาย ชาวจ.นนทบุรี ตรวจพบเชื้อวันที่ 21/12/20 13 ธ.ค. แวะมาบุญครอง</t>
   </si>
   <si>
+    <t>Timeline ผู้ติดเชื้อ covid19 กทม. รายที่ 22-43</t>
+  </si>
+  <si>
     <t>พบผู้ติดโควิดมาใช้บริการ'นมโจ'สาขาประชาชื่น39</t>
   </si>
   <si>
@@ -787,7 +832,16 @@
     <t>ผลการตรวจออกมายืนยันแล้วว่า ชายที่เข้าร่วมประชุมอนุกรรมาธิการฯ พนันออนไลน์ในสภา ติดโควิด-19</t>
   </si>
   <si>
-    <t>ผู้ว่าฯ สมุทรสาคร พา “อนุทิน” ตรวจตลาดกลางกุ้ง ก่อนติดโควิด 1 วัน</t>
+    <t>ผู้ว่าฯ สมุทรสาคร พา รมต.สาธารณะสุข ตรวจตลาดกลางกุ้ง ก่อนติดโควิด 1 วัน</t>
+  </si>
+  <si>
+    <t>ขอให้ผู้ที่มาที่นี่ตั้งแต่วันที่ 1 ธ.ค. เฝ้าระวัง สังเกตอาการ</t>
+  </si>
+  <si>
+    <t>ผู้ใดเดินทางมาที่นี่ตั้งแต่วันที่ 15 ธ.ค. ขอให้เฝ้าระวัง สังเกตอาการ</t>
+  </si>
+  <si>
+    <t>ผู้ใดเดินทางมาที่นี่ตั้งแต่วันที่ 5 ธ.ค. ขอให้เฝ้าระวัง สังเกตอาการ</t>
   </si>
   <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
@@ -856,6 +910,9 @@
     <t>https://www.facebook.com/mbkcenterth/posts/3939890189363487</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/posts/3119216564844610</t>
+  </si>
+  <si>
     <t>https://www.dailynews.co.th/regional/814463</t>
   </si>
   <si>
@@ -886,9 +943,6 @@
     <t>https://www.thaipost.net/main/detail/87367</t>
   </si>
   <si>
-    <t>https://www.thairath.co.th/news/local/east/1998735</t>
-  </si>
-  <si>
     <t>https://www.thairath.co.th/news/local/central/1998711</t>
   </si>
   <si>
@@ -965,6 +1019,12 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-583401</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/318251788326658/photos/a.319526161532554/1902163179935503/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/318251788326658/photos/a.319526161532554/1902105926607895/?type=3</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1456,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>12.674583</v>
@@ -1417,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1440,7 +1500,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>13.7250712</v>
@@ -1461,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L3" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1484,7 +1544,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4">
         <v>12.6838253</v>
@@ -1505,13 +1565,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L4" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1528,7 +1588,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>12.6959971</v>
@@ -1549,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L5" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1572,7 +1632,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>12.6833042</v>
@@ -1593,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L6" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1616,7 +1676,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>13.653942</v>
@@ -1628,22 +1688,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1660,7 +1720,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>13.700916</v>
@@ -1672,22 +1732,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K8" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L8" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1704,7 +1764,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <v>13.829441</v>
@@ -1716,22 +1776,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K9" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L9" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1748,7 +1808,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>13.759791</v>
@@ -1760,22 +1820,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J10" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L10" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1792,7 +1852,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>13.845817</v>
@@ -1804,22 +1864,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J11" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K11" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L11" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1836,7 +1896,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12">
         <v>18.81089258</v>
@@ -1848,22 +1908,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K12" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L12" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1880,7 +1940,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13">
         <v>18.80951974</v>
@@ -1892,22 +1952,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I13" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J13" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K13" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L13" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1924,7 +1984,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14">
         <v>18.80401814</v>
@@ -1936,22 +1996,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J14" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K14" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1968,7 +2028,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>18.80732484</v>
@@ -1980,22 +2040,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2012,7 +2072,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <v>18.80709567</v>
@@ -2024,22 +2084,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2056,7 +2116,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17">
         <v>18.80650918</v>
@@ -2068,22 +2128,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2100,7 +2160,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>18.80657601</v>
@@ -2112,22 +2172,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2144,7 +2204,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>18.80658294</v>
@@ -2156,22 +2216,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2188,7 +2248,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>18.80675924</v>
@@ -2200,22 +2260,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2232,7 +2292,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>18.80629446</v>
@@ -2244,22 +2304,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2276,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>19.85327262</v>
@@ -2288,22 +2348,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J22" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2320,7 +2380,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>19.90661769</v>
@@ -2332,22 +2392,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2364,7 +2424,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>19.6476693</v>
@@ -2376,22 +2436,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2408,7 +2468,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25">
         <v>13.7238495</v>
@@ -2420,22 +2480,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I25" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J25" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2452,7 +2512,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <v>13.7285268</v>
@@ -2464,22 +2524,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I26" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J26" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K26" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2496,7 +2556,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E27">
         <v>13.7292718</v>
@@ -2508,22 +2568,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I27" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J27" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2540,7 +2600,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E28">
         <v>14.896466</v>
@@ -2552,22 +2612,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I28" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J28" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L28" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2584,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E29">
         <v>13.65099232</v>
@@ -2596,22 +2656,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I29" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J29" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K29" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2628,7 +2688,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E30">
         <v>13.7185015</v>
@@ -2640,22 +2700,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I30" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J30" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K30" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2672,7 +2732,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E31">
         <v>13.7499881</v>
@@ -2687,19 +2747,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J31" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2716,7 +2776,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <v>13.6910012</v>
@@ -2731,19 +2791,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J32" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K32" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2760,7 +2820,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33">
         <v>13.7468252</v>
@@ -2775,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J33" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K33" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2804,7 +2864,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34">
         <v>13.7519927</v>
@@ -2816,22 +2876,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I34" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J34" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K34" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2848,7 +2908,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E35">
         <v>14.1246719</v>
@@ -2860,22 +2920,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I35" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J35" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K35" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2892,7 +2952,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E36">
         <v>14.1152336</v>
@@ -2904,22 +2964,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I36" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J36" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K36" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -2936,7 +2996,7 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37">
         <v>13.7449539</v>
@@ -2948,22 +3008,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I37" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J37" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K37" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -2980,7 +3040,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38">
         <v>13.7446331</v>
@@ -2992,22 +3052,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I38" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J38" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K38" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L38" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3024,7 +3084,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39">
         <v>13.74492074</v>
@@ -3036,22 +3096,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J39" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L39" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3068,7 +3128,7 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E40">
         <v>13.74491756</v>
@@ -3080,22 +3140,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I40" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J40" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K40" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3112,7 +3172,7 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E41">
         <v>14.032751</v>
@@ -3124,22 +3184,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I41" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J41" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K41" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L41" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3156,7 +3216,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42">
         <v>13.8205741</v>
@@ -3168,22 +3228,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J42" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K42" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3200,7 +3260,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E43">
         <v>13.5440411</v>
@@ -3212,22 +3272,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I43" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J43" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K43" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L43" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3244,7 +3304,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E44">
         <v>13.6211105</v>
@@ -3259,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J44" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K44" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L44" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3288,7 +3348,7 @@
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E45">
         <v>13.7731761</v>
@@ -3300,22 +3360,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I45" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J45" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K45" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3332,7 +3392,7 @@
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46">
         <v>13.74512653</v>
@@ -3344,22 +3404,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I46" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J46" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K46" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L46" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3376,7 +3436,7 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E47">
         <v>13.812836</v>
@@ -3388,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I47" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J47" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L47" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3414,40 +3474,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E48">
-        <v>13.8330877</v>
+        <v>13.6212135</v>
       </c>
       <c r="F48">
-        <v>100.499237</v>
+        <v>100.4384699</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I48" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J48" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K48" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L48" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3464,34 +3524,34 @@
         <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E49">
-        <v>13.7689441</v>
+        <v>13.8330877</v>
       </c>
       <c r="F49">
-        <v>100.5046383</v>
+        <v>100.499237</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="I49" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J49" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K49" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3502,40 +3562,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E50">
-        <v>13.84341791</v>
+        <v>13.7689441</v>
       </c>
       <c r="F50">
-        <v>100.5419373</v>
+        <v>100.5046383</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I50" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J50" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K50" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L50" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3552,34 +3612,34 @@
         <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E51">
-        <v>13.87694672</v>
+        <v>13.84341791</v>
       </c>
       <c r="F51">
-        <v>100.4115482</v>
+        <v>100.5419373</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I51" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J51" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L51" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3590,40 +3650,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
         <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52">
-        <v>13.964334</v>
+        <v>13.87694672</v>
       </c>
       <c r="F52">
-        <v>100.083426</v>
+        <v>100.4115482</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I52" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J52" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K52" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L52" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3637,37 +3697,37 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E53">
-        <v>14.0782451</v>
+        <v>13.964334</v>
       </c>
       <c r="F53">
-        <v>100.604118</v>
+        <v>100.083426</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="H53" t="s">
+        <v>181</v>
       </c>
       <c r="I53" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J53" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K53" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L53" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3678,40 +3738,40 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E54">
-        <v>13.86019768</v>
+        <v>14.0782451</v>
       </c>
       <c r="F54">
-        <v>100.7223304</v>
+        <v>100.604118</v>
       </c>
       <c r="G54">
-        <v>37</v>
-      </c>
-      <c r="H54" t="s">
-        <v>165</v>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J54" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K54" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L54" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3728,34 +3788,34 @@
         <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E55">
-        <v>13.8578211</v>
+        <v>13.86019768</v>
       </c>
       <c r="F55">
-        <v>100.4105189</v>
+        <v>100.7223304</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I55" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J55" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K55" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L55" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3766,40 +3826,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
         <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E56">
-        <v>13.85934159</v>
+        <v>13.8578211</v>
       </c>
       <c r="F56">
-        <v>100.5849015</v>
+        <v>100.4105189</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="I56" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J56" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K56" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L56" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3816,34 +3876,34 @@
         <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E57">
-        <v>14.119413</v>
+        <v>13.85934159</v>
       </c>
       <c r="F57">
-        <v>100.118335</v>
+        <v>100.5849015</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I57" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J57" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K57" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L57" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3854,40 +3914,40 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E58">
-        <v>13.87779142</v>
+        <v>14.119413</v>
       </c>
       <c r="F58">
-        <v>100.4215436</v>
+        <v>100.118335</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I58" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J58" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K58" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L58" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3901,37 +3961,37 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E59">
-        <v>13.88376994</v>
+        <v>14.07688153</v>
       </c>
       <c r="F59">
-        <v>100.5843207</v>
+        <v>100.6017061</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="I59" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J59" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K59" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L59" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3942,40 +4002,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E60">
-        <v>13.965066</v>
+        <v>13.87779142</v>
       </c>
       <c r="F60">
-        <v>100.07959</v>
+        <v>100.4215436</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="I60" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J60" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K60" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L60" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -3992,34 +4052,34 @@
         <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E61">
-        <v>14.036373</v>
+        <v>13.88376994</v>
       </c>
       <c r="F61">
-        <v>100.168774</v>
+        <v>100.5843207</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I61" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J61" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K61" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L61" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4033,37 +4093,37 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E62">
-        <v>14.1487352</v>
+        <v>13.965066</v>
       </c>
       <c r="F62">
-        <v>100.6155778</v>
+        <v>100.07959</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I62" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J62" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K62" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L62" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4074,40 +4134,40 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E63">
-        <v>13.8057625</v>
+        <v>14.036373</v>
       </c>
       <c r="F63">
-        <v>100.6621959</v>
+        <v>100.168774</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I63" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J63" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K63" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L63" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4118,40 +4178,40 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C64" t="s">
         <v>37</v>
       </c>
       <c r="D64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E64">
-        <v>14.01215068</v>
+        <v>14.1487352</v>
       </c>
       <c r="F64">
-        <v>100.17523</v>
+        <v>100.6155778</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="I64" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J64" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K64" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L64" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4162,40 +4222,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
         <v>37</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E65">
-        <v>13.8134088</v>
+        <v>13.8057625</v>
       </c>
       <c r="F65">
-        <v>100.5616103</v>
+        <v>100.6621959</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I65" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J65" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K65" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L65" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4206,40 +4266,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C66" t="s">
         <v>37</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E66">
-        <v>13.816493</v>
+        <v>14.01215068</v>
       </c>
       <c r="F66">
-        <v>100.5610062</v>
+        <v>100.17523</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="I66" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J66" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K66" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L66" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4256,34 +4316,34 @@
         <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E67">
-        <v>13.7966595</v>
+        <v>13.8134088</v>
       </c>
       <c r="F67">
-        <v>100.4755856</v>
+        <v>100.5616103</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I67" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J67" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K67" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L67" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4294,40 +4354,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
         <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E68">
-        <v>13.69121688</v>
+        <v>13.816493</v>
       </c>
       <c r="F68">
-        <v>100.3412194</v>
+        <v>100.5610062</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I68" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J68" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K68" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L68" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4344,34 +4404,34 @@
         <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E69">
-        <v>13.79584</v>
+        <v>13.7966595</v>
       </c>
       <c r="F69">
-        <v>100.13118</v>
+        <v>100.4755856</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="I69" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J69" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K69" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L69" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4382,40 +4442,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
         <v>37</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E70">
-        <v>13.80564274</v>
+        <v>13.69121688</v>
       </c>
       <c r="F70">
-        <v>100.5238077</v>
+        <v>100.3412194</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="I70" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J70" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K70" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L70" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4432,34 +4492,34 @@
         <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E71">
-        <v>13.77870414</v>
+        <v>13.79584</v>
       </c>
       <c r="F71">
-        <v>100.4778649</v>
+        <v>100.13118</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I71" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J71" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L71" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4470,40 +4530,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E72">
-        <v>13.5579068</v>
+        <v>13.80564274</v>
       </c>
       <c r="F72">
-        <v>100.270829</v>
+        <v>100.5238077</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>0</v>
+      <c r="H72" t="s">
+        <v>180</v>
       </c>
       <c r="I72" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J72" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K72" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L72" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4514,40 +4574,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E73">
-        <v>13.7937004</v>
+        <v>13.77870414</v>
       </c>
       <c r="F73">
-        <v>100.6923144</v>
+        <v>100.4778649</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I73" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J73" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K73" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L73" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4558,40 +4618,40 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E74">
-        <v>13.5455607</v>
+        <v>13.61347071</v>
       </c>
       <c r="F74">
-        <v>100.2767611</v>
+        <v>100.3824876</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I74" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J74" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K74" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L74" t="s">
         <v>226</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4602,40 +4662,40 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E75">
-        <v>13.7204469</v>
+        <v>13.70935</v>
       </c>
       <c r="F75">
-        <v>100.5004708</v>
+        <v>100.6014532</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I75" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J75" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K75" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L75" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4649,37 +4709,37 @@
         <v>15</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E76">
-        <v>14.3355326</v>
+        <v>13.78281463</v>
       </c>
       <c r="F76">
-        <v>100.87017</v>
+        <v>100.5995981</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76">
-        <v>0</v>
+      <c r="H76" t="s">
+        <v>181</v>
       </c>
       <c r="I76" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J76" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K76" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4690,19 +4750,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
         <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E77">
-        <v>14.5786407</v>
+        <v>13.5579068</v>
       </c>
       <c r="F77">
-        <v>100.9662444</v>
+        <v>100.270829</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -4711,19 +4771,19 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J77" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K77" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L77" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4734,40 +4794,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C78" t="s">
         <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E78">
-        <v>14.5116599</v>
+        <v>13.7937004</v>
       </c>
       <c r="F78">
-        <v>100.9094134</v>
+        <v>100.6923144</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78">
-        <v>0</v>
+      <c r="H78" t="s">
+        <v>180</v>
       </c>
       <c r="I78" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J78" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K78" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L78" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4778,40 +4838,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
         <v>38</v>
       </c>
       <c r="D79" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E79">
-        <v>14.1378761</v>
+        <v>13.5455607</v>
       </c>
       <c r="F79">
-        <v>100.8255049</v>
+        <v>100.2767611</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79">
-        <v>0</v>
+      <c r="H79" t="s">
+        <v>180</v>
       </c>
       <c r="I79" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J79" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K79" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L79" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4822,40 +4882,40 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C80" t="s">
         <v>38</v>
       </c>
       <c r="D80" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E80">
-        <v>14.06566869</v>
+        <v>14.3355326</v>
       </c>
       <c r="F80">
-        <v>99.9821468</v>
+        <v>100.87017</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80" t="s">
-        <v>165</v>
+      <c r="H80">
+        <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J80" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K80" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L80" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4866,40 +4926,40 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
         <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E81">
-        <v>13.8220612</v>
+        <v>14.5786407</v>
       </c>
       <c r="F81">
-        <v>100.421874</v>
+        <v>100.9662444</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81" t="s">
-        <v>166</v>
+      <c r="H81">
+        <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J81" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K81" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L81" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4910,40 +4970,40 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
         <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E82">
-        <v>13.8683169</v>
+        <v>14.5116599</v>
       </c>
       <c r="F82">
-        <v>100.4107308</v>
+        <v>100.9094134</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82" t="s">
-        <v>165</v>
+      <c r="H82">
+        <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J82" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K82" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L82" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -4954,40 +5014,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
         <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E83">
-        <v>13.89757086</v>
+        <v>14.1378761</v>
       </c>
       <c r="F83">
-        <v>100.6098027</v>
+        <v>100.8255049</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83" t="s">
-        <v>165</v>
+      <c r="H83">
+        <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J83" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K83" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L83" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4998,40 +5058,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C84" t="s">
         <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E84">
-        <v>13.72045903</v>
+        <v>14.06566869</v>
       </c>
       <c r="F84">
-        <v>100.5004852</v>
+        <v>99.9821468</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="I84" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J84" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K84" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L84" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5042,40 +5102,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E85">
-        <v>13.817137</v>
+        <v>13.8220612</v>
       </c>
       <c r="F85">
-        <v>100.041497</v>
+        <v>100.421874</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="I85" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J85" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K85" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L85" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5086,40 +5146,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
         <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E86">
-        <v>13.737328</v>
+        <v>13.8683169</v>
       </c>
       <c r="F86">
-        <v>100.081218</v>
+        <v>100.4107308</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I86" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J86" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K86" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L86" t="s">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5136,34 +5196,34 @@
         <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E87">
-        <v>14.021384</v>
+        <v>13.89757086</v>
       </c>
       <c r="F87">
-        <v>100.165325</v>
+        <v>100.6098027</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I87" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J87" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K87" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L87" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5174,40 +5234,40 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C88" t="s">
         <v>38</v>
       </c>
       <c r="D88" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E88">
-        <v>13.82347979</v>
+        <v>13.72045903</v>
       </c>
       <c r="F88">
-        <v>100.4101224</v>
+        <v>100.5004852</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="I88" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J88" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K88" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L88" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5224,34 +5284,34 @@
         <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E89">
-        <v>13.82622351</v>
+        <v>13.817137</v>
       </c>
       <c r="F89">
-        <v>100.4124415</v>
+        <v>100.041497</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I89" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J89" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K89" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L89" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5262,40 +5322,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E90">
-        <v>13.8781452</v>
+        <v>13.737328</v>
       </c>
       <c r="F90">
-        <v>100.4091302</v>
+        <v>100.081218</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="I90" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J90" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K90" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L90" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5306,37 +5366,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E91">
-        <v>13.7164198</v>
+        <v>14.021384</v>
       </c>
       <c r="F91">
-        <v>100.5716135</v>
+        <v>100.165325</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I91" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J91" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K91" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L91" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>295</v>
@@ -5353,37 +5413,37 @@
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E92">
-        <v>13.70807262</v>
+        <v>13.82347979</v>
       </c>
       <c r="F92">
-        <v>100.59964</v>
+        <v>100.4101224</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I92" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J92" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K92" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L92" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5397,37 +5457,37 @@
         <v>15</v>
       </c>
       <c r="C93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E93">
-        <v>13.73541413</v>
+        <v>13.82622351</v>
       </c>
       <c r="F93">
-        <v>100.5877998</v>
+        <v>100.4124415</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93">
-        <v>0</v>
+      <c r="H93" t="s">
+        <v>181</v>
       </c>
       <c r="I93" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J93" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K93" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L93" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5441,37 +5501,37 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E94">
-        <v>13.78766192</v>
+        <v>13.71100665</v>
       </c>
       <c r="F94">
-        <v>100.5105938</v>
+        <v>100.4234972</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94">
-        <v>0</v>
+      <c r="H94" t="s">
+        <v>179</v>
       </c>
       <c r="I94" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J94" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K94" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L94" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5482,37 +5542,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E95">
-        <v>13.5951449</v>
+        <v>13.81780926</v>
       </c>
       <c r="F95">
-        <v>100.5802135</v>
+        <v>100.3981472</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="I95" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J95" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L95" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>298</v>
@@ -5529,37 +5589,37 @@
         <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E96">
-        <v>13.803038</v>
+        <v>13.95701015</v>
       </c>
       <c r="F96">
-        <v>100.188902</v>
+        <v>100.404266</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I96" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J96" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K96" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L96" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5570,40 +5630,40 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E97">
-        <v>13.802276</v>
+        <v>13.8781452</v>
       </c>
       <c r="F97">
-        <v>100.19</v>
+        <v>100.4091302</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="I97" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J97" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K97" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L97" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5614,40 +5674,40 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E98">
-        <v>13.928974</v>
+        <v>13.7164198</v>
       </c>
       <c r="F98">
-        <v>100.577365</v>
+        <v>100.5716135</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I98" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J98" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K98" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L98" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5661,37 +5721,37 @@
         <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D99" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E99">
-        <v>13.929686</v>
+        <v>13.70807262</v>
       </c>
       <c r="F99">
-        <v>100.576</v>
+        <v>100.59964</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I99" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J99" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K99" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L99" t="s">
         <v>239</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5705,37 +5765,37 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D100" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E100">
-        <v>13.76033018</v>
+        <v>13.78051515</v>
       </c>
       <c r="F100">
-        <v>100.4796436</v>
+        <v>100.4226823</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="I100" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J100" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K100" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L100" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5749,37 +5809,37 @@
         <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D101" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E101">
-        <v>13.82853997</v>
+        <v>13.7355293</v>
       </c>
       <c r="F101">
-        <v>100.4842102</v>
+        <v>100.5979688</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I101" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J101" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K101" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L101" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5790,19 +5850,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E102">
-        <v>13.7462524</v>
+        <v>13.73541413</v>
       </c>
       <c r="F102">
-        <v>100.5328635</v>
+        <v>100.5877998</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -5811,19 +5871,19 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J102" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K102" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L102" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5834,19 +5894,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E103">
-        <v>13.7243591</v>
+        <v>13.78766192</v>
       </c>
       <c r="F103">
-        <v>100.5386589</v>
+        <v>100.5105938</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -5855,19 +5915,19 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J103" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K103" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L103" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5878,40 +5938,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D104" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E104">
-        <v>13.54974685</v>
+        <v>13.5951449</v>
       </c>
       <c r="F104">
-        <v>100.2561435</v>
+        <v>100.5802135</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="I104" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J104" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K104" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L104" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -5922,40 +5982,40 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D105" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E105">
-        <v>14.45160513</v>
+        <v>13.803038</v>
       </c>
       <c r="F105">
-        <v>100.7230585</v>
+        <v>100.188902</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I105" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J105" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K105" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L105" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5966,40 +6026,40 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D106" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E106">
-        <v>13.72836497</v>
+        <v>13.802276</v>
       </c>
       <c r="F106">
-        <v>100.5350858</v>
+        <v>100.19</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I106" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J106" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K106" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L106" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6010,40 +6070,40 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D107" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E107">
-        <v>13.7660558</v>
+        <v>13.928974</v>
       </c>
       <c r="F107">
-        <v>100.6403032</v>
+        <v>100.577365</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I107" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J107" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K107" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L107" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6054,40 +6114,40 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D108" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E108">
-        <v>13.710361</v>
+        <v>13.929686</v>
       </c>
       <c r="F108">
-        <v>100.4073817</v>
+        <v>100.576</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I108" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J108" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K108" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L108" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6098,40 +6158,40 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D109" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E109">
-        <v>13.2054213</v>
+        <v>13.76033018</v>
       </c>
       <c r="F109">
-        <v>99.9793013</v>
+        <v>100.4796436</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="H109">
-        <v>0</v>
+      <c r="H109" t="s">
+        <v>181</v>
       </c>
       <c r="I109" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J109" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K109" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6142,40 +6202,40 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D110" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E110">
-        <v>13.7100705</v>
+        <v>13.82853997</v>
       </c>
       <c r="F110">
-        <v>100.6007069</v>
+        <v>100.4842102</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
+      <c r="H110" t="s">
+        <v>181</v>
+      </c>
+      <c r="I110" t="s">
+        <v>182</v>
+      </c>
+      <c r="J110" t="s">
+        <v>184</v>
+      </c>
+      <c r="K110" t="s">
+        <v>181</v>
       </c>
       <c r="L110" t="s">
         <v>248</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6186,40 +6246,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
         <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>13.7462524</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>100.5328635</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="H111" t="s">
-        <v>167</v>
+      <c r="H111">
+        <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J111" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K111" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L111" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6230,40 +6290,40 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
         <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E112">
-        <v>13.802283</v>
+        <v>13.7243591</v>
       </c>
       <c r="F112">
-        <v>100.184509</v>
+        <v>100.5386589</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112" t="s">
-        <v>167</v>
+      <c r="H112">
+        <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J112" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K112" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L112" t="s">
-        <v>207</v>
+        <v>256</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6274,40 +6334,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
         <v>41</v>
       </c>
       <c r="D113" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E113">
-        <v>13.91857</v>
+        <v>13.54974685</v>
       </c>
       <c r="F113">
-        <v>100.601606</v>
+        <v>100.2561435</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="I113" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J113" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K113" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L113" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6318,40 +6378,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
         <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E114">
-        <v>13.6171972</v>
+        <v>14.45160513</v>
       </c>
       <c r="F114">
-        <v>100.3791504</v>
+        <v>100.7230585</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="I114" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J114" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K114" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L114" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6362,40 +6422,40 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D115" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E115">
-        <v>13.721681</v>
+        <v>13.72836497</v>
       </c>
       <c r="F115">
-        <v>100.53</v>
+        <v>100.5350858</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I115" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J115" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K115" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L115" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6406,40 +6466,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E116">
-        <v>13.9134431</v>
+        <v>13.7660558</v>
       </c>
       <c r="F116">
-        <v>100.4220473</v>
+        <v>100.6403032</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I116" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="J116" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K116" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L116" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6450,40 +6510,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D117" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E117">
-        <v>13.786588</v>
+        <v>13.710361</v>
       </c>
       <c r="F117">
-        <v>100.321233</v>
+        <v>100.4073817</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="I117" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J117" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K117" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L117" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6494,40 +6554,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D118" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E118">
-        <v>13.924252</v>
+        <v>13.2054213</v>
       </c>
       <c r="F118">
-        <v>100.597945</v>
+        <v>99.9793013</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118" t="s">
-        <v>167</v>
+      <c r="H118">
+        <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J118" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K118" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L118" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6541,16 +6601,16 @@
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D119" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E119">
-        <v>13.7636001</v>
+        <v>13.7100705</v>
       </c>
       <c r="F119">
-        <v>100.5114624</v>
+        <v>100.6007069</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -6564,14 +6624,14 @@
       <c r="J119">
         <v>0</v>
       </c>
-      <c r="K119" t="s">
-        <v>167</v>
+      <c r="K119">
+        <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6582,40 +6642,40 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E120">
-        <v>13.734066</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>100.5278354</v>
+        <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
+      <c r="H120" t="s">
+        <v>181</v>
+      </c>
+      <c r="I120" t="s">
+        <v>182</v>
+      </c>
+      <c r="J120" t="s">
+        <v>184</v>
+      </c>
+      <c r="K120" t="s">
+        <v>181</v>
       </c>
       <c r="L120" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6626,40 +6686,40 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D121" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E121">
-        <v>12.6483736</v>
+        <v>13.802283</v>
       </c>
       <c r="F121">
-        <v>101.2273679</v>
+        <v>100.184509</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
+      <c r="H121" t="s">
+        <v>181</v>
+      </c>
+      <c r="I121" t="s">
+        <v>182</v>
+      </c>
+      <c r="J121" t="s">
+        <v>184</v>
+      </c>
+      <c r="K121" t="s">
+        <v>181</v>
       </c>
       <c r="L121" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6670,40 +6730,40 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E122">
-        <v>12.6844183</v>
+        <v>13.91857</v>
       </c>
       <c r="F122">
-        <v>101.2742991</v>
+        <v>100.601606</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>0</v>
-      </c>
-      <c r="J122">
-        <v>0</v>
+      <c r="H122" t="s">
+        <v>181</v>
+      </c>
+      <c r="I122" t="s">
+        <v>182</v>
+      </c>
+      <c r="J122" t="s">
+        <v>184</v>
       </c>
       <c r="K122" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L122" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6714,40 +6774,40 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E123">
-        <v>12.9730033</v>
+        <v>13.6171972</v>
       </c>
       <c r="F123">
-        <v>100.9029061</v>
+        <v>100.3791504</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
+      <c r="H123" t="s">
+        <v>181</v>
+      </c>
+      <c r="I123" t="s">
+        <v>182</v>
+      </c>
+      <c r="J123" t="s">
+        <v>184</v>
       </c>
       <c r="K123" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L123" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6761,37 +6821,37 @@
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D124" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E124">
-        <v>13.7946069</v>
+        <v>13.721681</v>
       </c>
       <c r="F124">
-        <v>100.5161808</v>
+        <v>100.53</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
+      <c r="H124" t="s">
+        <v>181</v>
+      </c>
+      <c r="I124" t="s">
+        <v>182</v>
+      </c>
+      <c r="J124" t="s">
+        <v>184</v>
       </c>
       <c r="K124" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L124" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6802,42 +6862,570 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D125" t="s">
+        <v>166</v>
+      </c>
+      <c r="E125">
+        <v>13.9134431</v>
+      </c>
+      <c r="F125">
+        <v>100.4220473</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>180</v>
+      </c>
+      <c r="I125" t="s">
+        <v>183</v>
+      </c>
+      <c r="J125" t="s">
+        <v>184</v>
+      </c>
+      <c r="K125" t="s">
+        <v>181</v>
+      </c>
+      <c r="L125" t="s">
+        <v>266</v>
+      </c>
+      <c r="M125" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
         <v>15</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
+        <v>42</v>
+      </c>
+      <c r="D126" t="s">
+        <v>167</v>
+      </c>
+      <c r="E126">
+        <v>13.786588</v>
+      </c>
+      <c r="F126">
+        <v>100.321233</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>181</v>
+      </c>
+      <c r="I126" t="s">
+        <v>182</v>
+      </c>
+      <c r="J126" t="s">
+        <v>184</v>
+      </c>
+      <c r="K126" t="s">
+        <v>181</v>
+      </c>
+      <c r="L126" t="s">
+        <v>221</v>
+      </c>
+      <c r="M126" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>43</v>
+      </c>
+      <c r="D127" t="s">
+        <v>168</v>
+      </c>
+      <c r="E127">
+        <v>13.924252</v>
+      </c>
+      <c r="F127">
+        <v>100.597945</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>181</v>
+      </c>
+      <c r="I127" t="s">
+        <v>182</v>
+      </c>
+      <c r="J127" t="s">
+        <v>184</v>
+      </c>
+      <c r="K127" t="s">
+        <v>181</v>
+      </c>
+      <c r="L127" t="s">
+        <v>253</v>
+      </c>
+      <c r="M127" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>44</v>
+      </c>
+      <c r="D128" t="s">
+        <v>169</v>
+      </c>
+      <c r="E128">
+        <v>13.7636001</v>
+      </c>
+      <c r="F128">
+        <v>100.5114624</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128" t="s">
+        <v>181</v>
+      </c>
+      <c r="L128" t="s">
+        <v>267</v>
+      </c>
+      <c r="M128" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="s">
+        <v>44</v>
+      </c>
+      <c r="D129" t="s">
+        <v>170</v>
+      </c>
+      <c r="E129">
+        <v>13.734066</v>
+      </c>
+      <c r="F129">
+        <v>100.5278354</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129" t="s">
+        <v>268</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" t="s">
+        <v>44</v>
+      </c>
+      <c r="D130" t="s">
+        <v>171</v>
+      </c>
+      <c r="E130">
+        <v>12.6483736</v>
+      </c>
+      <c r="F130">
+        <v>101.2273679</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130" t="s">
+        <v>269</v>
+      </c>
+      <c r="M130" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" t="s">
         <v>45</v>
       </c>
-      <c r="D125" t="s">
-        <v>164</v>
-      </c>
-      <c r="E125">
+      <c r="D131" t="s">
+        <v>172</v>
+      </c>
+      <c r="E131">
+        <v>12.6844183</v>
+      </c>
+      <c r="F131">
+        <v>101.2742991</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>181</v>
+      </c>
+      <c r="L131" t="s">
+        <v>270</v>
+      </c>
+      <c r="M131" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" t="s">
+        <v>173</v>
+      </c>
+      <c r="E132">
+        <v>12.9730033</v>
+      </c>
+      <c r="F132">
+        <v>100.9029061</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132" t="s">
+        <v>181</v>
+      </c>
+      <c r="L132" t="s">
+        <v>270</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133">
+        <v>13.7946069</v>
+      </c>
+      <c r="F133">
+        <v>100.5161808</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133" t="s">
+        <v>181</v>
+      </c>
+      <c r="L133" t="s">
+        <v>271</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" t="s">
+        <v>175</v>
+      </c>
+      <c r="E134">
         <v>13.54448567</v>
       </c>
-      <c r="F125">
+      <c r="F134">
         <v>100.2752027</v>
       </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125" t="s">
-        <v>165</v>
-      </c>
-      <c r="I125" t="s">
-        <v>168</v>
-      </c>
-      <c r="J125" t="s">
-        <v>170</v>
-      </c>
-      <c r="K125" t="s">
-        <v>167</v>
-      </c>
-      <c r="L125" t="s">
-        <v>257</v>
-      </c>
-      <c r="M125" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="N125">
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>179</v>
+      </c>
+      <c r="I134" t="s">
+        <v>182</v>
+      </c>
+      <c r="J134" t="s">
+        <v>184</v>
+      </c>
+      <c r="K134" t="s">
+        <v>181</v>
+      </c>
+      <c r="L134" t="s">
+        <v>272</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" t="s">
+        <v>46</v>
+      </c>
+      <c r="D135" t="s">
+        <v>176</v>
+      </c>
+      <c r="E135">
+        <v>12.9098775</v>
+      </c>
+      <c r="F135">
+        <v>100.891563</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>181</v>
+      </c>
+      <c r="I135" t="s">
+        <v>182</v>
+      </c>
+      <c r="J135" t="s">
+        <v>184</v>
+      </c>
+      <c r="K135" t="s">
+        <v>181</v>
+      </c>
+      <c r="L135" t="s">
+        <v>273</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" t="s">
+        <v>46</v>
+      </c>
+      <c r="D136" t="s">
+        <v>177</v>
+      </c>
+      <c r="E136">
+        <v>13.3535702</v>
+      </c>
+      <c r="F136">
+        <v>100.9765439</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136" t="s">
+        <v>181</v>
+      </c>
+      <c r="L136" t="s">
+        <v>274</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>46</v>
+      </c>
+      <c r="D137" t="s">
+        <v>178</v>
+      </c>
+      <c r="E137">
+        <v>12.948902</v>
+      </c>
+      <c r="F137">
+        <v>100.891292</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137" t="s">
+        <v>181</v>
+      </c>
+      <c r="L137" t="s">
+        <v>275</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="N137">
         <v>0</v>
       </c>
     </row>
@@ -6920,11 +7508,11 @@
     <hyperlink ref="M76" r:id="rId75"/>
     <hyperlink ref="M77" r:id="rId76"/>
     <hyperlink ref="M78" r:id="rId77"/>
-    <hyperlink ref="M79" r:id="rId78" location="cxrecs_s"/>
+    <hyperlink ref="M79" r:id="rId78"/>
     <hyperlink ref="M80" r:id="rId79"/>
     <hyperlink ref="M81" r:id="rId80"/>
     <hyperlink ref="M82" r:id="rId81"/>
-    <hyperlink ref="M83" r:id="rId82"/>
+    <hyperlink ref="M83" r:id="rId82" location="cxrecs_s"/>
     <hyperlink ref="M84" r:id="rId83"/>
     <hyperlink ref="M85" r:id="rId84"/>
     <hyperlink ref="M86" r:id="rId85"/>
@@ -6967,6 +7555,18 @@
     <hyperlink ref="M123" r:id="rId122"/>
     <hyperlink ref="M124" r:id="rId123"/>
     <hyperlink ref="M125" r:id="rId124"/>
+    <hyperlink ref="M126" r:id="rId125"/>
+    <hyperlink ref="M127" r:id="rId126"/>
+    <hyperlink ref="M128" r:id="rId127"/>
+    <hyperlink ref="M129" r:id="rId128"/>
+    <hyperlink ref="M130" r:id="rId129"/>
+    <hyperlink ref="M131" r:id="rId130"/>
+    <hyperlink ref="M132" r:id="rId131"/>
+    <hyperlink ref="M133" r:id="rId132"/>
+    <hyperlink ref="M134" r:id="rId133"/>
+    <hyperlink ref="M135" r:id="rId134"/>
+    <hyperlink ref="M136" r:id="rId135"/>
+    <hyperlink ref="M137" r:id="rId136"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="344">
   <si>
     <t>id</t>
   </si>
@@ -553,6 +553,15 @@
     <t>Bone (night club)</t>
   </si>
   <si>
+    <t>บ่อนเนินสูง อ.ท่าใหม่ จ.จันทบุรี</t>
+  </si>
+  <si>
+    <t>บ่อนแสนตุ้ง อ.เขาสมิง จ.ตราด</t>
+  </si>
+  <si>
+    <t>บ่อนหนองสีงา อ.นางายอาม จ.จันทบุรี</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -844,6 +853,15 @@
     <t>ผู้ใดเดินทางมาที่นี่ตั้งแต่วันที่ 5 ธ.ค. ขอให้เฝ้าระวัง สังเกตอาการ</t>
   </si>
   <si>
+    <t xml:space="preserve">ผู้ป่วยโควิด-19 ท่านหนึ่งไปบ่อนทุกวันตั้งแต่ 19-25 ธ.ค. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผู้ป่วยโควิด-19 ท่านหนึ่งไปบ่อนนี้วันที่ 18 ธ.ค. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผู้ป่วยโควิด-19 ท่านหนึ่งไปบ่อนนี้วันที่ 19 ธ.ค. </t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -1025,6 +1043,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/318251788326658/photos/a.319526161532554/1902105926607895/?type=3</t>
+  </si>
+  <si>
+    <t>https://m.facebook.com/1683658098593742/posts/2643302882629254/?d=n</t>
   </si>
 </sst>
 </file>
@@ -1395,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N137"/>
+  <dimension ref="A1:N140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1521,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1565,13 +1586,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1609,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1653,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1688,22 +1709,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1732,22 +1753,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1776,22 +1797,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1820,22 +1841,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1864,22 +1885,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K11" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1908,22 +1929,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1952,22 +1973,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K13" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1996,22 +2017,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K14" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2040,22 +2061,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2084,22 +2105,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2128,22 +2149,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2172,22 +2193,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2216,22 +2237,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2260,22 +2281,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2304,22 +2325,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2348,22 +2369,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2392,22 +2413,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2436,22 +2457,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2480,22 +2501,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2524,22 +2545,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I26" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2568,22 +2589,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2612,22 +2633,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K28" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2656,22 +2677,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I29" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J29" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K29" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2700,22 +2721,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2747,19 +2768,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J31" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K31" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2791,19 +2812,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J32" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2835,19 +2856,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J33" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2876,22 +2897,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I34" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J34" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K34" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2920,22 +2941,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J35" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K35" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2964,22 +2985,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J36" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K36" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L36" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3008,22 +3029,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I37" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K37" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3052,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I38" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J38" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K38" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L38" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3096,22 +3117,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I39" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J39" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K39" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L39" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3140,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I40" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J40" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K40" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L40" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3184,22 +3205,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I41" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J41" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K41" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L41" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3228,22 +3249,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I42" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K42" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L42" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3272,22 +3293,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I43" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L43" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3319,19 +3340,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J44" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K44" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L44" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3360,22 +3381,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I45" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J45" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K45" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3404,22 +3425,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I46" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J46" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K46" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3448,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I47" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J47" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K47" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L47" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3492,22 +3513,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I48" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J48" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K48" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L48" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3536,22 +3557,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I49" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J49" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K49" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L49" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3580,22 +3601,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I50" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J50" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K50" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L50" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3624,22 +3645,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I51" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J51" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K51" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L51" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3668,22 +3689,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I52" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J52" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K52" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L52" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3712,22 +3733,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J53" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K53" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3759,19 +3780,19 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J54" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K54" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L54" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3800,22 +3821,22 @@
         <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I55" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J55" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K55" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L55" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3844,22 +3865,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J56" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L56" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3888,22 +3909,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J57" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K57" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L57" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3932,22 +3953,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I58" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J58" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K58" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L58" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3976,22 +3997,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I59" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J59" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K59" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L59" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4020,22 +4041,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I60" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J60" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K60" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L60" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4064,22 +4085,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I61" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J61" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K61" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L61" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4108,22 +4129,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J62" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L62" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4152,22 +4173,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I63" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J63" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K63" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L63" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4196,22 +4217,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I64" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J64" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K64" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L64" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4240,22 +4261,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I65" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J65" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K65" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L65" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4284,22 +4305,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I66" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J66" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K66" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L66" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4328,22 +4349,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I67" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J67" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K67" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L67" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4372,22 +4393,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I68" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J68" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K68" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L68" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4416,22 +4437,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I69" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J69" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K69" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L69" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4460,22 +4481,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I70" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J70" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K70" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L70" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4504,22 +4525,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I71" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J71" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K71" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L71" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4548,22 +4569,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I72" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J72" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K72" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L72" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4592,22 +4613,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I73" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J73" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K73" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L73" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4636,22 +4657,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I74" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J74" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K74" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L74" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4680,22 +4701,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I75" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J75" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K75" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L75" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4724,22 +4745,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I76" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J76" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K76" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L76" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4771,19 +4792,19 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J77" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K77" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L77" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4812,22 +4833,22 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I78" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J78" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K78" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L78" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4856,22 +4877,22 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I79" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J79" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K79" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L79" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4903,19 +4924,19 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J80" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K80" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L80" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4947,19 +4968,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J81" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K81" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L81" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4991,19 +5012,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J82" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K82" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L82" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5035,19 +5056,19 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J83" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K83" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L83" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5076,22 +5097,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I84" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J84" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K84" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L84" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5120,22 +5141,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I85" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J85" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K85" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L85" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5164,22 +5185,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I86" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J86" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K86" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L86" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5208,22 +5229,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I87" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J87" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K87" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L87" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5252,22 +5273,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I88" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J88" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K88" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L88" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5296,22 +5317,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I89" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J89" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K89" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L89" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5340,22 +5361,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I90" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J90" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K90" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L90" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5384,22 +5405,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I91" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J91" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K91" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L91" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5428,22 +5449,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I92" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J92" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K92" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L92" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5472,22 +5493,22 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I93" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J93" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K93" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L93" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5516,22 +5537,22 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I94" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J94" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K94" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L94" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5560,22 +5581,22 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I95" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J95" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K95" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L95" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5604,22 +5625,22 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I96" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J96" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K96" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L96" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5648,22 +5669,22 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I97" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J97" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K97" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L97" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5692,22 +5713,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I98" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J98" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K98" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L98" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5736,22 +5757,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I99" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J99" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K99" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L99" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5780,22 +5801,22 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I100" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J100" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K100" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L100" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5824,22 +5845,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I101" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J101" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K101" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L101" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5871,19 +5892,19 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J102" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K102" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L102" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5915,19 +5936,19 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J103" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K103" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L103" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5956,22 +5977,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I104" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J104" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K104" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L104" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6000,22 +6021,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I105" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J105" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K105" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L105" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6044,22 +6065,22 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I106" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J106" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K106" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L106" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6088,22 +6109,22 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I107" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J107" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K107" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L107" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6132,22 +6153,22 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I108" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J108" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K108" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L108" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6176,22 +6197,22 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I109" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J109" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K109" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L109" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6220,22 +6241,22 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I110" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J110" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K110" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L110" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6267,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J111" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K111" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L111" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6311,19 +6332,19 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J112" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K112" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L112" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6352,22 +6373,22 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I113" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J113" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K113" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L113" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6396,22 +6417,22 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I114" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J114" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K114" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L114" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6440,22 +6461,22 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I115" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J115" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K115" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L115" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6484,22 +6505,22 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I116" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J116" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K116" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L116" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6528,22 +6549,22 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I117" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J117" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K117" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L117" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6575,19 +6596,19 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J118" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K118" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L118" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6628,10 +6649,10 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6660,22 +6681,22 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I120" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J120" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K120" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L120" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6704,22 +6725,22 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I121" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J121" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K121" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L121" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6748,22 +6769,22 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I122" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J122" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K122" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L122" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6792,22 +6813,22 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I123" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J123" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K123" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L123" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6836,22 +6857,22 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I124" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J124" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K124" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L124" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6880,22 +6901,22 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I125" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J125" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K125" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L125" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6924,22 +6945,22 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I126" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J126" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K126" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L126" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6968,22 +6989,22 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I127" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J127" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K127" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L127" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7021,13 +7042,13 @@
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L128" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7068,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7112,10 +7133,10 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7153,13 +7174,13 @@
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L131" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7197,13 +7218,13 @@
         <v>0</v>
       </c>
       <c r="K132" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L132" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7241,13 +7262,13 @@
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L133" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7276,22 +7297,22 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I134" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J134" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K134" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L134" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7320,22 +7341,22 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I135" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J135" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K135" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L135" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7373,13 +7394,13 @@
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L136" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7417,15 +7438,147 @@
         <v>0</v>
       </c>
       <c r="K137" t="s">
+        <v>184</v>
+      </c>
+      <c r="L137" t="s">
+        <v>278</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138" t="s">
+        <v>179</v>
+      </c>
+      <c r="E138">
+        <v>12.6495877</v>
+      </c>
+      <c r="F138">
+        <v>102.0329425</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138" t="s">
+        <v>184</v>
+      </c>
+      <c r="L138" t="s">
+        <v>279</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>46</v>
+      </c>
+      <c r="D139" t="s">
+        <v>180</v>
+      </c>
+      <c r="E139">
+        <v>12.3757564</v>
+      </c>
+      <c r="F139">
+        <v>102.3818628</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139" t="s">
+        <v>184</v>
+      </c>
+      <c r="L139" t="s">
+        <v>280</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" t="s">
+        <v>46</v>
+      </c>
+      <c r="D140" t="s">
         <v>181</v>
       </c>
-      <c r="L137" t="s">
-        <v>275</v>
-      </c>
-      <c r="M137" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="N137">
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140" t="s">
+        <v>184</v>
+      </c>
+      <c r="L140" t="s">
+        <v>281</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="N140">
         <v>0</v>
       </c>
     </row>
@@ -7567,6 +7720,9 @@
     <hyperlink ref="M135" r:id="rId134"/>
     <hyperlink ref="M136" r:id="rId135"/>
     <hyperlink ref="M137" r:id="rId136"/>
+    <hyperlink ref="M138" r:id="rId137"/>
+    <hyperlink ref="M139" r:id="rId138"/>
+    <hyperlink ref="M140" r:id="rId139"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="347">
   <si>
     <t>id</t>
   </si>
@@ -562,6 +562,9 @@
     <t>บ่อนหนองสีงา อ.นางายอาม จ.จันทบุรี</t>
   </si>
   <si>
+    <t>ร้านน้องใหม่ พลาซ่า</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -862,6 +865,9 @@
     <t xml:space="preserve">ผู้ป่วยโควิด-19 ท่านหนึ่งไปบ่อนนี้วันที่ 19 ธ.ค. </t>
   </si>
   <si>
+    <t>พบการระบาดในหมู่นักเที่ยวสถานบันเทิง</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -1046,6 +1052,9 @@
   </si>
   <si>
     <t>https://m.facebook.com/1683658098593742/posts/2643302882629254/?d=n</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/697561723/posts/10157849125566724/?d=n</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:N141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1498,13 +1507,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1542,13 +1551,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1586,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1630,13 +1639,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1674,13 +1683,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1709,22 +1718,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1753,22 +1762,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1797,22 +1806,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1841,22 +1850,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1885,22 +1894,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1929,22 +1938,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1973,22 +1982,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2017,22 +2026,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2061,22 +2070,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2105,22 +2114,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2149,22 +2158,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2193,22 +2202,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2237,22 +2246,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2281,22 +2290,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2325,22 +2334,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2369,22 +2378,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2413,22 +2422,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2457,22 +2466,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2501,22 +2510,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2545,22 +2554,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2589,22 +2598,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2633,22 +2642,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2677,22 +2686,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2721,22 +2730,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2768,19 +2777,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2812,19 +2821,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J32" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2856,19 +2865,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L33" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2897,22 +2906,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2941,22 +2950,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2985,22 +2994,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3029,22 +3038,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3073,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3117,22 +3126,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3161,22 +3170,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3205,22 +3214,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3249,22 +3258,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3293,22 +3302,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3340,19 +3349,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3381,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3425,22 +3434,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J46" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L46" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3469,22 +3478,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3513,22 +3522,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I48" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L48" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3557,22 +3566,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3601,22 +3610,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I50" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L50" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3645,22 +3654,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L51" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3689,22 +3698,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I52" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J52" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3733,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I53" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L53" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3780,19 +3789,19 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J54" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3821,22 +3830,22 @@
         <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I55" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L55" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3865,22 +3874,22 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J56" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L56" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3909,22 +3918,22 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I57" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3953,22 +3962,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3997,22 +4006,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I59" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J59" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4041,22 +4050,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4085,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4129,22 +4138,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I62" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4173,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I63" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J63" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4217,22 +4226,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I64" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4261,22 +4270,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4305,22 +4314,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J66" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4349,22 +4358,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J67" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L67" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4393,22 +4402,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4437,22 +4446,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I69" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J69" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4481,22 +4490,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J70" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L70" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4525,22 +4534,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4569,22 +4578,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K72" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L72" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4613,22 +4622,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I73" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4657,22 +4666,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4701,22 +4710,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4745,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I76" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L76" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4792,19 +4801,19 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L77" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4833,22 +4842,22 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J78" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4877,22 +4886,22 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I79" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L79" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4924,19 +4933,19 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J80" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4968,19 +4977,19 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J81" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K81" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5012,19 +5021,19 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J82" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5056,19 +5065,19 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5097,22 +5106,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J84" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5141,22 +5150,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I85" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J85" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5185,22 +5194,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I86" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J86" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L86" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5229,22 +5238,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I87" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L87" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5273,22 +5282,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I88" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J88" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K88" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L88" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5317,22 +5326,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I89" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J89" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5361,22 +5370,22 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I90" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J90" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K90" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5405,22 +5414,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I91" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J91" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K91" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5449,22 +5458,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J92" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5493,22 +5502,22 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J93" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5537,22 +5546,22 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I94" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J94" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K94" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5581,22 +5590,22 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I95" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K95" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5625,22 +5634,22 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I96" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J96" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5669,22 +5678,22 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I97" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J97" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K97" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L97" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5713,22 +5722,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I98" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J98" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5757,22 +5766,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I99" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J99" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K99" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5801,22 +5810,22 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I100" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J100" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K100" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5845,22 +5854,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I101" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K101" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5892,19 +5901,19 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J102" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L102" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5936,19 +5945,19 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J103" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L103" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5977,22 +5986,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J104" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L104" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6021,22 +6030,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I105" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J105" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K105" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L105" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6065,22 +6074,22 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I106" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K106" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L106" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6109,22 +6118,22 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I107" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J107" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K107" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L107" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6153,22 +6162,22 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I108" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J108" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K108" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6197,22 +6206,22 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I109" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J109" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K109" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6241,22 +6250,22 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I110" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J110" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K110" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L110" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6288,19 +6297,19 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J111" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K111" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L111" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6332,19 +6341,19 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J112" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K112" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L112" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6373,22 +6382,22 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I113" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J113" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K113" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L113" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6417,22 +6426,22 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I114" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J114" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K114" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L114" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6461,22 +6470,22 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I115" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J115" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K115" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L115" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6505,22 +6514,22 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I116" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J116" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K116" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L116" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6549,22 +6558,22 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I117" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J117" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K117" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L117" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6596,19 +6605,19 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J118" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K118" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L118" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6649,10 +6658,10 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6681,22 +6690,22 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I120" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J120" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K120" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L120" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6725,22 +6734,22 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I121" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J121" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L121" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6769,22 +6778,22 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I122" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J122" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K122" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6813,22 +6822,22 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I123" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J123" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K123" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L123" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6857,22 +6866,22 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I124" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J124" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K124" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6901,22 +6910,22 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I125" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J125" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K125" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L125" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6945,22 +6954,22 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I126" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J126" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K126" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L126" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6989,22 +6998,22 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I127" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J127" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K127" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L127" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7042,13 +7051,13 @@
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L128" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7089,10 +7098,10 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7133,10 +7142,10 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7174,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="K131" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L131" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7218,13 +7227,13 @@
         <v>0</v>
       </c>
       <c r="K132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L132" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7262,13 +7271,13 @@
         <v>0</v>
       </c>
       <c r="K133" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L133" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7297,22 +7306,22 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I134" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J134" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K134" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L134" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7341,22 +7350,22 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I135" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J135" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L135" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7394,13 +7403,13 @@
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L136" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7438,13 +7447,13 @@
         <v>0</v>
       </c>
       <c r="K137" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L137" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7482,13 +7491,13 @@
         <v>0</v>
       </c>
       <c r="K138" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L138" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7526,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="K139" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L139" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7552,10 +7561,10 @@
         <v>181</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>12.7246169</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>101.9362794</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -7570,15 +7579,59 @@
         <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L140" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>46</v>
+      </c>
+      <c r="D141" t="s">
+        <v>182</v>
+      </c>
+      <c r="E141">
+        <v>13.772986</v>
+      </c>
+      <c r="F141">
+        <v>100.4855148</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141" t="s">
+        <v>185</v>
+      </c>
+      <c r="L141" t="s">
+        <v>283</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="N141">
         <v>0</v>
       </c>
     </row>
@@ -7723,6 +7776,7 @@
     <hyperlink ref="M138" r:id="rId137"/>
     <hyperlink ref="M139" r:id="rId138"/>
     <hyperlink ref="M140" r:id="rId139"/>
+    <hyperlink ref="M141" r:id="rId140"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="389">
   <si>
     <t>id</t>
   </si>
@@ -307,6 +307,12 @@
     <t>ตลาดนัดวัดสามง่าม ต.สามง่าม อ.ดอนตูม</t>
   </si>
   <si>
+    <t>บิ๊กซี พระราม2</t>
+  </si>
+  <si>
+    <t>เซ็นทรัล ชิดลม</t>
+  </si>
+  <si>
     <t>INC2 Tower B</t>
   </si>
   <si>
@@ -337,6 +343,27 @@
     <t>โรงเรียนแสงอรุณ</t>
   </si>
   <si>
+    <t>คณะออกแบบนิเทศ มหาวิทยาลัยราชภัฏนครปฐม</t>
+  </si>
+  <si>
+    <t>ห้างเทสโก้ โลตัสกำแพงแสน</t>
+  </si>
+  <si>
+    <t>บิ๊กซี ดาวคะนอง</t>
+  </si>
+  <si>
+    <t>Riverside plaza คลองสาน</t>
+  </si>
+  <si>
+    <t>Tree on 3 พระราม3</t>
+  </si>
+  <si>
+    <t>Makro สาทร</t>
+  </si>
+  <si>
+    <t>ร้านอาหาร คาราโอเกะ ใบไม้ร่าเริง</t>
+  </si>
+  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
@@ -376,6 +403,18 @@
     <t>สนามบอล ย่านลาดพร้าว80</t>
   </si>
   <si>
+    <t>ข้าวต้มจัดเต็ม แยกอุโมงค์พัฒนาการ</t>
+  </si>
+  <si>
+    <t>2929 สุขุมวิท77</t>
+  </si>
+  <si>
+    <t>โฮมโปร นางลิ้นจี่</t>
+  </si>
+  <si>
+    <t>ตลาดสุขสวัสดิ์</t>
+  </si>
+  <si>
     <t>ตลาดกลางกุ้งจังหวัดสมุทรสาคร</t>
   </si>
   <si>
@@ -430,6 +469,27 @@
     <t>ร้านข้าวแกงแม่เสี้ยน ปั๊ม ปตท.</t>
   </si>
   <si>
+    <t>รร. วัดราษฎร์ภิรมย์วราราม ต.สระสี่มุม</t>
+  </si>
+  <si>
+    <t>รร. พระปฐมวิทยาลัย2</t>
+  </si>
+  <si>
+    <t>บิ๊กซี นครปฐม</t>
+  </si>
+  <si>
+    <t>ซีคอน ศรีนครินทร์</t>
+  </si>
+  <si>
+    <t>เซ็นทรัลอีสวิลล์</t>
+  </si>
+  <si>
+    <t>Fashion island รามอินทรา</t>
+  </si>
+  <si>
+    <t>วัดบางม่วง</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -445,6 +505,15 @@
     <t>สนามสปอร์ตคลับ ย่านปรีดีพนมยงค์</t>
   </si>
   <si>
+    <t>สนามแบดมินตัน 71 sport club</t>
+  </si>
+  <si>
+    <t>สหกรณ์ออมทรัพย์ กรมส่งเสริมการปกครองท้องถิ่น</t>
+  </si>
+  <si>
+    <t>เลอ ปา สิริ พระราม5</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -472,6 +541,15 @@
     <t>แมคโครนครอินทร์</t>
   </si>
   <si>
+    <t>โรงน้ำแข็งตลาดบางหลวง อำเภอบางเลน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ตลาดนัดสี่แยกเสืออีด่าง ม.6 </t>
+  </si>
+  <si>
+    <t>แมคโคร ศาลายา</t>
+  </si>
+  <si>
     <t>Siam Center</t>
   </si>
   <si>
@@ -511,6 +589,9 @@
     <t>โรงงาน Big Star</t>
   </si>
   <si>
+    <t>ม.ร.ภ. รำไพพรรณี</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
@@ -520,9 +601,30 @@
     <t>ศูนย์การแพทย์กาญจนาภิเษก อ.พุทธมณฑล</t>
   </si>
   <si>
+    <t>ตลาดท่าข้าม</t>
+  </si>
+  <si>
+    <t>ตลาดปฐมมงคล</t>
+  </si>
+  <si>
+    <t>Golden Golf and Sport Club</t>
+  </si>
+  <si>
+    <t>สี่แยกบางนา</t>
+  </si>
+  <si>
+    <t>บิ๊กซี บางนา</t>
+  </si>
+  <si>
     <t xml:space="preserve">JW Condo @Donmuang </t>
   </si>
   <si>
+    <t>ซิสเลอร์ เซ็นทรัลระยอง</t>
+  </si>
+  <si>
+    <t>TOPS เซ็นทรัลระยอง</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -532,6 +634,12 @@
     <t>บ่อนใน อ.เมืองระยอง และ มาบตาพุด</t>
   </si>
   <si>
+    <t>เซ็นทรัลระยอง</t>
+  </si>
+  <si>
+    <t>โรงเรียน ระยองวิทยาคม</t>
+  </si>
+  <si>
     <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
   </si>
   <si>
@@ -715,6 +823,9 @@
     <t>เซ็นทรัลเวสต์เกต แจง ฉีดพ่นน้ำยาฆ่าเชื้อทันที-ทั่วศูนย์การค้า หลังพบผู้ป่วยโควิดใช้บริการ</t>
   </si>
   <si>
+    <t>กทม.เปิดไทม์ไลน์ 17 ผู้ติดเชื้อ 'โควิด' รายใหม่ เป็นรายที่ 58-74</t>
+  </si>
+  <si>
     <t>เคสบุคลากร สวทช. ติดโควิด-19 ได้เข้ามาปฏิบัติงานที่นี่วันที่ 16-17 ธ.ค. ตรวจพบเชื้อตอนเย็นวันที่ 17 ธ.ค.</t>
   </si>
   <si>
@@ -727,6 +838,9 @@
     <t>เคสผู้ติดเชื้อโควิด-19 หญิงชาว อ.บางกรวย วันที่ 14-18 ธค. เวลา 17.00-21.00 น. จะทำงานร้านขายของชำ ซ.รุ่งเรือง 5 บางบัวทอง</t>
   </si>
   <si>
+    <t>ผู้ป่วยโควิด-19 จังหวัดนครปฐม รายที่38-53</t>
+  </si>
+  <si>
     <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
   </si>
   <si>
@@ -823,6 +937,9 @@
     <t>กทม.เก็บน้ำลายคนงานโรงงานบิ๊กสตาร์ 200 คน กลุ่มเสี่ยงหลังพบ 3 คนติดโควิด</t>
   </si>
   <si>
+    <t>ผู้ป่วยโควิด-19 ครูระยองวิทยาคม</t>
+  </si>
+  <si>
     <t>พนักงานสาธรซิตี้ ทาวเวอร์ ติดโควิด</t>
   </si>
   <si>
@@ -943,12 +1060,18 @@
     <t>https://www.matichon.co.th/covid19/thai-covid19/news_2500853</t>
   </si>
   <si>
+    <t>https://www.dailynews.co.th/regional/815860?fbclid=IwAR3PpSq-k4gEnCMnvk_ZSa14-a7-sRcbK55EljOEMDm-7Ze-6SmVJNFfAuU</t>
+  </si>
+  <si>
     <t>https://www.pptvhd36.com/news/%E0%B8%9B%E0%B8%A3%E0%B8%B0%E0%B9%80%E0%B8%94%E0%B9%87%E0%B8%99%E0%B8%A3%E0%B9%89%E0%B8%AD%E0%B8%99/138903</t>
   </si>
   <si>
     <t>https://www.dailynews.co.th/regional/814914</t>
   </si>
   <si>
+    <t>https://www.bangkokbiznews.com/news/detail/914766</t>
+  </si>
+  <si>
     <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
   </si>
   <si>
@@ -1019,6 +1142,9 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-582425</t>
+  </si>
+  <si>
+    <t>https://thethaiger.com/th/news/396105/</t>
   </si>
   <si>
     <t>https://www.matichon.co.th/covid19/news_2500693</t>
@@ -1425,7 +1551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N141"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1507,13 +1633,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L2" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1551,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L3" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1595,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L4" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1639,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L5" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1683,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L6" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1718,22 +1844,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J7" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K7" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L7" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1762,22 +1888,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I8" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J8" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L8" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1806,22 +1932,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I9" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J9" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K9" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L9" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1850,22 +1976,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I10" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J10" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K10" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L10" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1894,22 +2020,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I11" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J11" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K11" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L11" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1938,22 +2064,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I12" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J12" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K12" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L12" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1982,22 +2108,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I13" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J13" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K13" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L13" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2026,22 +2152,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I14" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J14" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K14" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L14" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2070,22 +2196,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I15" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J15" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K15" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L15" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2114,22 +2240,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I16" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J16" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K16" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L16" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2158,22 +2284,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I17" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J17" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K17" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L17" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2202,22 +2328,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I18" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L18" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2246,22 +2372,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K19" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L19" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2290,22 +2416,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2334,22 +2460,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2378,22 +2504,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J22" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2422,22 +2548,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I23" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J23" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2466,22 +2592,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I24" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2510,22 +2636,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I25" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J25" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K25" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2554,22 +2680,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I26" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K26" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2598,22 +2724,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I27" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J27" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2642,22 +2768,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I28" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J28" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2686,22 +2812,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I29" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J29" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2730,22 +2856,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I30" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J30" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2777,19 +2903,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K31" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L31" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2821,19 +2947,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J32" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K32" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L32" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2865,19 +2991,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J33" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K33" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L33" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -2906,22 +3032,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I34" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J34" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K34" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L34" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2950,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I35" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J35" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K35" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L35" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2994,22 +3120,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I36" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J36" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K36" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3038,22 +3164,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I37" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J37" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K37" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L37" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3082,22 +3208,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I38" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J38" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K38" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L38" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3126,22 +3252,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I39" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J39" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K39" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3170,22 +3296,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I40" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J40" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K40" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L40" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3214,22 +3340,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I41" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J41" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K41" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3258,22 +3384,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I42" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J42" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K42" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L42" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3302,22 +3428,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I43" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J43" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K43" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L43" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3349,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J44" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K44" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L44" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3390,22 +3516,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I45" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J45" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K45" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L45" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3434,22 +3560,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I46" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J46" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K46" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L46" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3469,31 +3595,31 @@
         <v>91</v>
       </c>
       <c r="E47">
-        <v>13.812836</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>100.07</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I47" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J47" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K47" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L47" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3522,22 +3648,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I48" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J48" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K48" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3566,22 +3692,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I49" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J49" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K49" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L49" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3610,22 +3736,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I50" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J50" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K50" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L50" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3654,22 +3780,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I51" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J51" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K51" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L51" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3698,22 +3824,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I52" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J52" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K52" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L52" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3742,22 +3868,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I53" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J53" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K53" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L53" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3771,37 +3897,37 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
         <v>97</v>
       </c>
       <c r="E54">
-        <v>14.0782451</v>
+        <v>13.65086099</v>
       </c>
       <c r="F54">
-        <v>100.604118</v>
+        <v>100.420146</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54">
-        <v>0</v>
+      <c r="H54" t="s">
+        <v>221</v>
       </c>
       <c r="I54" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J54" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K54" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L54" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3812,40 +3938,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
         <v>98</v>
       </c>
       <c r="E55">
-        <v>13.86019768</v>
+        <v>13.74407838</v>
       </c>
       <c r="F55">
-        <v>100.7223304</v>
+        <v>100.5442512</v>
       </c>
       <c r="G55">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="I55" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J55" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K55" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L55" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3856,7 +3982,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
         <v>35</v>
@@ -3865,31 +3991,31 @@
         <v>99</v>
       </c>
       <c r="E56">
-        <v>13.8578211</v>
+        <v>14.0782451</v>
       </c>
       <c r="F56">
-        <v>100.4105189</v>
+        <v>100.604118</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56" t="s">
-        <v>183</v>
+      <c r="H56">
+        <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J56" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K56" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L56" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -3900,7 +4026,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
         <v>35</v>
@@ -3909,31 +4035,31 @@
         <v>100</v>
       </c>
       <c r="E57">
-        <v>13.85934159</v>
+        <v>13.86019768</v>
       </c>
       <c r="F57">
-        <v>100.5849015</v>
+        <v>100.7223304</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J57" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K57" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L57" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3944,7 +4070,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
         <v>35</v>
@@ -3953,31 +4079,31 @@
         <v>101</v>
       </c>
       <c r="E58">
-        <v>14.119413</v>
+        <v>13.8578211</v>
       </c>
       <c r="F58">
-        <v>100.118335</v>
+        <v>100.4105189</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I58" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J58" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K58" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L58" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -3997,31 +4123,31 @@
         <v>102</v>
       </c>
       <c r="E59">
-        <v>14.07688153</v>
+        <v>13.85934159</v>
       </c>
       <c r="F59">
-        <v>100.6017061</v>
+        <v>100.5849015</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I59" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J59" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K59" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L59" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4032,40 +4158,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D60" t="s">
         <v>103</v>
       </c>
       <c r="E60">
-        <v>13.87779142</v>
+        <v>14.119413</v>
       </c>
       <c r="F60">
-        <v>100.4215436</v>
+        <v>100.118335</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I60" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J60" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K60" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L60" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4079,37 +4205,37 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D61" t="s">
         <v>104</v>
       </c>
       <c r="E61">
-        <v>13.88376994</v>
+        <v>14.07688153</v>
       </c>
       <c r="F61">
-        <v>100.5843207</v>
+        <v>100.6017061</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="I61" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J61" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K61" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L61" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4120,7 +4246,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
         <v>36</v>
@@ -4129,31 +4255,31 @@
         <v>105</v>
       </c>
       <c r="E62">
-        <v>13.965066</v>
+        <v>13.87779142</v>
       </c>
       <c r="F62">
-        <v>100.07959</v>
+        <v>100.4215436</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="I62" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J62" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K62" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L62" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4173,31 +4299,31 @@
         <v>106</v>
       </c>
       <c r="E63">
-        <v>14.036373</v>
+        <v>13.88376994</v>
       </c>
       <c r="F63">
-        <v>100.168774</v>
+        <v>100.5843207</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I63" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J63" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K63" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L63" t="s">
-        <v>225</v>
+        <v>272</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4211,37 +4337,37 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
         <v>107</v>
       </c>
       <c r="E64">
-        <v>14.1487352</v>
+        <v>13.965066</v>
       </c>
       <c r="F64">
-        <v>100.6155778</v>
+        <v>100.07959</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I64" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J64" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K64" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L64" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4252,40 +4378,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s">
         <v>108</v>
       </c>
       <c r="E65">
-        <v>13.8057625</v>
+        <v>14.036373</v>
       </c>
       <c r="F65">
-        <v>100.6621959</v>
+        <v>100.168774</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I65" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J65" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K65" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L65" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4296,40 +4422,40 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
         <v>109</v>
       </c>
       <c r="E66">
-        <v>14.01215068</v>
+        <v>13.83669407</v>
       </c>
       <c r="F66">
-        <v>100.17523</v>
+        <v>100.0271654</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="I66" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J66" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K66" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L66" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4343,37 +4469,37 @@
         <v>15</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D67" t="s">
         <v>110</v>
       </c>
       <c r="E67">
-        <v>13.8134088</v>
+        <v>13.99173744</v>
       </c>
       <c r="F67">
-        <v>100.5616103</v>
+        <v>99.99699669</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I67" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J67" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K67" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L67" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4387,37 +4513,37 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s">
         <v>111</v>
       </c>
       <c r="E68">
-        <v>13.816493</v>
+        <v>13.69901194</v>
       </c>
       <c r="F68">
-        <v>100.5610062</v>
+        <v>100.4829165</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I68" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J68" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K68" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L68" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4431,37 +4557,37 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
         <v>112</v>
       </c>
       <c r="E69">
-        <v>13.7966595</v>
+        <v>13.70486214</v>
       </c>
       <c r="F69">
-        <v>100.4755856</v>
+        <v>100.4913754</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I69" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J69" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K69" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L69" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4472,40 +4598,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
         <v>113</v>
       </c>
       <c r="E70">
-        <v>13.69121688</v>
+        <v>13.69115508</v>
       </c>
       <c r="F70">
-        <v>100.3412194</v>
+        <v>100.5045287</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I70" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J70" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K70" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L70" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4519,37 +4645,37 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
         <v>114</v>
       </c>
       <c r="E71">
-        <v>13.79584</v>
+        <v>13.70976833</v>
       </c>
       <c r="F71">
-        <v>100.13118</v>
+        <v>100.5352559</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I71" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J71" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K71" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L71" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4563,37 +4689,37 @@
         <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D72" t="s">
         <v>115</v>
       </c>
       <c r="E72">
-        <v>13.80564274</v>
+        <v>13.71466823</v>
       </c>
       <c r="F72">
-        <v>100.5238077</v>
+        <v>100.643611</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I72" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J72" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K72" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L72" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4613,31 +4739,31 @@
         <v>116</v>
       </c>
       <c r="E73">
-        <v>13.77870414</v>
+        <v>14.1487352</v>
       </c>
       <c r="F73">
-        <v>100.4778649</v>
+        <v>100.6155778</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="I73" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J73" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K73" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L73" t="s">
-        <v>243</v>
+        <v>275</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4648,7 +4774,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C74" t="s">
         <v>37</v>
@@ -4657,31 +4783,31 @@
         <v>117</v>
       </c>
       <c r="E74">
-        <v>13.61347071</v>
+        <v>13.8057625</v>
       </c>
       <c r="F74">
-        <v>100.3824876</v>
+        <v>100.6621959</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="I74" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J74" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K74" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L74" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4692,7 +4818,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C75" t="s">
         <v>37</v>
@@ -4701,31 +4827,31 @@
         <v>118</v>
       </c>
       <c r="E75">
-        <v>13.70935</v>
+        <v>14.01215068</v>
       </c>
       <c r="F75">
-        <v>100.6014532</v>
+        <v>100.17523</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I75" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J75" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K75" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L75" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>306</v>
+        <v>353</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4745,31 +4871,31 @@
         <v>119</v>
       </c>
       <c r="E76">
-        <v>13.78281463</v>
+        <v>13.8134088</v>
       </c>
       <c r="F76">
-        <v>100.5995981</v>
+        <v>100.5616103</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="I76" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J76" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K76" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L76" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4780,40 +4906,40 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D77" t="s">
         <v>120</v>
       </c>
       <c r="E77">
-        <v>13.5579068</v>
+        <v>13.816493</v>
       </c>
       <c r="F77">
-        <v>100.270829</v>
+        <v>100.5610062</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77">
-        <v>0</v>
+      <c r="H77" t="s">
+        <v>220</v>
       </c>
       <c r="I77" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J77" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K77" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L77" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4824,40 +4950,40 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D78" t="s">
         <v>121</v>
       </c>
       <c r="E78">
-        <v>13.7937004</v>
+        <v>13.7966595</v>
       </c>
       <c r="F78">
-        <v>100.6923144</v>
+        <v>100.4755856</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I78" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J78" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K78" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L78" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4868,40 +4994,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D79" t="s">
         <v>122</v>
       </c>
       <c r="E79">
-        <v>13.5455607</v>
+        <v>13.69121688</v>
       </c>
       <c r="F79">
-        <v>100.2767611</v>
+        <v>100.3412194</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="I79" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J79" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K79" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L79" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4915,37 +5041,37 @@
         <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D80" t="s">
         <v>123</v>
       </c>
       <c r="E80">
-        <v>14.3355326</v>
+        <v>13.79584</v>
       </c>
       <c r="F80">
-        <v>100.87017</v>
+        <v>100.13118</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80">
-        <v>0</v>
+      <c r="H80" t="s">
+        <v>221</v>
       </c>
       <c r="I80" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J80" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K80" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L80" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -4959,37 +5085,37 @@
         <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E81">
-        <v>14.5786407</v>
+        <v>13.80564274</v>
       </c>
       <c r="F81">
-        <v>100.9662444</v>
+        <v>100.5238077</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81">
-        <v>0</v>
+      <c r="H81" t="s">
+        <v>220</v>
       </c>
       <c r="I81" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J81" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K81" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L81" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5003,37 +5129,37 @@
         <v>15</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E82">
-        <v>14.5116599</v>
+        <v>13.77870414</v>
       </c>
       <c r="F82">
-        <v>100.9094134</v>
+        <v>100.4778649</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>0</v>
+      <c r="H82" t="s">
+        <v>221</v>
       </c>
       <c r="I82" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J82" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K82" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L82" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5044,40 +5170,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E83">
-        <v>14.1378761</v>
+        <v>13.61347071</v>
       </c>
       <c r="F83">
-        <v>100.8255049</v>
+        <v>100.3824876</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83">
-        <v>0</v>
+      <c r="H83" t="s">
+        <v>221</v>
       </c>
       <c r="I83" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J83" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K83" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L83" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5088,40 +5214,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E84">
-        <v>14.06566869</v>
+        <v>13.70935</v>
       </c>
       <c r="F84">
-        <v>99.9821468</v>
+        <v>100.6014532</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="I84" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J84" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K84" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L84" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5132,40 +5258,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E85">
-        <v>13.8220612</v>
+        <v>13.78281463</v>
       </c>
       <c r="F85">
-        <v>100.421874</v>
+        <v>100.5995981</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I85" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J85" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K85" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L85" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5176,40 +5302,40 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E86">
-        <v>13.8683169</v>
+        <v>13.73739373</v>
       </c>
       <c r="F86">
-        <v>100.4107308</v>
+        <v>100.6165954</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="I86" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J86" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K86" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L86" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5223,37 +5349,37 @@
         <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D87" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E87">
-        <v>13.89757086</v>
+        <v>13.71433565</v>
       </c>
       <c r="F87">
-        <v>100.6098027</v>
+        <v>100.647891</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="I87" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J87" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K87" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L87" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5264,40 +5390,40 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E88">
-        <v>13.72045903</v>
+        <v>13.71020819</v>
       </c>
       <c r="F88">
-        <v>100.5004852</v>
+        <v>100.5427674</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I88" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J88" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K88" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L88" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5311,37 +5437,37 @@
         <v>15</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E89">
-        <v>13.817137</v>
+        <v>13.63894185</v>
       </c>
       <c r="F89">
-        <v>100.041497</v>
+        <v>100.5263216</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I89" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J89" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K89" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L89" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5352,40 +5478,40 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E90">
-        <v>13.737328</v>
+        <v>13.5579068</v>
       </c>
       <c r="F90">
-        <v>100.081218</v>
+        <v>100.270829</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90" t="s">
-        <v>185</v>
+      <c r="H90">
+        <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J90" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K90" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L90" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5396,40 +5522,40 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C91" t="s">
         <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E91">
-        <v>14.021384</v>
+        <v>13.7937004</v>
       </c>
       <c r="F91">
-        <v>100.165325</v>
+        <v>100.6923144</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="I91" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J91" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K91" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L91" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5440,40 +5566,40 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
         <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E92">
-        <v>13.82347979</v>
+        <v>13.5455607</v>
       </c>
       <c r="F92">
-        <v>100.4101224</v>
+        <v>100.2767611</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="I92" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J92" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K92" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L92" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5490,34 +5616,34 @@
         <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E93">
-        <v>13.82622351</v>
+        <v>14.3355326</v>
       </c>
       <c r="F93">
-        <v>100.4124415</v>
+        <v>100.87017</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="H93" t="s">
-        <v>185</v>
+      <c r="H93">
+        <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J93" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K93" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L93" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5534,34 +5660,34 @@
         <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E94">
-        <v>13.71100665</v>
+        <v>14.5786407</v>
       </c>
       <c r="F94">
-        <v>100.4234972</v>
+        <v>100.9662444</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94" t="s">
-        <v>183</v>
+      <c r="H94">
+        <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J94" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K94" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L94" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5581,31 +5707,31 @@
         <v>136</v>
       </c>
       <c r="E95">
-        <v>13.81780926</v>
+        <v>14.5116599</v>
       </c>
       <c r="F95">
-        <v>100.3981472</v>
+        <v>100.9094134</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="H95" t="s">
-        <v>185</v>
+      <c r="H95">
+        <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J95" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K95" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L95" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5616,7 +5742,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C96" t="s">
         <v>38</v>
@@ -5625,31 +5751,31 @@
         <v>137</v>
       </c>
       <c r="E96">
-        <v>13.95701015</v>
+        <v>14.1378761</v>
       </c>
       <c r="F96">
-        <v>100.404266</v>
+        <v>100.8255049</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="H96" t="s">
-        <v>185</v>
+      <c r="H96">
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J96" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K96" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L96" t="s">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5663,37 +5789,37 @@
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D97" t="s">
         <v>138</v>
       </c>
       <c r="E97">
-        <v>13.8781452</v>
+        <v>14.06566869</v>
       </c>
       <c r="F97">
-        <v>100.4091302</v>
+        <v>99.9821468</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="I97" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J97" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K97" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L97" t="s">
-        <v>228</v>
+        <v>286</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5707,37 +5833,37 @@
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D98" t="s">
         <v>139</v>
       </c>
       <c r="E98">
-        <v>13.7164198</v>
+        <v>13.8220612</v>
       </c>
       <c r="F98">
-        <v>100.5716135</v>
+        <v>100.421874</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="I98" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J98" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K98" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L98" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5748,40 +5874,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D99" t="s">
         <v>140</v>
       </c>
       <c r="E99">
-        <v>13.70807262</v>
+        <v>13.8683169</v>
       </c>
       <c r="F99">
-        <v>100.59964</v>
+        <v>100.4107308</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I99" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J99" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K99" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L99" t="s">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5795,37 +5921,37 @@
         <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D100" t="s">
         <v>141</v>
       </c>
       <c r="E100">
-        <v>13.78051515</v>
+        <v>13.89757086</v>
       </c>
       <c r="F100">
-        <v>100.4226823</v>
+        <v>100.6098027</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="I100" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J100" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K100" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L100" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5836,40 +5962,40 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D101" t="s">
         <v>142</v>
       </c>
       <c r="E101">
-        <v>13.7355293</v>
+        <v>13.72045903</v>
       </c>
       <c r="F101">
-        <v>100.5979688</v>
+        <v>100.5004852</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="I101" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J101" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K101" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L101" t="s">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -5883,37 +6009,37 @@
         <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
         <v>143</v>
       </c>
       <c r="E102">
-        <v>13.73541413</v>
+        <v>13.817137</v>
       </c>
       <c r="F102">
-        <v>100.5877998</v>
+        <v>100.041497</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="H102">
-        <v>0</v>
+      <c r="H102" t="s">
+        <v>221</v>
       </c>
       <c r="I102" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J102" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K102" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L102" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -5927,37 +6053,37 @@
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D103" t="s">
         <v>144</v>
       </c>
       <c r="E103">
-        <v>13.78766192</v>
+        <v>13.737328</v>
       </c>
       <c r="F103">
-        <v>100.5105938</v>
+        <v>100.081218</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103">
-        <v>0</v>
+      <c r="H103" t="s">
+        <v>221</v>
       </c>
       <c r="I103" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J103" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K103" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L103" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -5968,40 +6094,40 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D104" t="s">
         <v>145</v>
       </c>
       <c r="E104">
-        <v>13.5951449</v>
+        <v>14.021384</v>
       </c>
       <c r="F104">
-        <v>100.5802135</v>
+        <v>100.165325</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="I104" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J104" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K104" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L104" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6015,37 +6141,37 @@
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D105" t="s">
         <v>146</v>
       </c>
       <c r="E105">
-        <v>13.803038</v>
+        <v>13.82347979</v>
       </c>
       <c r="F105">
-        <v>100.188902</v>
+        <v>100.4101224</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I105" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J105" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K105" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L105" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6059,37 +6185,37 @@
         <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D106" t="s">
         <v>147</v>
       </c>
       <c r="E106">
-        <v>13.802276</v>
+        <v>13.82622351</v>
       </c>
       <c r="F106">
-        <v>100.19</v>
+        <v>100.4124415</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I106" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J106" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K106" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L106" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6103,37 +6229,37 @@
         <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D107" t="s">
         <v>148</v>
       </c>
       <c r="E107">
-        <v>13.928974</v>
+        <v>13.71100665</v>
       </c>
       <c r="F107">
-        <v>100.577365</v>
+        <v>100.4234972</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I107" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J107" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K107" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L107" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6147,37 +6273,37 @@
         <v>15</v>
       </c>
       <c r="C108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
         <v>149</v>
       </c>
       <c r="E108">
-        <v>13.929686</v>
+        <v>13.81780926</v>
       </c>
       <c r="F108">
-        <v>100.576</v>
+        <v>100.3981472</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I108" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J108" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K108" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L108" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6191,37 +6317,37 @@
         <v>15</v>
       </c>
       <c r="C109" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D109" t="s">
         <v>150</v>
       </c>
       <c r="E109">
-        <v>13.76033018</v>
+        <v>13.95701015</v>
       </c>
       <c r="F109">
-        <v>100.4796436</v>
+        <v>100.404266</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I109" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J109" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K109" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L109" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6235,37 +6361,37 @@
         <v>15</v>
       </c>
       <c r="C110" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D110" t="s">
         <v>151</v>
       </c>
       <c r="E110">
-        <v>13.82853997</v>
+        <v>14.06478568</v>
       </c>
       <c r="F110">
-        <v>100.4842102</v>
+        <v>100.0502624</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I110" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J110" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K110" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L110" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6276,40 +6402,40 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D111" t="s">
         <v>152</v>
       </c>
       <c r="E111">
-        <v>13.7462524</v>
+        <v>13.73106738</v>
       </c>
       <c r="F111">
-        <v>100.5328635</v>
+        <v>100.0732375</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="H111">
-        <v>0</v>
+      <c r="H111" t="s">
+        <v>221</v>
       </c>
       <c r="I111" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J111" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K111" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L111" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6320,40 +6446,40 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D112" t="s">
         <v>153</v>
       </c>
       <c r="E112">
-        <v>13.7243591</v>
+        <v>13.8122326</v>
       </c>
       <c r="F112">
-        <v>100.5386589</v>
+        <v>100.0726883</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="H112">
-        <v>0</v>
+      <c r="H112" t="s">
+        <v>221</v>
       </c>
       <c r="I112" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J112" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K112" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L112" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6364,40 +6490,40 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D113" t="s">
         <v>154</v>
       </c>
       <c r="E113">
-        <v>13.54974685</v>
+        <v>13.69415224</v>
       </c>
       <c r="F113">
-        <v>100.2561435</v>
+        <v>100.6478267</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I113" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J113" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K113" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L113" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6408,40 +6534,40 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D114" t="s">
         <v>155</v>
       </c>
       <c r="E114">
-        <v>14.45160513</v>
+        <v>13.80243028</v>
       </c>
       <c r="F114">
-        <v>100.7230585</v>
+        <v>100.6151197</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="I114" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J114" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K114" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L114" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6452,40 +6578,40 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C115" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D115" t="s">
         <v>156</v>
       </c>
       <c r="E115">
-        <v>13.72836497</v>
+        <v>13.82571976</v>
       </c>
       <c r="F115">
-        <v>100.5350858</v>
+        <v>100.6794424</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I115" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J115" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K115" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L115" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6496,40 +6622,40 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C116" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D116" t="s">
         <v>157</v>
       </c>
       <c r="E116">
-        <v>13.7660558</v>
+        <v>13.83106898</v>
       </c>
       <c r="F116">
-        <v>100.6403032</v>
+        <v>100.3729686</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I116" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J116" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K116" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L116" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6540,40 +6666,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D117" t="s">
         <v>158</v>
       </c>
       <c r="E117">
-        <v>13.710361</v>
+        <v>13.8781452</v>
       </c>
       <c r="F117">
-        <v>100.4073817</v>
+        <v>100.4091302</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I117" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J117" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K117" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6584,40 +6710,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D118" t="s">
         <v>159</v>
       </c>
       <c r="E118">
-        <v>13.2054213</v>
+        <v>13.7164198</v>
       </c>
       <c r="F118">
-        <v>99.9793013</v>
+        <v>100.5716135</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="H118">
-        <v>0</v>
+      <c r="H118" t="s">
+        <v>221</v>
       </c>
       <c r="I118" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J118" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K118" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L118" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6628,40 +6754,40 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D119" t="s">
         <v>160</v>
       </c>
       <c r="E119">
-        <v>13.7100705</v>
+        <v>13.70807262</v>
       </c>
       <c r="F119">
-        <v>100.6007069</v>
+        <v>100.59964</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>0</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
+      <c r="H119" t="s">
+        <v>221</v>
+      </c>
+      <c r="I119" t="s">
+        <v>222</v>
+      </c>
+      <c r="J119" t="s">
+        <v>224</v>
+      </c>
+      <c r="K119" t="s">
+        <v>221</v>
       </c>
       <c r="L119" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6675,37 +6801,37 @@
         <v>15</v>
       </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D120" t="s">
         <v>161</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>13.78051515</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>100.4226823</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="I120" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J120" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K120" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L120" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6719,37 +6845,37 @@
         <v>15</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D121" t="s">
         <v>162</v>
       </c>
       <c r="E121">
-        <v>13.802283</v>
+        <v>13.7355293</v>
       </c>
       <c r="F121">
-        <v>100.184509</v>
+        <v>100.5979688</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I121" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J121" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K121" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L121" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6763,37 +6889,37 @@
         <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D122" t="s">
         <v>163</v>
       </c>
       <c r="E122">
-        <v>13.91857</v>
+        <v>13.73406154</v>
       </c>
       <c r="F122">
-        <v>100.601606</v>
+        <v>100.5967948</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I122" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J122" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K122" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L122" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6807,37 +6933,37 @@
         <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D123" t="s">
         <v>164</v>
       </c>
       <c r="E123">
-        <v>13.6171972</v>
+        <v>13.7738673</v>
       </c>
       <c r="F123">
-        <v>100.3791504</v>
+        <v>100.5093218</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I123" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J123" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K123" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L123" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6851,37 +6977,37 @@
         <v>15</v>
       </c>
       <c r="C124" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D124" t="s">
         <v>165</v>
       </c>
       <c r="E124">
-        <v>13.721681</v>
+        <v>13.82650614</v>
       </c>
       <c r="F124">
-        <v>100.53</v>
+        <v>100.4860605</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I124" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J124" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K124" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L124" t="s">
         <v>269</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6892,40 +7018,40 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D125" t="s">
         <v>166</v>
       </c>
       <c r="E125">
-        <v>13.9134431</v>
+        <v>13.73541413</v>
       </c>
       <c r="F125">
-        <v>100.4220473</v>
+        <v>100.5877998</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="H125" t="s">
-        <v>184</v>
+      <c r="H125">
+        <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="J125" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K125" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L125" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -6939,37 +7065,37 @@
         <v>15</v>
       </c>
       <c r="C126" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D126" t="s">
         <v>167</v>
       </c>
       <c r="E126">
-        <v>13.786588</v>
+        <v>13.78766192</v>
       </c>
       <c r="F126">
-        <v>100.321233</v>
+        <v>100.5105938</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
-      <c r="H126" t="s">
-        <v>185</v>
+      <c r="H126">
+        <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J126" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K126" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L126" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -6980,40 +7106,40 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D127" t="s">
         <v>168</v>
       </c>
       <c r="E127">
-        <v>13.924252</v>
+        <v>13.5951449</v>
       </c>
       <c r="F127">
-        <v>100.597945</v>
+        <v>100.5802135</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I127" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J127" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K127" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L127" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7024,40 +7150,40 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D128" t="s">
         <v>169</v>
       </c>
       <c r="E128">
-        <v>13.7636001</v>
+        <v>13.803038</v>
       </c>
       <c r="F128">
-        <v>100.5114624</v>
+        <v>100.188902</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
+      <c r="H128" t="s">
+        <v>221</v>
+      </c>
+      <c r="I128" t="s">
+        <v>222</v>
+      </c>
+      <c r="J128" t="s">
+        <v>224</v>
       </c>
       <c r="K128" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L128" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7068,40 +7194,40 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C129" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D129" t="s">
         <v>170</v>
       </c>
       <c r="E129">
-        <v>13.734066</v>
+        <v>13.802143</v>
       </c>
       <c r="F129">
-        <v>100.5278354</v>
+        <v>100.19</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
-      </c>
-      <c r="J129">
-        <v>0</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
+      <c r="H129" t="s">
+        <v>221</v>
+      </c>
+      <c r="I129" t="s">
+        <v>222</v>
+      </c>
+      <c r="J129" t="s">
+        <v>224</v>
+      </c>
+      <c r="K129" t="s">
+        <v>221</v>
       </c>
       <c r="L129" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7112,40 +7238,40 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D130" t="s">
         <v>171</v>
       </c>
       <c r="E130">
-        <v>12.6483736</v>
+        <v>13.928974</v>
       </c>
       <c r="F130">
-        <v>101.2273679</v>
+        <v>100.577365</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
+      <c r="H130" t="s">
+        <v>221</v>
+      </c>
+      <c r="I130" t="s">
+        <v>222</v>
+      </c>
+      <c r="J130" t="s">
+        <v>224</v>
+      </c>
+      <c r="K130" t="s">
+        <v>221</v>
       </c>
       <c r="L130" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7156,40 +7282,40 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C131" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D131" t="s">
         <v>172</v>
       </c>
       <c r="E131">
-        <v>12.6844183</v>
+        <v>13.929686</v>
       </c>
       <c r="F131">
-        <v>101.2742991</v>
+        <v>100.576</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
-      <c r="J131">
-        <v>0</v>
+      <c r="H131" t="s">
+        <v>221</v>
+      </c>
+      <c r="I131" t="s">
+        <v>222</v>
+      </c>
+      <c r="J131" t="s">
+        <v>224</v>
       </c>
       <c r="K131" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L131" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7200,40 +7326,40 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C132" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D132" t="s">
         <v>173</v>
       </c>
       <c r="E132">
-        <v>12.9730033</v>
+        <v>13.76033018</v>
       </c>
       <c r="F132">
-        <v>100.9029061</v>
+        <v>100.4796436</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
+      <c r="H132" t="s">
+        <v>221</v>
+      </c>
+      <c r="I132" t="s">
+        <v>222</v>
+      </c>
+      <c r="J132" t="s">
+        <v>224</v>
       </c>
       <c r="K132" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L132" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7247,37 +7373,37 @@
         <v>15</v>
       </c>
       <c r="C133" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D133" t="s">
         <v>174</v>
       </c>
       <c r="E133">
-        <v>13.7946069</v>
+        <v>13.82853997</v>
       </c>
       <c r="F133">
-        <v>100.5161808</v>
+        <v>100.4842102</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
+      <c r="H133" t="s">
+        <v>221</v>
+      </c>
+      <c r="I133" t="s">
+        <v>222</v>
+      </c>
+      <c r="J133" t="s">
+        <v>224</v>
       </c>
       <c r="K133" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L133" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7291,37 +7417,37 @@
         <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D134" t="s">
         <v>175</v>
       </c>
       <c r="E134">
-        <v>13.54448567</v>
+        <v>14.01020378</v>
       </c>
       <c r="F134">
-        <v>100.2752027</v>
+        <v>100.1768909</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="I134" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J134" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K134" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L134" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7332,40 +7458,40 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D135" t="s">
         <v>176</v>
       </c>
       <c r="E135">
-        <v>12.9098775</v>
+        <v>14.04839109</v>
       </c>
       <c r="F135">
-        <v>100.891563</v>
+        <v>100.0198852</v>
       </c>
       <c r="G135">
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I135" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="J135" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K135" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L135" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7376,40 +7502,40 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D136" t="s">
         <v>177</v>
       </c>
       <c r="E136">
-        <v>13.3535702</v>
+        <v>13.80175861</v>
       </c>
       <c r="F136">
-        <v>100.9765439</v>
+        <v>100.3053076</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
-      <c r="J136">
-        <v>0</v>
+      <c r="H136" t="s">
+        <v>221</v>
+      </c>
+      <c r="I136" t="s">
+        <v>222</v>
+      </c>
+      <c r="J136" t="s">
+        <v>224</v>
       </c>
       <c r="K136" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L136" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7420,19 +7546,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D137" t="s">
         <v>178</v>
       </c>
       <c r="E137">
-        <v>12.948902</v>
+        <v>13.7462524</v>
       </c>
       <c r="F137">
-        <v>100.891292</v>
+        <v>100.5328635</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -7440,20 +7566,20 @@
       <c r="H137">
         <v>0</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
-      <c r="J137">
-        <v>0</v>
+      <c r="I137" t="s">
+        <v>222</v>
+      </c>
+      <c r="J137" t="s">
+        <v>224</v>
       </c>
       <c r="K137" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L137" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7464,19 +7590,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C138" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D138" t="s">
         <v>179</v>
       </c>
       <c r="E138">
-        <v>12.6495877</v>
+        <v>13.7243591</v>
       </c>
       <c r="F138">
-        <v>102.0329425</v>
+        <v>100.5386589</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -7484,20 +7610,20 @@
       <c r="H138">
         <v>0</v>
       </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
-        <v>0</v>
+      <c r="I138" t="s">
+        <v>222</v>
+      </c>
+      <c r="J138" t="s">
+        <v>224</v>
       </c>
       <c r="K138" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L138" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7508,40 +7634,40 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D139" t="s">
         <v>180</v>
       </c>
       <c r="E139">
-        <v>12.3757564</v>
+        <v>13.54974685</v>
       </c>
       <c r="F139">
-        <v>102.3818628</v>
+        <v>100.2561435</v>
       </c>
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139">
-        <v>0</v>
+      <c r="H139" t="s">
+        <v>220</v>
+      </c>
+      <c r="I139" t="s">
+        <v>222</v>
+      </c>
+      <c r="J139" t="s">
+        <v>224</v>
       </c>
       <c r="K139" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L139" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7552,40 +7678,40 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C140" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D140" t="s">
         <v>181</v>
       </c>
       <c r="E140">
-        <v>12.7246169</v>
+        <v>14.45160513</v>
       </c>
       <c r="F140">
-        <v>101.9362794</v>
+        <v>100.7230585</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140">
-        <v>0</v>
+      <c r="H140" t="s">
+        <v>220</v>
+      </c>
+      <c r="I140" t="s">
+        <v>222</v>
+      </c>
+      <c r="J140" t="s">
+        <v>224</v>
       </c>
       <c r="K140" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="L140" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7596,42 +7722,1626 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D141" t="s">
         <v>182</v>
       </c>
       <c r="E141">
+        <v>13.72836497</v>
+      </c>
+      <c r="F141">
+        <v>100.5350858</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>221</v>
+      </c>
+      <c r="I141" t="s">
+        <v>222</v>
+      </c>
+      <c r="J141" t="s">
+        <v>224</v>
+      </c>
+      <c r="K141" t="s">
+        <v>221</v>
+      </c>
+      <c r="L141" t="s">
+        <v>301</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" t="s">
+        <v>183</v>
+      </c>
+      <c r="E142">
+        <v>13.7660558</v>
+      </c>
+      <c r="F142">
+        <v>100.6403032</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>221</v>
+      </c>
+      <c r="I142" t="s">
+        <v>222</v>
+      </c>
+      <c r="J142" t="s">
+        <v>224</v>
+      </c>
+      <c r="K142" t="s">
+        <v>221</v>
+      </c>
+      <c r="L142" t="s">
+        <v>302</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+      <c r="C143" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" t="s">
+        <v>184</v>
+      </c>
+      <c r="E143">
+        <v>13.710361</v>
+      </c>
+      <c r="F143">
+        <v>100.4073817</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>221</v>
+      </c>
+      <c r="I143" t="s">
+        <v>222</v>
+      </c>
+      <c r="J143" t="s">
+        <v>224</v>
+      </c>
+      <c r="K143" t="s">
+        <v>221</v>
+      </c>
+      <c r="L143" t="s">
+        <v>303</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>17</v>
+      </c>
+      <c r="C144" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" t="s">
+        <v>185</v>
+      </c>
+      <c r="E144">
+        <v>13.2054213</v>
+      </c>
+      <c r="F144">
+        <v>99.9793013</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>222</v>
+      </c>
+      <c r="J144" t="s">
+        <v>224</v>
+      </c>
+      <c r="K144" t="s">
+        <v>221</v>
+      </c>
+      <c r="L144" t="s">
+        <v>304</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+      <c r="C145" t="s">
+        <v>41</v>
+      </c>
+      <c r="D145" t="s">
+        <v>186</v>
+      </c>
+      <c r="E145">
+        <v>13.7100705</v>
+      </c>
+      <c r="F145">
+        <v>100.6007069</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>305</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>41</v>
+      </c>
+      <c r="D146" t="s">
+        <v>187</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>221</v>
+      </c>
+      <c r="I146" t="s">
+        <v>222</v>
+      </c>
+      <c r="J146" t="s">
+        <v>224</v>
+      </c>
+      <c r="K146" t="s">
+        <v>221</v>
+      </c>
+      <c r="L146" t="s">
+        <v>261</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>41</v>
+      </c>
+      <c r="D147" t="s">
+        <v>188</v>
+      </c>
+      <c r="E147">
+        <v>13.802283</v>
+      </c>
+      <c r="F147">
+        <v>100.184509</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>221</v>
+      </c>
+      <c r="I147" t="s">
+        <v>222</v>
+      </c>
+      <c r="J147" t="s">
+        <v>224</v>
+      </c>
+      <c r="K147" t="s">
+        <v>221</v>
+      </c>
+      <c r="L147" t="s">
+        <v>261</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>41</v>
+      </c>
+      <c r="D148" t="s">
+        <v>189</v>
+      </c>
+      <c r="E148">
+        <v>13.91857</v>
+      </c>
+      <c r="F148">
+        <v>100.601606</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>221</v>
+      </c>
+      <c r="I148" t="s">
+        <v>222</v>
+      </c>
+      <c r="J148" t="s">
+        <v>224</v>
+      </c>
+      <c r="K148" t="s">
+        <v>221</v>
+      </c>
+      <c r="L148" t="s">
+        <v>295</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>41</v>
+      </c>
+      <c r="D149" t="s">
+        <v>190</v>
+      </c>
+      <c r="E149">
+        <v>13.6171972</v>
+      </c>
+      <c r="F149">
+        <v>100.3791504</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>221</v>
+      </c>
+      <c r="I149" t="s">
+        <v>222</v>
+      </c>
+      <c r="J149" t="s">
+        <v>224</v>
+      </c>
+      <c r="K149" t="s">
+        <v>221</v>
+      </c>
+      <c r="L149" t="s">
+        <v>306</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s">
+        <v>41</v>
+      </c>
+      <c r="D150" t="s">
+        <v>191</v>
+      </c>
+      <c r="E150">
+        <v>12.66469676</v>
+      </c>
+      <c r="F150">
+        <v>102.1037094</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>219</v>
+      </c>
+      <c r="I150" t="s">
+        <v>222</v>
+      </c>
+      <c r="J150" t="s">
+        <v>224</v>
+      </c>
+      <c r="K150" t="s">
+        <v>221</v>
+      </c>
+      <c r="L150" t="s">
+        <v>307</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>42</v>
+      </c>
+      <c r="D151" t="s">
+        <v>192</v>
+      </c>
+      <c r="E151">
+        <v>13.721681</v>
+      </c>
+      <c r="F151">
+        <v>100.53</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>221</v>
+      </c>
+      <c r="I151" t="s">
+        <v>222</v>
+      </c>
+      <c r="J151" t="s">
+        <v>224</v>
+      </c>
+      <c r="K151" t="s">
+        <v>221</v>
+      </c>
+      <c r="L151" t="s">
+        <v>308</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" t="s">
+        <v>42</v>
+      </c>
+      <c r="D152" t="s">
+        <v>193</v>
+      </c>
+      <c r="E152">
+        <v>13.9134431</v>
+      </c>
+      <c r="F152">
+        <v>100.4220473</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>220</v>
+      </c>
+      <c r="I152" t="s">
+        <v>223</v>
+      </c>
+      <c r="J152" t="s">
+        <v>224</v>
+      </c>
+      <c r="K152" t="s">
+        <v>221</v>
+      </c>
+      <c r="L152" t="s">
+        <v>309</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="s">
+        <v>42</v>
+      </c>
+      <c r="D153" t="s">
+        <v>194</v>
+      </c>
+      <c r="E153">
+        <v>13.786588</v>
+      </c>
+      <c r="F153">
+        <v>100.321233</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>221</v>
+      </c>
+      <c r="I153" t="s">
+        <v>222</v>
+      </c>
+      <c r="J153" t="s">
+        <v>224</v>
+      </c>
+      <c r="K153" t="s">
+        <v>221</v>
+      </c>
+      <c r="L153" t="s">
+        <v>261</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="s">
+        <v>42</v>
+      </c>
+      <c r="D154" t="s">
+        <v>195</v>
+      </c>
+      <c r="E154">
+        <v>13.65357633</v>
+      </c>
+      <c r="F154">
+        <v>100.4481482</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>221</v>
+      </c>
+      <c r="I154" t="s">
+        <v>222</v>
+      </c>
+      <c r="J154" t="s">
+        <v>224</v>
+      </c>
+      <c r="K154" t="s">
+        <v>221</v>
+      </c>
+      <c r="L154" t="s">
+        <v>274</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" t="s">
+        <v>42</v>
+      </c>
+      <c r="D155" t="s">
+        <v>196</v>
+      </c>
+      <c r="E155">
+        <v>13.81456113</v>
+      </c>
+      <c r="F155">
+        <v>100.0630594</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>221</v>
+      </c>
+      <c r="I155" t="s">
+        <v>222</v>
+      </c>
+      <c r="J155" t="s">
+        <v>224</v>
+      </c>
+      <c r="K155" t="s">
+        <v>221</v>
+      </c>
+      <c r="L155" t="s">
+        <v>274</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" t="s">
+        <v>42</v>
+      </c>
+      <c r="D156" t="s">
+        <v>197</v>
+      </c>
+      <c r="E156">
+        <v>12.68783188</v>
+      </c>
+      <c r="F156">
+        <v>101.2114545</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>219</v>
+      </c>
+      <c r="I156" t="s">
+        <v>222</v>
+      </c>
+      <c r="J156" t="s">
+        <v>224</v>
+      </c>
+      <c r="K156" t="s">
+        <v>221</v>
+      </c>
+      <c r="L156" t="s">
+        <v>307</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" t="s">
+        <v>198</v>
+      </c>
+      <c r="E157">
+        <v>13.67342423</v>
+      </c>
+      <c r="F157">
+        <v>100.6069256</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>221</v>
+      </c>
+      <c r="I157" t="s">
+        <v>222</v>
+      </c>
+      <c r="J157" t="s">
+        <v>224</v>
+      </c>
+      <c r="K157" t="s">
+        <v>221</v>
+      </c>
+      <c r="L157" t="s">
+        <v>269</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>42</v>
+      </c>
+      <c r="D158" t="s">
+        <v>199</v>
+      </c>
+      <c r="E158">
+        <v>13.6680206</v>
+      </c>
+      <c r="F158">
+        <v>100.6354649</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>221</v>
+      </c>
+      <c r="I158" t="s">
+        <v>222</v>
+      </c>
+      <c r="J158" t="s">
+        <v>224</v>
+      </c>
+      <c r="K158" t="s">
+        <v>221</v>
+      </c>
+      <c r="L158" t="s">
+        <v>269</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" t="s">
+        <v>200</v>
+      </c>
+      <c r="E159">
+        <v>13.924252</v>
+      </c>
+      <c r="F159">
+        <v>100.597945</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>221</v>
+      </c>
+      <c r="I159" t="s">
+        <v>222</v>
+      </c>
+      <c r="J159" t="s">
+        <v>224</v>
+      </c>
+      <c r="K159" t="s">
+        <v>221</v>
+      </c>
+      <c r="L159" t="s">
+        <v>295</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" t="s">
+        <v>43</v>
+      </c>
+      <c r="D160" t="s">
+        <v>201</v>
+      </c>
+      <c r="E160">
+        <v>12.69670286</v>
+      </c>
+      <c r="F160">
+        <v>101.2683573</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>219</v>
+      </c>
+      <c r="I160" t="s">
+        <v>222</v>
+      </c>
+      <c r="J160" t="s">
+        <v>224</v>
+      </c>
+      <c r="K160" t="s">
+        <v>221</v>
+      </c>
+      <c r="L160" t="s">
+        <v>307</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>15</v>
+      </c>
+      <c r="C161" t="s">
+        <v>43</v>
+      </c>
+      <c r="D161" t="s">
+        <v>202</v>
+      </c>
+      <c r="E161">
+        <v>12.69574994</v>
+      </c>
+      <c r="F161">
+        <v>101.2674706</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>219</v>
+      </c>
+      <c r="I161" t="s">
+        <v>222</v>
+      </c>
+      <c r="J161" t="s">
+        <v>224</v>
+      </c>
+      <c r="K161" t="s">
+        <v>221</v>
+      </c>
+      <c r="L161" t="s">
+        <v>307</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162" t="s">
+        <v>44</v>
+      </c>
+      <c r="D162" t="s">
+        <v>203</v>
+      </c>
+      <c r="E162">
+        <v>13.7636001</v>
+      </c>
+      <c r="F162">
+        <v>100.5114624</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162" t="s">
+        <v>221</v>
+      </c>
+      <c r="L162" t="s">
+        <v>310</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" t="s">
+        <v>44</v>
+      </c>
+      <c r="D163" t="s">
+        <v>204</v>
+      </c>
+      <c r="E163">
+        <v>13.734066</v>
+      </c>
+      <c r="F163">
+        <v>100.5278354</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163" t="s">
+        <v>311</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" t="s">
+        <v>44</v>
+      </c>
+      <c r="D164" t="s">
+        <v>205</v>
+      </c>
+      <c r="E164">
+        <v>12.6483736</v>
+      </c>
+      <c r="F164">
+        <v>101.2273679</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164" t="s">
+        <v>312</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" t="s">
+        <v>44</v>
+      </c>
+      <c r="D165" t="s">
+        <v>206</v>
+      </c>
+      <c r="E165">
+        <v>12.69691038</v>
+      </c>
+      <c r="F165">
+        <v>101.268451</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>219</v>
+      </c>
+      <c r="I165" t="s">
+        <v>222</v>
+      </c>
+      <c r="J165" t="s">
+        <v>224</v>
+      </c>
+      <c r="K165" t="s">
+        <v>221</v>
+      </c>
+      <c r="L165" t="s">
+        <v>307</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>15</v>
+      </c>
+      <c r="C166" t="s">
+        <v>44</v>
+      </c>
+      <c r="D166" t="s">
+        <v>207</v>
+      </c>
+      <c r="E166">
+        <v>12.66695256</v>
+      </c>
+      <c r="F166">
+        <v>101.2738756</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>219</v>
+      </c>
+      <c r="I166" t="s">
+        <v>222</v>
+      </c>
+      <c r="J166" t="s">
+        <v>224</v>
+      </c>
+      <c r="K166" t="s">
+        <v>221</v>
+      </c>
+      <c r="L166" t="s">
+        <v>307</v>
+      </c>
+      <c r="M166" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" t="s">
+        <v>45</v>
+      </c>
+      <c r="D167" t="s">
+        <v>208</v>
+      </c>
+      <c r="E167">
+        <v>12.6844183</v>
+      </c>
+      <c r="F167">
+        <v>101.2742991</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167" t="s">
+        <v>221</v>
+      </c>
+      <c r="L167" t="s">
+        <v>313</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" t="s">
+        <v>209</v>
+      </c>
+      <c r="E168">
+        <v>12.9730033</v>
+      </c>
+      <c r="F168">
+        <v>100.9029061</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168" t="s">
+        <v>221</v>
+      </c>
+      <c r="L168" t="s">
+        <v>313</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" t="s">
+        <v>45</v>
+      </c>
+      <c r="D169" t="s">
+        <v>210</v>
+      </c>
+      <c r="E169">
+        <v>13.7946069</v>
+      </c>
+      <c r="F169">
+        <v>100.5161808</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169" t="s">
+        <v>221</v>
+      </c>
+      <c r="L169" t="s">
+        <v>314</v>
+      </c>
+      <c r="M169" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>15</v>
+      </c>
+      <c r="C170" t="s">
+        <v>45</v>
+      </c>
+      <c r="D170" t="s">
+        <v>211</v>
+      </c>
+      <c r="E170">
+        <v>13.54448567</v>
+      </c>
+      <c r="F170">
+        <v>100.2752027</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>219</v>
+      </c>
+      <c r="I170" t="s">
+        <v>222</v>
+      </c>
+      <c r="J170" t="s">
+        <v>224</v>
+      </c>
+      <c r="K170" t="s">
+        <v>221</v>
+      </c>
+      <c r="L170" t="s">
+        <v>315</v>
+      </c>
+      <c r="M170" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171" t="s">
+        <v>46</v>
+      </c>
+      <c r="D171" t="s">
+        <v>212</v>
+      </c>
+      <c r="E171">
+        <v>12.9098775</v>
+      </c>
+      <c r="F171">
+        <v>100.891563</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171" t="s">
+        <v>221</v>
+      </c>
+      <c r="I171" t="s">
+        <v>222</v>
+      </c>
+      <c r="J171" t="s">
+        <v>224</v>
+      </c>
+      <c r="K171" t="s">
+        <v>221</v>
+      </c>
+      <c r="L171" t="s">
+        <v>316</v>
+      </c>
+      <c r="M171" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172" t="s">
+        <v>46</v>
+      </c>
+      <c r="D172" t="s">
+        <v>213</v>
+      </c>
+      <c r="E172">
+        <v>13.3535702</v>
+      </c>
+      <c r="F172">
+        <v>100.9765439</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172" t="s">
+        <v>221</v>
+      </c>
+      <c r="L172" t="s">
+        <v>317</v>
+      </c>
+      <c r="M172" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" t="s">
+        <v>46</v>
+      </c>
+      <c r="D173" t="s">
+        <v>214</v>
+      </c>
+      <c r="E173">
+        <v>12.948902</v>
+      </c>
+      <c r="F173">
+        <v>100.891292</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173" t="s">
+        <v>221</v>
+      </c>
+      <c r="L173" t="s">
+        <v>318</v>
+      </c>
+      <c r="M173" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" t="s">
+        <v>46</v>
+      </c>
+      <c r="D174" t="s">
+        <v>215</v>
+      </c>
+      <c r="E174">
+        <v>12.6495877</v>
+      </c>
+      <c r="F174">
+        <v>102.0329425</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174" t="s">
+        <v>221</v>
+      </c>
+      <c r="L174" t="s">
+        <v>319</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" t="s">
+        <v>46</v>
+      </c>
+      <c r="D175" t="s">
+        <v>216</v>
+      </c>
+      <c r="E175">
+        <v>12.3757564</v>
+      </c>
+      <c r="F175">
+        <v>102.3818628</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175" t="s">
+        <v>221</v>
+      </c>
+      <c r="L175" t="s">
+        <v>320</v>
+      </c>
+      <c r="M175" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" t="s">
+        <v>46</v>
+      </c>
+      <c r="D176" t="s">
+        <v>217</v>
+      </c>
+      <c r="E176">
+        <v>12.7246169</v>
+      </c>
+      <c r="F176">
+        <v>101.9362794</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176" t="s">
+        <v>221</v>
+      </c>
+      <c r="L176" t="s">
+        <v>321</v>
+      </c>
+      <c r="M176" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" t="s">
+        <v>46</v>
+      </c>
+      <c r="D177" t="s">
+        <v>218</v>
+      </c>
+      <c r="E177">
         <v>13.772986</v>
       </c>
-      <c r="F141">
+      <c r="F177">
         <v>100.4855148</v>
       </c>
-      <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
-      <c r="J141">
-        <v>0</v>
-      </c>
-      <c r="K141" t="s">
-        <v>185</v>
-      </c>
-      <c r="L141" t="s">
-        <v>283</v>
-      </c>
-      <c r="M141" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="N141">
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177" t="s">
+        <v>221</v>
+      </c>
+      <c r="L177" t="s">
+        <v>322</v>
+      </c>
+      <c r="M177" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="N177">
         <v>0</v>
       </c>
     </row>
@@ -7718,7 +9428,7 @@
     <hyperlink ref="M80" r:id="rId79"/>
     <hyperlink ref="M81" r:id="rId80"/>
     <hyperlink ref="M82" r:id="rId81"/>
-    <hyperlink ref="M83" r:id="rId82" location="cxrecs_s"/>
+    <hyperlink ref="M83" r:id="rId82"/>
     <hyperlink ref="M84" r:id="rId83"/>
     <hyperlink ref="M85" r:id="rId84"/>
     <hyperlink ref="M86" r:id="rId85"/>
@@ -7731,7 +9441,7 @@
     <hyperlink ref="M93" r:id="rId92"/>
     <hyperlink ref="M94" r:id="rId93"/>
     <hyperlink ref="M95" r:id="rId94"/>
-    <hyperlink ref="M96" r:id="rId95"/>
+    <hyperlink ref="M96" r:id="rId95" location="cxrecs_s"/>
     <hyperlink ref="M97" r:id="rId96"/>
     <hyperlink ref="M98" r:id="rId97"/>
     <hyperlink ref="M99" r:id="rId98"/>
@@ -7777,6 +9487,42 @@
     <hyperlink ref="M139" r:id="rId138"/>
     <hyperlink ref="M140" r:id="rId139"/>
     <hyperlink ref="M141" r:id="rId140"/>
+    <hyperlink ref="M142" r:id="rId141"/>
+    <hyperlink ref="M143" r:id="rId142"/>
+    <hyperlink ref="M144" r:id="rId143"/>
+    <hyperlink ref="M145" r:id="rId144"/>
+    <hyperlink ref="M146" r:id="rId145"/>
+    <hyperlink ref="M147" r:id="rId146"/>
+    <hyperlink ref="M148" r:id="rId147"/>
+    <hyperlink ref="M149" r:id="rId148"/>
+    <hyperlink ref="M150" r:id="rId149"/>
+    <hyperlink ref="M151" r:id="rId150"/>
+    <hyperlink ref="M152" r:id="rId151"/>
+    <hyperlink ref="M153" r:id="rId152"/>
+    <hyperlink ref="M154" r:id="rId153"/>
+    <hyperlink ref="M155" r:id="rId154"/>
+    <hyperlink ref="M156" r:id="rId155"/>
+    <hyperlink ref="M157" r:id="rId156"/>
+    <hyperlink ref="M158" r:id="rId157"/>
+    <hyperlink ref="M159" r:id="rId158"/>
+    <hyperlink ref="M160" r:id="rId159"/>
+    <hyperlink ref="M161" r:id="rId160"/>
+    <hyperlink ref="M162" r:id="rId161"/>
+    <hyperlink ref="M163" r:id="rId162"/>
+    <hyperlink ref="M164" r:id="rId163"/>
+    <hyperlink ref="M165" r:id="rId164"/>
+    <hyperlink ref="M166" r:id="rId165"/>
+    <hyperlink ref="M167" r:id="rId166"/>
+    <hyperlink ref="M168" r:id="rId167"/>
+    <hyperlink ref="M169" r:id="rId168"/>
+    <hyperlink ref="M170" r:id="rId169"/>
+    <hyperlink ref="M171" r:id="rId170"/>
+    <hyperlink ref="M172" r:id="rId171"/>
+    <hyperlink ref="M173" r:id="rId172"/>
+    <hyperlink ref="M174" r:id="rId173"/>
+    <hyperlink ref="M175" r:id="rId174"/>
+    <hyperlink ref="M176" r:id="rId175"/>
+    <hyperlink ref="M177" r:id="rId176"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="393">
   <si>
     <t>id</t>
   </si>
@@ -154,6 +154,9 @@
     <t>2020-12-27</t>
   </si>
   <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
     <t>2020-12-29</t>
   </si>
   <si>
@@ -652,6 +655,9 @@
     <t>ร้านท่าเรือภัตตาคาร มหาชัย</t>
   </si>
   <si>
+    <t>อาคารนานมีบุ๊คส์ สุขุมวิท31</t>
+  </si>
+  <si>
     <t>ตู้มวยเทพประสิทธิ์ บางละมุง</t>
   </si>
   <si>
@@ -964,6 +970,9 @@
     <t>ผู้ว่าฯ สมุทรสาคร พา รมต.สาธารณะสุข ตรวจตลาดกลางกุ้ง ก่อนติดโควิด 1 วัน</t>
   </si>
   <si>
+    <t>นานมีบุ๊คส์ พนง.ติดโควิด แจ้งผู้ติดต่อ เฝ้าระวัง-สังเกตอาการ</t>
+  </si>
+  <si>
     <t>ขอให้ผู้ที่มาที่นี่ตั้งแต่วันที่ 1 ธ.ค. เฝ้าระวัง สังเกตอาการ</t>
   </si>
   <si>
@@ -1169,6 +1178,9 @@
   </si>
   <si>
     <t>https://www.prachachat.net/general/news-583401</t>
+  </si>
+  <si>
+    <t>https://www.prachachat.net/general/news-585006</t>
   </si>
   <si>
     <t>https://www.facebook.com/318251788326658/photos/a.319526161532554/1902163179935503/?type=3</t>
@@ -1551,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1612,7 +1624,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>12.674583</v>
@@ -1633,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1656,7 +1668,7 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3">
         <v>13.7250712</v>
@@ -1677,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1700,7 +1712,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>12.6838253</v>
@@ -1721,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1744,7 +1756,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>12.6959971</v>
@@ -1765,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1788,7 +1800,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>12.6833042</v>
@@ -1809,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1832,7 +1844,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7">
         <v>13.653942</v>
@@ -1844,22 +1856,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1876,7 +1888,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8">
         <v>13.700916</v>
@@ -1888,22 +1900,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1920,7 +1932,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>13.829441</v>
@@ -1932,22 +1944,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1964,7 +1976,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>13.759791</v>
@@ -1976,22 +1988,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I10" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2008,7 +2020,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>13.845817</v>
@@ -2020,22 +2032,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K11" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2052,7 +2064,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E12">
         <v>18.81089258</v>
@@ -2064,22 +2076,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K12" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2096,7 +2108,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>18.80951974</v>
@@ -2108,22 +2120,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2140,7 +2152,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>18.80401814</v>
@@ -2152,22 +2164,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I14" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K14" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2184,7 +2196,7 @@
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15">
         <v>18.80732484</v>
@@ -2196,22 +2208,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2228,7 +2240,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16">
         <v>18.80709567</v>
@@ -2240,22 +2252,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2272,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>18.80650918</v>
@@ -2284,22 +2296,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2316,7 +2328,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>18.80657601</v>
@@ -2328,22 +2340,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L18" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2360,7 +2372,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19">
         <v>18.80658294</v>
@@ -2372,22 +2384,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J19" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2404,7 +2416,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>18.80675924</v>
@@ -2416,22 +2428,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2448,7 +2460,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>18.80629446</v>
@@ -2460,22 +2472,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2492,7 +2504,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E22">
         <v>19.85327262</v>
@@ -2504,22 +2516,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2536,7 +2548,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E23">
         <v>19.90661769</v>
@@ -2548,22 +2560,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2580,7 +2592,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24">
         <v>19.6476693</v>
@@ -2592,22 +2604,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J24" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2624,7 +2636,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <v>13.7238495</v>
@@ -2636,22 +2648,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2668,7 +2680,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26">
         <v>13.7285268</v>
@@ -2680,22 +2692,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2712,7 +2724,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27">
         <v>13.7292718</v>
@@ -2724,22 +2736,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2756,7 +2768,7 @@
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28">
         <v>14.896466</v>
@@ -2768,22 +2780,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2800,7 +2812,7 @@
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E29">
         <v>13.65099232</v>
@@ -2812,22 +2824,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2844,7 +2856,7 @@
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E30">
         <v>13.7185015</v>
@@ -2856,22 +2868,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I30" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K30" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2888,7 +2900,7 @@
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E31">
         <v>13.7499881</v>
@@ -2903,19 +2915,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2932,7 +2944,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E32">
         <v>13.6910012</v>
@@ -2947,19 +2959,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L32" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2976,7 +2988,7 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33">
         <v>13.7468252</v>
@@ -2991,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J33" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K33" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3020,7 +3032,7 @@
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E34">
         <v>13.7519927</v>
@@ -3032,22 +3044,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I34" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J34" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L34" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3064,7 +3076,7 @@
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35">
         <v>14.1246719</v>
@@ -3076,22 +3088,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J35" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K35" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3108,7 +3120,7 @@
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E36">
         <v>14.1152336</v>
@@ -3120,22 +3132,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I36" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J36" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L36" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3152,7 +3164,7 @@
         <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37">
         <v>13.7449539</v>
@@ -3164,22 +3176,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I37" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J37" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K37" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3196,7 +3208,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E38">
         <v>13.7446331</v>
@@ -3208,22 +3220,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J38" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K38" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L38" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3240,7 +3252,7 @@
         <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E39">
         <v>13.74492074</v>
@@ -3252,22 +3264,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J39" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K39" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L39" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3284,7 +3296,7 @@
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40">
         <v>13.74491756</v>
@@ -3296,22 +3308,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I40" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3328,7 +3340,7 @@
         <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41">
         <v>14.032751</v>
@@ -3340,22 +3352,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I41" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J41" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L41" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3372,7 +3384,7 @@
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42">
         <v>13.8205741</v>
@@ -3384,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3416,7 +3428,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E43">
         <v>13.5440411</v>
@@ -3428,22 +3440,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J43" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L43" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3460,7 +3472,7 @@
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E44">
         <v>13.6211105</v>
@@ -3475,19 +3487,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K44" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L44" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3504,7 +3516,7 @@
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45">
         <v>13.7731761</v>
@@ -3516,22 +3528,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I45" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3548,7 +3560,7 @@
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E46">
         <v>13.74512653</v>
@@ -3560,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I46" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K46" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L46" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3592,7 +3604,7 @@
         <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3604,22 +3616,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J47" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K47" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3636,7 +3648,7 @@
         <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E48">
         <v>13.6212135</v>
@@ -3648,22 +3660,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K48" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L48" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3680,7 +3692,7 @@
         <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E49">
         <v>13.8330877</v>
@@ -3692,22 +3704,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I49" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L49" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3724,7 +3736,7 @@
         <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E50">
         <v>13.7689441</v>
@@ -3736,22 +3748,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I50" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J50" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K50" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L50" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3768,7 +3780,7 @@
         <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51">
         <v>13.84341791</v>
@@ -3780,22 +3792,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I51" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J51" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K51" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L51" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3812,7 +3824,7 @@
         <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E52">
         <v>13.87694672</v>
@@ -3824,22 +3836,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J52" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K52" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L52" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3856,7 +3868,7 @@
         <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E53">
         <v>13.964334</v>
@@ -3868,22 +3880,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I53" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J53" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L53" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3900,7 +3912,7 @@
         <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E54">
         <v>13.65086099</v>
@@ -3912,22 +3924,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I54" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J54" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K54" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L54" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3944,7 +3956,7 @@
         <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E55">
         <v>13.74407838</v>
@@ -3956,22 +3968,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I55" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J55" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K55" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L55" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3988,7 +4000,7 @@
         <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E56">
         <v>14.0782451</v>
@@ -4003,19 +4015,19 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K56" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L56" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4032,7 +4044,7 @@
         <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E57">
         <v>13.86019768</v>
@@ -4044,22 +4056,22 @@
         <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I57" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J57" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L57" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4076,7 +4088,7 @@
         <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E58">
         <v>13.8578211</v>
@@ -4088,22 +4100,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I58" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J58" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K58" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L58" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4120,7 +4132,7 @@
         <v>35</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E59">
         <v>13.85934159</v>
@@ -4132,22 +4144,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I59" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J59" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K59" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L59" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4164,7 +4176,7 @@
         <v>35</v>
       </c>
       <c r="D60" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E60">
         <v>14.119413</v>
@@ -4176,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I60" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J60" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K60" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L60" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4208,7 +4220,7 @@
         <v>35</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E61">
         <v>14.07688153</v>
@@ -4220,22 +4232,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I61" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J61" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K61" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L61" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4252,7 +4264,7 @@
         <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E62">
         <v>13.87779142</v>
@@ -4264,22 +4276,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I62" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K62" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L62" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4296,7 +4308,7 @@
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E63">
         <v>13.88376994</v>
@@ -4308,22 +4320,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I63" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L63" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4340,7 +4352,7 @@
         <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E64">
         <v>13.965066</v>
@@ -4352,22 +4364,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I64" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J64" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K64" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L64" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4384,7 +4396,7 @@
         <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E65">
         <v>14.036373</v>
@@ -4396,22 +4408,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I65" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J65" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K65" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L65" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4428,7 +4440,7 @@
         <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E66">
         <v>13.83669407</v>
@@ -4440,22 +4452,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I66" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J66" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K66" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L66" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4472,7 +4484,7 @@
         <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E67">
         <v>13.99173744</v>
@@ -4484,22 +4496,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I67" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J67" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K67" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L67" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4516,7 +4528,7 @@
         <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E68">
         <v>13.69901194</v>
@@ -4528,22 +4540,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I68" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J68" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L68" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4560,7 +4572,7 @@
         <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E69">
         <v>13.70486214</v>
@@ -4572,22 +4584,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I69" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J69" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K69" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L69" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4604,7 +4616,7 @@
         <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E70">
         <v>13.69115508</v>
@@ -4616,22 +4628,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I70" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J70" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L70" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4648,7 +4660,7 @@
         <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E71">
         <v>13.70976833</v>
@@ -4660,22 +4672,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I71" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L71" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4692,7 +4704,7 @@
         <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E72">
         <v>13.71466823</v>
@@ -4704,22 +4716,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I72" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J72" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K72" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L72" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4736,7 +4748,7 @@
         <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E73">
         <v>14.1487352</v>
@@ -4748,22 +4760,22 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I73" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J73" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K73" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L73" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4780,7 +4792,7 @@
         <v>37</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E74">
         <v>13.8057625</v>
@@ -4792,22 +4804,22 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I74" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J74" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L74" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4824,7 +4836,7 @@
         <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E75">
         <v>14.01215068</v>
@@ -4836,22 +4848,22 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I75" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J75" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L75" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4868,7 +4880,7 @@
         <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E76">
         <v>13.8134088</v>
@@ -4880,22 +4892,22 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I76" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J76" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K76" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L76" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4912,7 +4924,7 @@
         <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E77">
         <v>13.816493</v>
@@ -4924,22 +4936,22 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I77" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J77" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K77" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L77" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N77">
         <v>0</v>
@@ -4956,7 +4968,7 @@
         <v>37</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E78">
         <v>13.7966595</v>
@@ -4968,22 +4980,22 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I78" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J78" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K78" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L78" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -5000,7 +5012,7 @@
         <v>37</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E79">
         <v>13.69121688</v>
@@ -5012,22 +5024,22 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I79" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J79" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K79" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L79" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -5044,7 +5056,7 @@
         <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E80">
         <v>13.79584</v>
@@ -5056,22 +5068,22 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I80" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J80" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K80" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L80" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N80">
         <v>0</v>
@@ -5088,7 +5100,7 @@
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E81">
         <v>13.80564274</v>
@@ -5100,22 +5112,22 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I81" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J81" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K81" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L81" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -5132,7 +5144,7 @@
         <v>37</v>
       </c>
       <c r="D82" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E82">
         <v>13.77870414</v>
@@ -5144,22 +5156,22 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I82" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J82" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K82" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L82" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N82">
         <v>0</v>
@@ -5176,7 +5188,7 @@
         <v>37</v>
       </c>
       <c r="D83" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E83">
         <v>13.61347071</v>
@@ -5188,22 +5200,22 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I83" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J83" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K83" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L83" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -5220,7 +5232,7 @@
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E84">
         <v>13.70935</v>
@@ -5232,22 +5244,22 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I84" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J84" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K84" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L84" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N84">
         <v>0</v>
@@ -5264,7 +5276,7 @@
         <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E85">
         <v>13.78281463</v>
@@ -5276,22 +5288,22 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I85" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J85" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K85" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L85" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -5308,7 +5320,7 @@
         <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E86">
         <v>13.73739373</v>
@@ -5320,22 +5332,22 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I86" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J86" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K86" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L86" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N86">
         <v>0</v>
@@ -5352,7 +5364,7 @@
         <v>37</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E87">
         <v>13.71433565</v>
@@ -5364,22 +5376,22 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I87" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J87" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K87" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L87" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -5396,7 +5408,7 @@
         <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E88">
         <v>13.71020819</v>
@@ -5408,22 +5420,22 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I88" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J88" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K88" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L88" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N88">
         <v>0</v>
@@ -5440,7 +5452,7 @@
         <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E89">
         <v>13.63894185</v>
@@ -5452,22 +5464,22 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I89" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J89" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K89" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L89" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -5484,7 +5496,7 @@
         <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E90">
         <v>13.5579068</v>
@@ -5499,19 +5511,19 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J90" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K90" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L90" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5528,7 +5540,7 @@
         <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E91">
         <v>13.7937004</v>
@@ -5540,22 +5552,22 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I91" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J91" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K91" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L91" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N91">
         <v>0</v>
@@ -5572,7 +5584,7 @@
         <v>38</v>
       </c>
       <c r="D92" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E92">
         <v>13.5455607</v>
@@ -5584,22 +5596,22 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J92" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K92" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L92" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5616,7 +5628,7 @@
         <v>38</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E93">
         <v>14.3355326</v>
@@ -5631,19 +5643,19 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J93" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K93" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L93" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5660,7 +5672,7 @@
         <v>38</v>
       </c>
       <c r="D94" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E94">
         <v>14.5786407</v>
@@ -5675,19 +5687,19 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J94" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K94" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L94" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N94">
         <v>0</v>
@@ -5704,7 +5716,7 @@
         <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E95">
         <v>14.5116599</v>
@@ -5719,19 +5731,19 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J95" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K95" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L95" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N95">
         <v>0</v>
@@ -5748,7 +5760,7 @@
         <v>38</v>
       </c>
       <c r="D96" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E96">
         <v>14.1378761</v>
@@ -5763,19 +5775,19 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J96" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K96" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L96" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5792,7 +5804,7 @@
         <v>38</v>
       </c>
       <c r="D97" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E97">
         <v>14.06566869</v>
@@ -5804,22 +5816,22 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I97" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J97" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K97" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L97" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="N97">
         <v>0</v>
@@ -5836,7 +5848,7 @@
         <v>38</v>
       </c>
       <c r="D98" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E98">
         <v>13.8220612</v>
@@ -5848,22 +5860,22 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I98" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J98" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K98" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L98" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N98">
         <v>0</v>
@@ -5880,7 +5892,7 @@
         <v>38</v>
       </c>
       <c r="D99" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E99">
         <v>13.8683169</v>
@@ -5892,22 +5904,22 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I99" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J99" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K99" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L99" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N99">
         <v>0</v>
@@ -5924,7 +5936,7 @@
         <v>38</v>
       </c>
       <c r="D100" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E100">
         <v>13.89757086</v>
@@ -5936,22 +5948,22 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I100" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J100" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K100" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L100" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -5968,7 +5980,7 @@
         <v>38</v>
       </c>
       <c r="D101" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E101">
         <v>13.72045903</v>
@@ -5980,22 +5992,22 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I101" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J101" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K101" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L101" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -6012,7 +6024,7 @@
         <v>38</v>
       </c>
       <c r="D102" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E102">
         <v>13.817137</v>
@@ -6024,22 +6036,22 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I102" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J102" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K102" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L102" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N102">
         <v>0</v>
@@ -6056,7 +6068,7 @@
         <v>38</v>
       </c>
       <c r="D103" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E103">
         <v>13.737328</v>
@@ -6068,22 +6080,22 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I103" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J103" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L103" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N103">
         <v>0</v>
@@ -6100,7 +6112,7 @@
         <v>38</v>
       </c>
       <c r="D104" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E104">
         <v>14.021384</v>
@@ -6112,22 +6124,22 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I104" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J104" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K104" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L104" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6144,7 +6156,7 @@
         <v>38</v>
       </c>
       <c r="D105" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E105">
         <v>13.82347979</v>
@@ -6156,22 +6168,22 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I105" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J105" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K105" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L105" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -6188,7 +6200,7 @@
         <v>38</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E106">
         <v>13.82622351</v>
@@ -6200,22 +6212,22 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I106" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J106" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K106" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L106" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N106">
         <v>0</v>
@@ -6232,7 +6244,7 @@
         <v>38</v>
       </c>
       <c r="D107" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E107">
         <v>13.71100665</v>
@@ -6244,22 +6256,22 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I107" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J107" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K107" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L107" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -6276,7 +6288,7 @@
         <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E108">
         <v>13.81780926</v>
@@ -6288,22 +6300,22 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I108" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J108" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K108" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L108" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N108">
         <v>0</v>
@@ -6320,7 +6332,7 @@
         <v>38</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E109">
         <v>13.95701015</v>
@@ -6332,22 +6344,22 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I109" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J109" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K109" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L109" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N109">
         <v>0</v>
@@ -6364,7 +6376,7 @@
         <v>38</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E110">
         <v>14.06478568</v>
@@ -6376,22 +6388,22 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I110" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J110" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K110" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L110" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N110">
         <v>0</v>
@@ -6408,7 +6420,7 @@
         <v>38</v>
       </c>
       <c r="D111" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E111">
         <v>13.73106738</v>
@@ -6420,22 +6432,22 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I111" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J111" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K111" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L111" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -6452,7 +6464,7 @@
         <v>38</v>
       </c>
       <c r="D112" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E112">
         <v>13.8122326</v>
@@ -6464,22 +6476,22 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I112" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J112" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K112" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L112" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6496,7 +6508,7 @@
         <v>38</v>
       </c>
       <c r="D113" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E113">
         <v>13.69415224</v>
@@ -6508,22 +6520,22 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I113" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J113" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K113" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L113" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6540,7 +6552,7 @@
         <v>38</v>
       </c>
       <c r="D114" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E114">
         <v>13.80243028</v>
@@ -6552,22 +6564,22 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I114" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J114" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K114" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L114" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N114">
         <v>0</v>
@@ -6584,7 +6596,7 @@
         <v>38</v>
       </c>
       <c r="D115" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E115">
         <v>13.82571976</v>
@@ -6596,22 +6608,22 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I115" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J115" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K115" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L115" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N115">
         <v>0</v>
@@ -6628,7 +6640,7 @@
         <v>38</v>
       </c>
       <c r="D116" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E116">
         <v>13.83106898</v>
@@ -6640,22 +6652,22 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I116" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J116" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K116" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L116" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6672,7 +6684,7 @@
         <v>39</v>
       </c>
       <c r="D117" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E117">
         <v>13.8781452</v>
@@ -6684,22 +6696,22 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I117" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J117" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K117" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L117" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6716,7 +6728,7 @@
         <v>39</v>
       </c>
       <c r="D118" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E118">
         <v>13.7164198</v>
@@ -6728,22 +6740,22 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I118" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J118" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K118" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L118" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6760,7 +6772,7 @@
         <v>39</v>
       </c>
       <c r="D119" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E119">
         <v>13.70807262</v>
@@ -6772,22 +6784,22 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I119" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J119" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K119" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L119" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6804,7 +6816,7 @@
         <v>39</v>
       </c>
       <c r="D120" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E120">
         <v>13.78051515</v>
@@ -6816,22 +6828,22 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I120" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J120" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K120" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L120" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6848,7 +6860,7 @@
         <v>39</v>
       </c>
       <c r="D121" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E121">
         <v>13.7355293</v>
@@ -6860,22 +6872,22 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I121" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J121" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K121" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L121" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6892,7 +6904,7 @@
         <v>39</v>
       </c>
       <c r="D122" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E122">
         <v>13.73406154</v>
@@ -6904,22 +6916,22 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I122" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J122" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K122" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L122" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6936,7 +6948,7 @@
         <v>39</v>
       </c>
       <c r="D123" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E123">
         <v>13.7738673</v>
@@ -6948,22 +6960,22 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I123" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J123" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K123" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L123" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6980,7 +6992,7 @@
         <v>39</v>
       </c>
       <c r="D124" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E124">
         <v>13.82650614</v>
@@ -6992,22 +7004,22 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I124" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J124" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K124" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L124" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -7024,7 +7036,7 @@
         <v>40</v>
       </c>
       <c r="D125" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E125">
         <v>13.73541413</v>
@@ -7039,19 +7051,19 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J125" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K125" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L125" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -7068,7 +7080,7 @@
         <v>40</v>
       </c>
       <c r="D126" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E126">
         <v>13.78766192</v>
@@ -7083,19 +7095,19 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J126" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K126" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L126" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N126">
         <v>0</v>
@@ -7112,7 +7124,7 @@
         <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E127">
         <v>13.5951449</v>
@@ -7124,22 +7136,22 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I127" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J127" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K127" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L127" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -7156,7 +7168,7 @@
         <v>40</v>
       </c>
       <c r="D128" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E128">
         <v>13.803038</v>
@@ -7168,22 +7180,22 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I128" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J128" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K128" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L128" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -7200,7 +7212,7 @@
         <v>40</v>
       </c>
       <c r="D129" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E129">
         <v>13.802143</v>
@@ -7212,22 +7224,22 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I129" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J129" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K129" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L129" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -7244,7 +7256,7 @@
         <v>40</v>
       </c>
       <c r="D130" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E130">
         <v>13.928974</v>
@@ -7256,22 +7268,22 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I130" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J130" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K130" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L130" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -7288,7 +7300,7 @@
         <v>40</v>
       </c>
       <c r="D131" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E131">
         <v>13.929686</v>
@@ -7300,22 +7312,22 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I131" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J131" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K131" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L131" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -7332,7 +7344,7 @@
         <v>40</v>
       </c>
       <c r="D132" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E132">
         <v>13.76033018</v>
@@ -7344,22 +7356,22 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I132" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J132" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K132" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L132" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7376,7 +7388,7 @@
         <v>40</v>
       </c>
       <c r="D133" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E133">
         <v>13.82853997</v>
@@ -7388,22 +7400,22 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I133" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J133" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K133" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L133" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7420,7 +7432,7 @@
         <v>40</v>
       </c>
       <c r="D134" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E134">
         <v>14.01020378</v>
@@ -7432,22 +7444,22 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I134" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J134" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K134" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L134" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -7464,7 +7476,7 @@
         <v>40</v>
       </c>
       <c r="D135" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E135">
         <v>14.04839109</v>
@@ -7476,22 +7488,22 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I135" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J135" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K135" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L135" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7508,7 +7520,7 @@
         <v>40</v>
       </c>
       <c r="D136" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E136">
         <v>13.80175861</v>
@@ -7520,22 +7532,22 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I136" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J136" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K136" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L136" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7552,7 +7564,7 @@
         <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E137">
         <v>13.7462524</v>
@@ -7567,19 +7579,19 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J137" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K137" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L137" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7596,7 +7608,7 @@
         <v>41</v>
       </c>
       <c r="D138" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E138">
         <v>13.7243591</v>
@@ -7611,19 +7623,19 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J138" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K138" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L138" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7640,7 +7652,7 @@
         <v>41</v>
       </c>
       <c r="D139" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E139">
         <v>13.54974685</v>
@@ -7652,22 +7664,22 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I139" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J139" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K139" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L139" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N139">
         <v>0</v>
@@ -7684,7 +7696,7 @@
         <v>41</v>
       </c>
       <c r="D140" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E140">
         <v>14.45160513</v>
@@ -7696,22 +7708,22 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I140" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J140" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K140" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L140" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7728,7 +7740,7 @@
         <v>41</v>
       </c>
       <c r="D141" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E141">
         <v>13.72836497</v>
@@ -7740,22 +7752,22 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I141" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J141" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K141" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L141" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7772,7 +7784,7 @@
         <v>41</v>
       </c>
       <c r="D142" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E142">
         <v>13.7660558</v>
@@ -7784,22 +7796,22 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I142" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J142" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K142" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L142" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7816,7 +7828,7 @@
         <v>41</v>
       </c>
       <c r="D143" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E143">
         <v>13.710361</v>
@@ -7828,22 +7840,22 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I143" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J143" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K143" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L143" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7860,7 +7872,7 @@
         <v>41</v>
       </c>
       <c r="D144" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E144">
         <v>13.2054213</v>
@@ -7875,19 +7887,19 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J144" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K144" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L144" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N144">
         <v>0</v>
@@ -7904,7 +7916,7 @@
         <v>41</v>
       </c>
       <c r="D145" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E145">
         <v>13.7100705</v>
@@ -7928,10 +7940,10 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N145">
         <v>0</v>
@@ -7948,7 +7960,7 @@
         <v>41</v>
       </c>
       <c r="D146" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -7960,22 +7972,22 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I146" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J146" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K146" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L146" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7992,7 +8004,7 @@
         <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E147">
         <v>13.802283</v>
@@ -8004,22 +8016,22 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I147" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J147" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K147" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L147" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N147">
         <v>0</v>
@@ -8036,7 +8048,7 @@
         <v>41</v>
       </c>
       <c r="D148" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E148">
         <v>13.91857</v>
@@ -8048,22 +8060,22 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I148" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J148" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K148" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L148" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N148">
         <v>0</v>
@@ -8080,7 +8092,7 @@
         <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E149">
         <v>13.6171972</v>
@@ -8092,22 +8104,22 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I149" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J149" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K149" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L149" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -8124,7 +8136,7 @@
         <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E150">
         <v>12.66469676</v>
@@ -8136,22 +8148,22 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I150" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J150" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K150" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L150" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -8168,7 +8180,7 @@
         <v>42</v>
       </c>
       <c r="D151" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E151">
         <v>13.721681</v>
@@ -8180,22 +8192,22 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I151" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J151" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K151" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L151" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8212,7 +8224,7 @@
         <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E152">
         <v>13.9134431</v>
@@ -8224,22 +8236,22 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I152" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J152" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K152" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L152" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -8256,7 +8268,7 @@
         <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E153">
         <v>13.786588</v>
@@ -8268,22 +8280,22 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I153" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J153" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K153" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L153" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8300,7 +8312,7 @@
         <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E154">
         <v>13.65357633</v>
@@ -8312,22 +8324,22 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I154" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J154" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K154" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L154" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8344,7 +8356,7 @@
         <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E155">
         <v>13.81456113</v>
@@ -8356,22 +8368,22 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I155" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J155" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K155" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L155" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="N155">
         <v>0</v>
@@ -8388,7 +8400,7 @@
         <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E156">
         <v>12.68783188</v>
@@ -8400,22 +8412,22 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I156" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J156" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K156" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L156" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8432,7 +8444,7 @@
         <v>42</v>
       </c>
       <c r="D157" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E157">
         <v>13.67342423</v>
@@ -8444,22 +8456,22 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I157" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J157" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K157" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L157" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8476,7 +8488,7 @@
         <v>42</v>
       </c>
       <c r="D158" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E158">
         <v>13.6680206</v>
@@ -8488,22 +8500,22 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I158" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J158" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K158" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L158" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8520,7 +8532,7 @@
         <v>43</v>
       </c>
       <c r="D159" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E159">
         <v>13.924252</v>
@@ -8532,22 +8544,22 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I159" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J159" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K159" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L159" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N159">
         <v>0</v>
@@ -8564,7 +8576,7 @@
         <v>43</v>
       </c>
       <c r="D160" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E160">
         <v>12.69670286</v>
@@ -8576,22 +8588,22 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I160" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J160" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K160" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L160" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N160">
         <v>0</v>
@@ -8608,7 +8620,7 @@
         <v>43</v>
       </c>
       <c r="D161" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E161">
         <v>12.69574994</v>
@@ -8620,22 +8632,22 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I161" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J161" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K161" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L161" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N161">
         <v>0</v>
@@ -8652,7 +8664,7 @@
         <v>44</v>
       </c>
       <c r="D162" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E162">
         <v>13.7636001</v>
@@ -8673,13 +8685,13 @@
         <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L162" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N162">
         <v>0</v>
@@ -8696,7 +8708,7 @@
         <v>44</v>
       </c>
       <c r="D163" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E163">
         <v>13.734066</v>
@@ -8720,10 +8732,10 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="N163">
         <v>0</v>
@@ -8740,7 +8752,7 @@
         <v>44</v>
       </c>
       <c r="D164" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E164">
         <v>12.6483736</v>
@@ -8764,10 +8776,10 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8784,7 +8796,7 @@
         <v>44</v>
       </c>
       <c r="D165" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E165">
         <v>12.69691038</v>
@@ -8796,22 +8808,22 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I165" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J165" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K165" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L165" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8828,7 +8840,7 @@
         <v>44</v>
       </c>
       <c r="D166" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E166">
         <v>12.66695256</v>
@@ -8840,22 +8852,22 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I166" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J166" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K166" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L166" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8872,7 +8884,7 @@
         <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E167">
         <v>12.6844183</v>
@@ -8893,13 +8905,13 @@
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L167" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N167">
         <v>0</v>
@@ -8916,7 +8928,7 @@
         <v>45</v>
       </c>
       <c r="D168" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E168">
         <v>12.9730033</v>
@@ -8937,13 +8949,13 @@
         <v>0</v>
       </c>
       <c r="K168" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L168" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="N168">
         <v>0</v>
@@ -8960,7 +8972,7 @@
         <v>45</v>
       </c>
       <c r="D169" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E169">
         <v>13.7946069</v>
@@ -8981,13 +8993,13 @@
         <v>0</v>
       </c>
       <c r="K169" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L169" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -9004,7 +9016,7 @@
         <v>45</v>
       </c>
       <c r="D170" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E170">
         <v>13.54448567</v>
@@ -9016,22 +9028,22 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I170" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J170" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K170" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L170" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -9042,40 +9054,40 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C171" t="s">
         <v>46</v>
       </c>
       <c r="D171" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E171">
-        <v>12.9098775</v>
+        <v>13.73545544</v>
       </c>
       <c r="F171">
-        <v>100.891563</v>
+        <v>100.5661584</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I171" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J171" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K171" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L171" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N171">
         <v>0</v>
@@ -9089,37 +9101,37 @@
         <v>17</v>
       </c>
       <c r="C172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D172" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E172">
-        <v>13.3535702</v>
+        <v>12.9098775</v>
       </c>
       <c r="F172">
-        <v>100.9765439</v>
+        <v>100.891563</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
-      <c r="H172">
-        <v>0</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
+      <c r="H172" t="s">
+        <v>223</v>
+      </c>
+      <c r="I172" t="s">
+        <v>224</v>
+      </c>
+      <c r="J172" t="s">
+        <v>226</v>
       </c>
       <c r="K172" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L172" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -9130,19 +9142,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D173" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E173">
-        <v>12.948902</v>
+        <v>13.3535702</v>
       </c>
       <c r="F173">
-        <v>100.891292</v>
+        <v>100.9765439</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -9157,13 +9169,13 @@
         <v>0</v>
       </c>
       <c r="K173" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L173" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="N173">
         <v>0</v>
@@ -9174,19 +9186,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D174" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E174">
-        <v>12.6495877</v>
+        <v>12.948902</v>
       </c>
       <c r="F174">
-        <v>102.0329425</v>
+        <v>100.891292</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -9201,13 +9213,13 @@
         <v>0</v>
       </c>
       <c r="K174" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L174" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N174">
         <v>0</v>
@@ -9221,16 +9233,16 @@
         <v>17</v>
       </c>
       <c r="C175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D175" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E175">
-        <v>12.3757564</v>
+        <v>12.6495877</v>
       </c>
       <c r="F175">
-        <v>102.3818628</v>
+        <v>102.0329425</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -9245,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="K175" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L175" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="N175">
         <v>0</v>
@@ -9265,16 +9277,16 @@
         <v>17</v>
       </c>
       <c r="C176" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D176" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E176">
-        <v>12.7246169</v>
+        <v>12.3757564</v>
       </c>
       <c r="F176">
-        <v>101.9362794</v>
+        <v>102.3818628</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -9289,13 +9301,13 @@
         <v>0</v>
       </c>
       <c r="K176" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L176" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9306,42 +9318,86 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177" t="s">
+        <v>47</v>
+      </c>
+      <c r="D177" t="s">
+        <v>219</v>
+      </c>
+      <c r="E177">
+        <v>12.7246169</v>
+      </c>
+      <c r="F177">
+        <v>101.9362794</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177" t="s">
+        <v>223</v>
+      </c>
+      <c r="L177" t="s">
+        <v>324</v>
+      </c>
+      <c r="M177" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
         <v>14</v>
       </c>
-      <c r="C177" t="s">
-        <v>46</v>
-      </c>
-      <c r="D177" t="s">
-        <v>218</v>
-      </c>
-      <c r="E177">
+      <c r="C178" t="s">
+        <v>47</v>
+      </c>
+      <c r="D178" t="s">
+        <v>220</v>
+      </c>
+      <c r="E178">
         <v>13.772986</v>
       </c>
-      <c r="F177">
+      <c r="F178">
         <v>100.4855148</v>
       </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>0</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177" t="s">
-        <v>221</v>
-      </c>
-      <c r="L177" t="s">
-        <v>322</v>
-      </c>
-      <c r="M177" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="N177">
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178" t="s">
+        <v>223</v>
+      </c>
+      <c r="L178" t="s">
+        <v>325</v>
+      </c>
+      <c r="M178" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="N178">
         <v>0</v>
       </c>
     </row>
@@ -9523,6 +9579,7 @@
     <hyperlink ref="M175" r:id="rId174"/>
     <hyperlink ref="M176" r:id="rId175"/>
     <hyperlink ref="M177" r:id="rId176"/>
+    <hyperlink ref="M178" r:id="rId177"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -604,7 +604,7 @@
     <t>ศูนย์การแพทย์กาญจนาภิเษก อ.พุทธมณฑล</t>
   </si>
   <si>
-    <t>ตลาดท่าข้าม</t>
+    <t>ตลาดท่าข้าม อ.นครชัยศรี</t>
   </si>
   <si>
     <t>ตลาดปฐมมงคล</t>
@@ -8306,7 +8306,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C154" t="s">
         <v>42</v>
@@ -8315,10 +8315,10 @@
         <v>196</v>
       </c>
       <c r="E154">
-        <v>13.65357633</v>
+        <v>13.8017434</v>
       </c>
       <c r="F154">
-        <v>100.4481482</v>
+        <v>100.1879465</v>
       </c>
       <c r="G154">
         <v>0</v>

--- a/dataset/xlsx/covid-tracker.xlsx
+++ b/dataset/xlsx/covid-tracker.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="457">
   <si>
     <t>id</t>
   </si>
@@ -367,6 +367,9 @@
     <t>ร้านอาหาร คาราโอเกะ ใบไม้ร่าเริง</t>
   </si>
   <si>
+    <t>หมูกระทะ ร้านอิกคิว จรัญสนิทวงศ์</t>
+  </si>
+  <si>
     <t>ตลาดหมู่บ้านศรีทอง จ.อยุธยา</t>
   </si>
   <si>
@@ -493,6 +496,9 @@
     <t>วัดบางม่วง</t>
   </si>
   <si>
+    <t>สนามฟุตบอลหญ้าเทียม BQ เพชรเกษม 68</t>
+  </si>
+  <si>
     <t>ร้านก๋วยเตี๋ยว ในตลาดบางใหญ่</t>
   </si>
   <si>
@@ -517,6 +523,9 @@
     <t>เลอ ปา สิริ พระราม5</t>
   </si>
   <si>
+    <t>Mคอนโด จตุจักร</t>
+  </si>
+  <si>
     <t>Lamptitude สาขาเอกมัย</t>
   </si>
   <si>
@@ -553,6 +562,9 @@
     <t>แมคโคร ศาลายา</t>
   </si>
   <si>
+    <t>ตลาดมิตรมงคล เขตบางขุนเทียน</t>
+  </si>
+  <si>
     <t>Siam Center</t>
   </si>
   <si>
@@ -595,6 +607,12 @@
     <t>ม.ร.ภ. รำไพพรรณี</t>
   </si>
   <si>
+    <t>วัดศิริพงษ์</t>
+  </si>
+  <si>
+    <t>บ้านเด็กพิการซ้ำซ้อน รามอินทรา</t>
+  </si>
+  <si>
     <t>สาธร ซิตี้ ทาวเวอร์</t>
   </si>
   <si>
@@ -619,6 +637,15 @@
     <t>บิ๊กซี บางนา</t>
   </si>
   <si>
+    <t>มิสตา คาเฟ่ ถ.สุขาภิบาล 5</t>
+  </si>
+  <si>
+    <t>ตลาดสินรวยดี เพชรเกษม41</t>
+  </si>
+  <si>
+    <t>บริษัทเมืองไทยแคปปิตอล ปากซอยจรัญ49</t>
+  </si>
+  <si>
     <t xml:space="preserve">JW Condo @Donmuang </t>
   </si>
   <si>
@@ -628,6 +655,18 @@
     <t>TOPS เซ็นทรัลระยอง</t>
   </si>
   <si>
+    <t>mrt บางแค</t>
+  </si>
+  <si>
+    <t>mrt เตาปูน</t>
+  </si>
+  <si>
+    <t>ห้างตั้งฮั่วเส็ง</t>
+  </si>
+  <si>
+    <t>BBQ Plaza เซ็นทรัลปิ่นเกล้า</t>
+  </si>
+  <si>
     <t>ทำเนียบรัฐบาล</t>
   </si>
   <si>
@@ -643,6 +682,9 @@
     <t>โรงเรียน ระยองวิทยาคม</t>
   </si>
   <si>
+    <t>ร้านบ้านสวนสิริน ถ.วัชรพล</t>
+  </si>
+  <si>
     <t>สถานที่ลักลอบเล่นการพนัน บขส. อ.เมือง จ.ระยอง</t>
   </si>
   <si>
@@ -655,6 +697,9 @@
     <t>ร้านท่าเรือภัตตาคาร มหาชัย</t>
   </si>
   <si>
+    <t>ตลาดบางบอน</t>
+  </si>
+  <si>
     <t>อาคารนานมีบุ๊คส์ สุขุมวิท31</t>
   </si>
   <si>
@@ -679,6 +724,120 @@
     <t>ร้านน้องใหม่ พลาซ่า</t>
   </si>
   <si>
+    <t>ตู้มวยเทพประสิทธิ์ อ.บางละมุง</t>
+  </si>
+  <si>
+    <t>ศาลจังหวัด พัทยา อ.บางละมุง</t>
+  </si>
+  <si>
+    <t>Lek Hotel พัทยาสาย 2 อ.บางละมุง</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงไทย หมู่5 อ.สัตหีบ</t>
+  </si>
+  <si>
+    <t>ศูนย์สุขภาพชุมชนตำบลสัตหีบ</t>
+  </si>
+  <si>
+    <t>ศาลเจ้านาจา ต.อ่างศิลา อ.เมือง</t>
+  </si>
+  <si>
+    <t>ร้านอาหารเอ็มเค เซ็นทรัลชลบุรี</t>
+  </si>
+  <si>
+    <t>ตลาดเห่าดง ต.ห้วยใหญ่ อ.บางละมุง</t>
+  </si>
+  <si>
+    <t>ตลาดประมงอ่างศิลา อ.เมือง</t>
+  </si>
+  <si>
+    <t>นาริ บุฟเฟ่ต์ อ.เมือง</t>
+  </si>
+  <si>
+    <t>ร้านเสือโหย อ.เมืองระยอง</t>
+  </si>
+  <si>
+    <t>ร้านอาหารในโรงภาพยนตร์เทศบันเทิง อ.เมืองระยอง</t>
+  </si>
+  <si>
+    <t>สนามแบดมินตัน ทไวไลน์คอร์ท ใกล้ รพ.กรุงเทพระยอง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flick ผับ </t>
+  </si>
+  <si>
+    <t>ตลาดวัดลุ่ม</t>
+  </si>
+  <si>
+    <t>โรงเรียนมัธยมตากสินระยอง ห้อง ม.4/12</t>
+  </si>
+  <si>
+    <t>สถานีขนส่งจันทบุรี</t>
+  </si>
+  <si>
+    <t>วัดป่าคลองกุ้ง</t>
+  </si>
+  <si>
+    <t>ร้านเจ๊แต๋น เสริมสวย นาเกลือ</t>
+  </si>
+  <si>
+    <t>อพาร์ทเมนท์วีพีสุขเกษม</t>
+  </si>
+  <si>
+    <t>ตลาดไร่วนาสินธุ์</t>
+  </si>
+  <si>
+    <t>ร้าน TA Phone เซ็นทรัลเฟสพัทยา</t>
+  </si>
+  <si>
+    <t>เซเว่น ปากซอยสุขุมวิท53 เนินพลับพลา</t>
+  </si>
+  <si>
+    <t>ร้านมิกซ์ 37 พัทยากลาง</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงไทย เนินพลับหวาน</t>
+  </si>
+  <si>
+    <t>เดอะ กลาสเฮาส์ นาจอมเทียน</t>
+  </si>
+  <si>
+    <t>ตลาดเคหะเทพประสิทธิ์</t>
+  </si>
+  <si>
+    <t>วัดหลวงพ่ออี๋</t>
+  </si>
+  <si>
+    <t>ร้าน Chester Grill โลตัสพัทยาเหนือ</t>
+  </si>
+  <si>
+    <t>ตลาดหน้าวัดหนองเกตุใหญ่</t>
+  </si>
+  <si>
+    <t>อพาร์ทเมนท์สแปนิชเพลส</t>
+  </si>
+  <si>
+    <t>ตลาดนัดสระบัวหนองเกตุใหญ่</t>
+  </si>
+  <si>
+    <t>ตลาดนัดทางรถไฟหนองเกตุใหญ่</t>
+  </si>
+  <si>
+    <t>ตลาดโรงโป๊ะ</t>
+  </si>
+  <si>
+    <t>ตลาดโพธิสาร</t>
+  </si>
+  <si>
+    <t>ร้านบุญถาวร สาขาพัทยา</t>
+  </si>
+  <si>
+    <t>ร้านบุญถาวร สาขาสัตหีบ</t>
+  </si>
+  <si>
+    <t>ร้านสเต็ก 700 ไร่</t>
+  </si>
+  <si>
     <t>male</t>
   </si>
   <si>
@@ -847,6 +1006,9 @@
     <t>ผู้ป่วยโควิด-19 จังหวัดนครปฐม รายที่38-53</t>
   </si>
   <si>
+    <t>Timeline ผู้ติดเชื้อที่อยู่ใน กทม.</t>
+  </si>
+  <si>
     <t>พบผู้ป่วยติดเชื้อโควิด-19 ไม่มีอาการ จำนวน 1 ราย เป็นหญิง เดินทางกลับมาจากการไปทำงานที่ร้านเสริมสวยใน จ.เชียงใหม่</t>
   </si>
   <si>
@@ -946,6 +1108,9 @@
     <t>ผู้ป่วยโควิด-19 ครูระยองวิทยาคม</t>
   </si>
   <si>
+    <t>เปิด Timeline​ ผู้ติดเชื้อ​ สายไหม​ รายที่ 4</t>
+  </si>
+  <si>
     <t>พนักงานสาธรซิตี้ ทาวเวอร์ ติดโควิด</t>
   </si>
   <si>
@@ -994,6 +1159,18 @@
     <t>พบการระบาดในหมู่นักเที่ยวสถานบันเทิง</t>
   </si>
   <si>
+    <t>รวมสถานที่เสี่ยง COVID-19 ในเขตภาคตะวันออก จ.ชลบุรี</t>
+  </si>
+  <si>
+    <t>รวมสถานที่เสี่ยง COVID-19 ในเขตภาคตะวันออก จ.ระยอง</t>
+  </si>
+  <si>
+    <t>รวมสถานที่เสี่ยง COVID-19 ในเขตภาคตะวันออก จ.จันทบุรี</t>
+  </si>
+  <si>
+    <t>ท่านใดเดินทางไปยังสถานที่ ในวันและเวลา ดังต่อไปนี้ หากมีอาการผิดปกติทางระบบทางเดินหายใจภายใน 14 วัน นับจากวันที่ไปสถานที่ดังกล่าว ติดต่อโรงพยาบาลรัฐในพื้นที่ของท่านทันที หรือโทรสายด่วน!!! 038-119-777</t>
+  </si>
+  <si>
     <t>https://www.facebook.com/onenews31/posts/3330353970386388</t>
   </si>
   <si>
@@ -1081,6 +1258,9 @@
     <t>https://www.bangkokbiznews.com/news/detail/914766</t>
   </si>
   <si>
+    <t>https://www.facebook.com/prbangkok/posts/3125681800864753</t>
+  </si>
+  <si>
     <t>https://www.matichon.co.th/covid19/thai-covid19/news_2492767</t>
   </si>
   <si>
@@ -1156,6 +1336,9 @@
     <t>https://thethaiger.com/th/news/396105/</t>
   </si>
   <si>
+    <t>https://www.facebook.com/saimaitongrot/photos/a.105315881483233/107708831243938/</t>
+  </si>
+  <si>
     <t>https://www.matichon.co.th/covid19/news_2500693</t>
   </si>
   <si>
@@ -1193,6 +1376,15 @@
   </si>
   <si>
     <t>https://www.facebook.com/697561723/posts/10157849125566724/?d=n</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/cbhfanpage/photos/a.569788396433870/3675630602516285/?type=3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/v.khunplome/photos/a.108967520710932/214330606841289</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/v.khunplome/photos/a.108967524044265/214275353513481/?type=3</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:N231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1645,13 +1837,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L2" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1689,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L3" t="s">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1733,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L4" t="s">
-        <v>229</v>
+        <v>282</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1777,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L5" t="s">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1821,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L6" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1856,22 +2048,22 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I7" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J7" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K7" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L7" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1900,22 +2092,22 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I8" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J8" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K8" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L8" t="s">
-        <v>233</v>
+        <v>286</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1944,22 +2136,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I9" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J9" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K9" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L9" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1988,22 +2180,22 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I10" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J10" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K10" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L10" t="s">
-        <v>235</v>
+        <v>288</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2032,22 +2224,22 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I11" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J11" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K11" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L11" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2076,22 +2268,22 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I12" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J12" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K12" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L12" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2120,22 +2312,22 @@
         <v>29</v>
       </c>
       <c r="H13" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I13" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J13" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K13" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L13" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>333</v>
+        <v>392</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2164,22 +2356,22 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I14" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J14" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K14" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L14" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2208,22 +2400,22 @@
         <v>29</v>
       </c>
       <c r="H15" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I15" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J15" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K15" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L15" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2252,22 +2444,22 @@
         <v>29</v>
       </c>
       <c r="H16" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I16" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J16" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K16" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L16" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2296,22 +2488,22 @@
         <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I17" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J17" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K17" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L17" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2340,22 +2532,22 @@
         <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I18" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J18" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K18" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L18" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2384,22 +2576,22 @@
         <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I19" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J19" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K19" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L19" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2428,22 +2620,22 @@
         <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I20" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J20" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K20" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L20" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2472,22 +2664,22 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I21" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J21" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K21" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L21" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2516,22 +2708,22 @@
         <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I22" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J22" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L22" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2560,22 +2752,22 @@
         <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L23" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2604,22 +2796,22 @@
         <v>28</v>
       </c>
       <c r="H24" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I24" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J24" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K24" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L24" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>334</v>
+        <v>393</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2648,22 +2840,22 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K25" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2692,22 +2884,22 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K26" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2736,22 +2928,22 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I27" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J27" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K27" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2780,22 +2972,22 @@
         <v>51</v>
       </c>
       <c r="H28" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I28" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2824,22 +3016,22 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J29" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2868,22 +3060,22 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I30" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J30" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K30" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2915,19 +3107,19 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K31" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2959,19 +3151,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J32" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3003,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J33" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -3044,22 +3236,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I34" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -3088,22 +3280,22 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I35" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J35" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K35" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -3132,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I36" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J36" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -3176,22 +3368,22 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J37" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -3220,22 +3412,22 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I38" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J38" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K38" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>342</v>
+        <v>401</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -3264,22 +3456,22 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I39" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J39" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K39" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L39" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
       <c r="N39">
         <v>0</v>
@@ -3308,22 +3500,22 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I40" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J40" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K40" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>344</v>
+        <v>403</v>
       </c>
       <c r="N40">
         <v>0</v>
@@ -3352,22 +3544,22 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I41" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J41" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K41" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -3396,22 +3588,22 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I42" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J42" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K42" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L42" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -3440,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I43" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J43" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K43" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L43" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>341</v>
+        <v>400</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -3487,19 +3679,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J44" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K44" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -3528,22 +3720,22 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I45" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J45" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K45" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L45" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="N45">
         <v>0</v>
@@ -3572,22 +3764,22 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I46" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J46" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K46" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L46" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -3616,22 +3808,22 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I47" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J47" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K47" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L47" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -3660,22 +3852,22 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I48" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J48" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K48" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L48" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3704,22 +3896,22 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I49" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J49" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K49" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L49" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>346</v>
+        <v>405</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -3748,22 +3940,22 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I50" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J50" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K50" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L50" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3792,22 +3984,22 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I51" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J51" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K51" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L51" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>349</v>
+        <v>408</v>
       </c>
       <c r="N51">
         <v>0</v>
@@ -3836,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I52" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J52" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K52" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L52" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>350</v>
+        <v>409</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3880,22 +4072,22 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I53" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J53" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K53" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L53" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -3924,22 +4116,22 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I54" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J54" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K54" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L54" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3968,22 +4160,22 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I55" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J55" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K55" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L55" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -4015,19 +4207,19 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J56" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K56" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L56" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -4056,22 +4248,22 @@
         <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I57" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J57" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K57" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L57" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>352</v>
+        <v>411</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -4100,22 +4292,22 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I58" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J58" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K58" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L58" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -4144,22 +4336,22 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I59" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J59" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K59" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L59" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -4188,22 +4380,22 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I60" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J60" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K60" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L60" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -4232,22 +4424,22 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I61" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J61" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K61" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L61" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -4276,22 +4468,22 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I62" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J62" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K62" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L62" t="s">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="N62">
         <v>0</v>
@@ -4320,22 +4512,22 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="I63" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J63" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K63" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L63" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -4364,22 +4556,22 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I64" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J64" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K64" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L64" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -4408,22 +4600,22 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I65" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J65" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K65" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L65" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="N65">
         <v>0</v>
@@ -4452,22 +4644,22 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I66" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J66" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K66" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L66" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -4496,22 +4688,22 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I67" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J67" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K67" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L67" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -4540,22 +4732,22 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I68" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J68" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K68" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L68" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -4584,22 +4776,22 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I69" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J69" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K69" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L69" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4628,22 +4820,22 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I70" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J70" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K70" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L70" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -4672,22 +4864,22 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I71" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J71" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K71" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L71" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4716,22 +4908,22 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="I72" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J72" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K72" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L72" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>351</v>
+        <v>410</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4745,37 +4937,37 @@
         <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D73" t="s">
         <v>117</v>
       </c>
       <c r="E73">
-        <v>14.1487352</v>
+        <v>13.77344774</v>
       </c>
       <c r="F73">
-        <v>100.6155778</v>
+        <v>100.4833544</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73" t="s">
-        <v>222</v>
-      </c>
-      <c r="I73" t="s">
-        <v>224</v>
-      </c>
-      <c r="J73" t="s">
-        <v>226</v>
-      </c>
-      <c r="K73" t="s">
-        <v>223</v>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>355</v>
+        <v>414</v>
       </c>
       <c r="N73">
         <v>0</v>
@@ -4786,7 +4978,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
         <v>37</v>
@@ -4795,31 +4987,31 @@
         <v>118</v>
       </c>
       <c r="E74">
-        <v>13.8057625</v>
+        <v>14.1487352</v>
       </c>
       <c r="F74">
-        <v>100.6621959</v>
+        <v>100.6155778</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="I74" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J74" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K74" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L74" t="s">
-        <v>264</v>
+        <v>331</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4839,31 +5031,31 @@
         <v>119</v>
       </c>
       <c r="E75">
-        <v>14.01215068</v>
+        <v>13.8057625</v>
       </c>
       <c r="F75">
-        <v>100.17523</v>
+        <v>100.6621959</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="I75" t="s">
-        <v>224</v>
+        <v>277</v>
       </c>
       <c r="J75" t="s">
-        <v>226</v>
+        <v>279</v>
       </c>
       <c r="K75" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L75" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -4874,7 +5066,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
         <v>37</v>
@@ -4883,31 +5075,31 @@
         <v>120</v>
       </c>
       <c r="E76">
-        <v>13.8134088</v>
+        <v>14.01215068</v>
       </c>
       <c r="F76">
-        <v>100.5